--- a/data/total_steam_titles.xlsx
+++ b/data/total_steam_titles.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenwang/Desktop/Makers/Roblox_Streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenwang/Desktop/Makers/Steam_Roblox_Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E31589-AF96-AE4B-BDD5-A050C4B64E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9755F80-FA37-8046-9E9D-5285A94A9F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="1240" windowWidth="24960" windowHeight="16760" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-07-18" sheetId="1" r:id="rId1"/>
-    <sheet name="2024-07-11" sheetId="2" r:id="rId2"/>
+    <sheet name="2024-07-23" sheetId="3" r:id="rId1"/>
+    <sheet name="2024-07-18" sheetId="1" r:id="rId2"/>
+    <sheet name="2024-07-11" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="550">
   <si>
     <t>Game</t>
   </si>
@@ -1679,6 +1680,15 @@
   </si>
   <si>
     <t>https://store.steampowered.com/app/1974050/Torchlight_Infinite?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>FromSoftware, Inc.</t>
+  </si>
+  <si>
+    <t>Battlefield‚Ñ¢ 2042 is a first-person shooter that marks the return to the iconic all-out warfare of the franchise.</t>
+  </si>
+  <si>
+    <t>Landfall</t>
   </si>
 </sst>
 </file>
@@ -2058,10 +2068,3806 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3978525E-3F5E-9048-BC93-38E6C42116E5}">
+  <dimension ref="A1:L101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>382</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43090</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>20525</v>
+      </c>
+      <c r="J2">
+        <v>2399234</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>346</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41464</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>20924</v>
+      </c>
+      <c r="J3">
+        <v>2280816</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45473</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>67181</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>623</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>67944</v>
+      </c>
+      <c r="J5">
+        <v>8168969</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>125</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44616</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G7" t="s">
+        <v>547</v>
+      </c>
+      <c r="H7" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I7">
+        <v>47657</v>
+      </c>
+      <c r="J7">
+        <v>681149</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>193</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>82284</v>
+      </c>
+      <c r="J8">
+        <v>918863</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45482</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>50192</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>-3</v>
+      </c>
+      <c r="C10">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I10">
+        <v>11130</v>
+      </c>
+      <c r="J10">
+        <v>562486</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45463</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G11" t="s">
+        <v>547</v>
+      </c>
+      <c r="H11" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I11">
+        <v>36260</v>
+      </c>
+      <c r="J11">
+        <v>74979</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>-2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45462</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="I12">
+        <v>15391</v>
+      </c>
+      <c r="J12">
+        <v>18846</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>-4</v>
+      </c>
+      <c r="C13">
+        <v>153</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44419</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>9201</v>
+      </c>
+      <c r="J13">
+        <v>238173</v>
+      </c>
+      <c r="K13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14">
+        <v>-3</v>
+      </c>
+      <c r="C14">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44174</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I14">
+        <v>8710</v>
+      </c>
+      <c r="J14">
+        <v>668206</v>
+      </c>
+      <c r="K14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43739</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <v>4642</v>
+      </c>
+      <c r="J15">
+        <v>607354</v>
+      </c>
+      <c r="K15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>-2</v>
+      </c>
+      <c r="C16">
+        <v>496</v>
+      </c>
+      <c r="D16" s="1">
+        <v>42108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="2">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="I16">
+        <v>23641</v>
+      </c>
+      <c r="J16">
+        <v>1677214</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45523</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K17" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18">
+        <v>-5</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43804</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I18">
+        <v>14648</v>
+      </c>
+      <c r="J18">
+        <v>550821</v>
+      </c>
+      <c r="K18" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <v>-2</v>
+      </c>
+      <c r="C19">
+        <v>241</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41501</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>11615</v>
+      </c>
+      <c r="J19">
+        <v>512752</v>
+      </c>
+      <c r="K19" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>-8</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44264</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I20">
+        <v>17736</v>
+      </c>
+      <c r="J20">
+        <v>220264</v>
+      </c>
+      <c r="K20" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>-3</v>
+      </c>
+      <c r="C21">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I21">
+        <v>10114</v>
+      </c>
+      <c r="J21">
+        <v>79239</v>
+      </c>
+      <c r="K21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I22">
+        <v>8231</v>
+      </c>
+      <c r="J22">
+        <v>269281</v>
+      </c>
+      <c r="K22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44579</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <v>1014</v>
+      </c>
+      <c r="J23">
+        <v>75171</v>
+      </c>
+      <c r="K23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>453</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42339</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I24">
+        <v>10402</v>
+      </c>
+      <c r="J24">
+        <v>1107988</v>
+      </c>
+      <c r="K24" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25">
+        <v>-5</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42426</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="I25">
+        <v>16701</v>
+      </c>
+      <c r="J25">
+        <v>626295</v>
+      </c>
+      <c r="K25" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41358</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>5035</v>
+      </c>
+      <c r="J26">
+        <v>584441</v>
+      </c>
+      <c r="K26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>473</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I27">
+        <v>13837</v>
+      </c>
+      <c r="J27">
+        <v>897726</v>
+      </c>
+      <c r="K27" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45284</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28">
+        <v>930</v>
+      </c>
+      <c r="J28">
+        <v>4389</v>
+      </c>
+      <c r="K28" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29">
+        <v>-5</v>
+      </c>
+      <c r="C29">
+        <v>381</v>
+      </c>
+      <c r="D29" s="1">
+        <v>42535</v>
+      </c>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I29">
+        <v>5492</v>
+      </c>
+      <c r="J29">
+        <v>531801</v>
+      </c>
+      <c r="K29" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>9473</v>
+      </c>
+      <c r="J30">
+        <v>283116</v>
+      </c>
+      <c r="K30" t="s">
+        <v>153</v>
+      </c>
+      <c r="L30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31">
+        <v>-4</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1">
+        <v>41688</v>
+      </c>
+      <c r="E31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I31">
+        <v>1182</v>
+      </c>
+      <c r="J31">
+        <v>69399</v>
+      </c>
+      <c r="K31" t="s">
+        <v>158</v>
+      </c>
+      <c r="L31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32">
+        <v>-13</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>42142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I32">
+        <v>8942</v>
+      </c>
+      <c r="J32">
+        <v>718431</v>
+      </c>
+      <c r="K32" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33">
+        <v>-10</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1">
+        <v>41200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I33">
+        <v>13778</v>
+      </c>
+      <c r="J33">
+        <v>584173</v>
+      </c>
+      <c r="K33" t="s">
+        <v>166</v>
+      </c>
+      <c r="L33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34">
+        <v>-12</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44967</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I34">
+        <v>4645</v>
+      </c>
+      <c r="J34">
+        <v>197179</v>
+      </c>
+      <c r="K34" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35">
+        <v>-9</v>
+      </c>
+      <c r="C35">
+        <v>151</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44508</v>
+      </c>
+      <c r="E35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I35">
+        <v>5396</v>
+      </c>
+      <c r="J35">
+        <v>172206</v>
+      </c>
+      <c r="K35" t="s">
+        <v>175</v>
+      </c>
+      <c r="L35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36">
+        <v>-4</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45456</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I36">
+        <v>1272</v>
+      </c>
+      <c r="J36">
+        <v>3736</v>
+      </c>
+      <c r="K36" t="s">
+        <v>178</v>
+      </c>
+      <c r="L36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45343</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="2">
+        <v>34.99</v>
+      </c>
+      <c r="I37">
+        <v>2689</v>
+      </c>
+      <c r="J37">
+        <v>87344</v>
+      </c>
+      <c r="K37" t="s">
+        <v>183</v>
+      </c>
+      <c r="L37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>105</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44862</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I38">
+        <v>4781</v>
+      </c>
+      <c r="J38">
+        <v>323487</v>
+      </c>
+      <c r="K38" t="s">
+        <v>188</v>
+      </c>
+      <c r="L38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39">
+        <v>-11</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43545</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>547</v>
+      </c>
+      <c r="G39" t="s">
+        <v>192</v>
+      </c>
+      <c r="H39" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I39">
+        <v>4941</v>
+      </c>
+      <c r="J39">
+        <v>212001</v>
+      </c>
+      <c r="K39" t="s">
+        <v>193</v>
+      </c>
+      <c r="L39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40">
+        <v>-2</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>42663</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H40" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I40">
+        <v>5361</v>
+      </c>
+      <c r="J40">
+        <v>232717</v>
+      </c>
+      <c r="K40" t="s">
+        <v>199</v>
+      </c>
+      <c r="L40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41">
+        <v>-1</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43935</v>
+      </c>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I41">
+        <v>1410</v>
+      </c>
+      <c r="J41">
+        <v>60156</v>
+      </c>
+      <c r="K41" t="s">
+        <v>204</v>
+      </c>
+      <c r="L41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45420</v>
+      </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" t="s">
+        <v>207</v>
+      </c>
+      <c r="H42" s="2">
+        <v>34.99</v>
+      </c>
+      <c r="I42">
+        <v>1995</v>
+      </c>
+      <c r="J42">
+        <v>84063</v>
+      </c>
+      <c r="K42" t="s">
+        <v>208</v>
+      </c>
+      <c r="L42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43">
+        <v>-13</v>
+      </c>
+      <c r="C43">
+        <v>195</v>
+      </c>
+      <c r="D43" s="1">
+        <v>41884</v>
+      </c>
+      <c r="E43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43">
+        <v>4215</v>
+      </c>
+      <c r="J43">
+        <v>144202</v>
+      </c>
+      <c r="K43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45330</v>
+      </c>
+      <c r="E44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I44">
+        <v>6261</v>
+      </c>
+      <c r="J44">
+        <v>652529</v>
+      </c>
+      <c r="K44" t="s">
+        <v>218</v>
+      </c>
+      <c r="L44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>132</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44603</v>
+      </c>
+      <c r="E45" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45">
+        <v>571</v>
+      </c>
+      <c r="J45">
+        <v>200119</v>
+      </c>
+      <c r="K45" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46">
+        <v>-10</v>
+      </c>
+      <c r="C46">
+        <v>73</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I46">
+        <v>3732</v>
+      </c>
+      <c r="J46">
+        <v>178770</v>
+      </c>
+      <c r="K46" t="s">
+        <v>230</v>
+      </c>
+      <c r="L46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47">
+        <v>-12</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45194</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I47">
+        <v>462</v>
+      </c>
+      <c r="J47">
+        <v>15100</v>
+      </c>
+      <c r="L47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42811</v>
+      </c>
+      <c r="E48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s">
+        <v>235</v>
+      </c>
+      <c r="G48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I48">
+        <v>1392</v>
+      </c>
+      <c r="J48">
+        <v>95841</v>
+      </c>
+      <c r="K48" t="s">
+        <v>236</v>
+      </c>
+      <c r="L48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>495</v>
+      </c>
+      <c r="D49" s="1">
+        <v>41733</v>
+      </c>
+      <c r="E49" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" t="s">
+        <v>240</v>
+      </c>
+      <c r="G49" t="s">
+        <v>203</v>
+      </c>
+      <c r="H49" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I49">
+        <v>764</v>
+      </c>
+      <c r="J49">
+        <v>121812</v>
+      </c>
+      <c r="K49" t="s">
+        <v>241</v>
+      </c>
+      <c r="L49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45187</v>
+      </c>
+      <c r="E50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I50">
+        <v>1733</v>
+      </c>
+      <c r="J50">
+        <v>28916</v>
+      </c>
+      <c r="K50" t="s">
+        <v>245</v>
+      </c>
+      <c r="L50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45450</v>
+      </c>
+      <c r="E51" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" t="s">
+        <v>249</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51">
+        <v>11607</v>
+      </c>
+      <c r="J51">
+        <v>38298</v>
+      </c>
+      <c r="K51" t="s">
+        <v>250</v>
+      </c>
+      <c r="L51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52">
+        <v>-18</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45408</v>
+      </c>
+      <c r="E52" t="s">
+        <v>253</v>
+      </c>
+      <c r="F52" t="s">
+        <v>254</v>
+      </c>
+      <c r="G52" t="s">
+        <v>255</v>
+      </c>
+      <c r="H52" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I52">
+        <v>2492</v>
+      </c>
+      <c r="J52">
+        <v>44649</v>
+      </c>
+      <c r="K52" t="s">
+        <v>256</v>
+      </c>
+      <c r="L52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53">
+        <v>-1</v>
+      </c>
+      <c r="C53">
+        <v>177</v>
+      </c>
+      <c r="D53" s="1">
+        <v>42879</v>
+      </c>
+      <c r="E53" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" t="s">
+        <v>260</v>
+      </c>
+      <c r="G53" t="s">
+        <v>260</v>
+      </c>
+      <c r="H53" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="I53">
+        <v>744</v>
+      </c>
+      <c r="J53">
+        <v>55695</v>
+      </c>
+      <c r="K53" t="s">
+        <v>261</v>
+      </c>
+      <c r="L53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54">
+        <v>-7</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" t="s">
+        <v>264</v>
+      </c>
+      <c r="G54" t="s">
+        <v>264</v>
+      </c>
+      <c r="H54" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I54">
+        <v>1560</v>
+      </c>
+      <c r="J54">
+        <v>27593</v>
+      </c>
+      <c r="K54" t="s">
+        <v>265</v>
+      </c>
+      <c r="L54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55">
+        <v>-5</v>
+      </c>
+      <c r="C55">
+        <v>22</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43985</v>
+      </c>
+      <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I55">
+        <v>3695</v>
+      </c>
+      <c r="J55">
+        <v>289121</v>
+      </c>
+      <c r="K55" t="s">
+        <v>269</v>
+      </c>
+      <c r="L55" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>271</v>
+      </c>
+      <c r="B56">
+        <v>-12</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>42402</v>
+      </c>
+      <c r="E56" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I56">
+        <v>3136</v>
+      </c>
+      <c r="J56">
+        <v>127905</v>
+      </c>
+      <c r="K56" t="s">
+        <v>272</v>
+      </c>
+      <c r="L56" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57">
+        <v>-18</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44608</v>
+      </c>
+      <c r="E57" t="s">
+        <v>275</v>
+      </c>
+      <c r="F57" t="s">
+        <v>276</v>
+      </c>
+      <c r="G57" t="s">
+        <v>277</v>
+      </c>
+      <c r="H57" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I57">
+        <v>1663</v>
+      </c>
+      <c r="J57">
+        <v>73803</v>
+      </c>
+      <c r="K57" t="s">
+        <v>278</v>
+      </c>
+      <c r="L57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58">
+        <v>-15</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44519</v>
+      </c>
+      <c r="E58" t="s">
+        <v>281</v>
+      </c>
+      <c r="F58" t="s">
+        <v>282</v>
+      </c>
+      <c r="G58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I58">
+        <v>5330</v>
+      </c>
+      <c r="J58">
+        <v>208997</v>
+      </c>
+      <c r="K58" t="s">
+        <v>548</v>
+      </c>
+      <c r="L58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59">
+        <v>-13</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45240</v>
+      </c>
+      <c r="E59" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" t="s">
+        <v>186</v>
+      </c>
+      <c r="G59" t="s">
+        <v>187</v>
+      </c>
+      <c r="H59" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I59">
+        <v>497</v>
+      </c>
+      <c r="J59">
+        <v>10083</v>
+      </c>
+      <c r="K59" t="s">
+        <v>286</v>
+      </c>
+      <c r="L59" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>288</v>
+      </c>
+      <c r="B60">
+        <v>-19</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45273</v>
+      </c>
+      <c r="E60" t="s">
+        <v>289</v>
+      </c>
+      <c r="F60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G60" t="s">
+        <v>290</v>
+      </c>
+      <c r="H60" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I60">
+        <v>4329</v>
+      </c>
+      <c r="J60">
+        <v>145278</v>
+      </c>
+      <c r="K60" t="s">
+        <v>291</v>
+      </c>
+      <c r="L60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44092</v>
+      </c>
+      <c r="E61" t="s">
+        <v>294</v>
+      </c>
+      <c r="F61" t="s">
+        <v>295</v>
+      </c>
+      <c r="G61" t="s">
+        <v>295</v>
+      </c>
+      <c r="H61" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="I61">
+        <v>9835</v>
+      </c>
+      <c r="J61">
+        <v>564258</v>
+      </c>
+      <c r="K61" t="s">
+        <v>296</v>
+      </c>
+      <c r="L61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45428</v>
+      </c>
+      <c r="E62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" t="s">
+        <v>299</v>
+      </c>
+      <c r="G62" t="s">
+        <v>217</v>
+      </c>
+      <c r="H62" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I62">
+        <v>2786</v>
+      </c>
+      <c r="J62">
+        <v>23946</v>
+      </c>
+      <c r="K62" t="s">
+        <v>300</v>
+      </c>
+      <c r="L62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45539</v>
+      </c>
+      <c r="E63" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" t="s">
+        <v>303</v>
+      </c>
+      <c r="G63" t="s">
+        <v>103</v>
+      </c>
+      <c r="H63" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="K63" t="s">
+        <v>304</v>
+      </c>
+      <c r="L63" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43846</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>307</v>
+      </c>
+      <c r="G64" t="s">
+        <v>308</v>
+      </c>
+      <c r="H64" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I64">
+        <v>753</v>
+      </c>
+      <c r="J64">
+        <v>38190</v>
+      </c>
+      <c r="K64" t="s">
+        <v>309</v>
+      </c>
+      <c r="L64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>311</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>39365</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65">
+        <v>10794</v>
+      </c>
+      <c r="J65">
+        <v>1110984</v>
+      </c>
+      <c r="K65" t="s">
+        <v>312</v>
+      </c>
+      <c r="L65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>314</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45484</v>
+      </c>
+      <c r="E66" t="s">
+        <v>315</v>
+      </c>
+      <c r="F66" t="s">
+        <v>316</v>
+      </c>
+      <c r="G66" t="s">
+        <v>317</v>
+      </c>
+      <c r="H66" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="I66">
+        <v>1066</v>
+      </c>
+      <c r="K66" t="s">
+        <v>318</v>
+      </c>
+      <c r="L66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67">
+        <v>-8</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43390</v>
+      </c>
+      <c r="E67" t="s">
+        <v>321</v>
+      </c>
+      <c r="F67" t="s">
+        <v>322</v>
+      </c>
+      <c r="G67" t="s">
+        <v>322</v>
+      </c>
+      <c r="H67" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I67">
+        <v>2017</v>
+      </c>
+      <c r="J67">
+        <v>161126</v>
+      </c>
+      <c r="K67" t="s">
+        <v>323</v>
+      </c>
+      <c r="L67" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>325</v>
+      </c>
+      <c r="B68">
+        <v>-13</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45342</v>
+      </c>
+      <c r="E68" t="s">
+        <v>326</v>
+      </c>
+      <c r="F68" t="s">
+        <v>327</v>
+      </c>
+      <c r="G68" t="s">
+        <v>327</v>
+      </c>
+      <c r="H68" s="2">
+        <v>12.99</v>
+      </c>
+      <c r="I68">
+        <v>5774</v>
+      </c>
+      <c r="J68">
+        <v>42434</v>
+      </c>
+      <c r="K68" t="s">
+        <v>328</v>
+      </c>
+      <c r="L68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>330</v>
+      </c>
+      <c r="B69">
+        <v>-15</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>45105</v>
+      </c>
+      <c r="E69" t="s">
+        <v>331</v>
+      </c>
+      <c r="F69" t="s">
+        <v>332</v>
+      </c>
+      <c r="G69" t="s">
+        <v>332</v>
+      </c>
+      <c r="H69" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I69">
+        <v>4328</v>
+      </c>
+      <c r="J69">
+        <v>99391</v>
+      </c>
+      <c r="K69" t="s">
+        <v>333</v>
+      </c>
+      <c r="L69" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44595</v>
+      </c>
+      <c r="E70" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" t="s">
+        <v>336</v>
+      </c>
+      <c r="G70" t="s">
+        <v>336</v>
+      </c>
+      <c r="H70" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I70">
+        <v>2021</v>
+      </c>
+      <c r="J70">
+        <v>129291</v>
+      </c>
+      <c r="K70" t="s">
+        <v>337</v>
+      </c>
+      <c r="L70" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71">
+        <v>19</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45222</v>
+      </c>
+      <c r="E71" t="s">
+        <v>340</v>
+      </c>
+      <c r="F71" t="s">
+        <v>341</v>
+      </c>
+      <c r="G71" t="s">
+        <v>341</v>
+      </c>
+      <c r="H71" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="I71">
+        <v>9752</v>
+      </c>
+      <c r="J71">
+        <v>335990</v>
+      </c>
+      <c r="K71" t="s">
+        <v>342</v>
+      </c>
+      <c r="L71" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>344</v>
+      </c>
+      <c r="B72">
+        <v>-9</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>42527</v>
+      </c>
+      <c r="E72" t="s">
+        <v>345</v>
+      </c>
+      <c r="F72" t="s">
+        <v>346</v>
+      </c>
+      <c r="G72" t="s">
+        <v>347</v>
+      </c>
+      <c r="H72" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I72">
+        <v>3581</v>
+      </c>
+      <c r="J72">
+        <v>213479</v>
+      </c>
+      <c r="K72" t="s">
+        <v>348</v>
+      </c>
+      <c r="L72" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>350</v>
+      </c>
+      <c r="B73">
+        <v>-1</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45324</v>
+      </c>
+      <c r="E73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" t="s">
+        <v>351</v>
+      </c>
+      <c r="G73" t="s">
+        <v>277</v>
+      </c>
+      <c r="H73" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I73">
+        <v>1067</v>
+      </c>
+      <c r="J73">
+        <v>17048</v>
+      </c>
+      <c r="K73" t="s">
+        <v>352</v>
+      </c>
+      <c r="L73" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B74">
+        <v>-32</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44949</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" t="s">
+        <v>355</v>
+      </c>
+      <c r="G74" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I74">
+        <v>2997</v>
+      </c>
+      <c r="J74">
+        <v>20547</v>
+      </c>
+      <c r="K74" t="s">
+        <v>356</v>
+      </c>
+      <c r="L74" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>358</v>
+      </c>
+      <c r="B75">
+        <v>-15</v>
+      </c>
+      <c r="C75">
+        <v>14</v>
+      </c>
+      <c r="D75" s="1">
+        <v>42499</v>
+      </c>
+      <c r="E75" t="s">
+        <v>345</v>
+      </c>
+      <c r="F75" t="s">
+        <v>346</v>
+      </c>
+      <c r="G75" t="s">
+        <v>347</v>
+      </c>
+      <c r="H75" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I75">
+        <v>1054</v>
+      </c>
+      <c r="J75">
+        <v>117985</v>
+      </c>
+      <c r="K75" t="s">
+        <v>359</v>
+      </c>
+      <c r="L75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76">
+        <v>-31</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44509</v>
+      </c>
+      <c r="E76" t="s">
+        <v>345</v>
+      </c>
+      <c r="F76" t="s">
+        <v>362</v>
+      </c>
+      <c r="G76" t="s">
+        <v>362</v>
+      </c>
+      <c r="H76" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I76">
+        <v>1773</v>
+      </c>
+      <c r="J76">
+        <v>24635</v>
+      </c>
+      <c r="K76" t="s">
+        <v>363</v>
+      </c>
+      <c r="L76" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>365</v>
+      </c>
+      <c r="B77">
+        <v>-28</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>42314</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" t="s">
+        <v>366</v>
+      </c>
+      <c r="G77" t="s">
+        <v>187</v>
+      </c>
+      <c r="H77" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="I77">
+        <v>2516</v>
+      </c>
+      <c r="J77">
+        <v>128812</v>
+      </c>
+      <c r="K77" t="s">
+        <v>367</v>
+      </c>
+      <c r="L77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>369</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3">
+        <v>43405</v>
+      </c>
+      <c r="E78" t="s">
+        <v>370</v>
+      </c>
+      <c r="F78" t="s">
+        <v>371</v>
+      </c>
+      <c r="G78" t="s">
+        <v>371</v>
+      </c>
+      <c r="H78" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="I78">
+        <v>11948</v>
+      </c>
+      <c r="J78">
+        <v>741388</v>
+      </c>
+      <c r="K78" t="s">
+        <v>372</v>
+      </c>
+      <c r="L78" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>374</v>
+      </c>
+      <c r="B79">
+        <v>-14</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>41586</v>
+      </c>
+      <c r="E79" t="s">
+        <v>375</v>
+      </c>
+      <c r="F79" t="s">
+        <v>376</v>
+      </c>
+      <c r="G79" t="s">
+        <v>376</v>
+      </c>
+      <c r="H79" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I79">
+        <v>6027</v>
+      </c>
+      <c r="J79">
+        <v>235042</v>
+      </c>
+      <c r="K79" t="s">
+        <v>377</v>
+      </c>
+      <c r="L79" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>379</v>
+      </c>
+      <c r="B80">
+        <v>-11</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>43320</v>
+      </c>
+      <c r="E80" t="s">
+        <v>123</v>
+      </c>
+      <c r="F80" t="s">
+        <v>264</v>
+      </c>
+      <c r="G80" t="s">
+        <v>264</v>
+      </c>
+      <c r="H80" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I80">
+        <v>3256</v>
+      </c>
+      <c r="J80">
+        <v>270499</v>
+      </c>
+      <c r="K80" t="s">
+        <v>380</v>
+      </c>
+      <c r="L80" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>382</v>
+      </c>
+      <c r="B81">
+        <v>-15</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>44280</v>
+      </c>
+      <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" t="s">
+        <v>383</v>
+      </c>
+      <c r="G81" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I81">
+        <v>3010</v>
+      </c>
+      <c r="J81">
+        <v>145927</v>
+      </c>
+      <c r="K81" t="s">
+        <v>384</v>
+      </c>
+      <c r="L81" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>386</v>
+      </c>
+      <c r="B82">
+        <v>-20</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>44581</v>
+      </c>
+      <c r="E82" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" t="s">
+        <v>387</v>
+      </c>
+      <c r="G82" t="s">
+        <v>387</v>
+      </c>
+      <c r="H82" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I82">
+        <v>2232</v>
+      </c>
+      <c r="J82">
+        <v>24901</v>
+      </c>
+      <c r="K82" t="s">
+        <v>388</v>
+      </c>
+      <c r="L82" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>390</v>
+      </c>
+      <c r="B83">
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45450</v>
+      </c>
+      <c r="E83" t="s">
+        <v>391</v>
+      </c>
+      <c r="F83" t="s">
+        <v>392</v>
+      </c>
+      <c r="G83" t="s">
+        <v>392</v>
+      </c>
+      <c r="H83" s="2">
+        <v>33.32</v>
+      </c>
+      <c r="I83">
+        <v>3609</v>
+      </c>
+      <c r="J83">
+        <v>19133</v>
+      </c>
+      <c r="K83" t="s">
+        <v>393</v>
+      </c>
+      <c r="L83" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>395</v>
+      </c>
+      <c r="B84">
+        <v>-13</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>45162</v>
+      </c>
+      <c r="E84" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" t="s">
+        <v>547</v>
+      </c>
+      <c r="G84" t="s">
+        <v>547</v>
+      </c>
+      <c r="H84" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I84">
+        <v>1197</v>
+      </c>
+      <c r="J84">
+        <v>54315</v>
+      </c>
+      <c r="K84" t="s">
+        <v>396</v>
+      </c>
+      <c r="L84" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>398</v>
+      </c>
+      <c r="B85">
+        <v>-6</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1">
+        <v>44075</v>
+      </c>
+      <c r="E85" t="s">
+        <v>399</v>
+      </c>
+      <c r="F85" t="s">
+        <v>346</v>
+      </c>
+      <c r="G85" t="s">
+        <v>347</v>
+      </c>
+      <c r="H85" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I85">
+        <v>942</v>
+      </c>
+      <c r="J85">
+        <v>71316</v>
+      </c>
+      <c r="K85" t="s">
+        <v>400</v>
+      </c>
+      <c r="L85" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86">
+        <v>-5</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>44060</v>
+      </c>
+      <c r="E86" t="s">
+        <v>403</v>
+      </c>
+      <c r="F86" t="s">
+        <v>404</v>
+      </c>
+      <c r="G86" t="s">
+        <v>103</v>
+      </c>
+      <c r="H86" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I86">
+        <v>1081</v>
+      </c>
+      <c r="J86">
+        <v>57341</v>
+      </c>
+      <c r="K86" t="s">
+        <v>405</v>
+      </c>
+      <c r="L86" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87">
+        <v>-5</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>44732</v>
+      </c>
+      <c r="E87" t="s">
+        <v>408</v>
+      </c>
+      <c r="F87" t="s">
+        <v>409</v>
+      </c>
+      <c r="G87" t="s">
+        <v>410</v>
+      </c>
+      <c r="H87" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I87">
+        <v>3950</v>
+      </c>
+      <c r="J87">
+        <v>271798</v>
+      </c>
+      <c r="K87" t="s">
+        <v>411</v>
+      </c>
+      <c r="L87" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>413</v>
+      </c>
+      <c r="B88">
+        <v>-24</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45322</v>
+      </c>
+      <c r="E88" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" t="s">
+        <v>414</v>
+      </c>
+      <c r="G88" t="s">
+        <v>414</v>
+      </c>
+      <c r="H88" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I88">
+        <v>748</v>
+      </c>
+      <c r="J88">
+        <v>30962</v>
+      </c>
+      <c r="K88" t="s">
+        <v>415</v>
+      </c>
+      <c r="L88" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>417</v>
+      </c>
+      <c r="B89">
+        <v>-32</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45372</v>
+      </c>
+      <c r="E89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" t="s">
+        <v>418</v>
+      </c>
+      <c r="G89" t="s">
+        <v>217</v>
+      </c>
+      <c r="H89" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I89">
+        <v>1010</v>
+      </c>
+      <c r="J89">
+        <v>9960</v>
+      </c>
+      <c r="K89" t="s">
+        <v>419</v>
+      </c>
+      <c r="L89" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>421</v>
+      </c>
+      <c r="B90">
+        <v>-39</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>43413</v>
+      </c>
+      <c r="E90" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" t="s">
+        <v>282</v>
+      </c>
+      <c r="G90" t="s">
+        <v>44</v>
+      </c>
+      <c r="H90" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I90">
+        <v>7579</v>
+      </c>
+      <c r="J90">
+        <v>189667</v>
+      </c>
+      <c r="K90" t="s">
+        <v>422</v>
+      </c>
+      <c r="L90" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>424</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45383</v>
+      </c>
+      <c r="E91" t="s">
+        <v>289</v>
+      </c>
+      <c r="F91" t="s">
+        <v>425</v>
+      </c>
+      <c r="G91" t="s">
+        <v>549</v>
+      </c>
+      <c r="H91" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="I91">
+        <v>4998</v>
+      </c>
+      <c r="J91">
+        <v>29049</v>
+      </c>
+      <c r="K91" t="s">
+        <v>427</v>
+      </c>
+      <c r="L91" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>429</v>
+      </c>
+      <c r="B92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>43990</v>
+      </c>
+      <c r="E92" t="s">
+        <v>430</v>
+      </c>
+      <c r="F92" t="s">
+        <v>431</v>
+      </c>
+      <c r="G92" t="s">
+        <v>432</v>
+      </c>
+      <c r="H92" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I92">
+        <v>2757</v>
+      </c>
+      <c r="J92">
+        <v>141467</v>
+      </c>
+      <c r="K92" t="s">
+        <v>433</v>
+      </c>
+      <c r="L92" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>435</v>
+      </c>
+      <c r="B93">
+        <v>-16</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>45315</v>
+      </c>
+      <c r="E93" t="s">
+        <v>436</v>
+      </c>
+      <c r="F93" t="s">
+        <v>437</v>
+      </c>
+      <c r="G93" t="s">
+        <v>437</v>
+      </c>
+      <c r="H93" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I93">
+        <v>1356</v>
+      </c>
+      <c r="J93">
+        <v>47724</v>
+      </c>
+      <c r="K93" t="s">
+        <v>438</v>
+      </c>
+      <c r="L93" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>440</v>
+      </c>
+      <c r="B94">
+        <v>-24</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1">
+        <v>42178</v>
+      </c>
+      <c r="E94" t="s">
+        <v>81</v>
+      </c>
+      <c r="F94" t="s">
+        <v>441</v>
+      </c>
+      <c r="G94" t="s">
+        <v>442</v>
+      </c>
+      <c r="H94" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I94">
+        <v>3050</v>
+      </c>
+      <c r="J94">
+        <v>83953</v>
+      </c>
+      <c r="K94" t="s">
+        <v>443</v>
+      </c>
+      <c r="L94" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>445</v>
+      </c>
+      <c r="B95">
+        <v>-37</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1">
+        <v>42800</v>
+      </c>
+      <c r="E95" t="s">
+        <v>81</v>
+      </c>
+      <c r="F95" t="s">
+        <v>446</v>
+      </c>
+      <c r="G95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H95" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I95">
+        <v>2955</v>
+      </c>
+      <c r="J95">
+        <v>75605</v>
+      </c>
+      <c r="K95" t="s">
+        <v>447</v>
+      </c>
+      <c r="L95" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>449</v>
+      </c>
+      <c r="B96">
+        <v>-35</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1">
+        <v>43017</v>
+      </c>
+      <c r="E96" t="s">
+        <v>87</v>
+      </c>
+      <c r="F96" t="s">
+        <v>450</v>
+      </c>
+      <c r="G96" t="s">
+        <v>442</v>
+      </c>
+      <c r="H96" t="s">
+        <v>451</v>
+      </c>
+      <c r="I96">
+        <v>1812</v>
+      </c>
+      <c r="J96">
+        <v>74303</v>
+      </c>
+      <c r="K96" t="s">
+        <v>452</v>
+      </c>
+      <c r="L96" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>454</v>
+      </c>
+      <c r="B97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>45498</v>
+      </c>
+      <c r="E97" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" t="s">
+        <v>455</v>
+      </c>
+      <c r="G97" t="s">
+        <v>456</v>
+      </c>
+      <c r="H97" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I97">
+        <v>1237</v>
+      </c>
+      <c r="K97" t="s">
+        <v>457</v>
+      </c>
+      <c r="L97" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>459</v>
+      </c>
+      <c r="B98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>45216</v>
+      </c>
+      <c r="E98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98" t="s">
+        <v>152</v>
+      </c>
+      <c r="H98" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I98">
+        <v>943</v>
+      </c>
+      <c r="J98">
+        <v>20463</v>
+      </c>
+      <c r="K98" t="s">
+        <v>460</v>
+      </c>
+      <c r="L98" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>462</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E99" t="s">
+        <v>42</v>
+      </c>
+      <c r="F99" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I99">
+        <v>223</v>
+      </c>
+      <c r="J99">
+        <v>5024</v>
+      </c>
+      <c r="L99" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>464</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>44855</v>
+      </c>
+      <c r="E100" t="s">
+        <v>72</v>
+      </c>
+      <c r="F100" t="s">
+        <v>351</v>
+      </c>
+      <c r="G100" t="s">
+        <v>277</v>
+      </c>
+      <c r="H100" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I100">
+        <v>2044</v>
+      </c>
+      <c r="J100">
+        <v>50600</v>
+      </c>
+      <c r="K100" t="s">
+        <v>465</v>
+      </c>
+      <c r="L100" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>467</v>
+      </c>
+      <c r="B101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>43123</v>
+      </c>
+      <c r="E101" t="s">
+        <v>468</v>
+      </c>
+      <c r="F101" t="s">
+        <v>469</v>
+      </c>
+      <c r="G101" t="s">
+        <v>469</v>
+      </c>
+      <c r="H101" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I101">
+        <v>4797</v>
+      </c>
+      <c r="J101">
+        <v>250829</v>
+      </c>
+      <c r="K101" t="s">
+        <v>470</v>
+      </c>
+      <c r="L101" t="s">
+        <v>471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC291C4-96D0-D14C-9991-8EE742F649AB}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -5844,7 +9650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD458E3F-9E53-804A-9E7D-8111A280BFC8}">
   <dimension ref="A1:L101"/>
   <sheetViews>

--- a/data/total_steam_titles.xlsx
+++ b/data/total_steam_titles.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenwang/Desktop/Makers/Steam_Roblox_Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9755F80-FA37-8046-9E9D-5285A94A9F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C2EC83-DD6B-9742-88E2-446B1B457A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1240" windowWidth="24960" windowHeight="16760" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
+    <workbookView xWindow="4440" yWindow="1240" windowWidth="24960" windowHeight="16760" activeTab="1" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-07-23" sheetId="3" r:id="rId1"/>
-    <sheet name="2024-07-18" sheetId="1" r:id="rId2"/>
-    <sheet name="2024-07-11" sheetId="2" r:id="rId3"/>
+    <sheet name="2024-07-29" sheetId="4" r:id="rId1"/>
+    <sheet name="2024-07-23" sheetId="3" r:id="rId2"/>
+    <sheet name="2024-07-18" sheetId="1" r:id="rId3"/>
+    <sheet name="2024-07-11" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="700">
   <si>
     <t>Game</t>
   </si>
@@ -1689,6 +1690,457 @@
   </si>
   <si>
     <t>Landfall</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Hello Games</t>
+  </si>
+  <si>
+    <t>No Man's Sky is a game about exploration and survival in an infinite procedurally generated universe.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/275850/No_Mans_Sky?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Norland</t>
+  </si>
+  <si>
+    <t>Long Jaunt</t>
+  </si>
+  <si>
+    <t>Lead your noble family in this medieval colony sim, facing off against class conflict, religious struggle, and political treachery. Tend to your people‚Äôs needs, uncover the lost knowledge of a fallen empire, and engage in nefarious plots against your enemies.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1857090/Norland?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>The Outlast Trials</t>
+  </si>
+  <si>
+    <t>Red Barrels</t>
+  </si>
+  <si>
+    <t>Red Barrels invites you to experience mind-numbing terror, this time with friends. Whether you go through the trials alone or in teams, if you survive long enough and complete the therapy, Murkoff will happily let you leave‚Ä¶ but will you be the same?</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1304930/The_Outlast_Trials?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>GUILTY GEAR -STRIVE-</t>
+  </si>
+  <si>
+    <t>Arc System Works</t>
+  </si>
+  <si>
+    <t>The cutting-edge 2D/3D hybrid graphics pioneered in the Guilty Gear series have been raised to the next level in ‚ÄúGUILTY GEAR -STRIVE-‚Äú. The new artistic direction and improved character animations will go beyond anything you‚Äôve seen before in a fighting game!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1384160/GUILTY_GEAR_STRIVE?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>TEKKEN 8</t>
+  </si>
+  <si>
+    <t>Bandai Namco Studios Inc.</t>
+  </si>
+  <si>
+    <t>Bandai Namco Entertainment</t>
+  </si>
+  <si>
+    <t>Get ready for the next chapter in the legendary fighting game franchise, TEKKEN 8.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1778820/TEKKEN_8?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Nobody Wants to Die</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Critical Hit Games</t>
+  </si>
+  <si>
+    <t>PLAION</t>
+  </si>
+  <si>
+    <t>Lose yourself in the dystopian world of New York, 2329; immortality comes at a price that someone has to pay. In this interactive noir story, lead the investigation using advanced technology, as Detective James Karra who risks it all in pursuit of a serial killer targeting the city‚Äôs elite.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1939970/Nobody_Wants_to_Die?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Call of Duty¬Æ: Black Ops 6</t>
+  </si>
+  <si>
+    <t>Treyarch, Raven Software, Beenox, High Moon Studios, , , ,</t>
+  </si>
+  <si>
+    <t>Call of Duty¬Æ: Black Ops 6 is signature Black Ops across a cinematic single-player Campaign, a best-in-class Multiplayer experience and with the epic return of Round-Based Zombies.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2933620/Call_of_Duty_Black_Ops_6?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Pacific Drive</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Racing, Simulation</t>
+  </si>
+  <si>
+    <t>Ironwood Studios</t>
+  </si>
+  <si>
+    <t>Kepler Interactive</t>
+  </si>
+  <si>
+    <t>Face the supernatural dangers of the Olympic Exclusion Zone with a car as your only lifeline in this driving survival adventure! Scavenge resources, load up your trusty station wagon, and drive like hell to make it through alive.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1458140/Pacific_Drive?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Dead by Daylight - Tomb Raider Chapter</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/3024580/Dead_by_Daylight__Tomb_Raider_Chapter?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Magic: The Gathering Arena</t>
+  </si>
+  <si>
+    <t>Strategy, Free to Play</t>
+  </si>
+  <si>
+    <t>Wizards of the Coast LLC</t>
+  </si>
+  <si>
+    <t>Magic: The Gathering Arena empowers you to discover your strategy, meet the planeswalkers, explore the multiverse, and battle friends around the world. Start playing for free, challenge your friends, unlock cards, and feel the magic of the original fantasy CCG!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2141910/Magic_The_Gathering_Arena?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Valve Index¬Æ Headset</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1059530/Valve_Index_Headset?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>THRONE AND LIBERTY</t>
+  </si>
+  <si>
+    <t>NCSOFT</t>
+  </si>
+  <si>
+    <t>Welcome to THRONE AND LIBERTY, a free-to-play, multi-platform MMORPG. With an always changing environment, Massive Scale PvPvE, and the ability to transform into creatures to battle across land, sea, and air.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2429640/THRONE_AND_LIBERTY?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Path of Exile</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Massively Multiplayer, RPG, Free to Play</t>
+  </si>
+  <si>
+    <t>Grinding Gear Games</t>
+  </si>
+  <si>
+    <t>You are an Exile, struggling to survive on the dark continent of Wraeclast, as you fight to earn power that will allow you to exact your revenge against those who wronged you. Path of Exile is an online Action RPG set in a dark fantasy world. The game is completely free and will never be pay-to-win.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/238960/Path_of_Exile?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>THE FINALS</t>
+  </si>
+  <si>
+    <t>Embark Studios</t>
+  </si>
+  <si>
+    <t>Join THE FINALS, the world-famous, free-to-play, combat-centered game show! Fight alongside your teammates in virtual arenas that you can alter, exploit, and even destroy. Build your own playstyle in this first-person shooter to win escalating tournaments and lasting fame.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2073850/THE_FINALS?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>The Crust</t>
+  </si>
+  <si>
+    <t>VEOM Studio</t>
+  </si>
+  <si>
+    <t>Crytivo</t>
+  </si>
+  <si>
+    <t>Automate a lunar base as you become the savior of humanity exploring the future on the moon. Mine, craft, research, and trade resources with Earth in this gripping narrative basebuilder.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1465470/The_Crust?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Lust Goddess
+(hidden by your preferences)</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2808930/Lust_Goddess?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Granblue Fantasy Versus: Rising</t>
+  </si>
+  <si>
+    <t>Cygames, Inc., Arc System Works</t>
+  </si>
+  <si>
+    <t>Rise to the challenge in Granblue Fantasy Versus: Rising! This powered up, revamped sequel to GBVS is more enjoyable and accessible than ever before. With simplified input options, even newcomers can engage in thrilling and strategic matches!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2157560/Granblue_Fantasy_Versus_Rising?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>World of Warships</t>
+  </si>
+  <si>
+    <t>Wargaming Group Limited</t>
+  </si>
+  <si>
+    <t>Immerse yourself in thrilling naval battles and assemble an armada of over 600 ships from the first half of the 20th century ‚Äî from stealthy destroyers to gigantic battleships. Change the look of your ship, choose upgrades to suit your play style, and go into battle with other players!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/552990/World_of_Warships?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>EA Play</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1289670/EA_Play?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Mortal Kombat 1</t>
+  </si>
+  <si>
+    <t>NetherRealm Studios, QLOC</t>
+  </si>
+  <si>
+    <t>Discover a reborn Mortal Kombat‚Ñ¢ Universe created by the Fire God Liu Kang. Mortal Kombat‚Ñ¢ 1 ushers in a new era of the iconic franchise with a new fighting system, game modes, and fatalities!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1971870/Mortal_Kombat_1?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>STAR WARS‚Ñ¢: The Old Republic‚Ñ¢</t>
+  </si>
+  <si>
+    <t>Massively Multiplayer, RPG, Free to Play</t>
+  </si>
+  <si>
+    <t>Broadsword</t>
+  </si>
+  <si>
+    <t>STAR WARS‚Ñ¢: The Old Republic‚Ñ¢ is a free-to-play MMORPG that puts you at the center of your own story-driven saga. Play as a Jedi, Sith, Bounty Hunter, or one of many other iconic STAR WARS roles in the galaxy far, far away over three thousand years before the classic films.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1286830/STAR_WARS_The_Old_Republic?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>BeamNG.drive</t>
+  </si>
+  <si>
+    <t>Racing, Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>BeamNG</t>
+  </si>
+  <si>
+    <t>A dynamic soft-body physics vehicle simulator capable of doing just about anything.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/284160/BeamNGdrive?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Kunitsu-Gami: Path of the Goddess</t>
+  </si>
+  <si>
+    <t>A new tale of the Kami awaits... Kunitsu-Gami: Path of the Goddess is a unique Japanese-inspired, single player Kagura Action Strategy game.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2510710/KunitsuGami_Path_of_the_Goddess?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>SNK VS. CAPCOM SVC CHAOS</t>
+  </si>
+  <si>
+    <t>Code Mystics</t>
+  </si>
+  <si>
+    <t>SNK CORPORATION</t>
+  </si>
+  <si>
+    <t>SNK and CAPCOM legends clash in this star-studded crossover fighting game! The 2003 arcade hit SVC CHAOS is back and better than ever!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2442380/SNK_VS_CAPCOM_SVC_CHAOS?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>iRacing</t>
+  </si>
+  <si>
+    <t>Massively Multiplayer, Racing, Simulation, Sports</t>
+  </si>
+  <si>
+    <t>iRacing.com Motorsport Simulations,</t>
+  </si>
+  <si>
+    <t>iRacing.com Motorsport Simulations</t>
+  </si>
+  <si>
+    <t>We are the world‚Äôs premier motorsports racing game. An iRacing membership provides entry into the newest form of motorsport: internet racing. Internet racing is a fun, easy, and inexpensive way for race fan and gamers alike to enjoy the thrill of the racetrack from the comfort of their home.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/266410/iRacing?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Oxygen Not Included</t>
+  </si>
+  <si>
+    <t>Klei Entertainment</t>
+  </si>
+  <si>
+    <t>Oxygen Not Included is a space-colony simulation game. Deep inside an alien space rock your industrious crew will need to master science, overcome strange new lifeforms, and harness incredible space tech to survive, and possibly, thrive.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/457140/Oxygen_Not_Included?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>VRChat</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Massively Multiplayer, Simulation, Sports, Free to Play, Early Access</t>
+  </si>
+  <si>
+    <t>VRChat Inc.</t>
+  </si>
+  <si>
+    <t>Join our growing community as you explore, play, and help craft the future of social VR. Create worlds and custom avatars. Welcome to VRChat.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/438100/VRChat?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Dungeons of Hinterberg</t>
+  </si>
+  <si>
+    <t>Microbird Games</t>
+  </si>
+  <si>
+    <t>Curve Games</t>
+  </si>
+  <si>
+    <t>Armed with a sword and a tourist guide, explore the beautiful alpine village of Hinterberg and uncover the magic hidden within its dungeons! Master magic, solve puzzles, slay monsters; all this and more await you in Hinterberg!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1983260/Dungeons_of_Hinterberg?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Dungeonborne</t>
+  </si>
+  <si>
+    <t>Action, Adventure, RPG, Strategy, Free to Play, Early Access</t>
+  </si>
+  <si>
+    <t>Mithril Interactive</t>
+  </si>
+  <si>
+    <t>Dungeonborne is a first-person PvPvE dungeon crawler blending extraction gameplay with iconic fantasy class design. In a world of sword and sorcery, delve into ominous dungeons, face terrifying monsters, and outwit adventurers for treasure. Find an extraction portal to survive and fight another day.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2448970/Dungeonborne?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>NBA 2K24</t>
+  </si>
+  <si>
+    <t>Visual Concepts</t>
+  </si>
+  <si>
+    <t>Experience hoops culture in NBA 2K24. Enjoy loads of action and limitless personalized MyPLAYER options in MyCAREER. Build your perfect lineup in MyTEAM. Feel more responsive gameplay and polished visuals while playing with your favorite NBA and WNBA teams in PLAY NOW.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2338770/NBA_2K24?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Hades II</t>
+  </si>
+  <si>
+    <t>Action, Indie, RPG, Early Access</t>
+  </si>
+  <si>
+    <t>Supergiant Games</t>
+  </si>
+  <si>
+    <t>Battle beyond the Underworld using dark sorcery to take on the Titan of Time in this bewitching sequel to the award-winning rogue-like dungeon crawler.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1145350/Hades_II?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>The Planet Crafter</t>
+  </si>
+  <si>
+    <t>Miju Games</t>
+  </si>
+  <si>
+    <t>A space survival open world terraforming crafting game, designed for 1 to 10 players. Alter the ecosystem of an inhospitable planet to render it habitable for humanity. Survive, gather resources, and build your base. Then, generate oxygen, warmth, and pressure to create a brand new biosphere.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1284190/The_Planet_Crafter?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Hunt: Showdown</t>
+  </si>
+  <si>
+    <t>Crytek</t>
+  </si>
+  <si>
+    <t>Hunt: Showdown is a high-stakes, tactical PvPvE first-person shooter. Hunt for bounties in the infested Bayou, kill nightmarish monsters and outwit competing hunters - alone or in a group - with your glory, gear, and gold on the line.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/594650/Hunt_Showdown?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>FOR HONOR‚Ñ¢</t>
+  </si>
+  <si>
+    <t>Ubisoft Montreal, Ubisoft Quebec, Ubisoft Toronto,</t>
+  </si>
+  <si>
+    <t>Fight alone or with friends in For Honor, a third-person hero-based melee fighting game. Enter the chaos of war as a Knight, a Viking, a Samurai, a Wu Lin, or an Outlander. Fight in brutal PvP and team-oriented modes, or play the thrilling story campaign.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/304390/FOR_HONOR?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>ARK: Survival Ascended</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Massively Multiplayer, RPG, Early Access</t>
+  </si>
+  <si>
+    <t>Studio Wildcard, Grove Street Games,</t>
+  </si>
+  <si>
+    <t>Studio Wildcard</t>
+  </si>
+  <si>
+    <t>ARK is reimagined from the ground-up into the next-generation of video game technology with Unreal Engine 5! Form a tribe, tame &amp; breed hundreds of unique dinosaurs and primeval creatures, explore, craft, build, and fight your way to the top of the food-chain. Your new world awaits!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2399830/ARK_Survival_Ascended?snr=1_7001_7002__7003</t>
   </si>
 </sst>
 </file>
@@ -2068,11 +2520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3978525E-3F5E-9048-BC93-38E6C42116E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71D7B06-37EF-F943-8D0E-B48A8AB57D51}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2117,1298 +2569,1298 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>43090</v>
+        <v>45473</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I2">
-        <v>20525</v>
-      </c>
-      <c r="J2">
-        <v>2399234</v>
+        <v>69337</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>346</v>
-      </c>
-      <c r="D3" s="1">
-        <v>41464</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>20924</v>
-      </c>
-      <c r="J3">
-        <v>2280816</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>624</v>
       </c>
       <c r="D4" s="1">
-        <v>45473</v>
+        <v>41142</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>67181</v>
+        <v>98931</v>
+      </c>
+      <c r="J4">
+        <v>8209909</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>623</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
-        <v>41142</v>
+        <v>44616</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>547</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
+        <v>547</v>
+      </c>
+      <c r="H5" s="2">
+        <v>59.99</v>
       </c>
       <c r="I5">
-        <v>67944</v>
+        <v>41459</v>
       </c>
       <c r="J5">
-        <v>8168969</v>
+        <v>683740</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>125</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45482</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>54621</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="B7">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>591</v>
       </c>
       <c r="D7" s="1">
-        <v>44616</v>
+        <v>41358</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>547</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>547</v>
-      </c>
-      <c r="H7" s="2">
-        <v>59.99</v>
+        <v>135</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
       </c>
       <c r="I7">
-        <v>47657</v>
+        <v>4983</v>
       </c>
       <c r="J7">
-        <v>681149</v>
+        <v>584948</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>193</v>
+        <v>376</v>
       </c>
       <c r="D8" s="1">
-        <v>44139</v>
+        <v>42535</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
+        <v>148</v>
+      </c>
+      <c r="H8" s="2">
+        <v>39.99</v>
       </c>
       <c r="I8">
-        <v>82284</v>
+        <v>5741</v>
       </c>
       <c r="J8">
-        <v>918863</v>
+        <v>532510</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>550</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>45482</v>
+        <v>42594</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>551</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
+        <v>551</v>
+      </c>
+      <c r="H9" s="2">
+        <v>59.99</v>
       </c>
       <c r="I9">
-        <v>50192</v>
+        <v>6637</v>
+      </c>
+      <c r="J9">
+        <v>234752</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>552</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B10">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
-        <v>45141</v>
+        <v>43739</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="2">
-        <v>59.99</v>
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
       </c>
       <c r="I10">
-        <v>11130</v>
+        <v>4255</v>
       </c>
       <c r="J10">
-        <v>562486</v>
+        <v>607633</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>311</v>
       </c>
       <c r="B11">
-        <v>-3</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>45463</v>
+        <v>39365</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>547</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>547</v>
-      </c>
-      <c r="H11" s="2">
-        <v>39.99</v>
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>36260</v>
+        <v>10267</v>
       </c>
       <c r="J11">
-        <v>74979</v>
+        <v>1111496</v>
+      </c>
+      <c r="K11" t="s">
+        <v>312</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>547</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>547</v>
       </c>
       <c r="H12" s="2">
-        <v>4.99</v>
+        <v>39.99</v>
       </c>
       <c r="I12">
-        <v>15391</v>
+        <v>18038</v>
       </c>
       <c r="J12">
-        <v>18846</v>
-      </c>
-      <c r="K12" t="s">
-        <v>63</v>
+        <v>75499</v>
       </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="B13">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D13" s="1">
-        <v>44419</v>
+        <v>44603</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="H13" t="s">
         <v>27</v>
       </c>
       <c r="I13">
-        <v>9201</v>
+        <v>572</v>
       </c>
       <c r="J13">
-        <v>238173</v>
+        <v>200159</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B14">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>369</v>
       </c>
       <c r="D14" s="1">
-        <v>44174</v>
+        <v>41501</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="2">
-        <v>59.99</v>
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>8710</v>
+        <v>15058</v>
       </c>
       <c r="J14">
-        <v>668206</v>
+        <v>518026</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1">
-        <v>43739</v>
+        <v>45141</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
+        <v>55</v>
+      </c>
+      <c r="H15" s="2">
+        <v>59.99</v>
       </c>
       <c r="I15">
-        <v>4642</v>
+        <v>11250</v>
       </c>
       <c r="J15">
-        <v>607354</v>
+        <v>563637</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="L15" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="B16">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>496</v>
+        <v>399</v>
       </c>
       <c r="D16" s="1">
-        <v>42108</v>
+        <v>41688</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="H16" s="2">
-        <v>39.979999999999997</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="I16">
-        <v>23641</v>
+        <v>1078</v>
       </c>
       <c r="J16">
-        <v>1677214</v>
+        <v>69481</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="D17" s="1">
-        <v>45523</v>
+        <v>43935</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="H17" s="2">
-        <v>59.99</v>
+        <v>39.99</v>
+      </c>
+      <c r="I17">
+        <v>1416</v>
+      </c>
+      <c r="J17">
+        <v>60288</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B18">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>474</v>
       </c>
       <c r="D18" s="1">
-        <v>43804</v>
+        <v>43139</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="H18" s="2">
-        <v>59.99</v>
+        <v>39.99</v>
       </c>
       <c r="I18">
-        <v>14648</v>
+        <v>13597</v>
       </c>
       <c r="J18">
-        <v>550821</v>
+        <v>898809</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="B19">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1">
-        <v>41501</v>
+        <v>45450</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>391</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>392</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
+        <v>392</v>
+      </c>
+      <c r="H19" s="2">
+        <v>33.32</v>
       </c>
       <c r="I19">
-        <v>11615</v>
+        <v>3100</v>
       </c>
       <c r="J19">
-        <v>512752</v>
+        <v>19326</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>393</v>
       </c>
       <c r="L19" t="s">
-        <v>99</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>-8</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="D20" s="1">
-        <v>44264</v>
+        <v>44139</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="2">
-        <v>59.99</v>
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
       </c>
       <c r="I20">
-        <v>17736</v>
+        <v>85140</v>
       </c>
       <c r="J20">
-        <v>220264</v>
+        <v>923467</v>
       </c>
       <c r="K20" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="L20" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>45197</v>
+        <v>41464</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="2">
-        <v>69.989999999999995</v>
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
       </c>
       <c r="I21">
-        <v>10114</v>
+        <v>20557</v>
       </c>
       <c r="J21">
-        <v>79239</v>
+        <v>2282525</v>
       </c>
       <c r="K21" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>45309</v>
+        <v>43804</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H22" s="2">
-        <v>29.99</v>
+        <v>59.99</v>
       </c>
       <c r="I22">
-        <v>8231</v>
+        <v>15024</v>
       </c>
       <c r="J22">
-        <v>269281</v>
+        <v>552514</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="L22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" t="s">
-        <v>117</v>
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>-9</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>453</v>
       </c>
       <c r="D23" s="1">
-        <v>44579</v>
+        <v>42339</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" t="s">
-        <v>27</v>
+        <v>125</v>
+      </c>
+      <c r="H23" s="2">
+        <v>19.989999999999998</v>
       </c>
       <c r="I23">
-        <v>1014</v>
+        <v>10422</v>
       </c>
       <c r="J23">
-        <v>75171</v>
+        <v>1109041</v>
       </c>
       <c r="K23" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="C24">
-        <v>453</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>42339</v>
+        <v>45462</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="H24" s="2">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="I24">
-        <v>10402</v>
+        <v>13550</v>
       </c>
       <c r="J24">
-        <v>1107988</v>
+        <v>20027</v>
       </c>
       <c r="K24" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="L24" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="B25">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>497</v>
       </c>
       <c r="D25" s="1">
-        <v>42426</v>
+        <v>42108</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="H25" s="2">
-        <v>14.99</v>
+        <v>39.979999999999997</v>
       </c>
       <c r="I25">
-        <v>16701</v>
+        <v>23219</v>
       </c>
       <c r="J25">
-        <v>626295</v>
+        <v>1679447</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="L25" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
+        <v>554</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
       </c>
       <c r="C26">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>41358</v>
+        <v>45491</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>555</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
+        <v>255</v>
+      </c>
+      <c r="H26" s="2">
+        <v>29.99</v>
       </c>
       <c r="I26">
-        <v>5035</v>
-      </c>
-      <c r="J26">
-        <v>584441</v>
+        <v>2990</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>556</v>
       </c>
       <c r="L26" t="s">
-        <v>137</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>454</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C27">
-        <v>473</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>43139</v>
+        <v>45498</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>455</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
       <c r="H27" s="2">
-        <v>39.99</v>
+        <v>59.99</v>
       </c>
       <c r="I27">
-        <v>13837</v>
-      </c>
-      <c r="J27">
-        <v>897726</v>
+        <v>3075</v>
       </c>
       <c r="K27" t="s">
-        <v>141</v>
+        <v>457</v>
       </c>
       <c r="L27" t="s">
-        <v>142</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" t="s">
-        <v>117</v>
+        <v>185</v>
+      </c>
+      <c r="B28">
+        <v>-2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D28" s="1">
-        <v>45284</v>
+        <v>44862</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" t="s">
-        <v>27</v>
+        <v>187</v>
+      </c>
+      <c r="H28" s="2">
+        <v>69.989999999999995</v>
       </c>
       <c r="I28">
-        <v>930</v>
+        <v>4595</v>
       </c>
       <c r="J28">
-        <v>4389</v>
+        <v>324039</v>
       </c>
       <c r="K28" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="C29">
-        <v>381</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
-        <v>42535</v>
+        <v>43090</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
-      </c>
-      <c r="H29" s="2">
-        <v>39.99</v>
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
       </c>
       <c r="I29">
-        <v>5492</v>
+        <v>19862</v>
       </c>
       <c r="J29">
-        <v>531801</v>
+        <v>2401008</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" t="s">
-        <v>117</v>
+        <v>215</v>
+      </c>
+      <c r="B30">
+        <v>-5</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>45148</v>
+        <v>45330</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
+        <v>217</v>
+      </c>
+      <c r="H30" s="2">
+        <v>39.99</v>
       </c>
       <c r="I30">
-        <v>9473</v>
+        <v>5636</v>
       </c>
       <c r="J30">
-        <v>283116</v>
+        <v>652889</v>
       </c>
       <c r="K30" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="B31">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>496</v>
       </c>
       <c r="D31" s="1">
-        <v>41688</v>
+        <v>41733</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="H31" s="2">
         <v>19.989999999999998</v>
       </c>
       <c r="I31">
-        <v>1182</v>
+        <v>747</v>
       </c>
       <c r="J31">
-        <v>69399</v>
+        <v>121861</v>
       </c>
       <c r="K31" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32">
-        <v>-13</v>
+        <v>558</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>42142</v>
+        <v>45356</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>559</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>559</v>
       </c>
       <c r="H32" s="2">
         <v>39.99</v>
       </c>
       <c r="I32">
-        <v>8942</v>
+        <v>1492</v>
       </c>
       <c r="J32">
-        <v>718431</v>
+        <v>43398</v>
       </c>
       <c r="K32" t="s">
-        <v>161</v>
+        <v>560</v>
       </c>
       <c r="L32" t="s">
-        <v>162</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="B33">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1">
-        <v>41200</v>
+        <v>45450</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="F33" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G33" t="s">
-        <v>165</v>
-      </c>
-      <c r="H33" s="2">
-        <v>19.989999999999998</v>
+        <v>249</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
       </c>
       <c r="I33">
-        <v>13778</v>
+        <v>10079</v>
       </c>
       <c r="J33">
-        <v>584173</v>
+        <v>39146</v>
       </c>
       <c r="K33" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34">
-        <v>-12</v>
+        <v>562</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>44967</v>
+        <v>44358</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>563</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>563</v>
       </c>
       <c r="H34" s="2">
-        <v>59.99</v>
+        <v>89.99</v>
       </c>
       <c r="I34">
-        <v>4645</v>
+        <v>1182</v>
       </c>
       <c r="J34">
-        <v>197179</v>
+        <v>36634</v>
       </c>
       <c r="K34" t="s">
-        <v>171</v>
+        <v>564</v>
       </c>
       <c r="L34" t="s">
-        <v>172</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>566</v>
       </c>
       <c r="B35">
-        <v>-9</v>
+        <v>64</v>
       </c>
       <c r="C35">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
-        <v>44508</v>
+        <v>45316</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>567</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>568</v>
       </c>
       <c r="H35" s="2">
-        <v>59.99</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="I35">
-        <v>5396</v>
+        <v>1484</v>
       </c>
       <c r="J35">
-        <v>172206</v>
+        <v>22615</v>
       </c>
       <c r="K35" t="s">
-        <v>175</v>
+        <v>569</v>
       </c>
       <c r="L35" t="s">
-        <v>176</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="B36">
-        <v>-4</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1">
-        <v>45456</v>
+        <v>45078</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="G36" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="H36" s="2">
-        <v>49.99</v>
+        <v>59.99</v>
       </c>
       <c r="I36">
-        <v>1272</v>
+        <v>1466</v>
       </c>
       <c r="J36">
-        <v>3736</v>
+        <v>27740</v>
       </c>
       <c r="K36" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="L36" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>472</v>
       </c>
       <c r="B37" t="s">
         <v>117</v>
@@ -3417,1544 +3869,1460 @@
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>45343</v>
+        <v>41130</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>473</v>
       </c>
       <c r="F37" t="s">
-        <v>182</v>
+        <v>474</v>
       </c>
       <c r="G37" t="s">
-        <v>182</v>
-      </c>
-      <c r="H37" s="2">
-        <v>34.99</v>
+        <v>475</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
       </c>
       <c r="I37">
-        <v>2689</v>
+        <v>131</v>
       </c>
       <c r="J37">
-        <v>87344</v>
+        <v>12916</v>
       </c>
       <c r="K37" t="s">
-        <v>183</v>
+        <v>476</v>
       </c>
       <c r="L37" t="s">
-        <v>184</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1">
-        <v>44862</v>
+        <v>45428</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="G38" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="H38" s="2">
-        <v>69.989999999999995</v>
+        <v>59.99</v>
       </c>
       <c r="I38">
-        <v>4781</v>
+        <v>2514</v>
       </c>
       <c r="J38">
-        <v>323487</v>
+        <v>24156</v>
       </c>
       <c r="K38" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s">
-        <v>189</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39">
-        <v>-11</v>
+        <v>571</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>43545</v>
+        <v>45490</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>572</v>
       </c>
       <c r="F39" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="G39" t="s">
-        <v>192</v>
+        <v>574</v>
       </c>
       <c r="H39" s="2">
-        <v>59.99</v>
+        <v>24.99</v>
       </c>
       <c r="I39">
-        <v>4941</v>
-      </c>
-      <c r="J39">
-        <v>212001</v>
+        <v>1268</v>
       </c>
       <c r="K39" t="s">
-        <v>193</v>
+        <v>575</v>
       </c>
       <c r="L39" t="s">
-        <v>194</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B40">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>214</v>
       </c>
       <c r="D40" s="1">
-        <v>42663</v>
+        <v>41884</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G40" t="s">
-        <v>198</v>
-      </c>
-      <c r="H40" s="2">
-        <v>59.99</v>
+        <v>44</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
       </c>
       <c r="I40">
-        <v>5361</v>
+        <v>4332</v>
       </c>
       <c r="J40">
-        <v>232717</v>
+        <v>144742</v>
       </c>
       <c r="K40" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="L40" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1">
-        <v>43935</v>
+        <v>43390</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>321</v>
       </c>
       <c r="F41" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>322</v>
       </c>
       <c r="H41" s="2">
-        <v>39.99</v>
+        <v>49.99</v>
       </c>
       <c r="I41">
-        <v>1410</v>
+        <v>2025</v>
       </c>
       <c r="J41">
-        <v>60156</v>
+        <v>161342</v>
       </c>
       <c r="K41" t="s">
-        <v>204</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>205</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>577</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
-        <v>45420</v>
+        <v>45590</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="F42" t="s">
-        <v>207</v>
+        <v>578</v>
       </c>
       <c r="G42" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="H42" s="2">
-        <v>34.99</v>
-      </c>
-      <c r="I42">
-        <v>1995</v>
-      </c>
-      <c r="J42">
-        <v>84063</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="K42" t="s">
-        <v>208</v>
+        <v>579</v>
       </c>
       <c r="L42" t="s">
-        <v>209</v>
+        <v>580</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="B43">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D43" s="1">
-        <v>41884</v>
+        <v>42879</v>
       </c>
       <c r="E43" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="F43" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" t="s">
-        <v>27</v>
+        <v>260</v>
+      </c>
+      <c r="H43" s="2">
+        <v>9.99</v>
       </c>
       <c r="I43">
-        <v>4215</v>
+        <v>740</v>
       </c>
       <c r="J43">
-        <v>144202</v>
+        <v>55766</v>
       </c>
       <c r="K43" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="L43" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>215</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
+        <v>581</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>45330</v>
+        <v>45344</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>582</v>
       </c>
       <c r="F44" t="s">
-        <v>216</v>
+        <v>583</v>
       </c>
       <c r="G44" t="s">
-        <v>217</v>
+        <v>584</v>
       </c>
       <c r="H44" s="2">
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
       <c r="I44">
-        <v>6261</v>
+        <v>1104</v>
       </c>
       <c r="J44">
-        <v>652529</v>
+        <v>10166</v>
       </c>
       <c r="K44" t="s">
-        <v>218</v>
+        <v>585</v>
       </c>
       <c r="L44" t="s">
-        <v>219</v>
+        <v>586</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>220</v>
-      </c>
-      <c r="B45">
-        <v>30</v>
+        <v>587</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
       </c>
       <c r="C45">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>44603</v>
+        <v>45489</v>
       </c>
       <c r="E45" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="F45" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="G45" t="s">
-        <v>223</v>
-      </c>
-      <c r="H45" t="s">
-        <v>27</v>
+        <v>148</v>
+      </c>
+      <c r="H45" s="2">
+        <v>4.99</v>
       </c>
       <c r="I45">
-        <v>571</v>
-      </c>
-      <c r="J45">
-        <v>200119</v>
-      </c>
-      <c r="K45" t="s">
-        <v>224</v>
+        <v>392</v>
       </c>
       <c r="L45" t="s">
-        <v>225</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>589</v>
       </c>
       <c r="B46">
-        <v>-10</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1">
-        <v>45344</v>
+        <v>45069</v>
       </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>590</v>
       </c>
       <c r="F46" t="s">
-        <v>228</v>
+        <v>591</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
-      </c>
-      <c r="H46" s="2">
-        <v>29.99</v>
+        <v>591</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
       </c>
       <c r="I46">
-        <v>3732</v>
+        <v>680</v>
       </c>
       <c r="J46">
-        <v>178770</v>
+        <v>11723</v>
       </c>
       <c r="K46" t="s">
-        <v>230</v>
+        <v>592</v>
       </c>
       <c r="L46" t="s">
-        <v>231</v>
+        <v>593</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>594</v>
       </c>
       <c r="B47">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1">
-        <v>45194</v>
-      </c>
-      <c r="E47" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="H47" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="I47">
-        <v>462</v>
-      </c>
-      <c r="J47">
-        <v>15100</v>
+        <v>499</v>
       </c>
       <c r="L47" t="s">
-        <v>233</v>
+        <v>595</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>234</v>
-      </c>
-      <c r="B48" t="s">
-        <v>117</v>
+        <v>285</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>42811</v>
+        <v>45240</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="F48" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="G48" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="H48" s="2">
-        <v>39.99</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="I48">
-        <v>1392</v>
+        <v>534</v>
       </c>
       <c r="J48">
-        <v>95841</v>
+        <v>10173</v>
       </c>
       <c r="K48" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="L48" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>-28</v>
       </c>
       <c r="C49">
-        <v>495</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1">
-        <v>41733</v>
+        <v>45148</v>
       </c>
       <c r="E49" t="s">
-        <v>239</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="G49" t="s">
-        <v>203</v>
-      </c>
-      <c r="H49" s="2">
-        <v>19.989999999999998</v>
+        <v>152</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
       </c>
       <c r="I49">
-        <v>764</v>
+        <v>9278</v>
       </c>
       <c r="J49">
-        <v>121812</v>
+        <v>284040</v>
       </c>
       <c r="K49" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="L49" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>325</v>
       </c>
       <c r="B50">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" s="1">
-        <v>45187</v>
+        <v>45342</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>326</v>
       </c>
       <c r="F50" t="s">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="G50" t="s">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="H50" s="2">
-        <v>59.99</v>
+        <v>12.99</v>
       </c>
       <c r="I50">
-        <v>1733</v>
+        <v>5672</v>
       </c>
       <c r="J50">
-        <v>28916</v>
+        <v>42867</v>
       </c>
       <c r="K50" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="L50" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>247</v>
-      </c>
-      <c r="B51">
-        <v>16</v>
+        <v>596</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>45450</v>
+        <v>45552</v>
       </c>
       <c r="E51" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="F51" t="s">
-        <v>249</v>
+        <v>597</v>
       </c>
       <c r="G51" t="s">
-        <v>249</v>
-      </c>
-      <c r="H51" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51">
-        <v>11607</v>
-      </c>
-      <c r="J51">
-        <v>38298</v>
+        <v>223</v>
+      </c>
+      <c r="H51" s="2">
+        <v>39.99</v>
       </c>
       <c r="K51" t="s">
-        <v>250</v>
+        <v>598</v>
       </c>
       <c r="L51" t="s">
-        <v>251</v>
+        <v>599</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>252</v>
+        <v>111</v>
       </c>
       <c r="B52">
-        <v>-18</v>
+        <v>-28</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1">
-        <v>45408</v>
+        <v>45309</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="G52" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="H52" s="2">
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
       <c r="I52">
-        <v>2492</v>
+        <v>7495</v>
       </c>
       <c r="J52">
-        <v>44649</v>
+        <v>269724</v>
       </c>
       <c r="K52" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="L52" t="s">
-        <v>257</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>398</v>
       </c>
       <c r="B53">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="C53">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="D53" s="1">
-        <v>42879</v>
+        <v>44075</v>
       </c>
       <c r="E53" t="s">
-        <v>259</v>
+        <v>399</v>
       </c>
       <c r="F53" t="s">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="G53" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="H53" s="2">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="I53">
-        <v>744</v>
+        <v>959</v>
       </c>
       <c r="J53">
-        <v>55695</v>
+        <v>71431</v>
       </c>
       <c r="K53" t="s">
-        <v>261</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s">
-        <v>262</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>263</v>
+        <v>71</v>
       </c>
       <c r="B54">
-        <v>-7</v>
+        <v>-37</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D54" s="1">
-        <v>45078</v>
+        <v>44174</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s">
-        <v>264</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>264</v>
+        <v>73</v>
       </c>
       <c r="H54" s="2">
         <v>59.99</v>
       </c>
       <c r="I54">
-        <v>1560</v>
+        <v>8702</v>
       </c>
       <c r="J54">
-        <v>27593</v>
+        <v>668893</v>
       </c>
       <c r="K54" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="L54" t="s">
-        <v>266</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>267</v>
-      </c>
-      <c r="B55">
-        <v>-5</v>
+        <v>600</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D55" s="1">
-        <v>43985</v>
+        <v>41570</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>601</v>
       </c>
       <c r="F55" t="s">
-        <v>268</v>
+        <v>602</v>
       </c>
       <c r="G55" t="s">
-        <v>103</v>
-      </c>
-      <c r="H55" s="2">
-        <v>39.99</v>
+        <v>602</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
       </c>
       <c r="I55">
-        <v>3695</v>
+        <v>1788</v>
       </c>
       <c r="J55">
-        <v>289121</v>
+        <v>222898</v>
       </c>
       <c r="K55" t="s">
-        <v>269</v>
+        <v>603</v>
       </c>
       <c r="L55" t="s">
-        <v>270</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>271</v>
+        <v>106</v>
       </c>
       <c r="B56">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D56" s="1">
-        <v>42402</v>
+        <v>45197</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="H56" s="2">
-        <v>19.989999999999998</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="I56">
-        <v>3136</v>
+        <v>10090</v>
       </c>
       <c r="J56">
-        <v>127905</v>
+        <v>79990</v>
       </c>
       <c r="K56" t="s">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s">
-        <v>273</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B57">
-        <v>-18</v>
+        <v>-5</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D57" s="1">
-        <v>44608</v>
+        <v>43985</v>
       </c>
       <c r="E57" t="s">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G57" t="s">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="H57" s="2">
-        <v>59.99</v>
+        <v>39.99</v>
       </c>
       <c r="I57">
-        <v>1663</v>
+        <v>3669</v>
       </c>
       <c r="J57">
-        <v>73803</v>
+        <v>289510</v>
       </c>
       <c r="K57" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L57" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>280</v>
-      </c>
-      <c r="B58">
-        <v>-15</v>
+        <v>605</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>44519</v>
+        <v>45267</v>
       </c>
       <c r="E58" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>282</v>
+        <v>606</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" s="2">
-        <v>59.99</v>
+        <v>606</v>
+      </c>
+      <c r="H58" t="s">
+        <v>27</v>
       </c>
       <c r="I58">
-        <v>5330</v>
+        <v>5221</v>
       </c>
       <c r="J58">
-        <v>208997</v>
+        <v>176620</v>
       </c>
       <c r="K58" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="L58" t="s">
-        <v>284</v>
+        <v>608</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="B59">
-        <v>-13</v>
+        <v>39</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1">
-        <v>45240</v>
+        <v>42527</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>345</v>
       </c>
       <c r="F59" t="s">
-        <v>186</v>
+        <v>346</v>
       </c>
       <c r="G59" t="s">
-        <v>187</v>
+        <v>347</v>
       </c>
       <c r="H59" s="2">
-        <v>69.989999999999995</v>
+        <v>49.99</v>
       </c>
       <c r="I59">
-        <v>497</v>
+        <v>3555</v>
       </c>
       <c r="J59">
-        <v>10083</v>
+        <v>213837</v>
       </c>
       <c r="K59" t="s">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="L59" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B60">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" s="1">
-        <v>45273</v>
+        <v>44092</v>
       </c>
       <c r="E60" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F60" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G60" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H60" s="2">
-        <v>49.99</v>
+        <v>13.99</v>
       </c>
       <c r="I60">
-        <v>4329</v>
+        <v>9172</v>
       </c>
       <c r="J60">
-        <v>145278</v>
+        <v>564988</v>
       </c>
       <c r="K60" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L60" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>-26</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1">
-        <v>44092</v>
+        <v>42402</v>
       </c>
       <c r="E61" t="s">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="F61" t="s">
-        <v>295</v>
+        <v>165</v>
       </c>
       <c r="G61" t="s">
-        <v>295</v>
+        <v>165</v>
       </c>
       <c r="H61" s="2">
-        <v>13.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="I61">
-        <v>9835</v>
+        <v>3236</v>
       </c>
       <c r="J61">
-        <v>564258</v>
+        <v>128226</v>
       </c>
       <c r="K61" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="L61" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>298</v>
+        <v>609</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C62">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1">
-        <v>45428</v>
+        <v>45488</v>
       </c>
       <c r="E62" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="F62" t="s">
-        <v>299</v>
+        <v>610</v>
       </c>
       <c r="G62" t="s">
-        <v>217</v>
+        <v>611</v>
       </c>
       <c r="H62" s="2">
-        <v>59.99</v>
+        <v>29.99</v>
       </c>
       <c r="I62">
-        <v>2786</v>
-      </c>
-      <c r="J62">
-        <v>23946</v>
+        <v>937</v>
       </c>
       <c r="K62" t="s">
-        <v>300</v>
+        <v>612</v>
       </c>
       <c r="L62" t="s">
-        <v>301</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>302</v>
-      </c>
-      <c r="B63" t="s">
-        <v>48</v>
+        <v>128</v>
+      </c>
+      <c r="B63">
+        <v>-24</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D63" s="1">
-        <v>45539</v>
+        <v>42426</v>
       </c>
       <c r="E63" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="G63" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="H63" s="2">
-        <v>24.99</v>
+        <v>14.99</v>
+      </c>
+      <c r="I63">
+        <v>16716</v>
+      </c>
+      <c r="J63">
+        <v>627635</v>
       </c>
       <c r="K63" t="s">
-        <v>304</v>
+        <v>131</v>
       </c>
       <c r="L63" t="s">
-        <v>305</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>306</v>
-      </c>
-      <c r="B64" t="s">
-        <v>117</v>
+        <v>365</v>
+      </c>
+      <c r="B64">
+        <v>-26</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D64" s="1">
-        <v>43846</v>
+        <v>42314</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F64" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="G64" t="s">
-        <v>308</v>
+        <v>187</v>
       </c>
       <c r="H64" s="2">
-        <v>59.99</v>
+        <v>14.99</v>
       </c>
       <c r="I64">
-        <v>753</v>
+        <v>2443</v>
       </c>
       <c r="J64">
-        <v>38190</v>
+        <v>128964</v>
       </c>
       <c r="K64" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="L64" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>311</v>
-      </c>
-      <c r="B65" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="B65">
+        <v>-22</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1">
-        <v>39365</v>
+        <v>44579</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="G65" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I65">
-        <v>10794</v>
+        <v>1034</v>
       </c>
       <c r="J65">
-        <v>1110984</v>
+        <v>75278</v>
       </c>
       <c r="K65" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="L65" t="s">
-        <v>313</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>314</v>
-      </c>
-      <c r="B66" t="s">
-        <v>48</v>
+        <v>288</v>
+      </c>
+      <c r="B66">
+        <v>-18</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D66" s="1">
-        <v>45484</v>
+        <v>45273</v>
       </c>
       <c r="E66" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="F66" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="G66" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="H66" s="2">
-        <v>24.99</v>
+        <v>49.99</v>
       </c>
       <c r="I66">
-        <v>1066</v>
+        <v>4898</v>
+      </c>
+      <c r="J66">
+        <v>146144</v>
       </c>
       <c r="K66" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="L66" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c r="B67">
-        <v>-8</v>
+        <v>-38</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D67" s="1">
-        <v>43390</v>
+        <v>45420</v>
       </c>
       <c r="E67" t="s">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="G67" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="H67" s="2">
-        <v>49.99</v>
+        <v>34.99</v>
       </c>
       <c r="I67">
-        <v>2017</v>
+        <v>1918</v>
       </c>
       <c r="J67">
-        <v>161126</v>
+        <v>84223</v>
       </c>
       <c r="K67" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
       <c r="L67" t="s">
-        <v>324</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>325</v>
+        <v>143</v>
       </c>
       <c r="B68">
-        <v>-13</v>
+        <v>-31</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" s="1">
-        <v>45342</v>
+        <v>45284</v>
       </c>
       <c r="E68" t="s">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s">
-        <v>327</v>
+        <v>144</v>
       </c>
       <c r="G68" t="s">
-        <v>327</v>
-      </c>
-      <c r="H68" s="2">
-        <v>12.99</v>
+        <v>144</v>
+      </c>
+      <c r="H68" t="s">
+        <v>27</v>
       </c>
       <c r="I68">
-        <v>5774</v>
+        <v>1006</v>
       </c>
       <c r="J68">
-        <v>42434</v>
+        <v>4500</v>
       </c>
       <c r="K68" t="s">
-        <v>328</v>
+        <v>145</v>
       </c>
       <c r="L68" t="s">
-        <v>329</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>330</v>
+        <v>462</v>
       </c>
       <c r="B69">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1">
-        <v>45105</v>
+        <v>45447</v>
       </c>
       <c r="E69" t="s">
-        <v>331</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="G69" t="s">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="H69" s="2">
-        <v>19.989999999999998</v>
+        <v>49.99</v>
       </c>
       <c r="I69">
-        <v>4328</v>
+        <v>181</v>
       </c>
       <c r="J69">
-        <v>99391</v>
-      </c>
-      <c r="K69" t="s">
-        <v>333</v>
+        <v>5033</v>
       </c>
       <c r="L69" t="s">
-        <v>334</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>335</v>
-      </c>
-      <c r="B70" t="s">
-        <v>117</v>
+        <v>402</v>
+      </c>
+      <c r="B70">
+        <v>21</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1">
-        <v>44595</v>
+        <v>44060</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>403</v>
       </c>
       <c r="F70" t="s">
-        <v>336</v>
+        <v>404</v>
       </c>
       <c r="G70" t="s">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="H70" s="2">
         <v>59.99</v>
       </c>
       <c r="I70">
-        <v>2021</v>
+        <v>1083</v>
       </c>
       <c r="J70">
-        <v>129291</v>
+        <v>57436</v>
       </c>
       <c r="K70" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="L70" t="s">
-        <v>338</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="B71">
-        <v>19</v>
+        <v>-24</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D71" s="1">
-        <v>45222</v>
+        <v>45344</v>
       </c>
       <c r="E71" t="s">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="F71" t="s">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="G71" t="s">
-        <v>341</v>
+        <v>229</v>
       </c>
       <c r="H71" s="2">
-        <v>9.99</v>
+        <v>29.99</v>
       </c>
       <c r="I71">
-        <v>9752</v>
+        <v>3719</v>
       </c>
       <c r="J71">
-        <v>335990</v>
+        <v>179053</v>
       </c>
       <c r="K71" t="s">
-        <v>342</v>
+        <v>230</v>
       </c>
       <c r="L71" t="s">
-        <v>343</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B72">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="C72">
         <v>3</v>
       </c>
       <c r="D72" s="1">
-        <v>42527</v>
+        <v>45222</v>
       </c>
       <c r="E72" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F72" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G72" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H72" s="2">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="I72">
-        <v>3581</v>
+        <v>9379</v>
       </c>
       <c r="J72">
-        <v>213479</v>
+        <v>336719</v>
       </c>
       <c r="K72" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L72" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>350</v>
-      </c>
-      <c r="B73">
-        <v>-1</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B73" t="s">
+        <v>117</v>
       </c>
       <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1">
-        <v>45324</v>
-      </c>
-      <c r="E73" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" t="s">
-        <v>351</v>
-      </c>
-      <c r="G73" t="s">
-        <v>277</v>
-      </c>
-      <c r="H73" s="2">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="I73">
-        <v>1067</v>
-      </c>
-      <c r="J73">
-        <v>17048</v>
-      </c>
-      <c r="K73" t="s">
-        <v>352</v>
+        <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>353</v>
+        <v>615</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>354</v>
-      </c>
-      <c r="B74">
-        <v>-32</v>
+        <v>616</v>
+      </c>
+      <c r="B74" t="s">
+        <v>117</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
-        <v>44949</v>
+        <v>45273</v>
       </c>
       <c r="E74" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="F74" t="s">
-        <v>355</v>
+        <v>617</v>
       </c>
       <c r="G74" t="s">
-        <v>125</v>
+        <v>414</v>
       </c>
       <c r="H74" s="2">
-        <v>59.99</v>
+        <v>49.99</v>
       </c>
       <c r="I74">
-        <v>2997</v>
+        <v>115</v>
       </c>
       <c r="J74">
-        <v>20547</v>
+        <v>3487</v>
       </c>
       <c r="K74" t="s">
-        <v>356</v>
+        <v>618</v>
       </c>
       <c r="L74" t="s">
-        <v>357</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>358</v>
-      </c>
-      <c r="B75">
-        <v>-15</v>
+        <v>620</v>
+      </c>
+      <c r="B75" t="s">
+        <v>117</v>
       </c>
       <c r="C75">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
-        <v>42499</v>
+        <v>43054</v>
       </c>
       <c r="E75" t="s">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="F75" t="s">
-        <v>346</v>
+        <v>621</v>
       </c>
       <c r="G75" t="s">
-        <v>347</v>
-      </c>
-      <c r="H75" s="2">
-        <v>39.99</v>
+        <v>621</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
       </c>
       <c r="I75">
-        <v>1054</v>
+        <v>1005</v>
       </c>
       <c r="J75">
-        <v>117985</v>
+        <v>140974</v>
       </c>
       <c r="K75" t="s">
-        <v>359</v>
+        <v>622</v>
       </c>
       <c r="L75" t="s">
-        <v>360</v>
+        <v>623</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B76">
-        <v>-31</v>
+        <v>-15</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D76" s="1">
-        <v>44509</v>
+        <v>42499</v>
       </c>
       <c r="E76" t="s">
         <v>345</v>
       </c>
       <c r="F76" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="G76" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="H76" s="2">
-        <v>59.99</v>
+        <v>39.99</v>
       </c>
       <c r="I76">
-        <v>1773</v>
+        <v>952</v>
       </c>
       <c r="J76">
-        <v>24635</v>
+        <v>118038</v>
       </c>
       <c r="K76" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L76" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>365</v>
-      </c>
-      <c r="B77">
-        <v>-28</v>
+        <v>624</v>
+      </c>
+      <c r="B77" t="s">
+        <v>117</v>
       </c>
       <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77" s="1">
-        <v>42314</v>
-      </c>
-      <c r="E77" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" t="s">
-        <v>366</v>
-      </c>
-      <c r="G77" t="s">
-        <v>187</v>
-      </c>
-      <c r="H77" s="2">
-        <v>14.99</v>
-      </c>
-      <c r="I77">
-        <v>2516</v>
-      </c>
-      <c r="J77">
-        <v>128812</v>
-      </c>
-      <c r="K77" t="s">
-        <v>367</v>
+        <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>368</v>
+        <v>625</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>369</v>
+        <v>626</v>
       </c>
       <c r="B78" t="s">
         <v>117</v>
@@ -4962,829 +5330,823 @@
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78" s="3">
-        <v>43405</v>
+      <c r="D78" s="1">
+        <v>45188</v>
       </c>
       <c r="E78" t="s">
-        <v>370</v>
+        <v>123</v>
       </c>
       <c r="F78" t="s">
-        <v>371</v>
+        <v>627</v>
       </c>
       <c r="G78" t="s">
-        <v>371</v>
+        <v>170</v>
       </c>
       <c r="H78" s="2">
-        <v>3.99</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="I78">
-        <v>11948</v>
+        <v>928</v>
       </c>
       <c r="J78">
-        <v>741388</v>
+        <v>18569</v>
       </c>
       <c r="K78" t="s">
-        <v>372</v>
+        <v>628</v>
       </c>
       <c r="L78" t="s">
-        <v>373</v>
+        <v>629</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>374</v>
-      </c>
-      <c r="B79">
-        <v>-14</v>
+        <v>630</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1">
-        <v>41586</v>
+        <v>40897</v>
       </c>
       <c r="E79" t="s">
-        <v>375</v>
+        <v>631</v>
       </c>
       <c r="F79" t="s">
-        <v>376</v>
+        <v>632</v>
       </c>
       <c r="G79" t="s">
-        <v>376</v>
-      </c>
-      <c r="H79" s="2">
-        <v>19.989999999999998</v>
+        <v>44</v>
+      </c>
+      <c r="H79" t="s">
+        <v>27</v>
       </c>
       <c r="I79">
-        <v>6027</v>
+        <v>714</v>
       </c>
       <c r="J79">
-        <v>235042</v>
+        <v>61978</v>
       </c>
       <c r="K79" t="s">
-        <v>377</v>
+        <v>633</v>
       </c>
       <c r="L79" t="s">
-        <v>378</v>
+        <v>634</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>379</v>
+        <v>635</v>
       </c>
       <c r="B80">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
       <c r="D80" s="1">
-        <v>43320</v>
+        <v>42153</v>
       </c>
       <c r="E80" t="s">
-        <v>123</v>
+        <v>636</v>
       </c>
       <c r="F80" t="s">
-        <v>264</v>
+        <v>637</v>
       </c>
       <c r="G80" t="s">
-        <v>264</v>
+        <v>637</v>
       </c>
       <c r="H80" s="2">
-        <v>29.99</v>
+        <v>24.99</v>
       </c>
       <c r="I80">
-        <v>3256</v>
+        <v>6146</v>
       </c>
       <c r="J80">
-        <v>270499</v>
+        <v>239879</v>
       </c>
       <c r="K80" t="s">
-        <v>380</v>
+        <v>638</v>
       </c>
       <c r="L80" t="s">
-        <v>381</v>
+        <v>639</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>382</v>
-      </c>
-      <c r="B81">
-        <v>-15</v>
+        <v>640</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1">
-        <v>44280</v>
+        <v>45491</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="F81" t="s">
-        <v>383</v>
+        <v>264</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="H81" s="2">
-        <v>39.99</v>
+        <v>49.99</v>
       </c>
       <c r="I81">
-        <v>3010</v>
-      </c>
-      <c r="J81">
-        <v>145927</v>
+        <v>640</v>
       </c>
       <c r="K81" t="s">
-        <v>384</v>
+        <v>641</v>
       </c>
       <c r="L81" t="s">
-        <v>385</v>
+        <v>642</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>386</v>
-      </c>
-      <c r="B82">
-        <v>-20</v>
+        <v>643</v>
+      </c>
+      <c r="B82" t="s">
+        <v>48</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
-        <v>44581</v>
+        <v>45493</v>
       </c>
       <c r="E82" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="F82" t="s">
-        <v>387</v>
+        <v>644</v>
       </c>
       <c r="G82" t="s">
-        <v>387</v>
+        <v>645</v>
       </c>
       <c r="H82" s="2">
-        <v>29.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="I82">
-        <v>2232</v>
-      </c>
-      <c r="J82">
-        <v>24901</v>
+        <v>224</v>
       </c>
       <c r="K82" t="s">
-        <v>388</v>
+        <v>646</v>
       </c>
       <c r="L82" t="s">
-        <v>389</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>390</v>
-      </c>
-      <c r="B83">
-        <v>18</v>
+        <v>459</v>
+      </c>
+      <c r="B83" t="s">
+        <v>117</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
-        <v>45450</v>
+        <v>45216</v>
       </c>
       <c r="E83" t="s">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>392</v>
+        <v>152</v>
       </c>
       <c r="G83" t="s">
-        <v>392</v>
+        <v>152</v>
       </c>
       <c r="H83" s="2">
-        <v>33.32</v>
+        <v>49.99</v>
       </c>
       <c r="I83">
-        <v>3609</v>
+        <v>858</v>
       </c>
       <c r="J83">
-        <v>19133</v>
+        <v>20540</v>
       </c>
       <c r="K83" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="L83" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>395</v>
-      </c>
-      <c r="B84">
-        <v>-13</v>
+        <v>531</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
-        <v>45162</v>
+        <v>45267</v>
       </c>
       <c r="E84" t="s">
-        <v>123</v>
+        <v>532</v>
       </c>
       <c r="F84" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G84" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H84" s="2">
-        <v>59.99</v>
+        <v>49.99</v>
       </c>
       <c r="I84">
-        <v>1197</v>
+        <v>708</v>
       </c>
       <c r="J84">
-        <v>54315</v>
+        <v>12699</v>
       </c>
       <c r="K84" t="s">
-        <v>396</v>
+        <v>534</v>
       </c>
       <c r="L84" t="s">
-        <v>397</v>
+        <v>535</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>398</v>
-      </c>
-      <c r="B85">
-        <v>-6</v>
+        <v>648</v>
+      </c>
+      <c r="B85" t="s">
+        <v>117</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
-        <v>44075</v>
+        <v>42016</v>
       </c>
       <c r="E85" t="s">
-        <v>399</v>
+        <v>649</v>
       </c>
       <c r="F85" t="s">
-        <v>346</v>
+        <v>650</v>
       </c>
       <c r="G85" t="s">
-        <v>347</v>
+        <v>651</v>
       </c>
       <c r="H85" s="2">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="I85">
-        <v>942</v>
+        <v>98</v>
       </c>
       <c r="J85">
-        <v>71316</v>
+        <v>2563</v>
       </c>
       <c r="K85" t="s">
-        <v>400</v>
+        <v>652</v>
       </c>
       <c r="L85" t="s">
-        <v>401</v>
+        <v>653</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>402</v>
-      </c>
-      <c r="B86">
-        <v>-5</v>
+        <v>654</v>
+      </c>
+      <c r="B86" t="s">
+        <v>117</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
-        <v>44060</v>
+        <v>43676</v>
       </c>
       <c r="E86" t="s">
-        <v>403</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>404</v>
+        <v>655</v>
       </c>
       <c r="G86" t="s">
-        <v>103</v>
+        <v>655</v>
       </c>
       <c r="H86" s="2">
-        <v>59.99</v>
+        <v>24.99</v>
       </c>
       <c r="I86">
-        <v>1081</v>
+        <v>1563</v>
       </c>
       <c r="J86">
-        <v>57341</v>
+        <v>110568</v>
       </c>
       <c r="K86" t="s">
-        <v>405</v>
+        <v>656</v>
       </c>
       <c r="L86" t="s">
-        <v>406</v>
+        <v>657</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>407</v>
-      </c>
-      <c r="B87">
-        <v>-5</v>
+        <v>658</v>
+      </c>
+      <c r="B87" t="s">
+        <v>117</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1">
-        <v>44732</v>
+        <v>42767</v>
       </c>
       <c r="E87" t="s">
-        <v>408</v>
+        <v>659</v>
       </c>
       <c r="F87" t="s">
-        <v>409</v>
+        <v>660</v>
       </c>
       <c r="G87" t="s">
-        <v>410</v>
-      </c>
-      <c r="H87" s="2">
-        <v>19.989999999999998</v>
+        <v>660</v>
+      </c>
+      <c r="H87" t="s">
+        <v>27</v>
       </c>
       <c r="I87">
-        <v>3950</v>
+        <v>2865</v>
       </c>
       <c r="J87">
-        <v>271798</v>
+        <v>221768</v>
       </c>
       <c r="K87" t="s">
-        <v>411</v>
+        <v>661</v>
       </c>
       <c r="L87" t="s">
-        <v>412</v>
+        <v>662</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>413</v>
-      </c>
-      <c r="B88">
-        <v>-24</v>
+        <v>663</v>
+      </c>
+      <c r="B88" t="s">
+        <v>48</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1">
-        <v>45322</v>
+        <v>45491</v>
       </c>
       <c r="E88" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="F88" t="s">
-        <v>414</v>
+        <v>664</v>
       </c>
       <c r="G88" t="s">
-        <v>414</v>
+        <v>665</v>
       </c>
       <c r="H88" s="2">
-        <v>59.99</v>
+        <v>29.99</v>
       </c>
       <c r="I88">
-        <v>748</v>
-      </c>
-      <c r="J88">
-        <v>30962</v>
+        <v>267</v>
       </c>
       <c r="K88" t="s">
-        <v>415</v>
+        <v>666</v>
       </c>
       <c r="L88" t="s">
-        <v>416</v>
+        <v>667</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>417</v>
-      </c>
-      <c r="B89">
-        <v>-32</v>
+        <v>668</v>
+      </c>
+      <c r="B89" t="s">
+        <v>48</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D89" s="1">
-        <v>45372</v>
+        <v>45491</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>669</v>
       </c>
       <c r="F89" t="s">
-        <v>418</v>
+        <v>670</v>
       </c>
       <c r="G89" t="s">
-        <v>217</v>
-      </c>
-      <c r="H89" s="2">
-        <v>59.99</v>
+        <v>670</v>
+      </c>
+      <c r="H89" t="s">
+        <v>27</v>
       </c>
       <c r="I89">
-        <v>1010</v>
-      </c>
-      <c r="J89">
-        <v>9960</v>
+        <v>8060</v>
       </c>
       <c r="K89" t="s">
-        <v>419</v>
+        <v>671</v>
       </c>
       <c r="L89" t="s">
-        <v>420</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="B90">
-        <v>-39</v>
+        <v>-19</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" s="1">
-        <v>43413</v>
+        <v>41586</v>
       </c>
       <c r="E90" t="s">
-        <v>123</v>
+        <v>375</v>
       </c>
       <c r="F90" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>376</v>
       </c>
       <c r="H90" s="2">
-        <v>49.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="I90">
-        <v>7579</v>
+        <v>5900</v>
       </c>
       <c r="J90">
-        <v>189667</v>
+        <v>235564</v>
       </c>
       <c r="K90" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="L90" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>424</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
+        <v>673</v>
+      </c>
+      <c r="B91" t="s">
+        <v>117</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" s="1">
-        <v>45383</v>
+        <v>45176</v>
       </c>
       <c r="E91" t="s">
-        <v>289</v>
+        <v>107</v>
       </c>
       <c r="F91" t="s">
-        <v>425</v>
+        <v>674</v>
       </c>
       <c r="G91" t="s">
-        <v>549</v>
+        <v>198</v>
       </c>
       <c r="H91" s="2">
-        <v>7.99</v>
+        <v>59.99</v>
       </c>
       <c r="I91">
-        <v>4998</v>
+        <v>2156</v>
       </c>
       <c r="J91">
-        <v>29049</v>
+        <v>29587</v>
       </c>
       <c r="K91" t="s">
-        <v>427</v>
+        <v>675</v>
       </c>
       <c r="L91" t="s">
-        <v>428</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>429</v>
-      </c>
-      <c r="B92" t="s">
-        <v>117</v>
+        <v>173</v>
+      </c>
+      <c r="B92">
+        <v>-18</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D92" s="1">
-        <v>43990</v>
+        <v>44508</v>
       </c>
       <c r="E92" t="s">
-        <v>430</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>431</v>
+        <v>102</v>
       </c>
       <c r="G92" t="s">
-        <v>432</v>
+        <v>103</v>
       </c>
       <c r="H92" s="2">
-        <v>29.99</v>
+        <v>59.99</v>
       </c>
       <c r="I92">
-        <v>2757</v>
+        <v>5058</v>
       </c>
       <c r="J92">
-        <v>141467</v>
+        <v>172529</v>
       </c>
       <c r="K92" t="s">
-        <v>433</v>
+        <v>175</v>
       </c>
       <c r="L92" t="s">
-        <v>434</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>435</v>
+        <v>354</v>
       </c>
       <c r="B93">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" s="1">
-        <v>45315</v>
+        <v>44949</v>
       </c>
       <c r="E93" t="s">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="F93" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="G93" t="s">
-        <v>437</v>
+        <v>125</v>
       </c>
       <c r="H93" s="2">
-        <v>29.99</v>
+        <v>59.99</v>
       </c>
       <c r="I93">
-        <v>1356</v>
+        <v>3034</v>
       </c>
       <c r="J93">
-        <v>47724</v>
+        <v>20685</v>
       </c>
       <c r="K93" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="L93" t="s">
-        <v>439</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>440</v>
-      </c>
-      <c r="B94">
-        <v>-24</v>
+        <v>677</v>
+      </c>
+      <c r="B94" t="s">
+        <v>117</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1">
-        <v>42178</v>
+        <v>45418</v>
       </c>
       <c r="E94" t="s">
-        <v>81</v>
+        <v>678</v>
       </c>
       <c r="F94" t="s">
-        <v>441</v>
+        <v>679</v>
       </c>
       <c r="G94" t="s">
-        <v>442</v>
+        <v>679</v>
       </c>
       <c r="H94" s="2">
-        <v>19.989999999999998</v>
+        <v>29.99</v>
       </c>
       <c r="I94">
-        <v>3050</v>
+        <v>1923</v>
       </c>
       <c r="J94">
-        <v>83953</v>
+        <v>42654</v>
       </c>
       <c r="K94" t="s">
-        <v>443</v>
+        <v>680</v>
       </c>
       <c r="L94" t="s">
-        <v>444</v>
+        <v>681</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="B95">
-        <v>-37</v>
+        <v>-22</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D95" s="1">
-        <v>42800</v>
+        <v>45383</v>
       </c>
       <c r="E95" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="F95" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="G95" t="s">
-        <v>125</v>
+        <v>549</v>
       </c>
       <c r="H95" s="2">
-        <v>49.99</v>
+        <v>7.99</v>
       </c>
       <c r="I95">
-        <v>2955</v>
+        <v>4868</v>
       </c>
       <c r="J95">
-        <v>75605</v>
+        <v>29471</v>
       </c>
       <c r="K95" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="L95" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>449</v>
+        <v>252</v>
       </c>
       <c r="B96">
-        <v>-35</v>
+        <v>-43</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D96" s="1">
-        <v>43017</v>
+        <v>45408</v>
       </c>
       <c r="E96" t="s">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="F96" t="s">
-        <v>450</v>
+        <v>254</v>
       </c>
       <c r="G96" t="s">
-        <v>442</v>
-      </c>
-      <c r="H96" t="s">
-        <v>451</v>
+        <v>255</v>
+      </c>
+      <c r="H96" s="2">
+        <v>39.99</v>
       </c>
       <c r="I96">
-        <v>1812</v>
+        <v>2469</v>
       </c>
       <c r="J96">
-        <v>74303</v>
+        <v>44889</v>
       </c>
       <c r="K96" t="s">
-        <v>452</v>
+        <v>256</v>
       </c>
       <c r="L96" t="s">
-        <v>453</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>454</v>
+        <v>682</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" s="1">
-        <v>45498</v>
+        <v>45392</v>
       </c>
       <c r="E97" t="s">
-        <v>123</v>
+        <v>572</v>
       </c>
       <c r="F97" t="s">
-        <v>455</v>
+        <v>683</v>
       </c>
       <c r="G97" t="s">
-        <v>456</v>
+        <v>683</v>
       </c>
       <c r="H97" s="2">
-        <v>59.99</v>
+        <v>23.99</v>
       </c>
       <c r="I97">
-        <v>1237</v>
+        <v>1928</v>
+      </c>
+      <c r="J97">
+        <v>36788</v>
       </c>
       <c r="K97" t="s">
-        <v>457</v>
+        <v>684</v>
       </c>
       <c r="L97" t="s">
-        <v>458</v>
+        <v>685</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>459</v>
-      </c>
-      <c r="B98" t="s">
-        <v>117</v>
+        <v>274</v>
+      </c>
+      <c r="B98">
+        <v>-40</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D98" s="1">
-        <v>45216</v>
+        <v>44608</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="F98" t="s">
-        <v>152</v>
+        <v>276</v>
       </c>
       <c r="G98" t="s">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="H98" s="2">
-        <v>49.99</v>
+        <v>59.99</v>
       </c>
       <c r="I98">
-        <v>943</v>
+        <v>1282</v>
       </c>
       <c r="J98">
-        <v>20463</v>
+        <v>73920</v>
       </c>
       <c r="K98" t="s">
-        <v>460</v>
+        <v>278</v>
       </c>
       <c r="L98" t="s">
-        <v>461</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>462</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
+        <v>686</v>
+      </c>
+      <c r="B99" t="s">
+        <v>117</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1">
-        <v>45447</v>
+        <v>43704</v>
       </c>
       <c r="E99" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="F99" t="s">
-        <v>77</v>
+        <v>687</v>
       </c>
       <c r="G99" t="s">
-        <v>77</v>
+        <v>687</v>
       </c>
       <c r="H99" s="2">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="I99">
-        <v>223</v>
+        <v>2021</v>
       </c>
       <c r="J99">
-        <v>5024</v>
+        <v>160459</v>
+      </c>
+      <c r="K99" t="s">
+        <v>688</v>
       </c>
       <c r="L99" t="s">
-        <v>463</v>
+        <v>689</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>464</v>
+        <v>690</v>
       </c>
       <c r="B100" t="s">
         <v>117</v>
@@ -5793,36 +6155,36 @@
         <v>1</v>
       </c>
       <c r="D100" s="1">
-        <v>44855</v>
+        <v>45365</v>
       </c>
       <c r="E100" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="F100" t="s">
-        <v>351</v>
+        <v>691</v>
       </c>
       <c r="G100" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="H100" s="2">
-        <v>59.99</v>
+        <v>29.99</v>
       </c>
       <c r="I100">
-        <v>2044</v>
+        <v>954</v>
       </c>
       <c r="J100">
-        <v>50600</v>
+        <v>90125</v>
       </c>
       <c r="K100" t="s">
-        <v>465</v>
+        <v>692</v>
       </c>
       <c r="L100" t="s">
-        <v>466</v>
+        <v>693</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>467</v>
+        <v>694</v>
       </c>
       <c r="B101" t="s">
         <v>117</v>
@@ -5831,31 +6193,31 @@
         <v>1</v>
       </c>
       <c r="D101" s="1">
-        <v>43123</v>
+        <v>45224</v>
       </c>
       <c r="E101" t="s">
-        <v>468</v>
+        <v>695</v>
       </c>
       <c r="F101" t="s">
-        <v>469</v>
+        <v>696</v>
       </c>
       <c r="G101" t="s">
-        <v>469</v>
+        <v>697</v>
       </c>
       <c r="H101" s="2">
-        <v>29.99</v>
+        <v>44.99</v>
       </c>
       <c r="I101">
-        <v>4797</v>
+        <v>1649</v>
       </c>
       <c r="J101">
-        <v>250829</v>
+        <v>51713</v>
       </c>
       <c r="K101" t="s">
-        <v>470</v>
+        <v>698</v>
       </c>
       <c r="L101" t="s">
-        <v>471</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -5864,6 +6226,3802 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3978525E-3F5E-9048-BC93-38E6C42116E5}">
+  <dimension ref="A1:L101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>382</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43090</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>20525</v>
+      </c>
+      <c r="J2">
+        <v>2399234</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>346</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41464</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>20924</v>
+      </c>
+      <c r="J3">
+        <v>2280816</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45473</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>67181</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>623</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>67944</v>
+      </c>
+      <c r="J5">
+        <v>8168969</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>125</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44616</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G7" t="s">
+        <v>547</v>
+      </c>
+      <c r="H7" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I7">
+        <v>47657</v>
+      </c>
+      <c r="J7">
+        <v>681149</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>193</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>82284</v>
+      </c>
+      <c r="J8">
+        <v>918863</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45482</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>50192</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>-3</v>
+      </c>
+      <c r="C10">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I10">
+        <v>11130</v>
+      </c>
+      <c r="J10">
+        <v>562486</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45463</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G11" t="s">
+        <v>547</v>
+      </c>
+      <c r="H11" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I11">
+        <v>36260</v>
+      </c>
+      <c r="J11">
+        <v>74979</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>-2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45462</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="I12">
+        <v>15391</v>
+      </c>
+      <c r="J12">
+        <v>18846</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>-4</v>
+      </c>
+      <c r="C13">
+        <v>153</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44419</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>9201</v>
+      </c>
+      <c r="J13">
+        <v>238173</v>
+      </c>
+      <c r="K13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14">
+        <v>-3</v>
+      </c>
+      <c r="C14">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44174</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I14">
+        <v>8710</v>
+      </c>
+      <c r="J14">
+        <v>668206</v>
+      </c>
+      <c r="K14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43739</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <v>4642</v>
+      </c>
+      <c r="J15">
+        <v>607354</v>
+      </c>
+      <c r="K15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>-2</v>
+      </c>
+      <c r="C16">
+        <v>496</v>
+      </c>
+      <c r="D16" s="1">
+        <v>42108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="2">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="I16">
+        <v>23641</v>
+      </c>
+      <c r="J16">
+        <v>1677214</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45523</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K17" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18">
+        <v>-5</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43804</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I18">
+        <v>14648</v>
+      </c>
+      <c r="J18">
+        <v>550821</v>
+      </c>
+      <c r="K18" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <v>-2</v>
+      </c>
+      <c r="C19">
+        <v>241</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41501</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>11615</v>
+      </c>
+      <c r="J19">
+        <v>512752</v>
+      </c>
+      <c r="K19" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>-8</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44264</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I20">
+        <v>17736</v>
+      </c>
+      <c r="J20">
+        <v>220264</v>
+      </c>
+      <c r="K20" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>-3</v>
+      </c>
+      <c r="C21">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I21">
+        <v>10114</v>
+      </c>
+      <c r="J21">
+        <v>79239</v>
+      </c>
+      <c r="K21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I22">
+        <v>8231</v>
+      </c>
+      <c r="J22">
+        <v>269281</v>
+      </c>
+      <c r="K22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44579</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <v>1014</v>
+      </c>
+      <c r="J23">
+        <v>75171</v>
+      </c>
+      <c r="K23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>453</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42339</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I24">
+        <v>10402</v>
+      </c>
+      <c r="J24">
+        <v>1107988</v>
+      </c>
+      <c r="K24" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25">
+        <v>-5</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42426</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="I25">
+        <v>16701</v>
+      </c>
+      <c r="J25">
+        <v>626295</v>
+      </c>
+      <c r="K25" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41358</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>5035</v>
+      </c>
+      <c r="J26">
+        <v>584441</v>
+      </c>
+      <c r="K26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>473</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I27">
+        <v>13837</v>
+      </c>
+      <c r="J27">
+        <v>897726</v>
+      </c>
+      <c r="K27" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45284</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28">
+        <v>930</v>
+      </c>
+      <c r="J28">
+        <v>4389</v>
+      </c>
+      <c r="K28" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29">
+        <v>-5</v>
+      </c>
+      <c r="C29">
+        <v>381</v>
+      </c>
+      <c r="D29" s="1">
+        <v>42535</v>
+      </c>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I29">
+        <v>5492</v>
+      </c>
+      <c r="J29">
+        <v>531801</v>
+      </c>
+      <c r="K29" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>9473</v>
+      </c>
+      <c r="J30">
+        <v>283116</v>
+      </c>
+      <c r="K30" t="s">
+        <v>153</v>
+      </c>
+      <c r="L30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31">
+        <v>-4</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1">
+        <v>41688</v>
+      </c>
+      <c r="E31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I31">
+        <v>1182</v>
+      </c>
+      <c r="J31">
+        <v>69399</v>
+      </c>
+      <c r="K31" t="s">
+        <v>158</v>
+      </c>
+      <c r="L31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32">
+        <v>-13</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>42142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I32">
+        <v>8942</v>
+      </c>
+      <c r="J32">
+        <v>718431</v>
+      </c>
+      <c r="K32" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33">
+        <v>-10</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1">
+        <v>41200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I33">
+        <v>13778</v>
+      </c>
+      <c r="J33">
+        <v>584173</v>
+      </c>
+      <c r="K33" t="s">
+        <v>166</v>
+      </c>
+      <c r="L33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34">
+        <v>-12</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44967</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I34">
+        <v>4645</v>
+      </c>
+      <c r="J34">
+        <v>197179</v>
+      </c>
+      <c r="K34" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35">
+        <v>-9</v>
+      </c>
+      <c r="C35">
+        <v>151</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44508</v>
+      </c>
+      <c r="E35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I35">
+        <v>5396</v>
+      </c>
+      <c r="J35">
+        <v>172206</v>
+      </c>
+      <c r="K35" t="s">
+        <v>175</v>
+      </c>
+      <c r="L35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36">
+        <v>-4</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45456</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I36">
+        <v>1272</v>
+      </c>
+      <c r="J36">
+        <v>3736</v>
+      </c>
+      <c r="K36" t="s">
+        <v>178</v>
+      </c>
+      <c r="L36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45343</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="2">
+        <v>34.99</v>
+      </c>
+      <c r="I37">
+        <v>2689</v>
+      </c>
+      <c r="J37">
+        <v>87344</v>
+      </c>
+      <c r="K37" t="s">
+        <v>183</v>
+      </c>
+      <c r="L37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>105</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44862</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I38">
+        <v>4781</v>
+      </c>
+      <c r="J38">
+        <v>323487</v>
+      </c>
+      <c r="K38" t="s">
+        <v>188</v>
+      </c>
+      <c r="L38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39">
+        <v>-11</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43545</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>547</v>
+      </c>
+      <c r="G39" t="s">
+        <v>192</v>
+      </c>
+      <c r="H39" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I39">
+        <v>4941</v>
+      </c>
+      <c r="J39">
+        <v>212001</v>
+      </c>
+      <c r="K39" t="s">
+        <v>193</v>
+      </c>
+      <c r="L39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40">
+        <v>-2</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>42663</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H40" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I40">
+        <v>5361</v>
+      </c>
+      <c r="J40">
+        <v>232717</v>
+      </c>
+      <c r="K40" t="s">
+        <v>199</v>
+      </c>
+      <c r="L40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41">
+        <v>-1</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43935</v>
+      </c>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I41">
+        <v>1410</v>
+      </c>
+      <c r="J41">
+        <v>60156</v>
+      </c>
+      <c r="K41" t="s">
+        <v>204</v>
+      </c>
+      <c r="L41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45420</v>
+      </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" t="s">
+        <v>207</v>
+      </c>
+      <c r="H42" s="2">
+        <v>34.99</v>
+      </c>
+      <c r="I42">
+        <v>1995</v>
+      </c>
+      <c r="J42">
+        <v>84063</v>
+      </c>
+      <c r="K42" t="s">
+        <v>208</v>
+      </c>
+      <c r="L42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43">
+        <v>-13</v>
+      </c>
+      <c r="C43">
+        <v>195</v>
+      </c>
+      <c r="D43" s="1">
+        <v>41884</v>
+      </c>
+      <c r="E43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43">
+        <v>4215</v>
+      </c>
+      <c r="J43">
+        <v>144202</v>
+      </c>
+      <c r="K43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45330</v>
+      </c>
+      <c r="E44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I44">
+        <v>6261</v>
+      </c>
+      <c r="J44">
+        <v>652529</v>
+      </c>
+      <c r="K44" t="s">
+        <v>218</v>
+      </c>
+      <c r="L44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>132</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44603</v>
+      </c>
+      <c r="E45" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45">
+        <v>571</v>
+      </c>
+      <c r="J45">
+        <v>200119</v>
+      </c>
+      <c r="K45" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46">
+        <v>-10</v>
+      </c>
+      <c r="C46">
+        <v>73</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I46">
+        <v>3732</v>
+      </c>
+      <c r="J46">
+        <v>178770</v>
+      </c>
+      <c r="K46" t="s">
+        <v>230</v>
+      </c>
+      <c r="L46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47">
+        <v>-12</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45194</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I47">
+        <v>462</v>
+      </c>
+      <c r="J47">
+        <v>15100</v>
+      </c>
+      <c r="L47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42811</v>
+      </c>
+      <c r="E48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s">
+        <v>235</v>
+      </c>
+      <c r="G48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I48">
+        <v>1392</v>
+      </c>
+      <c r="J48">
+        <v>95841</v>
+      </c>
+      <c r="K48" t="s">
+        <v>236</v>
+      </c>
+      <c r="L48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>495</v>
+      </c>
+      <c r="D49" s="1">
+        <v>41733</v>
+      </c>
+      <c r="E49" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" t="s">
+        <v>240</v>
+      </c>
+      <c r="G49" t="s">
+        <v>203</v>
+      </c>
+      <c r="H49" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I49">
+        <v>764</v>
+      </c>
+      <c r="J49">
+        <v>121812</v>
+      </c>
+      <c r="K49" t="s">
+        <v>241</v>
+      </c>
+      <c r="L49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45187</v>
+      </c>
+      <c r="E50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I50">
+        <v>1733</v>
+      </c>
+      <c r="J50">
+        <v>28916</v>
+      </c>
+      <c r="K50" t="s">
+        <v>245</v>
+      </c>
+      <c r="L50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45450</v>
+      </c>
+      <c r="E51" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" t="s">
+        <v>249</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51">
+        <v>11607</v>
+      </c>
+      <c r="J51">
+        <v>38298</v>
+      </c>
+      <c r="K51" t="s">
+        <v>250</v>
+      </c>
+      <c r="L51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52">
+        <v>-18</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45408</v>
+      </c>
+      <c r="E52" t="s">
+        <v>253</v>
+      </c>
+      <c r="F52" t="s">
+        <v>254</v>
+      </c>
+      <c r="G52" t="s">
+        <v>255</v>
+      </c>
+      <c r="H52" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I52">
+        <v>2492</v>
+      </c>
+      <c r="J52">
+        <v>44649</v>
+      </c>
+      <c r="K52" t="s">
+        <v>256</v>
+      </c>
+      <c r="L52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53">
+        <v>-1</v>
+      </c>
+      <c r="C53">
+        <v>177</v>
+      </c>
+      <c r="D53" s="1">
+        <v>42879</v>
+      </c>
+      <c r="E53" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" t="s">
+        <v>260</v>
+      </c>
+      <c r="G53" t="s">
+        <v>260</v>
+      </c>
+      <c r="H53" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="I53">
+        <v>744</v>
+      </c>
+      <c r="J53">
+        <v>55695</v>
+      </c>
+      <c r="K53" t="s">
+        <v>261</v>
+      </c>
+      <c r="L53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54">
+        <v>-7</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" t="s">
+        <v>264</v>
+      </c>
+      <c r="G54" t="s">
+        <v>264</v>
+      </c>
+      <c r="H54" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I54">
+        <v>1560</v>
+      </c>
+      <c r="J54">
+        <v>27593</v>
+      </c>
+      <c r="K54" t="s">
+        <v>265</v>
+      </c>
+      <c r="L54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55">
+        <v>-5</v>
+      </c>
+      <c r="C55">
+        <v>22</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43985</v>
+      </c>
+      <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I55">
+        <v>3695</v>
+      </c>
+      <c r="J55">
+        <v>289121</v>
+      </c>
+      <c r="K55" t="s">
+        <v>269</v>
+      </c>
+      <c r="L55" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>271</v>
+      </c>
+      <c r="B56">
+        <v>-12</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>42402</v>
+      </c>
+      <c r="E56" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I56">
+        <v>3136</v>
+      </c>
+      <c r="J56">
+        <v>127905</v>
+      </c>
+      <c r="K56" t="s">
+        <v>272</v>
+      </c>
+      <c r="L56" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57">
+        <v>-18</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44608</v>
+      </c>
+      <c r="E57" t="s">
+        <v>275</v>
+      </c>
+      <c r="F57" t="s">
+        <v>276</v>
+      </c>
+      <c r="G57" t="s">
+        <v>277</v>
+      </c>
+      <c r="H57" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I57">
+        <v>1663</v>
+      </c>
+      <c r="J57">
+        <v>73803</v>
+      </c>
+      <c r="K57" t="s">
+        <v>278</v>
+      </c>
+      <c r="L57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58">
+        <v>-15</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44519</v>
+      </c>
+      <c r="E58" t="s">
+        <v>281</v>
+      </c>
+      <c r="F58" t="s">
+        <v>282</v>
+      </c>
+      <c r="G58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I58">
+        <v>5330</v>
+      </c>
+      <c r="J58">
+        <v>208997</v>
+      </c>
+      <c r="K58" t="s">
+        <v>548</v>
+      </c>
+      <c r="L58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59">
+        <v>-13</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45240</v>
+      </c>
+      <c r="E59" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" t="s">
+        <v>186</v>
+      </c>
+      <c r="G59" t="s">
+        <v>187</v>
+      </c>
+      <c r="H59" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I59">
+        <v>497</v>
+      </c>
+      <c r="J59">
+        <v>10083</v>
+      </c>
+      <c r="K59" t="s">
+        <v>286</v>
+      </c>
+      <c r="L59" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>288</v>
+      </c>
+      <c r="B60">
+        <v>-19</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45273</v>
+      </c>
+      <c r="E60" t="s">
+        <v>289</v>
+      </c>
+      <c r="F60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G60" t="s">
+        <v>290</v>
+      </c>
+      <c r="H60" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I60">
+        <v>4329</v>
+      </c>
+      <c r="J60">
+        <v>145278</v>
+      </c>
+      <c r="K60" t="s">
+        <v>291</v>
+      </c>
+      <c r="L60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44092</v>
+      </c>
+      <c r="E61" t="s">
+        <v>294</v>
+      </c>
+      <c r="F61" t="s">
+        <v>295</v>
+      </c>
+      <c r="G61" t="s">
+        <v>295</v>
+      </c>
+      <c r="H61" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="I61">
+        <v>9835</v>
+      </c>
+      <c r="J61">
+        <v>564258</v>
+      </c>
+      <c r="K61" t="s">
+        <v>296</v>
+      </c>
+      <c r="L61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45428</v>
+      </c>
+      <c r="E62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" t="s">
+        <v>299</v>
+      </c>
+      <c r="G62" t="s">
+        <v>217</v>
+      </c>
+      <c r="H62" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I62">
+        <v>2786</v>
+      </c>
+      <c r="J62">
+        <v>23946</v>
+      </c>
+      <c r="K62" t="s">
+        <v>300</v>
+      </c>
+      <c r="L62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45539</v>
+      </c>
+      <c r="E63" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" t="s">
+        <v>303</v>
+      </c>
+      <c r="G63" t="s">
+        <v>103</v>
+      </c>
+      <c r="H63" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="K63" t="s">
+        <v>304</v>
+      </c>
+      <c r="L63" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43846</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>307</v>
+      </c>
+      <c r="G64" t="s">
+        <v>308</v>
+      </c>
+      <c r="H64" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I64">
+        <v>753</v>
+      </c>
+      <c r="J64">
+        <v>38190</v>
+      </c>
+      <c r="K64" t="s">
+        <v>309</v>
+      </c>
+      <c r="L64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>311</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>39365</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65">
+        <v>10794</v>
+      </c>
+      <c r="J65">
+        <v>1110984</v>
+      </c>
+      <c r="K65" t="s">
+        <v>312</v>
+      </c>
+      <c r="L65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>314</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45484</v>
+      </c>
+      <c r="E66" t="s">
+        <v>315</v>
+      </c>
+      <c r="F66" t="s">
+        <v>316</v>
+      </c>
+      <c r="G66" t="s">
+        <v>317</v>
+      </c>
+      <c r="H66" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="I66">
+        <v>1066</v>
+      </c>
+      <c r="K66" t="s">
+        <v>318</v>
+      </c>
+      <c r="L66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67">
+        <v>-8</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43390</v>
+      </c>
+      <c r="E67" t="s">
+        <v>321</v>
+      </c>
+      <c r="F67" t="s">
+        <v>322</v>
+      </c>
+      <c r="G67" t="s">
+        <v>322</v>
+      </c>
+      <c r="H67" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I67">
+        <v>2017</v>
+      </c>
+      <c r="J67">
+        <v>161126</v>
+      </c>
+      <c r="K67" t="s">
+        <v>323</v>
+      </c>
+      <c r="L67" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>325</v>
+      </c>
+      <c r="B68">
+        <v>-13</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45342</v>
+      </c>
+      <c r="E68" t="s">
+        <v>326</v>
+      </c>
+      <c r="F68" t="s">
+        <v>327</v>
+      </c>
+      <c r="G68" t="s">
+        <v>327</v>
+      </c>
+      <c r="H68" s="2">
+        <v>12.99</v>
+      </c>
+      <c r="I68">
+        <v>5774</v>
+      </c>
+      <c r="J68">
+        <v>42434</v>
+      </c>
+      <c r="K68" t="s">
+        <v>328</v>
+      </c>
+      <c r="L68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>330</v>
+      </c>
+      <c r="B69">
+        <v>-15</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>45105</v>
+      </c>
+      <c r="E69" t="s">
+        <v>331</v>
+      </c>
+      <c r="F69" t="s">
+        <v>332</v>
+      </c>
+      <c r="G69" t="s">
+        <v>332</v>
+      </c>
+      <c r="H69" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I69">
+        <v>4328</v>
+      </c>
+      <c r="J69">
+        <v>99391</v>
+      </c>
+      <c r="K69" t="s">
+        <v>333</v>
+      </c>
+      <c r="L69" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44595</v>
+      </c>
+      <c r="E70" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" t="s">
+        <v>336</v>
+      </c>
+      <c r="G70" t="s">
+        <v>336</v>
+      </c>
+      <c r="H70" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I70">
+        <v>2021</v>
+      </c>
+      <c r="J70">
+        <v>129291</v>
+      </c>
+      <c r="K70" t="s">
+        <v>337</v>
+      </c>
+      <c r="L70" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71">
+        <v>19</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45222</v>
+      </c>
+      <c r="E71" t="s">
+        <v>340</v>
+      </c>
+      <c r="F71" t="s">
+        <v>341</v>
+      </c>
+      <c r="G71" t="s">
+        <v>341</v>
+      </c>
+      <c r="H71" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="I71">
+        <v>9752</v>
+      </c>
+      <c r="J71">
+        <v>335990</v>
+      </c>
+      <c r="K71" t="s">
+        <v>342</v>
+      </c>
+      <c r="L71" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>344</v>
+      </c>
+      <c r="B72">
+        <v>-9</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>42527</v>
+      </c>
+      <c r="E72" t="s">
+        <v>345</v>
+      </c>
+      <c r="F72" t="s">
+        <v>346</v>
+      </c>
+      <c r="G72" t="s">
+        <v>347</v>
+      </c>
+      <c r="H72" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I72">
+        <v>3581</v>
+      </c>
+      <c r="J72">
+        <v>213479</v>
+      </c>
+      <c r="K72" t="s">
+        <v>348</v>
+      </c>
+      <c r="L72" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>350</v>
+      </c>
+      <c r="B73">
+        <v>-1</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45324</v>
+      </c>
+      <c r="E73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" t="s">
+        <v>351</v>
+      </c>
+      <c r="G73" t="s">
+        <v>277</v>
+      </c>
+      <c r="H73" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I73">
+        <v>1067</v>
+      </c>
+      <c r="J73">
+        <v>17048</v>
+      </c>
+      <c r="K73" t="s">
+        <v>352</v>
+      </c>
+      <c r="L73" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B74">
+        <v>-32</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44949</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" t="s">
+        <v>355</v>
+      </c>
+      <c r="G74" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I74">
+        <v>2997</v>
+      </c>
+      <c r="J74">
+        <v>20547</v>
+      </c>
+      <c r="K74" t="s">
+        <v>356</v>
+      </c>
+      <c r="L74" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>358</v>
+      </c>
+      <c r="B75">
+        <v>-15</v>
+      </c>
+      <c r="C75">
+        <v>14</v>
+      </c>
+      <c r="D75" s="1">
+        <v>42499</v>
+      </c>
+      <c r="E75" t="s">
+        <v>345</v>
+      </c>
+      <c r="F75" t="s">
+        <v>346</v>
+      </c>
+      <c r="G75" t="s">
+        <v>347</v>
+      </c>
+      <c r="H75" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I75">
+        <v>1054</v>
+      </c>
+      <c r="J75">
+        <v>117985</v>
+      </c>
+      <c r="K75" t="s">
+        <v>359</v>
+      </c>
+      <c r="L75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76">
+        <v>-31</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44509</v>
+      </c>
+      <c r="E76" t="s">
+        <v>345</v>
+      </c>
+      <c r="F76" t="s">
+        <v>362</v>
+      </c>
+      <c r="G76" t="s">
+        <v>362</v>
+      </c>
+      <c r="H76" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I76">
+        <v>1773</v>
+      </c>
+      <c r="J76">
+        <v>24635</v>
+      </c>
+      <c r="K76" t="s">
+        <v>363</v>
+      </c>
+      <c r="L76" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>365</v>
+      </c>
+      <c r="B77">
+        <v>-28</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>42314</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" t="s">
+        <v>366</v>
+      </c>
+      <c r="G77" t="s">
+        <v>187</v>
+      </c>
+      <c r="H77" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="I77">
+        <v>2516</v>
+      </c>
+      <c r="J77">
+        <v>128812</v>
+      </c>
+      <c r="K77" t="s">
+        <v>367</v>
+      </c>
+      <c r="L77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>369</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3">
+        <v>43405</v>
+      </c>
+      <c r="E78" t="s">
+        <v>370</v>
+      </c>
+      <c r="F78" t="s">
+        <v>371</v>
+      </c>
+      <c r="G78" t="s">
+        <v>371</v>
+      </c>
+      <c r="H78" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="I78">
+        <v>11948</v>
+      </c>
+      <c r="J78">
+        <v>741388</v>
+      </c>
+      <c r="K78" t="s">
+        <v>372</v>
+      </c>
+      <c r="L78" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>374</v>
+      </c>
+      <c r="B79">
+        <v>-14</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>41586</v>
+      </c>
+      <c r="E79" t="s">
+        <v>375</v>
+      </c>
+      <c r="F79" t="s">
+        <v>376</v>
+      </c>
+      <c r="G79" t="s">
+        <v>376</v>
+      </c>
+      <c r="H79" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I79">
+        <v>6027</v>
+      </c>
+      <c r="J79">
+        <v>235042</v>
+      </c>
+      <c r="K79" t="s">
+        <v>377</v>
+      </c>
+      <c r="L79" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>379</v>
+      </c>
+      <c r="B80">
+        <v>-11</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>43320</v>
+      </c>
+      <c r="E80" t="s">
+        <v>123</v>
+      </c>
+      <c r="F80" t="s">
+        <v>264</v>
+      </c>
+      <c r="G80" t="s">
+        <v>264</v>
+      </c>
+      <c r="H80" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I80">
+        <v>3256</v>
+      </c>
+      <c r="J80">
+        <v>270499</v>
+      </c>
+      <c r="K80" t="s">
+        <v>380</v>
+      </c>
+      <c r="L80" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>382</v>
+      </c>
+      <c r="B81">
+        <v>-15</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>44280</v>
+      </c>
+      <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" t="s">
+        <v>383</v>
+      </c>
+      <c r="G81" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I81">
+        <v>3010</v>
+      </c>
+      <c r="J81">
+        <v>145927</v>
+      </c>
+      <c r="K81" t="s">
+        <v>384</v>
+      </c>
+      <c r="L81" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>386</v>
+      </c>
+      <c r="B82">
+        <v>-20</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>44581</v>
+      </c>
+      <c r="E82" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" t="s">
+        <v>387</v>
+      </c>
+      <c r="G82" t="s">
+        <v>387</v>
+      </c>
+      <c r="H82" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I82">
+        <v>2232</v>
+      </c>
+      <c r="J82">
+        <v>24901</v>
+      </c>
+      <c r="K82" t="s">
+        <v>388</v>
+      </c>
+      <c r="L82" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>390</v>
+      </c>
+      <c r="B83">
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45450</v>
+      </c>
+      <c r="E83" t="s">
+        <v>391</v>
+      </c>
+      <c r="F83" t="s">
+        <v>392</v>
+      </c>
+      <c r="G83" t="s">
+        <v>392</v>
+      </c>
+      <c r="H83" s="2">
+        <v>33.32</v>
+      </c>
+      <c r="I83">
+        <v>3609</v>
+      </c>
+      <c r="J83">
+        <v>19133</v>
+      </c>
+      <c r="K83" t="s">
+        <v>393</v>
+      </c>
+      <c r="L83" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>395</v>
+      </c>
+      <c r="B84">
+        <v>-13</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>45162</v>
+      </c>
+      <c r="E84" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" t="s">
+        <v>547</v>
+      </c>
+      <c r="G84" t="s">
+        <v>547</v>
+      </c>
+      <c r="H84" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I84">
+        <v>1197</v>
+      </c>
+      <c r="J84">
+        <v>54315</v>
+      </c>
+      <c r="K84" t="s">
+        <v>396</v>
+      </c>
+      <c r="L84" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>398</v>
+      </c>
+      <c r="B85">
+        <v>-6</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1">
+        <v>44075</v>
+      </c>
+      <c r="E85" t="s">
+        <v>399</v>
+      </c>
+      <c r="F85" t="s">
+        <v>346</v>
+      </c>
+      <c r="G85" t="s">
+        <v>347</v>
+      </c>
+      <c r="H85" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I85">
+        <v>942</v>
+      </c>
+      <c r="J85">
+        <v>71316</v>
+      </c>
+      <c r="K85" t="s">
+        <v>400</v>
+      </c>
+      <c r="L85" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86">
+        <v>-5</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>44060</v>
+      </c>
+      <c r="E86" t="s">
+        <v>403</v>
+      </c>
+      <c r="F86" t="s">
+        <v>404</v>
+      </c>
+      <c r="G86" t="s">
+        <v>103</v>
+      </c>
+      <c r="H86" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I86">
+        <v>1081</v>
+      </c>
+      <c r="J86">
+        <v>57341</v>
+      </c>
+      <c r="K86" t="s">
+        <v>405</v>
+      </c>
+      <c r="L86" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87">
+        <v>-5</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>44732</v>
+      </c>
+      <c r="E87" t="s">
+        <v>408</v>
+      </c>
+      <c r="F87" t="s">
+        <v>409</v>
+      </c>
+      <c r="G87" t="s">
+        <v>410</v>
+      </c>
+      <c r="H87" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I87">
+        <v>3950</v>
+      </c>
+      <c r="J87">
+        <v>271798</v>
+      </c>
+      <c r="K87" t="s">
+        <v>411</v>
+      </c>
+      <c r="L87" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>413</v>
+      </c>
+      <c r="B88">
+        <v>-24</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45322</v>
+      </c>
+      <c r="E88" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" t="s">
+        <v>414</v>
+      </c>
+      <c r="G88" t="s">
+        <v>414</v>
+      </c>
+      <c r="H88" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I88">
+        <v>748</v>
+      </c>
+      <c r="J88">
+        <v>30962</v>
+      </c>
+      <c r="K88" t="s">
+        <v>415</v>
+      </c>
+      <c r="L88" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>417</v>
+      </c>
+      <c r="B89">
+        <v>-32</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45372</v>
+      </c>
+      <c r="E89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" t="s">
+        <v>418</v>
+      </c>
+      <c r="G89" t="s">
+        <v>217</v>
+      </c>
+      <c r="H89" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I89">
+        <v>1010</v>
+      </c>
+      <c r="J89">
+        <v>9960</v>
+      </c>
+      <c r="K89" t="s">
+        <v>419</v>
+      </c>
+      <c r="L89" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>421</v>
+      </c>
+      <c r="B90">
+        <v>-39</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>43413</v>
+      </c>
+      <c r="E90" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" t="s">
+        <v>282</v>
+      </c>
+      <c r="G90" t="s">
+        <v>44</v>
+      </c>
+      <c r="H90" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I90">
+        <v>7579</v>
+      </c>
+      <c r="J90">
+        <v>189667</v>
+      </c>
+      <c r="K90" t="s">
+        <v>422</v>
+      </c>
+      <c r="L90" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>424</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45383</v>
+      </c>
+      <c r="E91" t="s">
+        <v>289</v>
+      </c>
+      <c r="F91" t="s">
+        <v>425</v>
+      </c>
+      <c r="G91" t="s">
+        <v>549</v>
+      </c>
+      <c r="H91" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="I91">
+        <v>4998</v>
+      </c>
+      <c r="J91">
+        <v>29049</v>
+      </c>
+      <c r="K91" t="s">
+        <v>427</v>
+      </c>
+      <c r="L91" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>429</v>
+      </c>
+      <c r="B92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>43990</v>
+      </c>
+      <c r="E92" t="s">
+        <v>430</v>
+      </c>
+      <c r="F92" t="s">
+        <v>431</v>
+      </c>
+      <c r="G92" t="s">
+        <v>432</v>
+      </c>
+      <c r="H92" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I92">
+        <v>2757</v>
+      </c>
+      <c r="J92">
+        <v>141467</v>
+      </c>
+      <c r="K92" t="s">
+        <v>433</v>
+      </c>
+      <c r="L92" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>435</v>
+      </c>
+      <c r="B93">
+        <v>-16</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>45315</v>
+      </c>
+      <c r="E93" t="s">
+        <v>436</v>
+      </c>
+      <c r="F93" t="s">
+        <v>437</v>
+      </c>
+      <c r="G93" t="s">
+        <v>437</v>
+      </c>
+      <c r="H93" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I93">
+        <v>1356</v>
+      </c>
+      <c r="J93">
+        <v>47724</v>
+      </c>
+      <c r="K93" t="s">
+        <v>438</v>
+      </c>
+      <c r="L93" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>440</v>
+      </c>
+      <c r="B94">
+        <v>-24</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1">
+        <v>42178</v>
+      </c>
+      <c r="E94" t="s">
+        <v>81</v>
+      </c>
+      <c r="F94" t="s">
+        <v>441</v>
+      </c>
+      <c r="G94" t="s">
+        <v>442</v>
+      </c>
+      <c r="H94" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I94">
+        <v>3050</v>
+      </c>
+      <c r="J94">
+        <v>83953</v>
+      </c>
+      <c r="K94" t="s">
+        <v>443</v>
+      </c>
+      <c r="L94" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>445</v>
+      </c>
+      <c r="B95">
+        <v>-37</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1">
+        <v>42800</v>
+      </c>
+      <c r="E95" t="s">
+        <v>81</v>
+      </c>
+      <c r="F95" t="s">
+        <v>446</v>
+      </c>
+      <c r="G95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H95" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I95">
+        <v>2955</v>
+      </c>
+      <c r="J95">
+        <v>75605</v>
+      </c>
+      <c r="K95" t="s">
+        <v>447</v>
+      </c>
+      <c r="L95" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>449</v>
+      </c>
+      <c r="B96">
+        <v>-35</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1">
+        <v>43017</v>
+      </c>
+      <c r="E96" t="s">
+        <v>87</v>
+      </c>
+      <c r="F96" t="s">
+        <v>450</v>
+      </c>
+      <c r="G96" t="s">
+        <v>442</v>
+      </c>
+      <c r="H96" t="s">
+        <v>451</v>
+      </c>
+      <c r="I96">
+        <v>1812</v>
+      </c>
+      <c r="J96">
+        <v>74303</v>
+      </c>
+      <c r="K96" t="s">
+        <v>452</v>
+      </c>
+      <c r="L96" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>454</v>
+      </c>
+      <c r="B97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>45498</v>
+      </c>
+      <c r="E97" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" t="s">
+        <v>455</v>
+      </c>
+      <c r="G97" t="s">
+        <v>456</v>
+      </c>
+      <c r="H97" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I97">
+        <v>1237</v>
+      </c>
+      <c r="K97" t="s">
+        <v>457</v>
+      </c>
+      <c r="L97" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>459</v>
+      </c>
+      <c r="B98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>45216</v>
+      </c>
+      <c r="E98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98" t="s">
+        <v>152</v>
+      </c>
+      <c r="H98" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I98">
+        <v>943</v>
+      </c>
+      <c r="J98">
+        <v>20463</v>
+      </c>
+      <c r="K98" t="s">
+        <v>460</v>
+      </c>
+      <c r="L98" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>462</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E99" t="s">
+        <v>42</v>
+      </c>
+      <c r="F99" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I99">
+        <v>223</v>
+      </c>
+      <c r="J99">
+        <v>5024</v>
+      </c>
+      <c r="L99" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>464</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>44855</v>
+      </c>
+      <c r="E100" t="s">
+        <v>72</v>
+      </c>
+      <c r="F100" t="s">
+        <v>351</v>
+      </c>
+      <c r="G100" t="s">
+        <v>277</v>
+      </c>
+      <c r="H100" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I100">
+        <v>2044</v>
+      </c>
+      <c r="J100">
+        <v>50600</v>
+      </c>
+      <c r="K100" t="s">
+        <v>465</v>
+      </c>
+      <c r="L100" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>467</v>
+      </c>
+      <c r="B101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>43123</v>
+      </c>
+      <c r="E101" t="s">
+        <v>468</v>
+      </c>
+      <c r="F101" t="s">
+        <v>469</v>
+      </c>
+      <c r="G101" t="s">
+        <v>469</v>
+      </c>
+      <c r="H101" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I101">
+        <v>4797</v>
+      </c>
+      <c r="J101">
+        <v>250829</v>
+      </c>
+      <c r="K101" t="s">
+        <v>470</v>
+      </c>
+      <c r="L101" t="s">
+        <v>471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC291C4-96D0-D14C-9991-8EE742F649AB}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -9650,7 +13808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD458E3F-9E53-804A-9E7D-8111A280BFC8}">
   <dimension ref="A1:L101"/>
   <sheetViews>

--- a/data/total_steam_titles.xlsx
+++ b/data/total_steam_titles.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenwang/Desktop/Makers/Steam_Roblox_Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C2EC83-DD6B-9742-88E2-446B1B457A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE7798-8FBA-9846-98A9-D34853B266D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1240" windowWidth="24960" windowHeight="16760" activeTab="1" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
+    <workbookView xWindow="4440" yWindow="1240" windowWidth="24960" windowHeight="16760" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-07-29" sheetId="4" r:id="rId1"/>
-    <sheet name="2024-07-23" sheetId="3" r:id="rId2"/>
-    <sheet name="2024-07-18" sheetId="1" r:id="rId3"/>
-    <sheet name="2024-07-11" sheetId="2" r:id="rId4"/>
+    <sheet name="2024-08-05" sheetId="5" r:id="rId1"/>
+    <sheet name="2024-07-29" sheetId="4" r:id="rId2"/>
+    <sheet name="2024-07-23" sheetId="3" r:id="rId3"/>
+    <sheet name="2024-07-18" sheetId="1" r:id="rId4"/>
+    <sheet name="2024-07-11" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="802">
   <si>
     <t>Game</t>
   </si>
@@ -2141,6 +2142,313 @@
   </si>
   <si>
     <t>https://store.steampowered.com/app/2399830/ARK_Survival_Ascended?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Action, Free To Play</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Massively Multiplayer, Free To Play</t>
+  </si>
+  <si>
+    <t>Action, Adventure, RPG, Free To Play</t>
+  </si>
+  <si>
+    <t>Action, Strategy, Free To Play</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Free To Play</t>
+  </si>
+  <si>
+    <t>Action, Adventure, RPG, Simulation, Strategy, Free To Play</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Massively Multiplayer, RPG, Free To Play</t>
+  </si>
+  <si>
+    <t>Action, RPG, Free To Play</t>
+  </si>
+  <si>
+    <t>Call of Duty¬Æ: Modern Warfare¬Æ III - BlackCell (Season 5)</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2790720/Call_of_Duty_Modern_Warfare_III__BlackCell_Season_5?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Action, Massively Multiplayer, Simulation, Free To Play</t>
+  </si>
+  <si>
+    <t>Kingdom Rush 5: Alliance TD</t>
+  </si>
+  <si>
+    <t>Indie, Strategy</t>
+  </si>
+  <si>
+    <t>Ironhide Game Studio</t>
+  </si>
+  <si>
+    <t>While a formidable evil emerges, an unexpected alliance is taking shape! It will take the finest warriors of Linirea and the relentless Dark Army to stop it. Beware! Though they may journey side by side the ever-changing winds of fate could swiftly alter their course.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2849080/Kingdom_Rush_5_Alliance_TD?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Into the Radius 2</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>CM Games</t>
+  </si>
+  <si>
+    <t>Into the Radius 2 is an immersive VR survival shooter, set in a realm of surreal landscapes and deadly entities known as Pechorsk Anomaly. Arm yourself with realistic weapons and venture deeper into the mysteries that lie within, either solo or with a friend by your side.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2307350/Into_the_Radius_2?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Simulation, Free To Play</t>
+  </si>
+  <si>
+    <t>Cataclismo</t>
+  </si>
+  <si>
+    <t>Digital Sun</t>
+  </si>
+  <si>
+    <t>Design and build fortresses brick by brick to stand against endless hordes of Horrors in this real-time strategy game with resource management, siege defense, and exploration. Lead from the ramparts, push back the darkness, and hold fast against the creatures of the Mist.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1422440/Cataclismo?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies‚Ñ¢ Garden Warfare 2: Deluxe Edition</t>
+  </si>
+  <si>
+    <t>Action, Casual, Strategy</t>
+  </si>
+  <si>
+    <t>PopCap</t>
+  </si>
+  <si>
+    <t>Ready the Peashooters and prepare for the craziest, funniest shooter in the universe: Plants vs. Zombies Garden Warfare 2.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1922560/Plants_vs_Zombies_Garden_Warfare_2_Deluxe_Edition?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Ready or Not: Home Invasion</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/3015760/Ready_or_Not_Home_Invasion?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>F1¬Æ Manager 2024</t>
+  </si>
+  <si>
+    <t>Lead your team to glory in F1¬Æ Manager 2024. A new Formula 1¬Æ season has arrived, and with it, the most comprehensive F1¬Æ management experience to date. Build a legacy with one of 10 official F1¬Æ constructors or create your own team for the very first time.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2591280/F1_Manager_2024?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Massively Multiplayer, RPG, Free To Play</t>
+  </si>
+  <si>
+    <t>Total War: PHARAOH</t>
+  </si>
+  <si>
+    <t>CREATIVE ASSEMBLY</t>
+  </si>
+  <si>
+    <t>In Total War: PHARAOH, the newest entry in the award-winning grand strategy series, immerse yourself in ancient Egypt at the zenith of its power and experience the dramatic events that threaten its destruction.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1937780/Total_War_PHARAOH?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Lost Castle 2</t>
+  </si>
+  <si>
+    <t>Hunter Studio</t>
+  </si>
+  <si>
+    <t>"Lost Castle 2" is a 2D Beat'em up Rogue-Lite game. Explore abundant treasures and items to enhance yourself, master various weapons to showcase your skills, and challenge powerful monsters to demonstrate your strength. A new adventure is calling for treasure hunters!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2445690/Lost_Castle_2?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>7 Days to Die</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, RPG, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>The Fun Pimps</t>
+  </si>
+  <si>
+    <t>The Fun Pimps Entertainment LLC</t>
+  </si>
+  <si>
+    <t>7 Days to Die is an open-world game that is a unique combination of first-person shooter, survival horror, tower defense, and role-playing games. Play the definitive zombie survival sandbox RPG that came first. Navezgane awaits!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/251570/7_Days_to_Die?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>EA SPORTS FC‚Ñ¢ 25</t>
+  </si>
+  <si>
+    <t>EA SPORTS FC‚Ñ¢ 25 gives you more ways to win for the club. Team up with friends in your favourite modes with the new 5v5 Rush, and manage your club to victory as FC IQ delivers more tactical control than ever before.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2669320/EA_SPORTS_FC_25?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>The Sims‚Ñ¢ 4 Lovestruck Expansion Pack</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Simulation</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2815270/The_Sims_4_Lovestruck_Expansion_Pack?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies: Battle for Neighborville‚Ñ¢</t>
+  </si>
+  <si>
+    <t>Kick some grass in Plants vs. Zombies: Battle for Neighborville, the wackiest shooter yet!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1262240/Plants_vs_Zombies_Battle_for_Neighborville?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Action, RPG, Free To Play, Early Access</t>
+  </si>
+  <si>
+    <t>Planet Zoo</t>
+  </si>
+  <si>
+    <t>Casual, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Build a world for wildlife in Planet Zoo. From the developers of Planet Coaster and Zoo Tycoon comes the ultimate zoo sim. Construct detailed habitats, manage your zoo, and meet authentic living animals who think, feel and explore the world you create around them.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/703080/Planet_Zoo?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Strategy, Free To Play</t>
+  </si>
+  <si>
+    <t>Simulation, Strategy, Free To Play</t>
+  </si>
+  <si>
+    <t>Resident Evil 4</t>
+  </si>
+  <si>
+    <t>Survival is just the beginning. Six years have passed since the biological disaster in Raccoon City. Leon S. Kennedy, one of the survivors, tracks the president's kidnapped daughter to a secluded European village, where there is something terribly wrong with the locals.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2050650/Resident_Evil_4?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Warhammer 40,000: Space Marine 2</t>
+  </si>
+  <si>
+    <t>Saber Interactive</t>
+  </si>
+  <si>
+    <t>Focus Entertainment</t>
+  </si>
+  <si>
+    <t>Embody the superhuman skill and brutality of a Space Marine. Unleash deadly abilities and devastating weaponry to obliterate the relentless Tyranid swarms. Defend the Imperium in spectacular third-person action in solo or multiplayer modes.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2183900/Warhammer_40000_Space_Marine_2?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Total War: WARHAMMER II</t>
+  </si>
+  <si>
+    <t>CREATIVE ASSEMBLY, Feral Interactive (Mac),</t>
+  </si>
+  <si>
+    <t>Strategy gaming perfected. A breath-taking campaign of exploration, expansion and conquest across a fantasy world. Turn-based civilisation management and real-time epic strategy battles with thousands of troops and monsters at your command.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/594570/Total_War_WARHAMMER_II?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>ÈõÄÈ≠ÇÈ∫ªÂ∞á(MahjongSoul)
+(not available in your region)</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1329410/MahjongSoul?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Infection Free Zone</t>
+  </si>
+  <si>
+    <t>Action, Indie, Simulation, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Jutsu Games</t>
+  </si>
+  <si>
+    <t>Games Operators</t>
+  </si>
+  <si>
+    <t>Choose any real region from the world. Choose your base of operations, then rebuild and readapt the buildings around you to create a self-sustaining settlement. Take charge of a group of survivors from your city. And when the night falls - Defend the zone from the infected!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1465460/Infection_Free_Zone?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Party Animals</t>
+  </si>
+  <si>
+    <t>Action, Casual, Indie</t>
+  </si>
+  <si>
+    <t>Recreate Games</t>
+  </si>
+  <si>
+    <t>Source Technology</t>
+  </si>
+  <si>
+    <t>Fight your friends as puppies, kittens and other fuzzy creatures in PARTY ANIMALS! Paw it out with your friends remotely, or huddle together for chaotic fun on the same screen. Interact with the world under our realistic physics engine. Did I mention PUPPIES?</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1260320/Party_Animals?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Assassin's Creed¬Æ Odyssey</t>
+  </si>
+  <si>
+    <t>Ubisoft Quebec, Ubisoft Montreal, Ubisoft Bucharest, , , ,</t>
+  </si>
+  <si>
+    <t>Choose your fate in Assassin's Creed¬Æ Odyssey. From outcast to living legend, embark on an odyssey to uncover the secrets of your past and change the fate of Ancient Greece.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/812140/Assassins_Creed_Odyssey?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Le Mans Ultimate</t>
+  </si>
+  <si>
+    <t>Racing, Early Access</t>
+  </si>
+  <si>
+    <t>Studio 397</t>
+  </si>
+  <si>
+    <t>Le Mans is a continually evolving story... powered by emotion, speed and glory. Le Mans Ultimate - the official game of the FIA World Endurance Championship and 24 Hours of Le Mans.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2399420/Le_Mans_Ultimate?snr=1_7001_7002__7003</t>
   </si>
 </sst>
 </file>
@@ -2150,10 +2458,17 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2179,12 +2494,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2520,6 +2842,3737 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2439C52B-5341-DF43-8CDD-AB33FEF4C9FE}">
+  <dimension ref="A1:L101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>625</v>
+      </c>
+      <c r="D2" s="6">
+        <v>41142</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5">
+        <v>104253</v>
+      </c>
+      <c r="J2" s="5">
+        <v>8229314</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>384</v>
+      </c>
+      <c r="D3" s="6">
+        <v>43090</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5">
+        <v>19386</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2404843</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>127</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45473</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5">
+        <v>44451</v>
+      </c>
+      <c r="J5" s="5">
+        <v>73690</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>348</v>
+      </c>
+      <c r="D6" s="6">
+        <v>41464</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5">
+        <v>23605</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2289189</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44616</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H7" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I7" s="5">
+        <v>31687</v>
+      </c>
+      <c r="J7" s="5">
+        <v>688626</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>155</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44419</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5">
+        <v>10566</v>
+      </c>
+      <c r="J8" s="5">
+        <v>242591</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="5">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5">
+        <v>107</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44862</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4580</v>
+      </c>
+      <c r="J9" s="5">
+        <v>325030</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
+        <v>195</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44139</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5">
+        <v>88867</v>
+      </c>
+      <c r="J10" s="5">
+        <v>929449</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45482</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="5">
+        <v>62645</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="5">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45498</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="H12" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3739</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42594</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="H13" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I13" s="5">
+        <v>8230</v>
+      </c>
+      <c r="J13" s="5">
+        <v>236546</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>383</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42535</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I14" s="5">
+        <v>6085</v>
+      </c>
+      <c r="J14" s="5">
+        <v>533753</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B15" s="5">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>41570</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2517</v>
+      </c>
+      <c r="J15" s="5">
+        <v>223745</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="5">
+        <v>-5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>87</v>
+      </c>
+      <c r="D16" s="6">
+        <v>41358</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="5">
+        <v>5035</v>
+      </c>
+      <c r="J16" s="5">
+        <v>585899</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>45462</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4.99</v>
+      </c>
+      <c r="I17" s="5">
+        <v>10564</v>
+      </c>
+      <c r="J17" s="5">
+        <v>22045</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45497</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I18" s="5">
+        <v>80</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45523</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="5">
+        <v>-7</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>43804</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I20" s="5">
+        <v>14660</v>
+      </c>
+      <c r="J20" s="5">
+        <v>555508</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>498</v>
+      </c>
+      <c r="D21" s="6">
+        <v>42108</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I21" s="5">
+        <v>22815</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1684273</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="5">
+        <v>-8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45463</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H22" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I22" s="5">
+        <v>8793</v>
+      </c>
+      <c r="J22" s="5">
+        <v>76333</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>71</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45141</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I23" s="5">
+        <v>10738</v>
+      </c>
+      <c r="J23" s="5">
+        <v>565822</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>243</v>
+      </c>
+      <c r="D24" s="6">
+        <v>41501</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="5">
+        <v>15830</v>
+      </c>
+      <c r="J24" s="5">
+        <v>521328</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45498</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="H25" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I25" s="5">
+        <v>3745</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45273</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="I26" s="5">
+        <v>5073</v>
+      </c>
+      <c r="J26" s="5">
+        <v>147233</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="5">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6">
+        <v>41200</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I27" s="5">
+        <v>12280</v>
+      </c>
+      <c r="J27" s="5">
+        <v>587377</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28" s="5">
+        <v>-9</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6">
+        <v>39365</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="5">
+        <v>9728</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1112509</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45497</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="H29" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1422</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>44608</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H30" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1127</v>
+      </c>
+      <c r="J30" s="5">
+        <v>74134</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="5">
+        <v>-8</v>
+      </c>
+      <c r="C31" s="5">
+        <v>38</v>
+      </c>
+      <c r="D31" s="6">
+        <v>43739</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="5">
+        <v>4161</v>
+      </c>
+      <c r="J31" s="5">
+        <v>608682</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C32" s="5">
+        <v>455</v>
+      </c>
+      <c r="D32" s="6">
+        <v>42339</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I32" s="5">
+        <v>10039</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1110910</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="5">
+        <v>22</v>
+      </c>
+      <c r="C33" s="5">
+        <v>197</v>
+      </c>
+      <c r="D33" s="6">
+        <v>41884</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="5">
+        <v>4224</v>
+      </c>
+      <c r="J33" s="5">
+        <v>145604</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="5">
+        <v>-7</v>
+      </c>
+      <c r="C34" s="5">
+        <v>31</v>
+      </c>
+      <c r="D34" s="6">
+        <v>41688</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I34" s="5">
+        <v>867</v>
+      </c>
+      <c r="J34" s="5">
+        <v>69615</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B35" s="5">
+        <v>37</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
+      <c r="D35" s="6">
+        <v>45495</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H35" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1535</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="5">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5">
+        <v>21</v>
+      </c>
+      <c r="D36" s="6">
+        <v>45240</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I36" s="5">
+        <v>555</v>
+      </c>
+      <c r="J36" s="5">
+        <v>10363</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>44697</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I37" s="5">
+        <v>2294</v>
+      </c>
+      <c r="J37" s="5">
+        <v>22642</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>45496</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38" s="7">
+        <v>9.99</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1421</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B39" s="5">
+        <v>45</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>45496</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H39" s="7">
+        <v>34.99</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1068</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" s="5">
+        <v>-18</v>
+      </c>
+      <c r="C40" s="5">
+        <v>134</v>
+      </c>
+      <c r="D40" s="6">
+        <v>44603</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="5">
+        <v>578</v>
+      </c>
+      <c r="J40" s="5">
+        <v>200226</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="5">
+        <v>-29</v>
+      </c>
+      <c r="C41" s="5">
+        <v>475</v>
+      </c>
+      <c r="D41" s="6">
+        <v>43139</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I41" s="5">
+        <v>13439</v>
+      </c>
+      <c r="J41" s="5">
+        <v>901572</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B42" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>44358</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="H42" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1234</v>
+      </c>
+      <c r="J42" s="5">
+        <v>36871</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="5">
+        <v>-5</v>
+      </c>
+      <c r="C43" s="5">
+        <v>28</v>
+      </c>
+      <c r="D43" s="6">
+        <v>45330</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H43" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I43" s="5">
+        <v>4826</v>
+      </c>
+      <c r="J43" s="5">
+        <v>653565</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6">
+        <v>45210</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H44" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I44" s="5">
+        <v>271</v>
+      </c>
+      <c r="J44" s="5">
+        <v>3128</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" s="5">
+        <v>-14</v>
+      </c>
+      <c r="C45" s="5">
+        <v>12</v>
+      </c>
+      <c r="D45" s="6">
+        <v>45078</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H45" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1356</v>
+      </c>
+      <c r="J45" s="5">
+        <v>28021</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="5">
+        <v>5</v>
+      </c>
+      <c r="C46" s="5">
+        <v>3</v>
+      </c>
+      <c r="D46" s="6">
+        <v>45284</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1082</v>
+      </c>
+      <c r="J46" s="5">
+        <v>4698</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="5">
+        <v>-14</v>
+      </c>
+      <c r="C47" s="5">
+        <v>19</v>
+      </c>
+      <c r="D47" s="6">
+        <v>43935</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H47" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1199</v>
+      </c>
+      <c r="J47" s="5">
+        <v>60458</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6">
+        <v>45497</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="H48" s="7">
+        <v>14.99</v>
+      </c>
+      <c r="I48" s="5">
+        <v>2882</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" s="5">
+        <v>49</v>
+      </c>
+      <c r="C49" s="5">
+        <v>14</v>
+      </c>
+      <c r="D49" s="6">
+        <v>45408</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H49" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I49" s="5">
+        <v>2224</v>
+      </c>
+      <c r="J49" s="5">
+        <v>45320</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" s="5">
+        <v>28</v>
+      </c>
+      <c r="C50" s="5">
+        <v>24</v>
+      </c>
+      <c r="D50" s="6">
+        <v>43985</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I50" s="5">
+        <v>3237</v>
+      </c>
+      <c r="J50" s="5">
+        <v>290075</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45</v>
+      </c>
+      <c r="C51" s="5">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6">
+        <v>42402</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H51" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I51" s="5">
+        <v>2859</v>
+      </c>
+      <c r="J51" s="5">
+        <v>128714</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>44280</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I52" s="5">
+        <v>2883</v>
+      </c>
+      <c r="J52" s="5">
+        <v>146837</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" s="5">
+        <v>-13</v>
+      </c>
+      <c r="C53" s="5">
+        <v>497</v>
+      </c>
+      <c r="D53" s="6">
+        <v>41733</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H53" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I53" s="5">
+        <v>648</v>
+      </c>
+      <c r="J53" s="5">
+        <v>121938</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B54" s="5">
+        <v>-13</v>
+      </c>
+      <c r="C54" s="5">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6">
+        <v>43390</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="H54" s="7">
+        <v>34.99</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1999</v>
+      </c>
+      <c r="J54" s="5">
+        <v>161745</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" s="5">
+        <v>-11</v>
+      </c>
+      <c r="C55" s="5">
+        <v>14</v>
+      </c>
+      <c r="D55" s="6">
+        <v>45428</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H55" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I55" s="5">
+        <v>2204</v>
+      </c>
+      <c r="J55" s="5">
+        <v>24577</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="5">
+        <v>-27</v>
+      </c>
+      <c r="C56" s="5">
+        <v>55</v>
+      </c>
+      <c r="D56" s="6">
+        <v>45197</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I56" s="5">
+        <v>8461</v>
+      </c>
+      <c r="J56" s="5">
+        <v>81235</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6">
+        <v>45498</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H57" s="7">
+        <v>44.99</v>
+      </c>
+      <c r="I57" s="5">
+        <v>6700</v>
+      </c>
+      <c r="J57" s="5">
+        <v>227668</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B58" s="5">
+        <v>-24</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6">
+        <v>45561</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="5">
+        <v>-11</v>
+      </c>
+      <c r="C59" s="5">
+        <v>24</v>
+      </c>
+      <c r="D59" s="6">
+        <v>42426</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="7">
+        <v>14.99</v>
+      </c>
+      <c r="I59" s="5">
+        <v>15101</v>
+      </c>
+      <c r="J59" s="5">
+        <v>630084</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B60" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6">
+        <v>45590</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H60" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="5">
+        <v>-4</v>
+      </c>
+      <c r="C61" s="5">
+        <v>60</v>
+      </c>
+      <c r="D61" s="6">
+        <v>44174</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I61" s="5">
+        <v>7779</v>
+      </c>
+      <c r="J61" s="5">
+        <v>670044</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6">
+        <v>45498</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I62" s="5">
+        <v>39</v>
+      </c>
+      <c r="J62" s="5">
+        <v>41</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B63" s="5">
+        <v>23</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+      <c r="D63" s="6">
+        <v>42153</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="H63" s="7">
+        <v>24.99</v>
+      </c>
+      <c r="I63" s="5">
+        <v>6117</v>
+      </c>
+      <c r="J63" s="5">
+        <v>241143</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6">
+        <v>43756</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I64" s="5">
+        <v>822</v>
+      </c>
+      <c r="J64" s="5">
+        <v>12400</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B65" s="5">
+        <v>-28</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2</v>
+      </c>
+      <c r="D65" s="6">
+        <v>45316</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="H65" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1350</v>
+      </c>
+      <c r="J65" s="5">
+        <v>22804</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C66" s="5">
+        <v>3</v>
+      </c>
+      <c r="D66" s="8">
+        <v>45614</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H66" s="7">
+        <v>3.99</v>
+      </c>
+      <c r="I66" s="5">
+        <v>11030</v>
+      </c>
+      <c r="J66" s="5">
+        <v>744475</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B67" s="5">
+        <v>-7</v>
+      </c>
+      <c r="C67" s="5">
+        <v>179</v>
+      </c>
+      <c r="D67" s="6">
+        <v>42879</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H67" s="7">
+        <v>9.99</v>
+      </c>
+      <c r="I67" s="5">
+        <v>692</v>
+      </c>
+      <c r="J67" s="5">
+        <v>55848</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" s="5">
+        <v>-21</v>
+      </c>
+      <c r="C68" s="5">
+        <v>8</v>
+      </c>
+      <c r="D68" s="6">
+        <v>45450</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="5">
+        <v>8648</v>
+      </c>
+      <c r="J68" s="5">
+        <v>40822</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B69" s="5">
+        <v>-53</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2</v>
+      </c>
+      <c r="D69" s="6">
+        <v>45491</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H69" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I69" s="5">
+        <v>3386</v>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="5">
+        <v>3</v>
+      </c>
+      <c r="C70" s="5">
+        <v>3</v>
+      </c>
+      <c r="D70" s="6">
+        <v>45148</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="5">
+        <v>9632</v>
+      </c>
+      <c r="J70" s="5">
+        <v>286043</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B71" s="5">
+        <v>19</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+      <c r="D71" s="6">
+        <v>45267</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71" s="5">
+        <v>5017</v>
+      </c>
+      <c r="J71" s="5">
+        <v>177605</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6">
+        <v>43774</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H72" s="7">
+        <v>44.99</v>
+      </c>
+      <c r="I72" s="5">
+        <v>659</v>
+      </c>
+      <c r="J72" s="5">
+        <v>67475</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B73" s="5">
+        <v>19</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2</v>
+      </c>
+      <c r="D73" s="6">
+        <v>45069</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" s="5">
+        <v>838</v>
+      </c>
+      <c r="J73" s="5">
+        <v>12041</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="5">
+        <v>-16</v>
+      </c>
+      <c r="C74" s="5">
+        <v>3</v>
+      </c>
+      <c r="D74" s="6">
+        <v>44579</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" s="5">
+        <v>960</v>
+      </c>
+      <c r="J74" s="5">
+        <v>75440</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" s="5">
+        <v>-7</v>
+      </c>
+      <c r="C75" s="5">
+        <v>4</v>
+      </c>
+      <c r="D75" s="6">
+        <v>44092</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H75" s="7">
+        <v>13.99</v>
+      </c>
+      <c r="I75" s="5">
+        <v>8550</v>
+      </c>
+      <c r="J75" s="5">
+        <v>566594</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B76" s="5">
+        <v>-12</v>
+      </c>
+      <c r="C76" s="5">
+        <v>3</v>
+      </c>
+      <c r="D76" s="6">
+        <v>45216</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H76" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="I76" s="5">
+        <v>761</v>
+      </c>
+      <c r="J76" s="5">
+        <v>20667</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B77" s="5">
+        <v>6</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="7">
+        <v>499</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="5">
+        <v>-36</v>
+      </c>
+      <c r="C78" s="5">
+        <v>28</v>
+      </c>
+      <c r="D78" s="6">
+        <v>45309</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H78" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I78" s="5">
+        <v>6362</v>
+      </c>
+      <c r="J78" s="5">
+        <v>270764</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B79" s="5">
+        <v>-33</v>
+      </c>
+      <c r="C79" s="5">
+        <v>5</v>
+      </c>
+      <c r="D79" s="6">
+        <v>42527</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H79" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="I79" s="5">
+        <v>3376</v>
+      </c>
+      <c r="J79" s="5">
+        <v>214459</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+      <c r="D80" s="6">
+        <v>45008</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H80" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I80" s="5">
+        <v>2123</v>
+      </c>
+      <c r="J80" s="5">
+        <v>91147</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B82" s="5">
+        <v>3</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2</v>
+      </c>
+      <c r="D82" s="6">
+        <v>45188</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H82" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I82" s="5">
+        <v>985</v>
+      </c>
+      <c r="J82" s="5">
+        <v>18831</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B83" s="5">
+        <v>-38</v>
+      </c>
+      <c r="C83" s="5">
+        <v>5</v>
+      </c>
+      <c r="D83" s="6">
+        <v>44075</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H83" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="I83" s="5">
+        <v>896</v>
+      </c>
+      <c r="J83" s="5">
+        <v>71586</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B84" s="5">
+        <v>-18</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="6">
+        <v>45544</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H84" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="D85" s="6">
+        <v>43006</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H85" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I85" s="5">
+        <v>198</v>
+      </c>
+      <c r="J85" s="5">
+        <v>83225</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" s="5">
+        <v>-23</v>
+      </c>
+      <c r="C86" s="5">
+        <v>4</v>
+      </c>
+      <c r="D86" s="6">
+        <v>45342</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H86" s="7">
+        <v>12.99</v>
+      </c>
+      <c r="I86" s="5">
+        <v>4831</v>
+      </c>
+      <c r="J86" s="5">
+        <v>43678</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="5">
+        <v>-17</v>
+      </c>
+      <c r="C88" s="5">
+        <v>153</v>
+      </c>
+      <c r="D88" s="6">
+        <v>44508</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H88" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I88" s="5">
+        <v>4193</v>
+      </c>
+      <c r="J88" s="5">
+        <v>173121</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B89" s="5">
+        <v>-12</v>
+      </c>
+      <c r="C89" s="5">
+        <v>4</v>
+      </c>
+      <c r="D89" s="6">
+        <v>44060</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H89" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I89" s="5">
+        <v>896</v>
+      </c>
+      <c r="J89" s="5">
+        <v>57571</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="D90" s="6">
+        <v>45393</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H90" s="7">
+        <v>24.99</v>
+      </c>
+      <c r="I90" s="5">
+        <v>728</v>
+      </c>
+      <c r="J90" s="5">
+        <v>9034</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="D91" s="6">
+        <v>43123</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="H91" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I91" s="5">
+        <v>4777</v>
+      </c>
+      <c r="J91" s="5">
+        <v>252202</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" s="5">
+        <v>-12</v>
+      </c>
+      <c r="C92" s="5">
+        <v>75</v>
+      </c>
+      <c r="D92" s="6">
+        <v>45344</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H92" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I92" s="5">
+        <v>3403</v>
+      </c>
+      <c r="J92" s="5">
+        <v>179592</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B93" s="5">
+        <v>-65</v>
+      </c>
+      <c r="C93" s="5">
+        <v>8</v>
+      </c>
+      <c r="D93" s="6">
+        <v>45450</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H93" s="7">
+        <v>33.32</v>
+      </c>
+      <c r="I93" s="5">
+        <v>2729</v>
+      </c>
+      <c r="J93" s="5">
+        <v>19885</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B94" s="5">
+        <v>-13</v>
+      </c>
+      <c r="C94" s="5">
+        <v>4</v>
+      </c>
+      <c r="D94" s="6">
+        <v>45222</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H94" s="7">
+        <v>9.99</v>
+      </c>
+      <c r="I94" s="5">
+        <v>8193</v>
+      </c>
+      <c r="J94" s="5">
+        <v>338128</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B95" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
+      <c r="D96" s="6">
+        <v>45189</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="H96" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I96" s="5">
+        <v>1157</v>
+      </c>
+      <c r="J96" s="5">
+        <v>37003</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="D97" s="6">
+        <v>45176</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H97" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I97" s="5">
+        <v>1883</v>
+      </c>
+      <c r="J97" s="5">
+        <v>29942</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+      <c r="D98" s="6">
+        <v>45365</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H98" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I98" s="5">
+        <v>973</v>
+      </c>
+      <c r="J98" s="5">
+        <v>90339</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="5">
+        <v>1</v>
+      </c>
+      <c r="D99" s="6">
+        <v>43378</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H99" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I99" s="5">
+        <v>1784</v>
+      </c>
+      <c r="J99" s="5">
+        <v>142362</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="5">
+        <v>1</v>
+      </c>
+      <c r="D100" s="6">
+        <v>45342</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="H100" s="7">
+        <v>32.99</v>
+      </c>
+      <c r="I100" s="5">
+        <v>276</v>
+      </c>
+      <c r="J100" s="5">
+        <v>4088</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="5">
+        <v>1</v>
+      </c>
+      <c r="D101" s="6">
+        <v>41586</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="H101" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I101" s="5">
+        <v>5520</v>
+      </c>
+      <c r="J101" s="5">
+        <v>236686</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71D7B06-37EF-F943-8D0E-B48A8AB57D51}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -6225,12 +10278,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3978525E-3F5E-9048-BC93-38E6C42116E5}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10021,7 +14074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC291C4-96D0-D14C-9991-8EE742F649AB}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -13808,7 +17861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD458E3F-9E53-804A-9E7D-8111A280BFC8}">
   <dimension ref="A1:L101"/>
   <sheetViews>

--- a/data/total_steam_titles.xlsx
+++ b/data/total_steam_titles.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenwang/Desktop/Makers/Steam_Roblox_Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE7798-8FBA-9846-98A9-D34853B266D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D511197-3193-3541-8D54-A83282E95B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="1240" windowWidth="24960" windowHeight="16760" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-08-05" sheetId="5" r:id="rId1"/>
-    <sheet name="2024-07-29" sheetId="4" r:id="rId2"/>
-    <sheet name="2024-07-23" sheetId="3" r:id="rId3"/>
-    <sheet name="2024-07-18" sheetId="1" r:id="rId4"/>
-    <sheet name="2024-07-11" sheetId="2" r:id="rId5"/>
+    <sheet name="2024-08-12" sheetId="6" r:id="rId1"/>
+    <sheet name="2024-08-05" sheetId="5" r:id="rId2"/>
+    <sheet name="2024-07-29" sheetId="4" r:id="rId3"/>
+    <sheet name="2024-07-23" sheetId="3" r:id="rId4"/>
+    <sheet name="2024-07-18" sheetId="1" r:id="rId5"/>
+    <sheet name="2024-07-11" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="891">
   <si>
     <t>Game</t>
   </si>
@@ -2449,6 +2450,273 @@
   </si>
   <si>
     <t>https://store.steampowered.com/app/2399420/Le_Mans_Ultimate?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Summoners War</t>
+  </si>
+  <si>
+    <t>RPG, Strategy, Free To Play</t>
+  </si>
+  <si>
+    <t>Com2uS</t>
+  </si>
+  <si>
+    <t>A global hit RPG that captured the Summoners all around the world! Jump into the Sky Arena, a world under battle over the vital resource: Mana Crystals. Design your own deck and strategy using over 1,500 Monsters to claim victory. Go on an epic adventure with your Monsters!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2426960/Summoners_War?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Sword of Convallaria</t>
+  </si>
+  <si>
+    <t>Fantasy Tactical RPG revitalizing the beloved Japanese turn-based &amp; pixel art genre. Collect &amp; train a roster of mercenaries, customize your squad, and use your own strategy to save the nation of Iria. Journey through a world of plot twists where every choice you make will reshape your destiny.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2526380/Sword_of_Convallaria?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Eternal Return</t>
+  </si>
+  <si>
+    <t>Indie, Strategy, Free To Play</t>
+  </si>
+  <si>
+    <t>Nimble Neuron</t>
+  </si>
+  <si>
+    <t>Eternal Return is a free-to-play, 2.5D perspective Battle Royale game. Search, Craft, Hunt, and Fight using a variety of characters. Plan your strategy and become the last survivor on this eternal experiment.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1049590/Eternal_Return?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Dome Keeper</t>
+  </si>
+  <si>
+    <t>Bippinbits</t>
+  </si>
+  <si>
+    <t>Raw Fury</t>
+  </si>
+  <si>
+    <t>Defend against waves of alien attackers in this innovative roguelike survival miner. Dig for resources and choose from powerful upgrade paths. Is there enough time to mine a little deeper and get back to defend before the monsters attack your dome?</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1637320/Dome_Keeper?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Stormgate</t>
+  </si>
+  <si>
+    <t>Action, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Frost Giant Studios</t>
+  </si>
+  <si>
+    <t>Stormgate is a free-to-play, next-gen RTS set in a new science fantasy universe. Command mechs to defend the Earth or invade it as one of two other invading alien factions. Explore an ever-evolving campaign, group up for 3P co-op vs. AI, or compete in 1v1.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2012510/Stormgate?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>REMNANT II¬Æ</t>
+  </si>
+  <si>
+    <t>Gunfire Games</t>
+  </si>
+  <si>
+    <t>Arc Games</t>
+  </si>
+  <si>
+    <t>REMNANT II¬Æ pits survivors of humanity against new deadly creatures and god-like bosses across terrifying worlds. Play solo or co-op with two other friends to explore the depths of the unknown to stop an evil from destroying reality itself.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1282100/REMNANT_II?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Bloons TD 6</t>
+  </si>
+  <si>
+    <t>Ninja Kiwi</t>
+  </si>
+  <si>
+    <t>The Bloons are back and better than ever! Get ready for a massive 3D tower defense game designed to give you hours and hours of the best strategy gaming available.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/960090/Bloons_TD_6?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>UBOAT</t>
+  </si>
+  <si>
+    <t>Action, Indie, RPG, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Deep Water Studio</t>
+  </si>
+  <si>
+    <t>PlayWay S.A.</t>
+  </si>
+  <si>
+    <t>UBOAT is a simulator of a submarine from WWII era. It is a survival sandbox with crew management mechanics while its primary theme is life of German sailors. The boat is their home, but it can become their grave at any time.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/494840/UBOAT?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Car Manufacture</t>
+  </si>
+  <si>
+    <t>Indie, Simulation, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>STEREO GAMES S.A.</t>
+  </si>
+  <si>
+    <t>Car Manufacture is an automotive tycoon game. Start in the beginning of the XX century and create thriving business. Build cars, manage people, expand your plant and research new technology. Make tons of money and stay on top.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/983380/Car_Manufacture?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Marvel's Guardians of the Galaxy</t>
+  </si>
+  <si>
+    <t>Eidos-Montr√©al</t>
+  </si>
+  <si>
+    <t>Eidos Interactive Corp.</t>
+  </si>
+  <si>
+    <t>Fire up a wild ride across the cosmos with a fresh take on Marvel‚Äôs Guardians of the Galaxy. In this action-adventure game, you are Star-Lord leading the unpredictable Guardians from one explosion of chaos to the next. You got this. Probably.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1088850/Marvels_Guardians_of_the_Galaxy?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Stray</t>
+  </si>
+  <si>
+    <t>BlueTwelve Studio</t>
+  </si>
+  <si>
+    <t>Annapurna Interactive</t>
+  </si>
+  <si>
+    <t>Lost, alone and separated from family, a stray cat must untangle an ancient mystery to escape a long-forgotten cybercity and find their way home.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1332010/Stray?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Casual, Massively Multiplayer, RPG, Free To Play</t>
+  </si>
+  <si>
+    <t>eFootball‚Ñ¢ 2024</t>
+  </si>
+  <si>
+    <t>Simulation, Sports, Free To Play</t>
+  </si>
+  <si>
+    <t>The classic action soccer game with the most up-to-date data! Enjoy the fever pitch of ""real soccer"" in eFootball‚Ñ¢ 2024!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1665460/eFootball_2024?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Sun Haven</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Indie, RPG, Simulation</t>
+  </si>
+  <si>
+    <t>Pixel Sprout Studios</t>
+  </si>
+  <si>
+    <t>Build your farm and relationships with townsfolk, or forge ahead on a quest of magic, monsters, and dragons. Level up through a skill tree in 8 person multiplayer, or adventure solo!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1432860/Sun_Haven?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>„Éò„Éñ„É≥„Éê„Éº„É≥„Ç∫„É¨„ÉÉ„Éâ</t>
+  </si>
+  <si>
+    <t>Adventure, RPG, Free To Play</t>
+  </si>
+  <si>
+    <t>WFS, Inc., VisualArts/Key</t>
+  </si>
+  <si>
+    <t>WFS, Inc.</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Key È∫ªÊûù ÂáÜ„ÅåÊèè„Åè„ÄÅÊúÄÂæå„ÅÆÂ∏åÊúõ„ÇíË®ó„Åï„Çå„ÅüÂ∞ëÂ•≥„Åü„Å°„ÅÆÁâ©Ë™û„Äé„Éò„Éñ„É≥„Éê„Éº„É≥„Ç∫„É¨„ÉÉ„Éâ Ôºà„Éò„Éñ„Éê„É≥Ôºâ„Äè „Éï„Ç£„Éº„É´„Éâ„ÇíÈßÜ„ÅëÂõû„Çä„ÄÅ„Åã„Åë„Åå„Åà„ÅÆ„Å™„ÅÑÊó•Â∏∏„Çí‰ΩìÈ®ì„Åó„Å™„Åå„Çâ„ÄÅÂëΩ„ÇíË≥≠„Åó„ÅüÊà¶„ÅÑ„Å´Êåë„ÇÄ„Éâ„É©„Éû„ÉÅ„ÉÉ„ÇØRPGÔºÅ</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1973710/?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>South Park‚Ñ¢: The Fractured But Whole‚Ñ¢</t>
+  </si>
+  <si>
+    <t>Ubisoft San Francisco</t>
+  </si>
+  <si>
+    <t>From the creators of South Park, Trey Parker and Matt Stone, comes South Park: The Fractured But Whole, a sequel to 2014's award-winning South Park: The Stick of Truth.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/488790/South_Park_The_Fractured_But_Whole?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Massively Multiplayer, RPG, Free To Play</t>
+  </si>
+  <si>
+    <t>Action, Adventure, RPG, Strategy, Free To Play, Early Access</t>
+  </si>
+  <si>
+    <t>Car Mechanic Simulator 2021</t>
+  </si>
+  <si>
+    <t>Racing, Simulation</t>
+  </si>
+  <si>
+    <t>Red Dot Games</t>
+  </si>
+  <si>
+    <t>Car Mechanic Simulator 2021 Demo</t>
+  </si>
+  <si>
+    <t>Work your way to a service empire. Get your hands dirty in a highly realistic simulation game that pays major attention to details. Pay a visit to a new Auction house and buy cars in various conditions. Expand your range of services by investing in a new work space and equipment.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1190000/Car_Mechanic_Simulator_2021?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>World of Tanks Blitz</t>
+  </si>
+  <si>
+    <t>Action, Massively Multiplayer, Simulation, Strategy, Free To Play</t>
+  </si>
+  <si>
+    <t>Tanks, not war: jump into a free-to-play MMO action shooter with over 400 tanks. Enjoy stunning graphics and intuitive touch controls. Engage in 7vs7 battles, strategize with your team to conquer diverse maps. Customize tanks, unlock upgrades, and dive into adrenaline-pumping action on mobile and PC</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/444200/World_of_Tanks_Blitz?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>South Park‚Ñ¢: The Stick of Truth‚Ñ¢</t>
+  </si>
+  <si>
+    <t>From the perilous battlefields of the fourth-grade playground, a young hero will rise, destined to be South Park‚Äôs savior. From the creators of South Park, Trey Parker and Matt Stone, comes an epic quest to become‚Ä¶ cool. Introducing South Park‚Ñ¢: The Stick of Truth‚Ñ¢.For a thousand years, the battle has been waged.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/213670/South_Park_The_Stick_of_Truth?snr=1_7001_7002__7003</t>
   </si>
 </sst>
 </file>
@@ -2842,10 +3110,3734 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9468E3C7-ED89-7F49-91F9-C709353B7C6C}">
+  <dimension ref="A1:L101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>626</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2">
+        <v>105274</v>
+      </c>
+      <c r="J2">
+        <v>8242994</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45473</v>
+      </c>
+      <c r="E3" t="s">
+        <v>702</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>25403</v>
+      </c>
+      <c r="J3">
+        <v>76181</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>385</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43090</v>
+      </c>
+      <c r="E4" t="s">
+        <v>701</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>19038</v>
+      </c>
+      <c r="J4">
+        <v>2408967</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>128</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>349</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41464</v>
+      </c>
+      <c r="E6" t="s">
+        <v>703</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>24667</v>
+      </c>
+      <c r="J6">
+        <v>2294731</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>156</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44419</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>10156</v>
+      </c>
+      <c r="J7">
+        <v>244301</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45523</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44616</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" t="s">
+        <v>547</v>
+      </c>
+      <c r="H9" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I9">
+        <v>24339</v>
+      </c>
+      <c r="J9">
+        <v>692038</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45482</v>
+      </c>
+      <c r="E10" t="s">
+        <v>705</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>52895</v>
+      </c>
+      <c r="J10">
+        <v>67992</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41570</v>
+      </c>
+      <c r="E11" t="s">
+        <v>706</v>
+      </c>
+      <c r="F11" t="s">
+        <v>602</v>
+      </c>
+      <c r="G11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>3002</v>
+      </c>
+      <c r="J11">
+        <v>224325</v>
+      </c>
+      <c r="K11" t="s">
+        <v>603</v>
+      </c>
+      <c r="L11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41358</v>
+      </c>
+      <c r="E12" t="s">
+        <v>707</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>4941</v>
+      </c>
+      <c r="J12">
+        <v>586760</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>384</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42535</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I13">
+        <v>6775</v>
+      </c>
+      <c r="J13">
+        <v>535376</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>-4</v>
+      </c>
+      <c r="C14">
+        <v>196</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44139</v>
+      </c>
+      <c r="E14" t="s">
+        <v>704</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14">
+        <v>79768</v>
+      </c>
+      <c r="J14">
+        <v>935317</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>499</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I15">
+        <v>21839</v>
+      </c>
+      <c r="J15">
+        <v>1688664</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45141</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I16">
+        <v>10102</v>
+      </c>
+      <c r="J16">
+        <v>567844</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17">
+        <v>-8</v>
+      </c>
+      <c r="C17">
+        <v>108</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44862</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I17">
+        <v>4450</v>
+      </c>
+      <c r="J17">
+        <v>325883</v>
+      </c>
+      <c r="K17" t="s">
+        <v>188</v>
+      </c>
+      <c r="L17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>244</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41501</v>
+      </c>
+      <c r="E18" t="s">
+        <v>710</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>16154</v>
+      </c>
+      <c r="J18">
+        <v>523852</v>
+      </c>
+      <c r="K18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>-2</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45462</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="I19">
+        <v>8467</v>
+      </c>
+      <c r="J19">
+        <v>23330</v>
+      </c>
+      <c r="K19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45463</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>547</v>
+      </c>
+      <c r="G20" t="s">
+        <v>547</v>
+      </c>
+      <c r="H20" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I20">
+        <v>5353</v>
+      </c>
+      <c r="J20">
+        <v>76904</v>
+      </c>
+      <c r="L20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>476</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I21">
+        <v>12565</v>
+      </c>
+      <c r="J21">
+        <v>903519</v>
+      </c>
+      <c r="K21" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>39365</v>
+      </c>
+      <c r="E22" t="s">
+        <v>700</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22">
+        <v>9093</v>
+      </c>
+      <c r="J22">
+        <v>1113349</v>
+      </c>
+      <c r="K22" t="s">
+        <v>312</v>
+      </c>
+      <c r="L22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41688</v>
+      </c>
+      <c r="E23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I23">
+        <v>744</v>
+      </c>
+      <c r="J23">
+        <v>69729</v>
+      </c>
+      <c r="K23" t="s">
+        <v>158</v>
+      </c>
+      <c r="L23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>135</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44603</v>
+      </c>
+      <c r="E24" t="s">
+        <v>736</v>
+      </c>
+      <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <v>606</v>
+      </c>
+      <c r="J24">
+        <v>200288</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>435</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45315</v>
+      </c>
+      <c r="E25" t="s">
+        <v>436</v>
+      </c>
+      <c r="F25" t="s">
+        <v>437</v>
+      </c>
+      <c r="G25" t="s">
+        <v>437</v>
+      </c>
+      <c r="H25" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I25">
+        <v>1589</v>
+      </c>
+      <c r="J25">
+        <v>48810</v>
+      </c>
+      <c r="K25" t="s">
+        <v>438</v>
+      </c>
+      <c r="L25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43739</v>
+      </c>
+      <c r="E26" t="s">
+        <v>704</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26">
+        <v>4056</v>
+      </c>
+      <c r="J26">
+        <v>609408</v>
+      </c>
+      <c r="K26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45330</v>
+      </c>
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I27">
+        <v>9738</v>
+      </c>
+      <c r="J27">
+        <v>659645</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45240</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I28">
+        <v>544</v>
+      </c>
+      <c r="J28">
+        <v>10470</v>
+      </c>
+      <c r="K28" t="s">
+        <v>286</v>
+      </c>
+      <c r="L28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>589</v>
+      </c>
+      <c r="B29">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45069</v>
+      </c>
+      <c r="E29" t="s">
+        <v>765</v>
+      </c>
+      <c r="F29" t="s">
+        <v>591</v>
+      </c>
+      <c r="G29" t="s">
+        <v>591</v>
+      </c>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29">
+        <v>917</v>
+      </c>
+      <c r="J29">
+        <v>12266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>592</v>
+      </c>
+      <c r="L29" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>456</v>
+      </c>
+      <c r="D30" s="1">
+        <v>42339</v>
+      </c>
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I30">
+        <v>9250</v>
+      </c>
+      <c r="J30">
+        <v>1112442</v>
+      </c>
+      <c r="K30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45148</v>
+      </c>
+      <c r="E31" t="s">
+        <v>700</v>
+      </c>
+      <c r="F31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31">
+        <v>9279</v>
+      </c>
+      <c r="J31">
+        <v>287668</v>
+      </c>
+      <c r="K31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>577</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45590</v>
+      </c>
+      <c r="E32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" t="s">
+        <v>578</v>
+      </c>
+      <c r="G32" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="K32" t="s">
+        <v>579</v>
+      </c>
+      <c r="L32" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>198</v>
+      </c>
+      <c r="D33" s="1">
+        <v>41884</v>
+      </c>
+      <c r="E33" t="s">
+        <v>721</v>
+      </c>
+      <c r="F33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33">
+        <v>4082</v>
+      </c>
+      <c r="J33">
+        <v>146377</v>
+      </c>
+      <c r="K33" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>802</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45298</v>
+      </c>
+      <c r="E34" t="s">
+        <v>803</v>
+      </c>
+      <c r="F34" t="s">
+        <v>804</v>
+      </c>
+      <c r="G34" t="s">
+        <v>804</v>
+      </c>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34">
+        <v>300</v>
+      </c>
+      <c r="J34">
+        <v>6042</v>
+      </c>
+      <c r="K34" t="s">
+        <v>805</v>
+      </c>
+      <c r="L34" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>498</v>
+      </c>
+      <c r="D35" s="1">
+        <v>41733</v>
+      </c>
+      <c r="E35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I35">
+        <v>630</v>
+      </c>
+      <c r="J35">
+        <v>122090</v>
+      </c>
+      <c r="K35" t="s">
+        <v>241</v>
+      </c>
+      <c r="L35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>722</v>
+      </c>
+      <c r="B36">
+        <v>-1</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45495</v>
+      </c>
+      <c r="E36" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" t="s">
+        <v>723</v>
+      </c>
+      <c r="G36" t="s">
+        <v>255</v>
+      </c>
+      <c r="H36" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I36">
+        <v>1733</v>
+      </c>
+      <c r="K36" t="s">
+        <v>724</v>
+      </c>
+      <c r="L36" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>288</v>
+      </c>
+      <c r="B37">
+        <v>-11</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45273</v>
+      </c>
+      <c r="E37" t="s">
+        <v>289</v>
+      </c>
+      <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>290</v>
+      </c>
+      <c r="H37" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I37">
+        <v>4882</v>
+      </c>
+      <c r="J37">
+        <v>148000</v>
+      </c>
+      <c r="K37" t="s">
+        <v>291</v>
+      </c>
+      <c r="L37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>751</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="K38" t="s">
+        <v>752</v>
+      </c>
+      <c r="L38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>56</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45197</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I39">
+        <v>6461</v>
+      </c>
+      <c r="J39">
+        <v>82105</v>
+      </c>
+      <c r="K39" t="s">
+        <v>109</v>
+      </c>
+      <c r="L39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45428</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>299</v>
+      </c>
+      <c r="G40" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I40">
+        <v>2068</v>
+      </c>
+      <c r="J40">
+        <v>25019</v>
+      </c>
+      <c r="K40" t="s">
+        <v>300</v>
+      </c>
+      <c r="L40" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>61</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44174</v>
+      </c>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I41">
+        <v>6708</v>
+      </c>
+      <c r="J41">
+        <v>671106</v>
+      </c>
+      <c r="K41" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45284</v>
+      </c>
+      <c r="E42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42">
+        <v>956</v>
+      </c>
+      <c r="J42">
+        <v>4828</v>
+      </c>
+      <c r="K42" t="s">
+        <v>145</v>
+      </c>
+      <c r="L42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>711</v>
+      </c>
+      <c r="B43">
+        <v>-18</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45498</v>
+      </c>
+      <c r="E43" t="s">
+        <v>712</v>
+      </c>
+      <c r="F43" t="s">
+        <v>713</v>
+      </c>
+      <c r="G43" t="s">
+        <v>713</v>
+      </c>
+      <c r="H43" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I43">
+        <v>4219</v>
+      </c>
+      <c r="K43" t="s">
+        <v>714</v>
+      </c>
+      <c r="L43" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43935</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s">
+        <v>202</v>
+      </c>
+      <c r="G44" t="s">
+        <v>203</v>
+      </c>
+      <c r="H44" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I44">
+        <v>1010</v>
+      </c>
+      <c r="J44">
+        <v>60618</v>
+      </c>
+      <c r="K44" t="s">
+        <v>204</v>
+      </c>
+      <c r="L44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>807</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45504</v>
+      </c>
+      <c r="E45" t="s">
+        <v>803</v>
+      </c>
+      <c r="F45" t="s">
+        <v>544</v>
+      </c>
+      <c r="G45" t="s">
+        <v>544</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45">
+        <v>1533</v>
+      </c>
+      <c r="K45" t="s">
+        <v>808</v>
+      </c>
+      <c r="L45" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44579</v>
+      </c>
+      <c r="E46" t="s">
+        <v>766</v>
+      </c>
+      <c r="F46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46">
+        <v>966</v>
+      </c>
+      <c r="J46">
+        <v>75664</v>
+      </c>
+      <c r="K46" t="s">
+        <v>120</v>
+      </c>
+      <c r="L46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1">
+        <v>42426</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="I47">
+        <v>12886</v>
+      </c>
+      <c r="J47">
+        <v>632404</v>
+      </c>
+      <c r="K47" t="s">
+        <v>131</v>
+      </c>
+      <c r="L47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>459</v>
+      </c>
+      <c r="B48">
+        <v>28</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45216</v>
+      </c>
+      <c r="E48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" t="s">
+        <v>152</v>
+      </c>
+      <c r="H48" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I48">
+        <v>800</v>
+      </c>
+      <c r="J48">
+        <v>20944</v>
+      </c>
+      <c r="K48" t="s">
+        <v>460</v>
+      </c>
+      <c r="L48" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>745</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45498</v>
+      </c>
+      <c r="E49" t="s">
+        <v>746</v>
+      </c>
+      <c r="F49" t="s">
+        <v>747</v>
+      </c>
+      <c r="G49" t="s">
+        <v>748</v>
+      </c>
+      <c r="H49" s="2">
+        <v>44.99</v>
+      </c>
+      <c r="I49">
+        <v>6813</v>
+      </c>
+      <c r="J49">
+        <v>228633</v>
+      </c>
+      <c r="K49" t="s">
+        <v>749</v>
+      </c>
+      <c r="L49" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>180</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42879</v>
+      </c>
+      <c r="E50" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" t="s">
+        <v>260</v>
+      </c>
+      <c r="G50" t="s">
+        <v>260</v>
+      </c>
+      <c r="H50" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="I50">
+        <v>591</v>
+      </c>
+      <c r="J50">
+        <v>55925</v>
+      </c>
+      <c r="K50" t="s">
+        <v>261</v>
+      </c>
+      <c r="L50" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51">
+        <v>-2</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45408</v>
+      </c>
+      <c r="E51" t="s">
+        <v>253</v>
+      </c>
+      <c r="F51" t="s">
+        <v>254</v>
+      </c>
+      <c r="G51" t="s">
+        <v>255</v>
+      </c>
+      <c r="H51" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I51">
+        <v>1901</v>
+      </c>
+      <c r="J51">
+        <v>45675</v>
+      </c>
+      <c r="K51" t="s">
+        <v>256</v>
+      </c>
+      <c r="L51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>369</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" s="3">
+        <v>43405</v>
+      </c>
+      <c r="E52" t="s">
+        <v>370</v>
+      </c>
+      <c r="F52" t="s">
+        <v>371</v>
+      </c>
+      <c r="G52" t="s">
+        <v>371</v>
+      </c>
+      <c r="H52" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="I52">
+        <v>10503</v>
+      </c>
+      <c r="J52">
+        <v>746518</v>
+      </c>
+      <c r="K52" t="s">
+        <v>372</v>
+      </c>
+      <c r="L52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1">
+        <v>45450</v>
+      </c>
+      <c r="E53" t="s">
+        <v>760</v>
+      </c>
+      <c r="F53" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" t="s">
+        <v>249</v>
+      </c>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53">
+        <v>7617</v>
+      </c>
+      <c r="J53">
+        <v>42139</v>
+      </c>
+      <c r="K53" t="s">
+        <v>250</v>
+      </c>
+      <c r="L53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54">
+        <v>-24</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44608</v>
+      </c>
+      <c r="E54" t="s">
+        <v>275</v>
+      </c>
+      <c r="F54" t="s">
+        <v>276</v>
+      </c>
+      <c r="G54" t="s">
+        <v>277</v>
+      </c>
+      <c r="H54" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I54">
+        <v>970</v>
+      </c>
+      <c r="J54">
+        <v>74316</v>
+      </c>
+      <c r="K54" t="s">
+        <v>278</v>
+      </c>
+      <c r="L54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>770</v>
+      </c>
+      <c r="B55">
+        <v>29</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>45544</v>
+      </c>
+      <c r="E55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" t="s">
+        <v>771</v>
+      </c>
+      <c r="G55" t="s">
+        <v>772</v>
+      </c>
+      <c r="H55" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K55" t="s">
+        <v>773</v>
+      </c>
+      <c r="L55" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>454</v>
+      </c>
+      <c r="B56">
+        <v>-44</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1">
+        <v>45498</v>
+      </c>
+      <c r="E56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" t="s">
+        <v>455</v>
+      </c>
+      <c r="G56" t="s">
+        <v>456</v>
+      </c>
+      <c r="H56" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I56">
+        <v>4055</v>
+      </c>
+      <c r="K56" t="s">
+        <v>457</v>
+      </c>
+      <c r="L56" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57">
+        <v>-7</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43985</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" t="s">
+        <v>268</v>
+      </c>
+      <c r="G57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I57">
+        <v>2954</v>
+      </c>
+      <c r="J57">
+        <v>290562</v>
+      </c>
+      <c r="K57" t="s">
+        <v>269</v>
+      </c>
+      <c r="L57" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B58">
+        <v>-40</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45497</v>
+      </c>
+      <c r="E58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" t="s">
+        <v>186</v>
+      </c>
+      <c r="G58" t="s">
+        <v>187</v>
+      </c>
+      <c r="H58" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I58">
+        <v>87</v>
+      </c>
+      <c r="L58" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>293</v>
+      </c>
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44092</v>
+      </c>
+      <c r="E59" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" t="s">
+        <v>295</v>
+      </c>
+      <c r="G59" t="s">
+        <v>295</v>
+      </c>
+      <c r="H59" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="I59">
+        <v>7848</v>
+      </c>
+      <c r="J59">
+        <v>568174</v>
+      </c>
+      <c r="K59" t="s">
+        <v>296</v>
+      </c>
+      <c r="L59" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>43545</v>
+      </c>
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" t="s">
+        <v>547</v>
+      </c>
+      <c r="G60" t="s">
+        <v>192</v>
+      </c>
+      <c r="H60" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I60">
+        <v>3991</v>
+      </c>
+      <c r="J60">
+        <v>213987</v>
+      </c>
+      <c r="K60" t="s">
+        <v>193</v>
+      </c>
+      <c r="L60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>810</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45126</v>
+      </c>
+      <c r="E61" t="s">
+        <v>811</v>
+      </c>
+      <c r="F61" t="s">
+        <v>812</v>
+      </c>
+      <c r="G61" t="s">
+        <v>812</v>
+      </c>
+      <c r="H61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61">
+        <v>844</v>
+      </c>
+      <c r="J61">
+        <v>58094</v>
+      </c>
+      <c r="K61" t="s">
+        <v>813</v>
+      </c>
+      <c r="L61" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>815</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44831</v>
+      </c>
+      <c r="E62" t="s">
+        <v>227</v>
+      </c>
+      <c r="F62" t="s">
+        <v>816</v>
+      </c>
+      <c r="G62" t="s">
+        <v>817</v>
+      </c>
+      <c r="H62" s="2">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="I62">
+        <v>940</v>
+      </c>
+      <c r="J62">
+        <v>11185</v>
+      </c>
+      <c r="K62" t="s">
+        <v>818</v>
+      </c>
+      <c r="L62" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>820</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45503</v>
+      </c>
+      <c r="E63" t="s">
+        <v>821</v>
+      </c>
+      <c r="F63" t="s">
+        <v>822</v>
+      </c>
+      <c r="G63" t="s">
+        <v>822</v>
+      </c>
+      <c r="H63" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="I63">
+        <v>1261</v>
+      </c>
+      <c r="K63" t="s">
+        <v>823</v>
+      </c>
+      <c r="L63" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>825</v>
+      </c>
+      <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" t="s">
+        <v>826</v>
+      </c>
+      <c r="G64" t="s">
+        <v>827</v>
+      </c>
+      <c r="H64" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I64">
+        <v>673</v>
+      </c>
+      <c r="J64">
+        <v>36772</v>
+      </c>
+      <c r="K64" t="s">
+        <v>828</v>
+      </c>
+      <c r="L64" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>386</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44581</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>387</v>
+      </c>
+      <c r="G65" t="s">
+        <v>387</v>
+      </c>
+      <c r="H65" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I65">
+        <v>1770</v>
+      </c>
+      <c r="J65">
+        <v>25959</v>
+      </c>
+      <c r="K65" t="s">
+        <v>388</v>
+      </c>
+      <c r="L65" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45342</v>
+      </c>
+      <c r="E66" t="s">
+        <v>326</v>
+      </c>
+      <c r="F66" t="s">
+        <v>327</v>
+      </c>
+      <c r="G66" t="s">
+        <v>327</v>
+      </c>
+      <c r="H66" s="2">
+        <v>12.99</v>
+      </c>
+      <c r="I66">
+        <v>3853</v>
+      </c>
+      <c r="J66">
+        <v>44396</v>
+      </c>
+      <c r="K66" t="s">
+        <v>328</v>
+      </c>
+      <c r="L66" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>536</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43964</v>
+      </c>
+      <c r="E67" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" t="s">
+        <v>537</v>
+      </c>
+      <c r="G67" t="s">
+        <v>432</v>
+      </c>
+      <c r="H67" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I67">
+        <v>3716</v>
+      </c>
+      <c r="J67">
+        <v>243457</v>
+      </c>
+      <c r="K67" t="s">
+        <v>538</v>
+      </c>
+      <c r="L67" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68">
+        <v>-23</v>
+      </c>
+      <c r="C68">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" t="s">
+        <v>264</v>
+      </c>
+      <c r="G68" t="s">
+        <v>264</v>
+      </c>
+      <c r="H68" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I68">
+        <v>1231</v>
+      </c>
+      <c r="J68">
+        <v>28204</v>
+      </c>
+      <c r="K68" t="s">
+        <v>265</v>
+      </c>
+      <c r="L68" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69">
+        <v>-42</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1">
+        <v>41200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>164</v>
+      </c>
+      <c r="F69" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69" t="s">
+        <v>165</v>
+      </c>
+      <c r="H69" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I69">
+        <v>9670</v>
+      </c>
+      <c r="J69">
+        <v>588865</v>
+      </c>
+      <c r="K69" t="s">
+        <v>166</v>
+      </c>
+      <c r="L69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>29</v>
+      </c>
+      <c r="D70" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E70" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I70">
+        <v>5185</v>
+      </c>
+      <c r="J70">
+        <v>271579</v>
+      </c>
+      <c r="K70" t="s">
+        <v>114</v>
+      </c>
+      <c r="L70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>830</v>
+      </c>
+      <c r="B71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43451</v>
+      </c>
+      <c r="E71" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" t="s">
+        <v>831</v>
+      </c>
+      <c r="G71" t="s">
+        <v>831</v>
+      </c>
+      <c r="H71" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="I71">
+        <v>5527</v>
+      </c>
+      <c r="J71">
+        <v>284731</v>
+      </c>
+      <c r="K71" t="s">
+        <v>832</v>
+      </c>
+      <c r="L71" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>767</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45008</v>
+      </c>
+      <c r="E72" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" t="s">
+        <v>264</v>
+      </c>
+      <c r="G72" t="s">
+        <v>264</v>
+      </c>
+      <c r="H72" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I72">
+        <v>2006</v>
+      </c>
+      <c r="J72">
+        <v>91590</v>
+      </c>
+      <c r="K72" t="s">
+        <v>768</v>
+      </c>
+      <c r="L72" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>834</v>
+      </c>
+      <c r="B73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45506</v>
+      </c>
+      <c r="E73" t="s">
+        <v>835</v>
+      </c>
+      <c r="F73" t="s">
+        <v>836</v>
+      </c>
+      <c r="G73" t="s">
+        <v>837</v>
+      </c>
+      <c r="H73" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I73">
+        <v>1158</v>
+      </c>
+      <c r="J73">
+        <v>17788</v>
+      </c>
+      <c r="K73" t="s">
+        <v>838</v>
+      </c>
+      <c r="L73" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>76</v>
+      </c>
+      <c r="D74" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E74" t="s">
+        <v>227</v>
+      </c>
+      <c r="F74" t="s">
+        <v>228</v>
+      </c>
+      <c r="G74" t="s">
+        <v>229</v>
+      </c>
+      <c r="H74" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I74">
+        <v>2948</v>
+      </c>
+      <c r="J74">
+        <v>180102</v>
+      </c>
+      <c r="K74" t="s">
+        <v>230</v>
+      </c>
+      <c r="L74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>840</v>
+      </c>
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>45505</v>
+      </c>
+      <c r="E75" t="s">
+        <v>841</v>
+      </c>
+      <c r="F75" t="s">
+        <v>842</v>
+      </c>
+      <c r="G75" t="s">
+        <v>837</v>
+      </c>
+      <c r="H75" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I75">
+        <v>426</v>
+      </c>
+      <c r="K75" t="s">
+        <v>843</v>
+      </c>
+      <c r="L75" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>154</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44508</v>
+      </c>
+      <c r="E76" t="s">
+        <v>174</v>
+      </c>
+      <c r="F76" t="s">
+        <v>102</v>
+      </c>
+      <c r="G76" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I76">
+        <v>3546</v>
+      </c>
+      <c r="J76">
+        <v>173688</v>
+      </c>
+      <c r="K76" t="s">
+        <v>175</v>
+      </c>
+      <c r="L76" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="L77" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>44495</v>
+      </c>
+      <c r="E78" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" t="s">
+        <v>846</v>
+      </c>
+      <c r="G78" t="s">
+        <v>847</v>
+      </c>
+      <c r="H78" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I78">
+        <v>437</v>
+      </c>
+      <c r="J78">
+        <v>27318</v>
+      </c>
+      <c r="K78" t="s">
+        <v>848</v>
+      </c>
+      <c r="L78" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>850</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>44761</v>
+      </c>
+      <c r="E79" t="s">
+        <v>468</v>
+      </c>
+      <c r="F79" t="s">
+        <v>851</v>
+      </c>
+      <c r="G79" t="s">
+        <v>852</v>
+      </c>
+      <c r="H79" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I79">
+        <v>1762</v>
+      </c>
+      <c r="J79">
+        <v>128195</v>
+      </c>
+      <c r="K79" t="s">
+        <v>853</v>
+      </c>
+      <c r="L79" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>472</v>
+      </c>
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>41130</v>
+      </c>
+      <c r="E80" t="s">
+        <v>855</v>
+      </c>
+      <c r="F80" t="s">
+        <v>474</v>
+      </c>
+      <c r="G80" t="s">
+        <v>475</v>
+      </c>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80">
+        <v>125</v>
+      </c>
+      <c r="J80">
+        <v>12954</v>
+      </c>
+      <c r="K80" t="s">
+        <v>476</v>
+      </c>
+      <c r="L80" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>594</v>
+      </c>
+      <c r="B81">
+        <v>-4</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="H81" s="2">
+        <v>499</v>
+      </c>
+      <c r="L81" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>620</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>43054</v>
+      </c>
+      <c r="E82" t="s">
+        <v>710</v>
+      </c>
+      <c r="F82" t="s">
+        <v>621</v>
+      </c>
+      <c r="G82" t="s">
+        <v>621</v>
+      </c>
+      <c r="H82" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82">
+        <v>855</v>
+      </c>
+      <c r="J82">
+        <v>141280</v>
+      </c>
+      <c r="K82" t="s">
+        <v>622</v>
+      </c>
+      <c r="L82" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>741</v>
+      </c>
+      <c r="B83">
+        <v>-35</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45497</v>
+      </c>
+      <c r="E83" t="s">
+        <v>112</v>
+      </c>
+      <c r="F83" t="s">
+        <v>742</v>
+      </c>
+      <c r="G83" t="s">
+        <v>742</v>
+      </c>
+      <c r="H83" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="I83">
+        <v>3304</v>
+      </c>
+      <c r="K83" t="s">
+        <v>743</v>
+      </c>
+      <c r="L83" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>856</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>44468</v>
+      </c>
+      <c r="E84" t="s">
+        <v>857</v>
+      </c>
+      <c r="F84" t="s">
+        <v>119</v>
+      </c>
+      <c r="G84" t="s">
+        <v>119</v>
+      </c>
+      <c r="H84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84">
+        <v>1575</v>
+      </c>
+      <c r="J84">
+        <v>78069</v>
+      </c>
+      <c r="K84" t="s">
+        <v>858</v>
+      </c>
+      <c r="L84" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>528</v>
+      </c>
+      <c r="B85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>44901</v>
+      </c>
+      <c r="E85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" t="s">
+        <v>125</v>
+      </c>
+      <c r="H85" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I85">
+        <v>813</v>
+      </c>
+      <c r="J85">
+        <v>22170</v>
+      </c>
+      <c r="K85" t="s">
+        <v>529</v>
+      </c>
+      <c r="L85" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1">
+        <v>44060</v>
+      </c>
+      <c r="E86" t="s">
+        <v>403</v>
+      </c>
+      <c r="F86" t="s">
+        <v>404</v>
+      </c>
+      <c r="G86" t="s">
+        <v>103</v>
+      </c>
+      <c r="H86" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I86">
+        <v>732</v>
+      </c>
+      <c r="J86">
+        <v>57706</v>
+      </c>
+      <c r="K86" t="s">
+        <v>405</v>
+      </c>
+      <c r="L86" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>605</v>
+      </c>
+      <c r="B87">
+        <v>-16</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>45267</v>
+      </c>
+      <c r="E87" t="s">
+        <v>700</v>
+      </c>
+      <c r="F87" t="s">
+        <v>606</v>
+      </c>
+      <c r="G87" t="s">
+        <v>606</v>
+      </c>
+      <c r="H87" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87">
+        <v>4873</v>
+      </c>
+      <c r="J87">
+        <v>178569</v>
+      </c>
+      <c r="K87" t="s">
+        <v>607</v>
+      </c>
+      <c r="L87" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>860</v>
+      </c>
+      <c r="B88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>44995</v>
+      </c>
+      <c r="E88" t="s">
+        <v>861</v>
+      </c>
+      <c r="F88" t="s">
+        <v>862</v>
+      </c>
+      <c r="G88" t="s">
+        <v>862</v>
+      </c>
+      <c r="H88" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="I88">
+        <v>842</v>
+      </c>
+      <c r="J88">
+        <v>16330</v>
+      </c>
+      <c r="K88" t="s">
+        <v>863</v>
+      </c>
+      <c r="L88" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>339</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45222</v>
+      </c>
+      <c r="E89" t="s">
+        <v>340</v>
+      </c>
+      <c r="F89" t="s">
+        <v>341</v>
+      </c>
+      <c r="G89" t="s">
+        <v>341</v>
+      </c>
+      <c r="H89" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="I89">
+        <v>6941</v>
+      </c>
+      <c r="J89">
+        <v>339405</v>
+      </c>
+      <c r="K89" t="s">
+        <v>342</v>
+      </c>
+      <c r="L89" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>320</v>
+      </c>
+      <c r="B90">
+        <v>-36</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1">
+        <v>43390</v>
+      </c>
+      <c r="E90" t="s">
+        <v>321</v>
+      </c>
+      <c r="F90" t="s">
+        <v>322</v>
+      </c>
+      <c r="G90" t="s">
+        <v>322</v>
+      </c>
+      <c r="H90" s="2">
+        <v>34.99</v>
+      </c>
+      <c r="I90">
+        <v>1863</v>
+      </c>
+      <c r="J90">
+        <v>162051</v>
+      </c>
+      <c r="K90" t="s">
+        <v>323</v>
+      </c>
+      <c r="L90" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>865</v>
+      </c>
+      <c r="B91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>44783</v>
+      </c>
+      <c r="E91" t="s">
+        <v>866</v>
+      </c>
+      <c r="F91" t="s">
+        <v>867</v>
+      </c>
+      <c r="G91" t="s">
+        <v>868</v>
+      </c>
+      <c r="H91" t="s">
+        <v>869</v>
+      </c>
+      <c r="I91">
+        <v>97</v>
+      </c>
+      <c r="J91">
+        <v>3843</v>
+      </c>
+      <c r="K91" t="s">
+        <v>870</v>
+      </c>
+      <c r="L91" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>872</v>
+      </c>
+      <c r="B92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>43024</v>
+      </c>
+      <c r="E92" t="s">
+        <v>72</v>
+      </c>
+      <c r="F92" t="s">
+        <v>873</v>
+      </c>
+      <c r="G92" t="s">
+        <v>125</v>
+      </c>
+      <c r="H92" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I92">
+        <v>438</v>
+      </c>
+      <c r="J92">
+        <v>25343</v>
+      </c>
+      <c r="K92" t="s">
+        <v>874</v>
+      </c>
+      <c r="L92" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>630</v>
+      </c>
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>40897</v>
+      </c>
+      <c r="E93" t="s">
+        <v>876</v>
+      </c>
+      <c r="F93" t="s">
+        <v>632</v>
+      </c>
+      <c r="G93" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93">
+        <v>622</v>
+      </c>
+      <c r="J93">
+        <v>62192</v>
+      </c>
+      <c r="K93" t="s">
+        <v>633</v>
+      </c>
+      <c r="L93" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>390</v>
+      </c>
+      <c r="B94">
+        <v>-1</v>
+      </c>
+      <c r="C94">
+        <v>9</v>
+      </c>
+      <c r="D94" s="1">
+        <v>45450</v>
+      </c>
+      <c r="E94" t="s">
+        <v>391</v>
+      </c>
+      <c r="F94" t="s">
+        <v>392</v>
+      </c>
+      <c r="G94" t="s">
+        <v>392</v>
+      </c>
+      <c r="H94" s="2">
+        <v>33.32</v>
+      </c>
+      <c r="I94">
+        <v>2443</v>
+      </c>
+      <c r="J94">
+        <v>20162</v>
+      </c>
+      <c r="K94" t="s">
+        <v>393</v>
+      </c>
+      <c r="L94" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>668</v>
+      </c>
+      <c r="B95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>45491</v>
+      </c>
+      <c r="E95" t="s">
+        <v>877</v>
+      </c>
+      <c r="F95" t="s">
+        <v>670</v>
+      </c>
+      <c r="G95" t="s">
+        <v>670</v>
+      </c>
+      <c r="H95" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95">
+        <v>12691</v>
+      </c>
+      <c r="K95" t="s">
+        <v>671</v>
+      </c>
+      <c r="L95" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>878</v>
+      </c>
+      <c r="B96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>44419</v>
+      </c>
+      <c r="E96" t="s">
+        <v>879</v>
+      </c>
+      <c r="F96" t="s">
+        <v>880</v>
+      </c>
+      <c r="G96" t="s">
+        <v>837</v>
+      </c>
+      <c r="H96" t="s">
+        <v>881</v>
+      </c>
+      <c r="I96">
+        <v>474</v>
+      </c>
+      <c r="J96">
+        <v>24481</v>
+      </c>
+      <c r="K96" t="s">
+        <v>882</v>
+      </c>
+      <c r="L96" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>884</v>
+      </c>
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>42683</v>
+      </c>
+      <c r="E97" t="s">
+        <v>885</v>
+      </c>
+      <c r="F97" t="s">
+        <v>621</v>
+      </c>
+      <c r="G97" t="s">
+        <v>621</v>
+      </c>
+      <c r="H97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97">
+        <v>1187</v>
+      </c>
+      <c r="J97">
+        <v>141698</v>
+      </c>
+      <c r="K97" t="s">
+        <v>886</v>
+      </c>
+      <c r="L97" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>374</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>41586</v>
+      </c>
+      <c r="E98" t="s">
+        <v>375</v>
+      </c>
+      <c r="F98" t="s">
+        <v>376</v>
+      </c>
+      <c r="G98" t="s">
+        <v>376</v>
+      </c>
+      <c r="H98" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I98">
+        <v>5166</v>
+      </c>
+      <c r="J98">
+        <v>237759</v>
+      </c>
+      <c r="K98" t="s">
+        <v>377</v>
+      </c>
+      <c r="L98" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99">
+        <v>-79</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1">
+        <v>43804</v>
+      </c>
+      <c r="E99" t="s">
+        <v>81</v>
+      </c>
+      <c r="F99" t="s">
+        <v>83</v>
+      </c>
+      <c r="G99" t="s">
+        <v>83</v>
+      </c>
+      <c r="H99" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I99">
+        <v>13674</v>
+      </c>
+      <c r="J99">
+        <v>557952</v>
+      </c>
+      <c r="K99" t="s">
+        <v>92</v>
+      </c>
+      <c r="L99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>478</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>41529</v>
+      </c>
+      <c r="E100" t="s">
+        <v>479</v>
+      </c>
+      <c r="F100" t="s">
+        <v>480</v>
+      </c>
+      <c r="G100" t="s">
+        <v>480</v>
+      </c>
+      <c r="H100" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I100">
+        <v>150951</v>
+      </c>
+      <c r="K100" t="s">
+        <v>481</v>
+      </c>
+      <c r="L100" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>888</v>
+      </c>
+      <c r="B101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>41701</v>
+      </c>
+      <c r="E101" t="s">
+        <v>87</v>
+      </c>
+      <c r="F101" t="s">
+        <v>521</v>
+      </c>
+      <c r="G101" t="s">
+        <v>125</v>
+      </c>
+      <c r="H101" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I101">
+        <v>658</v>
+      </c>
+      <c r="J101">
+        <v>50211</v>
+      </c>
+      <c r="K101" t="s">
+        <v>889</v>
+      </c>
+      <c r="L101" t="s">
+        <v>890</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2439C52B-5341-DF43-8CDD-AB33FEF4C9FE}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -6572,7 +10564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71D7B06-37EF-F943-8D0E-B48A8AB57D51}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -10278,7 +14270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3978525E-3F5E-9048-BC93-38E6C42116E5}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -14074,7 +18066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC291C4-96D0-D14C-9991-8EE742F649AB}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -17861,7 +21853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD458E3F-9E53-804A-9E7D-8111A280BFC8}">
   <dimension ref="A1:L101"/>
   <sheetViews>

--- a/data/total_steam_titles.xlsx
+++ b/data/total_steam_titles.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenwang/Desktop/Makers/Steam_Roblox_Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D511197-3193-3541-8D54-A83282E95B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C3A7B5-7A54-904F-8203-81B16D3E2A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="1240" windowWidth="24960" windowHeight="16760" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-08-12" sheetId="6" r:id="rId1"/>
-    <sheet name="2024-08-05" sheetId="5" r:id="rId2"/>
-    <sheet name="2024-07-29" sheetId="4" r:id="rId3"/>
-    <sheet name="2024-07-23" sheetId="3" r:id="rId4"/>
-    <sheet name="2024-07-18" sheetId="1" r:id="rId5"/>
-    <sheet name="2024-07-11" sheetId="2" r:id="rId6"/>
+    <sheet name="2024-08-19" sheetId="7" r:id="rId1"/>
+    <sheet name="2024-08-12" sheetId="6" r:id="rId2"/>
+    <sheet name="2024-08-05" sheetId="5" r:id="rId3"/>
+    <sheet name="2024-07-29" sheetId="4" r:id="rId4"/>
+    <sheet name="2024-07-23" sheetId="3" r:id="rId5"/>
+    <sheet name="2024-07-18" sheetId="1" r:id="rId6"/>
+    <sheet name="2024-07-11" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4499" uniqueCount="992">
   <si>
     <t>Game</t>
   </si>
@@ -2717,6 +2718,309 @@
   </si>
   <si>
     <t>https://store.steampowered.com/app/213670/South_Park_The_Stick_of_Truth?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Five Nights at Freddy's: Into the Pit</t>
+  </si>
+  <si>
+    <t>Mega Cat Studios</t>
+  </si>
+  <si>
+    <t>Survive five nights of terror in this chilling adventure game. Travel between time periods to solve puzzles, gather clues, and outrun the threat relentlessly pursuing you. Move swiftly and stay hidden, and you may just survive. But be careful‚Äîit's not just your own life that‚Äôs on the line this time.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2638370/Five_Nights_at_Freddys_Into_the_Pit?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Borderlands 3</t>
+  </si>
+  <si>
+    <t>Gearbox Software</t>
+  </si>
+  <si>
+    <t>The original shooter-looter returns, packing bazillions of guns and a mayhem-fueled adventure! Blast through new worlds and enemies as one of four new Vault Hunters.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/397540/Borderlands_3?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Fields of Mistria</t>
+  </si>
+  <si>
+    <t>NPC Studio</t>
+  </si>
+  <si>
+    <t>Start your new life! Build the farm of your dreams as you discover a world brimming with possibilities. Magic, romance, and adventure all await you in this nostalgic farming / life sim RPG!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2142790/Fields_of_Mistria?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Titanfall¬Æ 2</t>
+  </si>
+  <si>
+    <t>Respawn Entertainment</t>
+  </si>
+  <si>
+    <t>Respawn Entertainment gives you the most advanced titan technology in its new, single player campaign &amp; multiplayer experience. Combine &amp; conquer with new titans &amp; pilots, deadlier weapons, &amp; customization and progression systems that help you and your titan flow as one unstoppable killing force.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1237970/Titanfall_2?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls V: Skyrim Special Edition</t>
+  </si>
+  <si>
+    <t>Winner of more than 200 Game of the Year Awards, The Elder Scrolls V: Skyrim Special Edition brings the epic fantasy to life in stunning detail. The Special Edition includes the critically acclaimed game and add-ons with all-new features.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/489830/The_Elder_Scrolls_V_Skyrim_Special_Edition?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Fate/stay night REMASTERED</t>
+  </si>
+  <si>
+    <t>TYPE-MOON, fuzz Inc.</t>
+  </si>
+  <si>
+    <t>Aniplex Inc.</t>
+  </si>
+  <si>
+    <t>Seek the root of the Fate franchise. Return to where it all began.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2396980/Fatestay_night_REMASTERED?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Call of Duty¬Æ: Modern Warfare¬Æ Remastered (2017)</t>
+  </si>
+  <si>
+    <t>Raven Software, Beenox</t>
+  </si>
+  <si>
+    <t>One of the most critically-acclaimed games in history, Call of Duty: Modern Warfare is back, remastered in true high-definition, featuring improved textures, physically based rendering, high-dynamic range lighting and much more.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/393080/Call_of_Duty_Modern_Warfare_Remastered_2017?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Prince of Persia The Lost Crown</t>
+  </si>
+  <si>
+    <t>Ubisoft Montpellier</t>
+  </si>
+  <si>
+    <t>Dash into a stylish and thrilling action-adventure platformer set in a mythological Persian world where the boundaries of time and space are yours to manipulate.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2751000/Prince_of_Persia_The_Lost_Crown?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Borderlands 2</t>
+  </si>
+  <si>
+    <t>Gearbox Software, Aspyr (Mac), Aspyr (Linux)</t>
+  </si>
+  <si>
+    <t>The Ultimate Vault Hunter‚Äôs Upgrade lets you get the most out of the Borderlands 2 experience.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/49520/Borderlands_2?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Half-Life: Alyx</t>
+  </si>
+  <si>
+    <t>Half-Life: Alyx is Valve‚Äôs VR return to the Half-Life series. It‚Äôs the story of an impossible fight against a vicious alien race known as the Combine, set between the events of Half-Life and Half-Life 2. Playing as Alyx Vance, you are humanity‚Äôs only chance for survival.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/546560/HalfLife_Alyx?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Dungeons &amp; Degenerate Gamblers</t>
+  </si>
+  <si>
+    <t>Casual, Indie, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Purple Moss Collectors</t>
+  </si>
+  <si>
+    <t>Yogscast Games</t>
+  </si>
+  <si>
+    <t>Battle your way through a seedy tavern filled with gambling addicted townspeople in this Blackjack Roguelike Adventure. From aces and face cards to tarot cards, business cards and more, create your unique deck to beat the house.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2400510/Dungeons__Degenerate_Gamblers?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>ICARUS</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Simulation</t>
+  </si>
+  <si>
+    <t>RocketWerkz</t>
+  </si>
+  <si>
+    <t>ICARUS is a PvE survival game for up to eight players. Explore a savage wilderness in the aftermath of terraforming gone wrong. Survive the Open World, complete timed Missions or build your Outpost. Explore, build, craft and hunt while seeking your fortune and prospecting for exotic matter.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1149460/ICARUS?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Call of Duty¬Æ: Black Ops II</t>
+  </si>
+  <si>
+    <t>Treyarch</t>
+  </si>
+  <si>
+    <t>Pushing the boundaries of what fans have come to expect from the record-setting entertainment franchise, Call of Duty¬Æ: Black Ops II propels players into a near future Cold War</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/202970/Call_of_Duty_Black_Ops_II?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>ÂóúË°ÄÂç∞ Bloody Spell</t>
+  </si>
+  <si>
+    <t>Ëâ∫ÈæôÊ∏∏Êàè</t>
+  </si>
+  <si>
+    <t>This is a martial arts action role-playing game. The core of the game is battle-oriented, and it combines many fighting elements. If you are a player who pursues blood and is brave enough to challenge the limits, it will definitely inspire your adrenaline and bring you the best combat experience.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/992300/_Bloody_Spell?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Tiny Tina's Wonderlands</t>
+  </si>
+  <si>
+    <t>Embark on an epic adventure full of whimsy, wonder, and high-powered weaponry! Roll your own multiclass hero then shoot, loot, slash, and cast on a quest to stop the Dragon Lord.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1286680/Tiny_Tinas_Wonderlands?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Call of Duty¬Æ: Black Ops Cold War</t>
+  </si>
+  <si>
+    <t>Treyarch, Raven Software, High Moon Studios, , ,</t>
+  </si>
+  <si>
+    <t>Black Ops Cold War, the direct sequel to Call of Duty¬Æ: Black Ops, will drop fans into the depths of the Cold War‚Äôs volatile geopolitical battle of the early 1980s.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1985810/Call_of_Duty_Black_Ops_Cold_War?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Starfield</t>
+  </si>
+  <si>
+    <t>Starfield is the first new universe in 25 years from Bethesda Game Studios, the award-winning creators of The Elder Scrolls V: Skyrim and Fallout 4.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1716740/Starfield?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Abiotic Factor</t>
+  </si>
+  <si>
+    <t>Action, Adventure, RPG, Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>Deep Field Games</t>
+  </si>
+  <si>
+    <t>Playstack</t>
+  </si>
+  <si>
+    <t>Abiotic Factor is a survival crafting experience for 1-6 players set in the depths of an underground research facility. Caught between paranormal containment failure, a military crusade, and chaos from a dozen realms, the world‚Äôs greatest minds must survive against the universe‚Äôs biggest threats.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/427410/Abiotic_Factor?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Thank Goodness You're Here!</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Indie</t>
+  </si>
+  <si>
+    <t>Coal Supper</t>
+  </si>
+  <si>
+    <t>Panic</t>
+  </si>
+  <si>
+    <t>Thank Goodness You're Here! is an absurd comedy slapformer set in the bizarre Northern English town of Barnsworth. As a traveling salesman, take the time to see the sights and meet the locals, who are very eager to give you a series of increasingly odd jobs‚Ä¶</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2366980/Thank_Goodness_Youre_Here?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>SteamWorld Heist II</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Thunderful Development</t>
+  </si>
+  <si>
+    <t>Thunderful Publishing</t>
+  </si>
+  <si>
+    <t>Join Captain Leeway and his ragtag crew as they uncover the enigmatic menace threatening the Great Sea. Equip and upgrade your crew for turn-based gunfights packed with ricochet action and engage in real-time naval combat. Get ready to aim, plot, and plunder in this turn-based tactical adventure.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2396240/SteamWorld_Heist_II?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Cat Quest III</t>
+  </si>
+  <si>
+    <t>The Gentlebros</t>
+  </si>
+  <si>
+    <t>In Cat Quest III you play as a purrivateer in a freely explorable 2.5D open-world swarming with Pi-rats. You can sail the seas in your ship for treasures galore! But prepare for peril, as the Pirate King aims to hunt you down...</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2305840/Cat_Quest_III?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Tony Hawk's‚Ñ¢ Pro Skater‚Ñ¢ 1 + 2</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Vicarious Visions, Iron Galaxy Studios</t>
+  </si>
+  <si>
+    <t>Play the fully-remastered Tony Hawk‚Äôs‚Ñ¢ Pro Skater‚Ñ¢ &amp; Tony Hawk‚Äôs‚Ñ¢ Pro Skater‚Ñ¢ 2 games in one epic collection, rebuilt from the ground up in incredible HD.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2395210/Tony_Hawks_Pro_Skater_1__2?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>MARVEL SNAP</t>
+  </si>
+  <si>
+    <t>Casual, Strategy, Free To Play</t>
+  </si>
+  <si>
+    <t>Second Dinner Studios, Inc.</t>
+  </si>
+  <si>
+    <t>Nuverse</t>
+  </si>
+  <si>
+    <t>MARVEL SNAP is a fast-paced Collectible Card Game that reimagines the genre with innovative mechanics. Winner of multiple awards like 'Best Strategy Game' and 'Breakthrough Game of the Year,' we invite you to join millions of players worldwide ‚Äì Jump right in!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1997040/MARVEL_SNAP?snr=1_7001_7002__7003</t>
   </si>
 </sst>
 </file>
@@ -3110,10 +3414,3779 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A4B528-2005-7D49-ACA5-17BB65A55775}">
+  <dimension ref="A1:L101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>627</v>
+      </c>
+      <c r="D2" s="6">
+        <v>41142</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5">
+        <v>107593</v>
+      </c>
+      <c r="J2" s="5">
+        <v>8256681</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45523</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>386</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43090</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5">
+        <v>19518</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2413363</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>129</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>350</v>
+      </c>
+      <c r="D6" s="6">
+        <v>41464</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5">
+        <v>25486</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2298996</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45473</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5">
+        <v>16858</v>
+      </c>
+      <c r="J7" s="5">
+        <v>78386</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44616</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H8" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I8" s="5">
+        <v>19675</v>
+      </c>
+      <c r="J8" s="5">
+        <v>695057</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>197</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44139</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="5">
+        <v>54125</v>
+      </c>
+      <c r="J9" s="5">
+        <v>938164</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B10" s="5">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45544</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H10" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" s="5">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45590</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="5">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45330</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I12" s="5">
+        <v>11502</v>
+      </c>
+      <c r="J12" s="5">
+        <v>662089</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>157</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44419</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="5">
+        <v>9623</v>
+      </c>
+      <c r="J13" s="5">
+        <v>246023</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44575</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2230</v>
+      </c>
+      <c r="J14" s="5">
+        <v>96107</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>45482</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="5">
+        <v>36111</v>
+      </c>
+      <c r="J15" s="5">
+        <v>74277</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>245</v>
+      </c>
+      <c r="D16" s="6">
+        <v>41501</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="5">
+        <v>16431</v>
+      </c>
+      <c r="J16" s="5">
+        <v>526307</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="5">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44579</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1010</v>
+      </c>
+      <c r="J17" s="5">
+        <v>75897</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45511</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="H18" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I18" s="5">
+        <v>5331</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="5">
+        <v>-6</v>
+      </c>
+      <c r="C19" s="5">
+        <v>89</v>
+      </c>
+      <c r="D19" s="6">
+        <v>41358</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="5">
+        <v>4998</v>
+      </c>
+      <c r="J19" s="5">
+        <v>587605</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5">
+        <v>-6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>73</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45141</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I20" s="5">
+        <v>9920</v>
+      </c>
+      <c r="J20" s="5">
+        <v>570039</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="5">
+        <v>-9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>385</v>
+      </c>
+      <c r="D21" s="6">
+        <v>42535</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I21" s="5">
+        <v>6603</v>
+      </c>
+      <c r="J21" s="5">
+        <v>536355</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>43903</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="7">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1394</v>
+      </c>
+      <c r="J22" s="5">
+        <v>105552</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="5">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5">
+        <v>499</v>
+      </c>
+      <c r="D23" s="6">
+        <v>41733</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I23" s="5">
+        <v>714</v>
+      </c>
+      <c r="J23" s="5">
+        <v>122297</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5">
+        <v>40</v>
+      </c>
+      <c r="D24" s="6">
+        <v>43739</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3842</v>
+      </c>
+      <c r="J24" s="5">
+        <v>609981</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C25" s="5">
+        <v>500</v>
+      </c>
+      <c r="D25" s="6">
+        <v>42108</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I25" s="5">
+        <v>21717</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1692814</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5">
+        <v>199</v>
+      </c>
+      <c r="D26" s="6">
+        <v>41884</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="5">
+        <v>3942</v>
+      </c>
+      <c r="J26" s="5">
+        <v>147026</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B27" s="5">
+        <v>-16</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6">
+        <v>41570</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="5">
+        <v>3304</v>
+      </c>
+      <c r="J27" s="5">
+        <v>224835</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B28" s="5">
+        <v>18</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45216</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="I28" s="5">
+        <v>868</v>
+      </c>
+      <c r="J28" s="5">
+        <v>21174</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="5">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>42314</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="7">
+        <v>14.99</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2212</v>
+      </c>
+      <c r="J29" s="5">
+        <v>130520</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="5">
+        <v>-13</v>
+      </c>
+      <c r="C30" s="5">
+        <v>109</v>
+      </c>
+      <c r="D30" s="6">
+        <v>44862</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I30" s="5">
+        <v>4896</v>
+      </c>
+      <c r="J30" s="5">
+        <v>327110</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B31" s="5">
+        <v>56</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>45509</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="H31" s="7">
+        <v>13.99</v>
+      </c>
+      <c r="I31" s="5">
+        <v>4415</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>42671</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I32" s="5">
+        <v>5766</v>
+      </c>
+      <c r="J32" s="5">
+        <v>202740</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="5">
+        <v>-13</v>
+      </c>
+      <c r="C33" s="5">
+        <v>15</v>
+      </c>
+      <c r="D33" s="6">
+        <v>45463</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H33" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I33" s="5">
+        <v>3871</v>
+      </c>
+      <c r="J33" s="5">
+        <v>77417</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="5">
+        <v>-4</v>
+      </c>
+      <c r="C34" s="5">
+        <v>457</v>
+      </c>
+      <c r="D34" s="6">
+        <v>42339</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I34" s="5">
+        <v>8835</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1113766</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="5">
+        <v>-14</v>
+      </c>
+      <c r="C35" s="5">
+        <v>477</v>
+      </c>
+      <c r="D35" s="6">
+        <v>43139</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I35" s="5">
+        <v>11594</v>
+      </c>
+      <c r="J35" s="5">
+        <v>905278</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" s="5">
+        <v>-13</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6">
+        <v>39365</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="5">
+        <v>8501</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1114378</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="5">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5">
+        <v>21</v>
+      </c>
+      <c r="D37" s="6">
+        <v>43935</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H37" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1002</v>
+      </c>
+      <c r="J37" s="5">
+        <v>60854</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="5">
+        <v>-16</v>
+      </c>
+      <c r="C38" s="5">
+        <v>33</v>
+      </c>
+      <c r="D38" s="6">
+        <v>41688</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H38" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I38" s="5">
+        <v>697</v>
+      </c>
+      <c r="J38" s="5">
+        <v>69872</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="5">
+        <v>-20</v>
+      </c>
+      <c r="C39" s="5">
+        <v>8</v>
+      </c>
+      <c r="D39" s="6">
+        <v>45462</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="7">
+        <v>4.99</v>
+      </c>
+      <c r="I39" s="5">
+        <v>7339</v>
+      </c>
+      <c r="J39" s="5">
+        <v>24369</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5">
+        <v>26</v>
+      </c>
+      <c r="D40" s="6">
+        <v>42426</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="7">
+        <v>14.99</v>
+      </c>
+      <c r="I40" s="5">
+        <v>11981</v>
+      </c>
+      <c r="J40" s="5">
+        <v>634968</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B41" s="5">
+        <v>-7</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4</v>
+      </c>
+      <c r="D41" s="6">
+        <v>45561</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" s="5">
+        <v>-14</v>
+      </c>
+      <c r="C42" s="5">
+        <v>136</v>
+      </c>
+      <c r="D42" s="6">
+        <v>44603</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="5">
+        <v>609</v>
+      </c>
+      <c r="J42" s="5">
+        <v>200383</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>42670</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H43" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I43" s="5">
+        <v>2261</v>
+      </c>
+      <c r="J43" s="5">
+        <v>166353</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6">
+        <v>42318</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H44" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2692</v>
+      </c>
+      <c r="J44" s="5">
+        <v>248218</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>45511</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="H45" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1258</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>42943</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I46" s="5">
+        <v>2779</v>
+      </c>
+      <c r="J46" s="5">
+        <v>10965</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
+        <v>43910</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H47" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1577</v>
+      </c>
+      <c r="J47" s="5">
+        <v>165639</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="5">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5">
+        <v>6</v>
+      </c>
+      <c r="D48" s="6">
+        <v>44092</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H48" s="7">
+        <v>13.99</v>
+      </c>
+      <c r="I48" s="5">
+        <v>8596</v>
+      </c>
+      <c r="J48" s="5">
+        <v>570647</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="5">
+        <v>-9</v>
+      </c>
+      <c r="C49" s="5">
+        <v>62</v>
+      </c>
+      <c r="D49" s="6">
+        <v>44174</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I49" s="5">
+        <v>6737</v>
+      </c>
+      <c r="J49" s="5">
+        <v>672900</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6">
+        <v>45512</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I50" s="5">
+        <v>610</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6">
+        <v>41170</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1145</v>
+      </c>
+      <c r="J51" s="5">
+        <v>190522</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>43913</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I52" s="5">
+        <v>863</v>
+      </c>
+      <c r="J52" s="5">
+        <v>79178</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B53" s="5">
+        <v>35</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="6">
+        <v>43054</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="5">
+        <v>928</v>
+      </c>
+      <c r="J53" s="5">
+        <v>141506</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6">
+        <v>45512</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="H54" s="7">
+        <v>14.99</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1013</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6">
+        <v>44519</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I55" s="5">
+        <v>3406</v>
+      </c>
+      <c r="J55" s="5">
+        <v>211425</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B56" s="5">
+        <v>-17</v>
+      </c>
+      <c r="C56" s="5">
+        <v>16</v>
+      </c>
+      <c r="D56" s="6">
+        <v>45428</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H56" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1933</v>
+      </c>
+      <c r="J56" s="5">
+        <v>25393</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6">
+        <v>44533</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="H57" s="7">
+        <v>34.99</v>
+      </c>
+      <c r="I57" s="5">
+        <v>585</v>
+      </c>
+      <c r="J57" s="5">
+        <v>32201</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6">
+        <v>41225</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H58" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="I58" s="5">
+        <v>276</v>
+      </c>
+      <c r="J58" s="5">
+        <v>19735</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B59" s="5">
+        <v>-9</v>
+      </c>
+      <c r="C59" s="5">
+        <v>5</v>
+      </c>
+      <c r="D59" s="8">
+        <v>45614</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H59" s="7">
+        <v>3.99</v>
+      </c>
+      <c r="I59" s="5">
+        <v>10538</v>
+      </c>
+      <c r="J59" s="5">
+        <v>748811</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B60" s="5">
+        <v>-29</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4</v>
+      </c>
+      <c r="D60" s="6">
+        <v>45069</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="5">
+        <v>996</v>
+      </c>
+      <c r="J60" s="5">
+        <v>12500</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="5">
+        <v>-20</v>
+      </c>
+      <c r="C61" s="5">
+        <v>57</v>
+      </c>
+      <c r="D61" s="6">
+        <v>45197</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I61" s="5">
+        <v>5340</v>
+      </c>
+      <c r="J61" s="5">
+        <v>83000</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6">
+        <v>43413</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="I62" s="5">
+        <v>5176</v>
+      </c>
+      <c r="J62" s="5">
+        <v>193450</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" s="5">
+        <v>-6</v>
+      </c>
+      <c r="C63" s="5">
+        <v>181</v>
+      </c>
+      <c r="D63" s="6">
+        <v>42879</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H63" s="7">
+        <v>9.99</v>
+      </c>
+      <c r="I63" s="5">
+        <v>483</v>
+      </c>
+      <c r="J63" s="5">
+        <v>56003</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B64" s="5">
+        <v>-28</v>
+      </c>
+      <c r="C64" s="5">
+        <v>3</v>
+      </c>
+      <c r="D64" s="6">
+        <v>45273</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H64" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="I64" s="5">
+        <v>4856</v>
+      </c>
+      <c r="J64" s="5">
+        <v>148642</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B65" s="5">
+        <v>-39</v>
+      </c>
+      <c r="C65" s="5">
+        <v>23</v>
+      </c>
+      <c r="D65" s="6">
+        <v>45240</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H65" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I65" s="5">
+        <v>665</v>
+      </c>
+      <c r="J65" s="5">
+        <v>10653</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B66" s="5">
+        <v>-4</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2</v>
+      </c>
+      <c r="D66" s="6">
+        <v>43964</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="H66" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I66" s="5">
+        <v>3932</v>
+      </c>
+      <c r="J66" s="5">
+        <v>244454</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="5">
+        <v>-9</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2</v>
+      </c>
+      <c r="D67" s="6">
+        <v>43545</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H67" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I67" s="5">
+        <v>3869</v>
+      </c>
+      <c r="J67" s="5">
+        <v>214835</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="5">
+        <v>-14</v>
+      </c>
+      <c r="C68" s="5">
+        <v>26</v>
+      </c>
+      <c r="D68" s="6">
+        <v>43985</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="I68" s="5">
+        <v>2927</v>
+      </c>
+      <c r="J68" s="5">
+        <v>291099</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="D69" s="6">
+        <v>44587</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="H69" s="7">
+        <v>24.99</v>
+      </c>
+      <c r="I69" s="5">
+        <v>723</v>
+      </c>
+      <c r="J69" s="5">
+        <v>29208</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="6">
+        <v>44735</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H70" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I70" s="5">
+        <v>328</v>
+      </c>
+      <c r="J70" s="5">
+        <v>13280</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6">
+        <v>44993</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H71" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I71" s="5">
+        <v>681</v>
+      </c>
+      <c r="J71" s="5">
+        <v>15672</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B72" s="5">
+        <v>-12</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2</v>
+      </c>
+      <c r="D72" s="6">
+        <v>45132</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="H72" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="I72" s="5">
+        <v>700</v>
+      </c>
+      <c r="J72" s="5">
+        <v>36938</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6">
+        <v>45174</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H73" s="7">
+        <v>34.99</v>
+      </c>
+      <c r="I73" s="5">
+        <v>888</v>
+      </c>
+      <c r="J73" s="5">
+        <v>102548</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="5">
+        <v>-4</v>
+      </c>
+      <c r="C74" s="5">
+        <v>77</v>
+      </c>
+      <c r="D74" s="6">
+        <v>45344</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H74" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I74" s="5">
+        <v>2698</v>
+      </c>
+      <c r="J74" s="5">
+        <v>180639</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B75" s="5">
+        <v>-27</v>
+      </c>
+      <c r="C75" s="5">
+        <v>3</v>
+      </c>
+      <c r="D75" s="6">
+        <v>45498</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H75" s="7">
+        <v>44.99</v>
+      </c>
+      <c r="I75" s="5">
+        <v>6862</v>
+      </c>
+      <c r="J75" s="5">
+        <v>229454</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C76" s="5">
+        <v>13</v>
+      </c>
+      <c r="D76" s="6">
+        <v>41200</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H76" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I76" s="5">
+        <v>8786</v>
+      </c>
+      <c r="J76" s="5">
+        <v>590296</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6">
+        <v>45414</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="H77" s="7">
+        <v>24.99</v>
+      </c>
+      <c r="I77" s="5">
+        <v>1511</v>
+      </c>
+      <c r="J77" s="5">
+        <v>11832</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B78" s="5">
+        <v>-17</v>
+      </c>
+      <c r="C78" s="5">
+        <v>10</v>
+      </c>
+      <c r="D78" s="6">
+        <v>45450</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="5">
+        <v>6897</v>
+      </c>
+      <c r="J78" s="5">
+        <v>43481</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B79" s="5">
+        <v>-16</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="6">
+        <v>44581</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="H79" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I79" s="5">
+        <v>1705</v>
+      </c>
+      <c r="J79" s="5">
+        <v>26277</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B80" s="5">
+        <v>-3</v>
+      </c>
+      <c r="C80" s="5">
+        <v>4</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="7">
+        <v>499</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="5">
+        <v>-7</v>
+      </c>
+      <c r="C81" s="5">
+        <v>155</v>
+      </c>
+      <c r="D81" s="6">
+        <v>44508</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H81" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I81" s="5">
+        <v>3088</v>
+      </c>
+      <c r="J81" s="5">
+        <v>174360</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="B82" s="5">
+        <v>7</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2</v>
+      </c>
+      <c r="D82" s="6">
+        <v>45505</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="H82" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I82" s="5">
+        <v>1789</v>
+      </c>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B83" s="5">
+        <v>-36</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2</v>
+      </c>
+      <c r="D83" s="6">
+        <v>45504</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83" s="5">
+        <v>1889</v>
+      </c>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6">
+        <v>45512</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="H84" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I84" s="5">
+        <v>473</v>
+      </c>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="5">
+        <v>-18</v>
+      </c>
+      <c r="C85" s="5">
+        <v>30</v>
+      </c>
+      <c r="D85" s="6">
+        <v>45309</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H85" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I85" s="5">
+        <v>4372</v>
+      </c>
+      <c r="J85" s="5">
+        <v>272311</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" s="5">
+        <v>-22</v>
+      </c>
+      <c r="C86" s="5">
+        <v>6</v>
+      </c>
+      <c r="D86" s="6">
+        <v>45342</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H86" s="7">
+        <v>12.99</v>
+      </c>
+      <c r="I86" s="5">
+        <v>3471</v>
+      </c>
+      <c r="J86" s="5">
+        <v>45066</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="5">
+        <v>-54</v>
+      </c>
+      <c r="C87" s="5">
+        <v>5</v>
+      </c>
+      <c r="D87" s="6">
+        <v>45148</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" s="5">
+        <v>9190</v>
+      </c>
+      <c r="J87" s="5">
+        <v>289387</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B88" s="5">
+        <v>-3</v>
+      </c>
+      <c r="C88" s="5">
+        <v>7</v>
+      </c>
+      <c r="D88" s="6">
+        <v>43390</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="H88" s="7">
+        <v>34.99</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1809</v>
+      </c>
+      <c r="J88" s="5">
+        <v>162429</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="5">
+        <v>8</v>
+      </c>
+      <c r="C89" s="5">
+        <v>7</v>
+      </c>
+      <c r="D89" s="6">
+        <v>43804</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H89" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I89" s="5">
+        <v>12890</v>
+      </c>
+      <c r="J89" s="5">
+        <v>560090</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0</v>
+      </c>
+      <c r="C90" s="5">
+        <v>6</v>
+      </c>
+      <c r="D90" s="6">
+        <v>44060</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H90" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="I90" s="5">
+        <v>706</v>
+      </c>
+      <c r="J90" s="5">
+        <v>57838</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B91" s="5">
+        <v>-9</v>
+      </c>
+      <c r="C91" s="5">
+        <v>4</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="B92" s="5">
+        <v>-17</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2</v>
+      </c>
+      <c r="D92" s="6">
+        <v>44761</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="H92" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1826</v>
+      </c>
+      <c r="J92" s="5">
+        <v>128625</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C93" s="5">
+        <v>6</v>
+      </c>
+      <c r="D93" s="6">
+        <v>45222</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H93" s="7">
+        <v>9.99</v>
+      </c>
+      <c r="I93" s="5">
+        <v>7178</v>
+      </c>
+      <c r="J93" s="5">
+        <v>341240</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1</v>
+      </c>
+      <c r="D94" s="6">
+        <v>45512</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H94" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1077</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="6">
+        <v>42683</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" s="5">
+        <v>1222</v>
+      </c>
+      <c r="J95" s="5">
+        <v>141919</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
+      <c r="D96" s="6">
+        <v>45202</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H96" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="I96" s="5">
+        <v>172</v>
+      </c>
+      <c r="J96" s="5">
+        <v>3166</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="D97" s="6">
+        <v>45160</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="I97" s="5">
+        <v>538</v>
+      </c>
+      <c r="J97" s="5">
+        <v>26889</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+      <c r="D98" s="6">
+        <v>44075</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H98" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="I98" s="5">
+        <v>850</v>
+      </c>
+      <c r="J98" s="5">
+        <v>71923</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B99" s="5">
+        <v>-4</v>
+      </c>
+      <c r="C99" s="5">
+        <v>3</v>
+      </c>
+      <c r="D99" s="6">
+        <v>41586</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="H99" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I99" s="5">
+        <v>4948</v>
+      </c>
+      <c r="J99" s="5">
+        <v>238744</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2</v>
+      </c>
+      <c r="D100" s="6">
+        <v>45194</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I100" s="5">
+        <v>374</v>
+      </c>
+      <c r="J100" s="5">
+        <v>15377</v>
+      </c>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B101" s="5">
+        <v>-32</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2</v>
+      </c>
+      <c r="D101" s="6">
+        <v>45506</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="H101" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="I101" s="5">
+        <v>1619</v>
+      </c>
+      <c r="J101" s="5">
+        <v>18307</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9468E3C7-ED89-7F49-91F9-C709353B7C6C}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -6833,7 +10906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2439C52B-5341-DF43-8CDD-AB33FEF4C9FE}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -10564,7 +14637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71D7B06-37EF-F943-8D0E-B48A8AB57D51}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -14270,7 +18343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3978525E-3F5E-9048-BC93-38E6C42116E5}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -18066,7 +22139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC291C4-96D0-D14C-9991-8EE742F649AB}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -21853,7 +25926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD458E3F-9E53-804A-9E7D-8111A280BFC8}">
   <dimension ref="A1:L101"/>
   <sheetViews>

--- a/data/total_steam_titles.xlsx
+++ b/data/total_steam_titles.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenwang/Desktop/Makers/Steam_Roblox_Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C3A7B5-7A54-904F-8203-81B16D3E2A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AD42F8-815F-1546-B9A3-CDEC73C5924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="1240" windowWidth="24960" windowHeight="16760" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-08-19" sheetId="7" r:id="rId1"/>
-    <sheet name="2024-08-12" sheetId="6" r:id="rId2"/>
-    <sheet name="2024-08-05" sheetId="5" r:id="rId3"/>
-    <sheet name="2024-07-29" sheetId="4" r:id="rId4"/>
-    <sheet name="2024-07-23" sheetId="3" r:id="rId5"/>
-    <sheet name="2024-07-18" sheetId="1" r:id="rId6"/>
-    <sheet name="2024-07-11" sheetId="2" r:id="rId7"/>
+    <sheet name="2024-08-26" sheetId="8" r:id="rId1"/>
+    <sheet name="2024-08-19" sheetId="7" r:id="rId2"/>
+    <sheet name="2024-08-12" sheetId="6" r:id="rId3"/>
+    <sheet name="2024-08-05" sheetId="5" r:id="rId4"/>
+    <sheet name="2024-07-29" sheetId="4" r:id="rId5"/>
+    <sheet name="2024-07-23" sheetId="3" r:id="rId6"/>
+    <sheet name="2024-07-18" sheetId="1" r:id="rId7"/>
+    <sheet name="2024-07-11" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4499" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5143" uniqueCount="1095">
   <si>
     <t>Game</t>
   </si>
@@ -3021,6 +3022,315 @@
   </si>
   <si>
     <t>https://store.steampowered.com/app/1997040/MARVEL_SNAP?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Sins of a Solar Empire II</t>
+  </si>
+  <si>
+    <t>Ironclad Games Corporation, Stardock Entertainment</t>
+  </si>
+  <si>
+    <t>Stardock Entertainment</t>
+  </si>
+  <si>
+    <t>Battle for galactic dominance in this real-time 4X strategy game with unrivaled scale! You‚Äôll explore, expand, exploit, and exterminate through military force, diplomacy, trade, culture, influence, and other underhanded tactics.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1575940/Sins_of_a_Solar_Empire_II?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Cult of the Lamb</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Strategy</t>
+  </si>
+  <si>
+    <t>Massive Monster</t>
+  </si>
+  <si>
+    <t>Start your own cult in a land of false prophets, venturing out into diverse and mysterious regions to build a loyal community of woodland Followers and spread your Word to become the one true cult.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1313140/Cult_of_the_Lamb?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>shapez 2</t>
+  </si>
+  <si>
+    <t>Casual, Indie, Simulation, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>tobspr Games</t>
+  </si>
+  <si>
+    <t>Dive into a factory-building game where the focus is on just that ‚Äî building huge factories! Construct sprawling multi-level factories and min-max your layouts without limits. Shapez 2 is tailor-made for enthusiasts who crave the thrill of optimizing production lines and perfecting automation.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2162800/shapez_2?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Crime Scene Cleaner</t>
+  </si>
+  <si>
+    <t>Action, Simulation</t>
+  </si>
+  <si>
+    <t>President Studio</t>
+  </si>
+  <si>
+    <t>Once you get tangled with the mob, you will forever be a part of the mob. At least they pay a decent salary and all you have to do is clean up after their dirty work, but you know what you‚Äôre doing. So clean crime scenes, earn as much money as you can, and get ready for the next mission.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1040200/Crime_Scene_Cleaner?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Hunt: Showdown 1896</t>
+  </si>
+  <si>
+    <t>Hunt: Showdown 1896 is a new era of the addictively unforgiving extraction shooter. In corrupted backwaters lost to history, fight back alone ‚Äì or with friends ‚Äì against timeless evil. Twisted monsters and other ruthless Hunters stand between you and your Bounty. Risk everything as Hunt consumes you</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/594650/Hunt_Showdown_1896?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>EA SPORTS‚Ñ¢ Madden NFL 25</t>
+  </si>
+  <si>
+    <t>Simulation, Sports, Strategy</t>
+  </si>
+  <si>
+    <t>Tiburon</t>
+  </si>
+  <si>
+    <t>Hit like you mean it with FieldSENSE‚Ñ¢ powered by BOOM Tech. Experience how the new physics-informed dynamic tackling system unlocks realistic collisions &amp; new gameplay animations on both sides of the ball.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2582560/EA_SPORTS_Madden_NFL_25?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Dragon Age‚Ñ¢: The Veilguard</t>
+  </si>
+  <si>
+    <t>Action, Adventure, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>BioWare</t>
+  </si>
+  <si>
+    <t>Unite the Veilguard and defy the gods in Dragon Age‚Ñ¢: The Veilguard, an immersive single-player RPG where you become the leader others believe in.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1845910/Dragon_Age_The_Veilguard?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>DREDGE</t>
+  </si>
+  <si>
+    <t>Adventure, RPG</t>
+  </si>
+  <si>
+    <t>Black Salt Games</t>
+  </si>
+  <si>
+    <t>Team17</t>
+  </si>
+  <si>
+    <t>DREDGE is a single-player fishing adventure with a sinister undercurrent. Sell your catch, upgrade your boat, and dredge the depths for long-buried secrets. Explore a mysterious archipelago and discover why some things are best left forgotten.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1562430/DREDGE?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Black Myth: Wukong Deluxe Edition Upgrade</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2672610/Black_Myth_Wukong_Deluxe_Edition_Upgrade?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>MONSTER HUNTER RISE</t>
+  </si>
+  <si>
+    <t>Rise to the challenge and join the hunt! In Monster Hunter Rise, the latest installment in the award-winning and top-selling Monster Hunter series, you‚Äôll become a hunter, explore brand new maps and use a variety of weapons to take down fearsome monsters as part of an all-new storyline.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1446780/MONSTER_HUNTER_RISE?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Level Zero: Extraction</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Massively Multiplayer, Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>Doghowl Games</t>
+  </si>
+  <si>
+    <t>tinyBuild</t>
+  </si>
+  <si>
+    <t>Tactical extraction shooter meets immersive survival horror. Play as rival mercenaries fighting for loot, or as alien monsters hunting humans from the shadows. Solo or with friends, experience this unique dark take on asymmetrical PvPvE multiplayer.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1456940/Level_Zero_Extraction?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Far Cry¬Æ 6</t>
+  </si>
+  <si>
+    <t>Ubisoft Toronto, Ubisoft Montreal, Ubisoft Kyiv, ,</t>
+  </si>
+  <si>
+    <t>Enter the adrenaline-filled world of a modern-day guerrilla revolution. With stunning vistas, visceral gunplay, and a huge variety of gameplay experiences, there's never been a better time to join the fight.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2369390/Far_Cry_6?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Monster Hunter World: Iceborne</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1118010/Monster_Hunter_World_Iceborne?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>GrandChase</t>
+  </si>
+  <si>
+    <t>Action, Casual, Free To Play</t>
+  </si>
+  <si>
+    <t>KOG</t>
+  </si>
+  <si>
+    <t>Grand Chase is a free side-scrolling online action RPG with anime inspired graphics. Enjoy exciting adventures in dungeons and PvP with unique characters.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/985810/GrandChase?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Dawn of Defiance</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Early Access</t>
+  </si>
+  <si>
+    <t>Traega Entertainment</t>
+  </si>
+  <si>
+    <t>You are the Defier, subjected to a mythic plot across ruined isles. In this Greek myth-inspired survival craft, ascend from weak soldier to god-like anti-hero. Build impressive Greek structures, craft and upgrade your gear, and face down the trials of Gods with up to 3 friends.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2059530/Dawn_of_Defiance?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>DREDGE - The Iron Rig</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2561450/DREDGE__The_Iron_Rig?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Far Cry¬Æ 5</t>
+  </si>
+  <si>
+    <t>Ubisoft Montreal, Red Storm, Ubisoft Shanghai, ,</t>
+  </si>
+  <si>
+    <t>Discover the open world of Hope County, Montana, besieged by a fanatical doomsday cult. Dive into the action solo or two-player co-op in the story campaign, use a vast arsenal of weapons and allies, and free Hope County from Joseph Seed and his cult.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/552520/Far_Cry_5?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Need for Speed‚Ñ¢ Unbound</t>
+  </si>
+  <si>
+    <t>Action, Racing</t>
+  </si>
+  <si>
+    <t>Criterion Games</t>
+  </si>
+  <si>
+    <t>Race to the top, definitely don‚Äôt flop. Outsmart the cops, and enter weekly qualifiers for The Grand: the ultimate street race. Pack your garage with precision-tuned, custom rides, and light up the streets with your style.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1846380/Need_for_Speed_Unbound?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Football Manager 2024</t>
+  </si>
+  <si>
+    <t>Sports Interactive</t>
+  </si>
+  <si>
+    <t>Build a world-class team ready to dominate your rivals in football‚Äôs most prestigious competitions. Progress never stops when you‚Äôre pursuing footballing greatness.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2252570/Football_Manager_2024?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Cult of the Lamb: Pilgrim Pack</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2890190/Cult_of_the_Lamb_Pilgrim_Pack?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Two Point Campus</t>
+  </si>
+  <si>
+    <t>Casual, Indie, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Two Point Studios</t>
+  </si>
+  <si>
+    <t>Build the university of your dreams with Two Point Campus, the sim with a twist from the makers of Two Point Hospital. Build, hire staff and run an academic institution packed with wild courses.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1649080/Two_Point_Campus?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>PowerWash Simulator</t>
+  </si>
+  <si>
+    <t>Casual, Indie, Simulation</t>
+  </si>
+  <si>
+    <t>FuturLab</t>
+  </si>
+  <si>
+    <t>Release the Pressure with PowerWash Simulator! Wash away your worries with the soothing sounds of high-pressure water. Fire up your power washer and blast away every speck of dirt and grime you can find, all with the simple satisfaction of power-washing to a sparkling finish.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1290000/PowerWash_Simulator?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Assetto Corsa</t>
+  </si>
+  <si>
+    <t>Indie, Racing, Simulation, Sports</t>
+  </si>
+  <si>
+    <t>Kunos Simulazioni</t>
+  </si>
+  <si>
+    <t>Assetto Corsa v1.16 introduces the new "Laguna Seca" laser-scanned track, 7 new cars among which the eagerly awaited Alfa Romeo Giulia Quadrifoglio! Check the changelog for further info!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/244210/Assetto_Corsa?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Need for Speed‚Ñ¢ Heat</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Racing, Sports</t>
+  </si>
+  <si>
+    <t>Ghost Games</t>
+  </si>
+  <si>
+    <t>Hustle by day and risk it all at night in Need for Speed‚Ñ¢ Heat Deluxe Edition, a white-knuckle street racer, where the lines of the law fade as the sun starts to set.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1222680/Need_for_Speed_Heat?snr=1_7001_7002__7003</t>
   </si>
 </sst>
 </file>
@@ -3414,10 +3724,3740 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46066FE5-CE78-B74D-B1C9-59CCDB493089}">
+  <dimension ref="A1:L101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45523</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I2">
+        <v>398033</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>628</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>86051</v>
+      </c>
+      <c r="J3">
+        <v>8271649</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>387</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43090</v>
+      </c>
+      <c r="E4" t="s">
+        <v>701</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>21331</v>
+      </c>
+      <c r="J4">
+        <v>2418907</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>130</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45482</v>
+      </c>
+      <c r="E6" t="s">
+        <v>705</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>26877</v>
+      </c>
+      <c r="J6">
+        <v>78297</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>992</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45519</v>
+      </c>
+      <c r="E7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>993</v>
+      </c>
+      <c r="G7" t="s">
+        <v>994</v>
+      </c>
+      <c r="H7" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I7">
+        <v>2974</v>
+      </c>
+      <c r="K7" t="s">
+        <v>995</v>
+      </c>
+      <c r="L7" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44174</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I8">
+        <v>7046</v>
+      </c>
+      <c r="J8">
+        <v>674647</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
+        <v>351</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41464</v>
+      </c>
+      <c r="E9" t="s">
+        <v>703</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>26111</v>
+      </c>
+      <c r="J9">
+        <v>2304011</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>158</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44419</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>9336</v>
+      </c>
+      <c r="J10">
+        <v>247684</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>198</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44139</v>
+      </c>
+      <c r="E11" t="s">
+        <v>704</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>22013</v>
+      </c>
+      <c r="J11">
+        <v>940388</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>770</v>
+      </c>
+      <c r="B12">
+        <v>-3</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45544</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>771</v>
+      </c>
+      <c r="G12" t="s">
+        <v>772</v>
+      </c>
+      <c r="H12" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>773</v>
+      </c>
+      <c r="L12" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>-6</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45473</v>
+      </c>
+      <c r="E13" t="s">
+        <v>702</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>12440</v>
+      </c>
+      <c r="J13">
+        <v>79916</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>997</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44784</v>
+      </c>
+      <c r="E14" t="s">
+        <v>998</v>
+      </c>
+      <c r="F14" t="s">
+        <v>999</v>
+      </c>
+      <c r="G14" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="I14">
+        <v>4313</v>
+      </c>
+      <c r="J14">
+        <v>73711</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45519</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H15" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="I15">
+        <v>5002</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45518</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H16" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I16">
+        <v>5071</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>-9</v>
+      </c>
+      <c r="C17">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44616</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>547</v>
+      </c>
+      <c r="G17" t="s">
+        <v>547</v>
+      </c>
+      <c r="H17" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I17">
+        <v>16559</v>
+      </c>
+      <c r="J17">
+        <v>697712</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>246</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41501</v>
+      </c>
+      <c r="E18" t="s">
+        <v>710</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>14549</v>
+      </c>
+      <c r="J18">
+        <v>528918</v>
+      </c>
+      <c r="K18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>464</v>
+      </c>
+      <c r="B19">
+        <v>81</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44855</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" t="s">
+        <v>277</v>
+      </c>
+      <c r="H19" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I19">
+        <v>2348</v>
+      </c>
+      <c r="J19">
+        <v>52935</v>
+      </c>
+      <c r="K19" t="s">
+        <v>465</v>
+      </c>
+      <c r="L19" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45324</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" t="s">
+        <v>277</v>
+      </c>
+      <c r="H20" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I20">
+        <v>1077</v>
+      </c>
+      <c r="J20">
+        <v>18102</v>
+      </c>
+      <c r="K20" t="s">
+        <v>352</v>
+      </c>
+      <c r="L20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>577</v>
+      </c>
+      <c r="B21">
+        <v>-11</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45590</v>
+      </c>
+      <c r="E21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" t="s">
+        <v>578</v>
+      </c>
+      <c r="G21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="K21" t="s">
+        <v>579</v>
+      </c>
+      <c r="L21" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43704</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
+        <v>687</v>
+      </c>
+      <c r="G22" t="s">
+        <v>687</v>
+      </c>
+      <c r="H22" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I22">
+        <v>14593</v>
+      </c>
+      <c r="J22">
+        <v>175331</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23">
+        <v>-3</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41358</v>
+      </c>
+      <c r="E23" t="s">
+        <v>707</v>
+      </c>
+      <c r="F23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <v>4696</v>
+      </c>
+      <c r="J23">
+        <v>588585</v>
+      </c>
+      <c r="K23" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>-5</v>
+      </c>
+      <c r="C24">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I24">
+        <v>9840</v>
+      </c>
+      <c r="J24">
+        <v>572111</v>
+      </c>
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>751</v>
+      </c>
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="K25" t="s">
+        <v>752</v>
+      </c>
+      <c r="L25" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45194</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I26">
+        <v>375</v>
+      </c>
+      <c r="J26">
+        <v>15452</v>
+      </c>
+      <c r="L26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B27">
+        <v>65</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45519</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I27">
+        <v>442</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28">
+        <v>-5</v>
+      </c>
+      <c r="C28">
+        <v>386</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42535</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I28">
+        <v>6117</v>
+      </c>
+      <c r="J28">
+        <v>537124</v>
+      </c>
+      <c r="K28" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29">
+        <v>-4</v>
+      </c>
+      <c r="C29">
+        <v>501</v>
+      </c>
+      <c r="D29" s="1">
+        <v>42108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I29">
+        <v>21384</v>
+      </c>
+      <c r="J29">
+        <v>1696986</v>
+      </c>
+      <c r="K29" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>895</v>
+      </c>
+      <c r="B30">
+        <v>-9</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43903</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>896</v>
+      </c>
+      <c r="G30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I30">
+        <v>1898</v>
+      </c>
+      <c r="J30">
+        <v>106229</v>
+      </c>
+      <c r="K30" t="s">
+        <v>897</v>
+      </c>
+      <c r="L30" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45596</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>379</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43320</v>
+      </c>
+      <c r="E32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>264</v>
+      </c>
+      <c r="H32" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I32">
+        <v>3084</v>
+      </c>
+      <c r="J32">
+        <v>273458</v>
+      </c>
+      <c r="K32" t="s">
+        <v>380</v>
+      </c>
+      <c r="L32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33">
+        <v>-7</v>
+      </c>
+      <c r="C33">
+        <v>200</v>
+      </c>
+      <c r="D33" s="1">
+        <v>41884</v>
+      </c>
+      <c r="E33" t="s">
+        <v>721</v>
+      </c>
+      <c r="F33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33">
+        <v>3532</v>
+      </c>
+      <c r="J33">
+        <v>147653</v>
+      </c>
+      <c r="K33" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>600</v>
+      </c>
+      <c r="B34">
+        <v>-5</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>41570</v>
+      </c>
+      <c r="E34" t="s">
+        <v>706</v>
+      </c>
+      <c r="F34" t="s">
+        <v>602</v>
+      </c>
+      <c r="G34" t="s">
+        <v>602</v>
+      </c>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34">
+        <v>3012</v>
+      </c>
+      <c r="J34">
+        <v>225272</v>
+      </c>
+      <c r="K34" t="s">
+        <v>603</v>
+      </c>
+      <c r="L34" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>137</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44603</v>
+      </c>
+      <c r="E35" t="s">
+        <v>736</v>
+      </c>
+      <c r="F35" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" t="s">
+        <v>223</v>
+      </c>
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35">
+        <v>539</v>
+      </c>
+      <c r="J35">
+        <v>200430</v>
+      </c>
+      <c r="K35" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36">
+        <v>-6</v>
+      </c>
+      <c r="C36">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44862</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I36">
+        <v>5086</v>
+      </c>
+      <c r="J36">
+        <v>328218</v>
+      </c>
+      <c r="K36" t="s">
+        <v>188</v>
+      </c>
+      <c r="L36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37">
+        <v>-1</v>
+      </c>
+      <c r="C37">
+        <v>458</v>
+      </c>
+      <c r="D37" s="1">
+        <v>42339</v>
+      </c>
+      <c r="E37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I37">
+        <v>8430</v>
+      </c>
+      <c r="J37">
+        <v>1115183</v>
+      </c>
+      <c r="K37" t="s">
+        <v>126</v>
+      </c>
+      <c r="L37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38">
+        <v>-14</v>
+      </c>
+      <c r="C38">
+        <v>41</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43739</v>
+      </c>
+      <c r="E38" t="s">
+        <v>704</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38">
+        <v>3723</v>
+      </c>
+      <c r="J38">
+        <v>610472</v>
+      </c>
+      <c r="K38" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39">
+        <v>-27</v>
+      </c>
+      <c r="C39">
+        <v>31</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45330</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I39">
+        <v>12178</v>
+      </c>
+      <c r="J39">
+        <v>663453</v>
+      </c>
+      <c r="K39" t="s">
+        <v>218</v>
+      </c>
+      <c r="L39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40">
+        <v>-5</v>
+      </c>
+      <c r="C40">
+        <v>478</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43139</v>
+      </c>
+      <c r="E40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I40">
+        <v>10892</v>
+      </c>
+      <c r="J40">
+        <v>907344</v>
+      </c>
+      <c r="K40" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41">
+        <v>-19</v>
+      </c>
+      <c r="C41">
+        <v>500</v>
+      </c>
+      <c r="D41" s="1">
+        <v>41733</v>
+      </c>
+      <c r="E41" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I41">
+        <v>729</v>
+      </c>
+      <c r="J41">
+        <v>122430</v>
+      </c>
+      <c r="K41" t="s">
+        <v>241</v>
+      </c>
+      <c r="L41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>459</v>
+      </c>
+      <c r="B42">
+        <v>-14</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45216</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I42">
+        <v>1288</v>
+      </c>
+      <c r="J42">
+        <v>21728</v>
+      </c>
+      <c r="K42" t="s">
+        <v>460</v>
+      </c>
+      <c r="L42" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43">
+        <v>-2</v>
+      </c>
+      <c r="C43">
+        <v>34</v>
+      </c>
+      <c r="D43" s="1">
+        <v>41688</v>
+      </c>
+      <c r="E43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I43">
+        <v>650</v>
+      </c>
+      <c r="J43">
+        <v>69991</v>
+      </c>
+      <c r="K43" t="s">
+        <v>158</v>
+      </c>
+      <c r="L43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43985</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I44">
+        <v>2901</v>
+      </c>
+      <c r="J44">
+        <v>291701</v>
+      </c>
+      <c r="K44" t="s">
+        <v>269</v>
+      </c>
+      <c r="L44" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45">
+        <v>-13</v>
+      </c>
+      <c r="C45">
+        <v>16</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45463</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>547</v>
+      </c>
+      <c r="G45" t="s">
+        <v>547</v>
+      </c>
+      <c r="H45" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I45">
+        <v>2929</v>
+      </c>
+      <c r="J45">
+        <v>77725</v>
+      </c>
+      <c r="L45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>311</v>
+      </c>
+      <c r="B46">
+        <v>-6</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>39365</v>
+      </c>
+      <c r="E46" t="s">
+        <v>700</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46">
+        <v>8039</v>
+      </c>
+      <c r="J46">
+        <v>1115328</v>
+      </c>
+      <c r="K46" t="s">
+        <v>312</v>
+      </c>
+      <c r="L46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45015</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H47" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="I47">
+        <v>1137</v>
+      </c>
+      <c r="J47">
+        <v>28780</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42142</v>
+      </c>
+      <c r="E48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I48">
+        <v>5501</v>
+      </c>
+      <c r="J48">
+        <v>723313</v>
+      </c>
+      <c r="K48" t="s">
+        <v>161</v>
+      </c>
+      <c r="L48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>899</v>
+      </c>
+      <c r="B49">
+        <v>-18</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45509</v>
+      </c>
+      <c r="E49" t="s">
+        <v>375</v>
+      </c>
+      <c r="F49" t="s">
+        <v>900</v>
+      </c>
+      <c r="G49" t="s">
+        <v>900</v>
+      </c>
+      <c r="H49" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="I49">
+        <v>5737</v>
+      </c>
+      <c r="K49" t="s">
+        <v>901</v>
+      </c>
+      <c r="L49" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50">
+        <v>-13</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+      <c r="D50" s="1">
+        <v>43935</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s">
+        <v>202</v>
+      </c>
+      <c r="G50" t="s">
+        <v>203</v>
+      </c>
+      <c r="H50" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I50">
+        <v>879</v>
+      </c>
+      <c r="J50">
+        <v>61004</v>
+      </c>
+      <c r="K50" t="s">
+        <v>204</v>
+      </c>
+      <c r="L50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51">
+        <v>-33</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44579</v>
+      </c>
+      <c r="E51" t="s">
+        <v>766</v>
+      </c>
+      <c r="F51" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51">
+        <v>1002</v>
+      </c>
+      <c r="J51">
+        <v>76107</v>
+      </c>
+      <c r="K51" t="s">
+        <v>120</v>
+      </c>
+      <c r="L51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>-14</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45462</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="I52">
+        <v>5966</v>
+      </c>
+      <c r="J52">
+        <v>25174</v>
+      </c>
+      <c r="K52" t="s">
+        <v>63</v>
+      </c>
+      <c r="L52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53">
+        <v>-10</v>
+      </c>
+      <c r="C53">
+        <v>27</v>
+      </c>
+      <c r="D53" s="1">
+        <v>42426</v>
+      </c>
+      <c r="E53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="I53">
+        <v>11476</v>
+      </c>
+      <c r="J53">
+        <v>637293</v>
+      </c>
+      <c r="K53" t="s">
+        <v>131</v>
+      </c>
+      <c r="L53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45523</v>
+      </c>
+      <c r="E54" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="I54">
+        <v>1672</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>369</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3">
+        <v>43405</v>
+      </c>
+      <c r="E55" t="s">
+        <v>370</v>
+      </c>
+      <c r="F55" t="s">
+        <v>371</v>
+      </c>
+      <c r="G55" t="s">
+        <v>371</v>
+      </c>
+      <c r="H55" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="I55">
+        <v>11303</v>
+      </c>
+      <c r="J55">
+        <v>751506</v>
+      </c>
+      <c r="K55" t="s">
+        <v>372</v>
+      </c>
+      <c r="L55" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44573</v>
+      </c>
+      <c r="E56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" t="s">
+        <v>264</v>
+      </c>
+      <c r="G56" t="s">
+        <v>264</v>
+      </c>
+      <c r="H56" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I56">
+        <v>915</v>
+      </c>
+      <c r="J56">
+        <v>64070</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>45517</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H57" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I57">
+        <v>1598</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45057</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G58" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I58">
+        <v>741</v>
+      </c>
+      <c r="J58">
+        <v>20224</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>907</v>
+      </c>
+      <c r="B59">
+        <v>-15</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>42670</v>
+      </c>
+      <c r="E59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" t="s">
+        <v>202</v>
+      </c>
+      <c r="G59" t="s">
+        <v>203</v>
+      </c>
+      <c r="H59" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I59">
+        <v>2498</v>
+      </c>
+      <c r="J59">
+        <v>166989</v>
+      </c>
+      <c r="K59" t="s">
+        <v>908</v>
+      </c>
+      <c r="L59" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>43839</v>
+      </c>
+      <c r="E60" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" t="s">
+        <v>264</v>
+      </c>
+      <c r="G60" t="s">
+        <v>264</v>
+      </c>
+      <c r="H60" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="I60">
+        <v>124</v>
+      </c>
+      <c r="J60">
+        <v>16701</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>182</v>
+      </c>
+      <c r="D61" s="1">
+        <v>42879</v>
+      </c>
+      <c r="E61" t="s">
+        <v>259</v>
+      </c>
+      <c r="F61" t="s">
+        <v>260</v>
+      </c>
+      <c r="G61" t="s">
+        <v>260</v>
+      </c>
+      <c r="H61" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="I61">
+        <v>412</v>
+      </c>
+      <c r="J61">
+        <v>56055</v>
+      </c>
+      <c r="K61" t="s">
+        <v>261</v>
+      </c>
+      <c r="L61" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62">
+        <v>-13</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44092</v>
+      </c>
+      <c r="E62" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" t="s">
+        <v>295</v>
+      </c>
+      <c r="G62" t="s">
+        <v>295</v>
+      </c>
+      <c r="H62" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="I62">
+        <v>8823</v>
+      </c>
+      <c r="J62">
+        <v>572395</v>
+      </c>
+      <c r="K62" t="s">
+        <v>296</v>
+      </c>
+      <c r="L62" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44404</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63">
+        <v>259</v>
+      </c>
+      <c r="J63">
+        <v>22791</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>891</v>
+      </c>
+      <c r="B64">
+        <v>-48</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E64" t="s">
+        <v>289</v>
+      </c>
+      <c r="F64" t="s">
+        <v>892</v>
+      </c>
+      <c r="G64" t="s">
+        <v>892</v>
+      </c>
+      <c r="H64" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I64">
+        <v>6130</v>
+      </c>
+      <c r="K64" t="s">
+        <v>893</v>
+      </c>
+      <c r="L64" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>45519</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H65" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I65">
+        <v>740</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>78</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E66" t="s">
+        <v>227</v>
+      </c>
+      <c r="F66" t="s">
+        <v>228</v>
+      </c>
+      <c r="G66" t="s">
+        <v>229</v>
+      </c>
+      <c r="H66" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I66">
+        <v>2713</v>
+      </c>
+      <c r="J66">
+        <v>181225</v>
+      </c>
+      <c r="K66" t="s">
+        <v>230</v>
+      </c>
+      <c r="L66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67">
+        <v>-10</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44519</v>
+      </c>
+      <c r="E67" t="s">
+        <v>281</v>
+      </c>
+      <c r="F67" t="s">
+        <v>282</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I67">
+        <v>3256</v>
+      </c>
+      <c r="J67">
+        <v>212043</v>
+      </c>
+      <c r="K67" t="s">
+        <v>548</v>
+      </c>
+      <c r="L67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45450</v>
+      </c>
+      <c r="E68" t="s">
+        <v>760</v>
+      </c>
+      <c r="F68" t="s">
+        <v>249</v>
+      </c>
+      <c r="G68" t="s">
+        <v>249</v>
+      </c>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68">
+        <v>6104</v>
+      </c>
+      <c r="J68">
+        <v>44552</v>
+      </c>
+      <c r="K68" t="s">
+        <v>250</v>
+      </c>
+      <c r="L68" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>620</v>
+      </c>
+      <c r="B69">
+        <v>-11</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43054</v>
+      </c>
+      <c r="E69" t="s">
+        <v>710</v>
+      </c>
+      <c r="F69" t="s">
+        <v>621</v>
+      </c>
+      <c r="G69" t="s">
+        <v>621</v>
+      </c>
+      <c r="H69" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69">
+        <v>1152</v>
+      </c>
+      <c r="J69">
+        <v>141902</v>
+      </c>
+      <c r="K69" t="s">
+        <v>622</v>
+      </c>
+      <c r="L69" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>490</v>
+      </c>
+      <c r="B70">
+        <v>-25</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
+        <v>42318</v>
+      </c>
+      <c r="E70" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" t="s">
+        <v>202</v>
+      </c>
+      <c r="G70" t="s">
+        <v>203</v>
+      </c>
+      <c r="H70" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I70">
+        <v>2756</v>
+      </c>
+      <c r="J70">
+        <v>248773</v>
+      </c>
+      <c r="K70" t="s">
+        <v>491</v>
+      </c>
+      <c r="L70" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>298</v>
+      </c>
+      <c r="B71">
+        <v>-15</v>
+      </c>
+      <c r="C71">
+        <v>17</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45428</v>
+      </c>
+      <c r="E71" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" t="s">
+        <v>299</v>
+      </c>
+      <c r="G71" t="s">
+        <v>217</v>
+      </c>
+      <c r="H71" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I71">
+        <v>1874</v>
+      </c>
+      <c r="J71">
+        <v>25803</v>
+      </c>
+      <c r="K71" t="s">
+        <v>300</v>
+      </c>
+      <c r="L71" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>589</v>
+      </c>
+      <c r="B72">
+        <v>-6</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45069</v>
+      </c>
+      <c r="E72" t="s">
+        <v>765</v>
+      </c>
+      <c r="F72" t="s">
+        <v>591</v>
+      </c>
+      <c r="G72" t="s">
+        <v>591</v>
+      </c>
+      <c r="H72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72">
+        <v>1084</v>
+      </c>
+      <c r="J72">
+        <v>12724</v>
+      </c>
+      <c r="K72" t="s">
+        <v>592</v>
+      </c>
+      <c r="L72" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>365</v>
+      </c>
+      <c r="B73">
+        <v>-46</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>42314</v>
+      </c>
+      <c r="E73" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" t="s">
+        <v>366</v>
+      </c>
+      <c r="G73" t="s">
+        <v>187</v>
+      </c>
+      <c r="H73" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="I73">
+        <v>2255</v>
+      </c>
+      <c r="J73">
+        <v>130928</v>
+      </c>
+      <c r="K73" t="s">
+        <v>367</v>
+      </c>
+      <c r="L73" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>45519</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H74" s="2">
+        <v>11.99</v>
+      </c>
+      <c r="I74">
+        <v>242</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>43186</v>
+      </c>
+      <c r="E75" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G75" t="s">
+        <v>125</v>
+      </c>
+      <c r="H75" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I75">
+        <v>1421</v>
+      </c>
+      <c r="J75">
+        <v>145007</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44896</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G76" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I76">
+        <v>1695</v>
+      </c>
+      <c r="J76">
+        <v>29614</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77">
+        <v>-13</v>
+      </c>
+      <c r="C77">
+        <v>58</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45197</v>
+      </c>
+      <c r="E77" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" t="s">
+        <v>108</v>
+      </c>
+      <c r="G77" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I77">
+        <v>4438</v>
+      </c>
+      <c r="J77">
+        <v>83781</v>
+      </c>
+      <c r="K77" t="s">
+        <v>109</v>
+      </c>
+      <c r="L77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>959</v>
+      </c>
+      <c r="B78">
+        <v>-10</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45414</v>
+      </c>
+      <c r="E78" t="s">
+        <v>960</v>
+      </c>
+      <c r="F78" t="s">
+        <v>961</v>
+      </c>
+      <c r="G78" t="s">
+        <v>962</v>
+      </c>
+      <c r="H78" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="I78">
+        <v>1700</v>
+      </c>
+      <c r="J78">
+        <v>12254</v>
+      </c>
+      <c r="K78" t="s">
+        <v>963</v>
+      </c>
+      <c r="L78" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79">
+        <v>-18</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45273</v>
+      </c>
+      <c r="E79" t="s">
+        <v>289</v>
+      </c>
+      <c r="F79" t="s">
+        <v>290</v>
+      </c>
+      <c r="G79" t="s">
+        <v>290</v>
+      </c>
+      <c r="H79" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I79">
+        <v>3974</v>
+      </c>
+      <c r="J79">
+        <v>149304</v>
+      </c>
+      <c r="K79" t="s">
+        <v>291</v>
+      </c>
+      <c r="L79" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>472</v>
+      </c>
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>41130</v>
+      </c>
+      <c r="E80" t="s">
+        <v>855</v>
+      </c>
+      <c r="F80" t="s">
+        <v>474</v>
+      </c>
+      <c r="G80" t="s">
+        <v>475</v>
+      </c>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80">
+        <v>95</v>
+      </c>
+      <c r="J80">
+        <v>12983</v>
+      </c>
+      <c r="K80" t="s">
+        <v>476</v>
+      </c>
+      <c r="L80" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>45236</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G81" t="s">
+        <v>277</v>
+      </c>
+      <c r="H81" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I81">
+        <v>565</v>
+      </c>
+      <c r="J81">
+        <v>9308</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82">
+        <v>-4</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+      <c r="D82" s="1">
+        <v>41200</v>
+      </c>
+      <c r="E82" t="s">
+        <v>164</v>
+      </c>
+      <c r="F82" t="s">
+        <v>165</v>
+      </c>
+      <c r="G82" t="s">
+        <v>165</v>
+      </c>
+      <c r="H82" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I82">
+        <v>7936</v>
+      </c>
+      <c r="J82">
+        <v>591688</v>
+      </c>
+      <c r="K82" t="s">
+        <v>166</v>
+      </c>
+      <c r="L82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>421</v>
+      </c>
+      <c r="B83">
+        <v>-20</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>43413</v>
+      </c>
+      <c r="E83" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" t="s">
+        <v>282</v>
+      </c>
+      <c r="G83" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="I83">
+        <v>4968</v>
+      </c>
+      <c r="J83">
+        <v>194467</v>
+      </c>
+      <c r="K83" t="s">
+        <v>422</v>
+      </c>
+      <c r="L83" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>903</v>
+      </c>
+      <c r="B84">
+        <v>-51</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>42671</v>
+      </c>
+      <c r="E84" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" t="s">
+        <v>904</v>
+      </c>
+      <c r="G84" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I84">
+        <v>6723</v>
+      </c>
+      <c r="J84">
+        <v>204120</v>
+      </c>
+      <c r="K84" t="s">
+        <v>905</v>
+      </c>
+      <c r="L84" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>923</v>
+      </c>
+      <c r="B85">
+        <v>-35</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>41170</v>
+      </c>
+      <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s">
+        <v>924</v>
+      </c>
+      <c r="G85" t="s">
+        <v>198</v>
+      </c>
+      <c r="H85" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I85">
+        <v>1280</v>
+      </c>
+      <c r="J85">
+        <v>190868</v>
+      </c>
+      <c r="K85" t="s">
+        <v>925</v>
+      </c>
+      <c r="L85" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>45516</v>
+      </c>
+      <c r="E86" t="s">
+        <v>998</v>
+      </c>
+      <c r="F86" t="s">
+        <v>999</v>
+      </c>
+      <c r="G86" t="s">
+        <v>317</v>
+      </c>
+      <c r="H86" s="2">
+        <v>6.99</v>
+      </c>
+      <c r="I86">
+        <v>111</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>44782</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G87" t="s">
+        <v>277</v>
+      </c>
+      <c r="H87" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I87">
+        <v>179</v>
+      </c>
+      <c r="J87">
+        <v>3549</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>745</v>
+      </c>
+      <c r="B88">
+        <v>-13</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45498</v>
+      </c>
+      <c r="E88" t="s">
+        <v>746</v>
+      </c>
+      <c r="F88" t="s">
+        <v>747</v>
+      </c>
+      <c r="G88" t="s">
+        <v>748</v>
+      </c>
+      <c r="H88" s="2">
+        <v>44.99</v>
+      </c>
+      <c r="I88">
+        <v>4983</v>
+      </c>
+      <c r="J88">
+        <v>230123</v>
+      </c>
+      <c r="K88" t="s">
+        <v>749</v>
+      </c>
+      <c r="L88" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>44756</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G89" t="s">
+        <v>157</v>
+      </c>
+      <c r="H89" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="I89">
+        <v>657</v>
+      </c>
+      <c r="J89">
+        <v>40722</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45222</v>
+      </c>
+      <c r="E90" t="s">
+        <v>340</v>
+      </c>
+      <c r="F90" t="s">
+        <v>341</v>
+      </c>
+      <c r="G90" t="s">
+        <v>341</v>
+      </c>
+      <c r="H90" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="I90">
+        <v>8185</v>
+      </c>
+      <c r="J90">
+        <v>343707</v>
+      </c>
+      <c r="K90" t="s">
+        <v>342</v>
+      </c>
+      <c r="L90" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91">
+        <v>-3</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45148</v>
+      </c>
+      <c r="E91" t="s">
+        <v>700</v>
+      </c>
+      <c r="F91" t="s">
+        <v>152</v>
+      </c>
+      <c r="G91" t="s">
+        <v>152</v>
+      </c>
+      <c r="H91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91">
+        <v>9312</v>
+      </c>
+      <c r="J91">
+        <v>291808</v>
+      </c>
+      <c r="K91" t="s">
+        <v>153</v>
+      </c>
+      <c r="L91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>-1</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92" s="1">
+        <v>43804</v>
+      </c>
+      <c r="E92" t="s">
+        <v>81</v>
+      </c>
+      <c r="F92" t="s">
+        <v>83</v>
+      </c>
+      <c r="G92" t="s">
+        <v>83</v>
+      </c>
+      <c r="H92" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I92">
+        <v>11635</v>
+      </c>
+      <c r="J92">
+        <v>562137</v>
+      </c>
+      <c r="K92" t="s">
+        <v>92</v>
+      </c>
+      <c r="L92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>594</v>
+      </c>
+      <c r="B93">
+        <v>-14</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="H93" s="2">
+        <v>499</v>
+      </c>
+      <c r="L93" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>402</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+      <c r="D94" s="1">
+        <v>44060</v>
+      </c>
+      <c r="E94" t="s">
+        <v>403</v>
+      </c>
+      <c r="F94" t="s">
+        <v>404</v>
+      </c>
+      <c r="G94" t="s">
+        <v>103</v>
+      </c>
+      <c r="H94" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I94">
+        <v>675</v>
+      </c>
+      <c r="J94">
+        <v>57983</v>
+      </c>
+      <c r="K94" t="s">
+        <v>405</v>
+      </c>
+      <c r="L94" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>320</v>
+      </c>
+      <c r="B95">
+        <v>-5</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95" s="1">
+        <v>43390</v>
+      </c>
+      <c r="E95" t="s">
+        <v>321</v>
+      </c>
+      <c r="F95" t="s">
+        <v>322</v>
+      </c>
+      <c r="G95" t="s">
+        <v>322</v>
+      </c>
+      <c r="H95" s="2">
+        <v>34.99</v>
+      </c>
+      <c r="I95">
+        <v>1714</v>
+      </c>
+      <c r="J95">
+        <v>162793</v>
+      </c>
+      <c r="K95" t="s">
+        <v>323</v>
+      </c>
+      <c r="L95" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96">
+        <v>-11</v>
+      </c>
+      <c r="C96">
+        <v>156</v>
+      </c>
+      <c r="D96" s="1">
+        <v>44508</v>
+      </c>
+      <c r="E96" t="s">
+        <v>174</v>
+      </c>
+      <c r="F96" t="s">
+        <v>102</v>
+      </c>
+      <c r="G96" t="s">
+        <v>103</v>
+      </c>
+      <c r="H96" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="I96">
+        <v>2906</v>
+      </c>
+      <c r="J96">
+        <v>174910</v>
+      </c>
+      <c r="K96" t="s">
+        <v>175</v>
+      </c>
+      <c r="L96" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>524</v>
+      </c>
+      <c r="B97">
+        <v>-49</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>43910</v>
+      </c>
+      <c r="E97" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" t="s">
+        <v>525</v>
+      </c>
+      <c r="G97" t="s">
+        <v>203</v>
+      </c>
+      <c r="H97" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I97">
+        <v>1705</v>
+      </c>
+      <c r="J97">
+        <v>166018</v>
+      </c>
+      <c r="K97" t="s">
+        <v>526</v>
+      </c>
+      <c r="L97" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>41992</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H98" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I98">
+        <v>1957</v>
+      </c>
+      <c r="J98">
+        <v>102561</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L98" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>285</v>
+      </c>
+      <c r="B99">
+        <v>-37</v>
+      </c>
+      <c r="C99">
+        <v>24</v>
+      </c>
+      <c r="D99" s="1">
+        <v>45240</v>
+      </c>
+      <c r="E99" t="s">
+        <v>123</v>
+      </c>
+      <c r="F99" t="s">
+        <v>186</v>
+      </c>
+      <c r="G99" t="s">
+        <v>187</v>
+      </c>
+      <c r="H99" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I99">
+        <v>638</v>
+      </c>
+      <c r="J99">
+        <v>10725</v>
+      </c>
+      <c r="K99" t="s">
+        <v>286</v>
+      </c>
+      <c r="L99" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100">
+        <v>-14</v>
+      </c>
+      <c r="C100">
+        <v>31</v>
+      </c>
+      <c r="D100" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E100" t="s">
+        <v>112</v>
+      </c>
+      <c r="F100" t="s">
+        <v>113</v>
+      </c>
+      <c r="G100" t="s">
+        <v>113</v>
+      </c>
+      <c r="H100" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="I100">
+        <v>3959</v>
+      </c>
+      <c r="J100">
+        <v>273009</v>
+      </c>
+      <c r="K100" t="s">
+        <v>114</v>
+      </c>
+      <c r="L100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>43777</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G101" t="s">
+        <v>44</v>
+      </c>
+      <c r="H101" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="I101">
+        <v>1825</v>
+      </c>
+      <c r="J101">
+        <v>95715</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A4B528-2005-7D49-ACA5-17BB65A55775}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -7182,7 +11222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9468E3C7-ED89-7F49-91F9-C709353B7C6C}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -10906,7 +14946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2439C52B-5341-DF43-8CDD-AB33FEF4C9FE}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -14637,7 +18677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71D7B06-37EF-F943-8D0E-B48A8AB57D51}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -18343,7 +22383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3978525E-3F5E-9048-BC93-38E6C42116E5}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -22139,7 +26179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC291C4-96D0-D14C-9991-8EE742F649AB}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -25926,7 +29966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD458E3F-9E53-804A-9E7D-8111A280BFC8}">
   <dimension ref="A1:L101"/>
   <sheetViews>

--- a/data/total_steam_titles.xlsx
+++ b/data/total_steam_titles.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenwang/Desktop/Makers/Steam_Roblox_Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AD42F8-815F-1546-B9A3-CDEC73C5924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342F9C07-5E30-374E-B23C-9B998F80EDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1240" windowWidth="24960" windowHeight="16760" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
+    <workbookView xWindow="10340" yWindow="1360" windowWidth="24960" windowHeight="16760" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-08-26" sheetId="8" r:id="rId1"/>
-    <sheet name="2024-08-19" sheetId="7" r:id="rId2"/>
-    <sheet name="2024-08-12" sheetId="6" r:id="rId3"/>
-    <sheet name="2024-08-05" sheetId="5" r:id="rId4"/>
-    <sheet name="2024-07-29" sheetId="4" r:id="rId5"/>
-    <sheet name="2024-07-23" sheetId="3" r:id="rId6"/>
-    <sheet name="2024-07-18" sheetId="1" r:id="rId7"/>
-    <sheet name="2024-07-11" sheetId="2" r:id="rId8"/>
+    <sheet name="2024-09-03" sheetId="9" r:id="rId1"/>
+    <sheet name="2024-08-26" sheetId="8" r:id="rId2"/>
+    <sheet name="2024-08-19" sheetId="7" r:id="rId3"/>
+    <sheet name="2024-08-12" sheetId="6" r:id="rId4"/>
+    <sheet name="2024-08-05" sheetId="5" r:id="rId5"/>
+    <sheet name="2024-07-29" sheetId="4" r:id="rId6"/>
+    <sheet name="2024-07-23" sheetId="3" r:id="rId7"/>
+    <sheet name="2024-07-18" sheetId="1" r:id="rId8"/>
+    <sheet name="2024-07-11" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5143" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5785" uniqueCount="1219">
   <si>
     <t>Game</t>
   </si>
@@ -3331,6 +3332,380 @@
   </si>
   <si>
     <t>https://store.steampowered.com/app/1222680/Need_for_Speed_Heat?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Risk of Rain 2</t>
+  </si>
+  <si>
+    <t>Hopoo Games</t>
+  </si>
+  <si>
+    <t>Gearbox Publishing</t>
+  </si>
+  <si>
+    <t>Escape a chaotic alien planet by fighting through hordes of frenzied monsters ‚Äì with your friends, or on your own. Combine loot in surprising ways and master each character until you become the havoc you feared upon your first crash landing.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/632360/Risk_of_Rain_2?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Risk of Rain 2: Seekers of the Storm</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2306620/Risk_of_Rain_2_Seekers_of_the_Storm?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>GUNDAM BREAKER 4</t>
+  </si>
+  <si>
+    <t>CRAFTS ÔºÜ MEISTER Co., Ltd</t>
+  </si>
+  <si>
+    <t>Create your own ultimate Gundam in the newest Gundam Breaker! With more customizable parts than ever before, you finally have the freedom to build your perfect Gunpla. Test it in battle using the brand new dual-weapon system and break parts off of your enemies and add them to your collection.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1672500/GUNDAM_BREAKER_4?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>SMITE 2</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Casual, Massively Multiplayer, RPG, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Titan Forge Games</t>
+  </si>
+  <si>
+    <t>Hi-Rez Studios</t>
+  </si>
+  <si>
+    <t>Become a god and wage war in SMITE 2, the Unreal Engine 5-powered sequel to the legendary third-person MOBA. Join our 24/7 Closed Alpha, where we are forging a challenging, team-based, mythological Battleground. Become a Founder today to jump into the action and be a part of the development.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2437170/SMITE_2?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: Return to Moria‚Ñ¢</t>
+  </si>
+  <si>
+    <t>Free Range Games</t>
+  </si>
+  <si>
+    <t>North Beach Games</t>
+  </si>
+  <si>
+    <t>The only survival crafting video game set in the Fourth Age of Middle-earth‚Ñ¢</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2933130/The_Lord_of_the_Rings_Return_to_Moria?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Visions of Mana</t>
+  </si>
+  <si>
+    <t>Explore a world of elemental spirits and adventure in the latest Mana action-RPG.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2490990/Visions_of_Mana?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Core Keeper</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Indie, RPG</t>
+  </si>
+  <si>
+    <t>Pugstorm</t>
+  </si>
+  <si>
+    <t>Fireshine Games</t>
+  </si>
+  <si>
+    <t>Explore a vast cavern of creatures, relics and resources in a mining sandbox adventure for 1-8 players. Mine, build, fight, craft and farm to unravel the mystery of the ancient Core.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1621690/Core_Keeper?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Squirrel with a Gun</t>
+  </si>
+  <si>
+    <t>Dee Dee Creations LLC</t>
+  </si>
+  <si>
+    <t>Maximum Entertainment</t>
+  </si>
+  <si>
+    <t>Squirrel, meet gun. As the neighborhood‚Äôs most obnoxious rodent, develop a knack (and a love?) for crime and mayhem in pursuit of golden acorns in this nutty sandbox shooter and puzzle platformer. Fight tooth, claw, and gun to escape a secret underground facility and defeat the Agents.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2067050/Squirrel_with_a_Gun?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>CarX Street</t>
+  </si>
+  <si>
+    <t>CarX Technologies, LLC</t>
+  </si>
+  <si>
+    <t>Conquer mountain roads, highways, and city streets. Build your dream car with detailed tuning that unleashes the potential of ‚ÄúCarX Technology‚Äù¬© physics. Take part in thrilling races, enjoying realistic gameplay and dynamic driving.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1114150/CarX_Street?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Castlevania Dominus Collection</t>
+  </si>
+  <si>
+    <t>Three incredible action adventure games from the Castlevania series have finally returned, for the first time! But wait, there's more! Haunted Castle Revisited, a redesigned version of the very first Castlevania arcade game, makes its debut!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2369900/Castlevania_Dominus_Collection?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Dead by Daylight - Castlevania Chapter</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/3103150/Dead_by_Daylight__Castlevania_Chapter?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Kingdom Come: Deliverance</t>
+  </si>
+  <si>
+    <t>Warhorse Studios</t>
+  </si>
+  <si>
+    <t>Story-driven open-world RPG that immerses you in an epic adventure in the Holy Roman Empire. Avenge your parents' death as you battle invading forces, go on game-changing quests, and make influential choices. Explore castles, forests, villages and other realistic settings in medieval Bohemia!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/379430/Kingdom_Come_Deliverance?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>LOCKDOWN Protocol</t>
+  </si>
+  <si>
+    <t>Action, Casual, Indie, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Mirage Creative Lab</t>
+  </si>
+  <si>
+    <t>A first person social deduction game, combining real time action and communication, 3 to 8 players. While most players will do their best to complete objectives and ensure victory, a small portion of dissidents will try to stop them at all costs, without getting caught.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2780980/LOCKDOWN_Protocol?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Tactical Breach Wizards</t>
+  </si>
+  <si>
+    <t>Suspicious Developments Inc</t>
+  </si>
+  <si>
+    <t>Suspicious Developments</t>
+  </si>
+  <si>
+    <t>In Tactical Breach Wizards, you lead a team of renegade wizards in kevlar through turn-based battles to unravel a modern conspiracy plot. Combine their unique spells in clever ways, or rewind time to try every crazy plan you can think of to punch a Traffic Warlock through a 4th story window.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1043810/Tactical_Breach_Wizards?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>NBA 2K25</t>
+  </si>
+  <si>
+    <t>Early Tip-Off | Hit the Court September 4th Command every court with authenticity and realism Powered by ProPLAY‚Ñ¢, giving you ultimate control over how you play in NBA 2K25. Define your legacy in MyCAREER, MyTEAM, MyNBA, and The W.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2878980/NBA_2K25?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>MARVEL vs. CAPCOM Fighting Collection: Arcade Classics</t>
+  </si>
+  <si>
+    <t>The legendary crossover hits are back! The action-packed lineup consisting of seven unique titles, is full of heavy hitters like X-MEN VS. STREET FIGHTER, and MARVEL vs. CAPCOM 2 New Age of Heroes. The collection also includes the rare beat 'em up game, THE PUNISHER.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2634890/MARVEL_vs_CAPCOM_Fighting_Collection_Arcade_Classics?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Sid Meier's Civilization¬Æ VII</t>
+  </si>
+  <si>
+    <t>Firaxis Games</t>
+  </si>
+  <si>
+    <t>The award-winning strategy game franchise returns with a revolutionary new chapter. Sid Meier's Civilization¬Æ VII empowers you to build the greatest empire the world has ever known!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1295660/Sid_Meiers_Civilization_VII?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Risk of Rain 2: Survivors of the Void</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1607890/Risk_of_Rain_2_Survivors_of_the_Void?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>FINAL FANTASY XVI</t>
+  </si>
+  <si>
+    <t>An epic dark fantasy where fates are decided by mighty Eikons and the Dominants who wield them. This is the tale of Clive Rosfield, a tragic warrior who swears revenge on the Dark Eikon Ifrit, a mysterious entity that leaves naught but calamity in its wake.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2515020/FINAL_FANTASY_XVI?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>DRAGON BALL: Sparking! ZERO</t>
+  </si>
+  <si>
+    <t>Spike Chunsoft Co., Ltd.</t>
+  </si>
+  <si>
+    <t>DRAGON BALL: Sparking! ZERO takes the legendary gameplay of the Budokai Tenkaichi series and raises it to whole new levels. Make yours the destructive power of the strongest fighters ever to appear in DRAGON BALL!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1790600/DRAGON_BALL_Sparking_ZERO?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>MEMORIAPOLIS</t>
+  </si>
+  <si>
+    <t>5PM Studio</t>
+  </si>
+  <si>
+    <t>Memoriapolis invites you to construct a city that spans 2,500 years of history, from Antiquity to the Age of Enlightenment. Choose your culture, manage resources, face historical events, build "Wonders" to achieve the status of Capital of Capitals and leave your mark in history!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2228280/MEMORIAPOLIS?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>The Casting of Frank Stone‚Ñ¢</t>
+  </si>
+  <si>
+    <t>Supermassive Games</t>
+  </si>
+  <si>
+    <t>The shadow of Frank Stone looms over Cedar Hills, a town forever altered by his violent past. As a group of young friends are about to discover, Stone‚Äôs blood-soaked legacy cuts deep, leaving scars across families, generations, and the very fabric of reality itself.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2223840/The_Casting_of_Frank_Stone?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Tales of Arise</t>
+  </si>
+  <si>
+    <t>300 years of tyranny. A mysterious mask. Lost pain and memories. Wield the Blazing Sword and join a mysterious, untouchable girl to fight your oppressors. Experience a tale of liberation, featuring characters with next-gen graphical expressiveness!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/740130/Tales_of_Arise?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Palia</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Indie, RPG, Simulation, Free To Play</t>
+  </si>
+  <si>
+    <t>Singularity 6 Corporation</t>
+  </si>
+  <si>
+    <t>Palia is a vibrant new world made just for you. Craft, cook, fish, and farm with friends as you live the life of your dreams and discover an enchanting adventure filled with colorful characters and a mystery to unravel.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2707930/Palia?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Wartales</t>
+  </si>
+  <si>
+    <t>Shiro Games</t>
+  </si>
+  <si>
+    <t>Wartales is an open world RPG in which you lead a group of mercenaries in their search for wealth across a massive medieval universe. Explore the world, recruit companions, collect bounties and unravel the secrets of the tombs of the ancients!</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1527950/Wartales?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>CarX Street - Deluxe Cars</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/3028020/CarX_Street__Deluxe_Cars?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Aeons Echo
+(hidden by your preferences)</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2832330/Aeons_Echo?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Dying Light</t>
+  </si>
+  <si>
+    <t>First-person action survival game set in a post-apocalyptic open world overrun by flesh-hungry zombies. Roam a city devastated by a mysterious virus epidemic. Scavenge for supplies, craft weapons, and face hordes of the infected.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/239140/Dying_Light?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Harry Potter: Quidditch Champions</t>
+  </si>
+  <si>
+    <t>Action, Sports</t>
+  </si>
+  <si>
+    <t>Unbroken Studios</t>
+  </si>
+  <si>
+    <t>Your next chapter takes flight! Immerse yourself in the enchanting world of Quidditch by playing solo or sharing the magic with friends and family.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2878600/Harry_Potter_Quidditch_Champions?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>Disney Dreamlight Valley</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Casual, RPG, Simulation</t>
+  </si>
+  <si>
+    <t>Gameloft</t>
+  </si>
+  <si>
+    <t>Explore a world filled with the magic of Disney as you discover rich stories and build the perfect neighborhood alongside Disney and Pixar heroes and villains in this new life-sim adventure game. Welcome to Disney Dreamlight Valley.</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1401590/Disney_Dreamlight_Valley?snr=1_7001_7002__7003</t>
+  </si>
+  <si>
+    <t>(MahjongSoul)
+(not available in your region)</t>
+  </si>
+  <si>
+    <t>Indie</t>
+  </si>
+  <si>
+    <t>Indie Budget Dev</t>
+  </si>
+  <si>
+    <t>~$2M</t>
+  </si>
+  <si>
+    <t>~&gt;$100K</t>
+  </si>
+  <si>
+    <t>~$36M</t>
+  </si>
+  <si>
+    <t>~$5M</t>
+  </si>
+  <si>
+    <t>~$1M</t>
+  </si>
+  <si>
+    <t>~$75K</t>
   </si>
 </sst>
 </file>
@@ -3724,10 +4099,3950 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42527168-848D-F84A-9A91-2353902B0E13}">
+  <dimension ref="A1:N101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45590</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="M2" t="s">
+        <v>579</v>
+      </c>
+      <c r="N2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45523</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K3">
+        <v>538669</v>
+      </c>
+      <c r="M3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45544</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>771</v>
+      </c>
+      <c r="I4" t="s">
+        <v>772</v>
+      </c>
+      <c r="J4" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>773</v>
+      </c>
+      <c r="N4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44054</v>
+      </c>
+      <c r="G5" t="s">
+        <v>315</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J5" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="K5">
+        <v>6849</v>
+      </c>
+      <c r="L5">
+        <v>196384</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45531</v>
+      </c>
+      <c r="G6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" t="s">
+        <v>896</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J6" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="K6">
+        <v>7666</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-4</v>
+      </c>
+      <c r="E7">
+        <v>630</v>
+      </c>
+      <c r="F7" s="1">
+        <v>41142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>700</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>68648</v>
+      </c>
+      <c r="L7">
+        <v>8284052</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-4</v>
+      </c>
+      <c r="E8">
+        <v>132</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45473</v>
+      </c>
+      <c r="G9" t="s">
+        <v>702</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>10656</v>
+      </c>
+      <c r="L9">
+        <v>83153</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-2</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45482</v>
+      </c>
+      <c r="G10" t="s">
+        <v>705</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <v>21301</v>
+      </c>
+      <c r="L10">
+        <v>82078</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>382</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42535</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K11">
+        <v>5841</v>
+      </c>
+      <c r="L11">
+        <v>538348</v>
+      </c>
+      <c r="M11" t="s">
+        <v>149</v>
+      </c>
+      <c r="N11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44967</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K12">
+        <v>2590</v>
+      </c>
+      <c r="L12">
+        <v>200091</v>
+      </c>
+      <c r="M12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-7</v>
+      </c>
+      <c r="E13">
+        <v>597</v>
+      </c>
+      <c r="F13" s="1">
+        <v>41358</v>
+      </c>
+      <c r="G13" t="s">
+        <v>707</v>
+      </c>
+      <c r="H13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>4546</v>
+      </c>
+      <c r="L13">
+        <v>589480</v>
+      </c>
+      <c r="M13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45532</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>308</v>
+      </c>
+      <c r="J14" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K14">
+        <v>1443</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45531</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J15" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="K15">
+        <v>1445</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45539</v>
+      </c>
+      <c r="G16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="K16">
+        <v>3458</v>
+      </c>
+      <c r="M16" t="s">
+        <v>304</v>
+      </c>
+      <c r="N16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>-6</v>
+      </c>
+      <c r="E17">
+        <v>375</v>
+      </c>
+      <c r="F17" s="1">
+        <v>41501</v>
+      </c>
+      <c r="G17" t="s">
+        <v>710</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>11315</v>
+      </c>
+      <c r="L17">
+        <v>531412</v>
+      </c>
+      <c r="M17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-4</v>
+      </c>
+      <c r="E18">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45141</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K18">
+        <v>9694</v>
+      </c>
+      <c r="L18">
+        <v>574358</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45531</v>
+      </c>
+      <c r="G19" t="s">
+        <v>572</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J19" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="K19">
+        <v>920</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45533</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K20">
+        <v>568</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45531</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J21" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K21">
+        <v>1866</v>
+      </c>
+      <c r="L21">
+        <v>27405</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45533</v>
+      </c>
+      <c r="G22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J22" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K22">
+        <v>825</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>-8</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44616</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>547</v>
+      </c>
+      <c r="I23" t="s">
+        <v>547</v>
+      </c>
+      <c r="J23" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K23">
+        <v>13343</v>
+      </c>
+      <c r="L23">
+        <v>700154</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1">
+        <v>43804</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K24">
+        <v>10807</v>
+      </c>
+      <c r="L24">
+        <v>564739</v>
+      </c>
+      <c r="M24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>405</v>
+      </c>
+      <c r="F25" s="1">
+        <v>41688</v>
+      </c>
+      <c r="G25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K25">
+        <v>629</v>
+      </c>
+      <c r="L25">
+        <v>70118</v>
+      </c>
+      <c r="M25" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>459</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>-8</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="K26">
+        <v>1939</v>
+      </c>
+      <c r="L26">
+        <v>22511</v>
+      </c>
+      <c r="M26" t="s">
+        <v>460</v>
+      </c>
+      <c r="N26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45533</v>
+      </c>
+      <c r="G27" t="s">
+        <v>649</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J27" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K27">
+        <v>3066</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1133</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>-5</v>
+      </c>
+      <c r="E28">
+        <v>459</v>
+      </c>
+      <c r="F28" s="1">
+        <v>42339</v>
+      </c>
+      <c r="G28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K28">
+        <v>7891</v>
+      </c>
+      <c r="L28">
+        <v>1116776</v>
+      </c>
+      <c r="M28" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>-13</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45148</v>
+      </c>
+      <c r="G29" t="s">
+        <v>700</v>
+      </c>
+      <c r="H29" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" t="s">
+        <v>152</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>9258</v>
+      </c>
+      <c r="L29">
+        <v>293822</v>
+      </c>
+      <c r="M29" t="s">
+        <v>153</v>
+      </c>
+      <c r="N29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45531</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="K30">
+        <v>519</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1136</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45531</v>
+      </c>
+      <c r="G31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="K31">
+        <v>301</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1">
+        <v>41130</v>
+      </c>
+      <c r="G32" t="s">
+        <v>855</v>
+      </c>
+      <c r="H32" t="s">
+        <v>474</v>
+      </c>
+      <c r="I32" t="s">
+        <v>475</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32">
+        <v>102</v>
+      </c>
+      <c r="L32">
+        <v>13014</v>
+      </c>
+      <c r="M32" t="s">
+        <v>476</v>
+      </c>
+      <c r="N32" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>43</v>
+      </c>
+      <c r="F33" s="1">
+        <v>43739</v>
+      </c>
+      <c r="G33" t="s">
+        <v>704</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33">
+        <v>3188</v>
+      </c>
+      <c r="L33">
+        <v>610914</v>
+      </c>
+      <c r="M33" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>43144</v>
+      </c>
+      <c r="G34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J34" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="K34">
+        <v>2153</v>
+      </c>
+      <c r="L34">
+        <v>100029</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>-16</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44139</v>
+      </c>
+      <c r="G35" t="s">
+        <v>704</v>
+      </c>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35">
+        <v>16410</v>
+      </c>
+      <c r="L35">
+        <v>942662</v>
+      </c>
+      <c r="M35" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>-14</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45495</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1146</v>
+      </c>
+      <c r="J36" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="K36">
+        <v>1733</v>
+      </c>
+      <c r="L36">
+        <v>1795</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1147</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>-16</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45519</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="K37">
+        <v>576</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>-9</v>
+      </c>
+      <c r="E38">
+        <v>139</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44603</v>
+      </c>
+      <c r="G38" t="s">
+        <v>736</v>
+      </c>
+      <c r="H38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38">
+        <v>496</v>
+      </c>
+      <c r="L38">
+        <v>200472</v>
+      </c>
+      <c r="M38" t="s">
+        <v>224</v>
+      </c>
+      <c r="N38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>-4</v>
+      </c>
+      <c r="E39">
+        <v>480</v>
+      </c>
+      <c r="F39" s="1">
+        <v>43139</v>
+      </c>
+      <c r="G39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" t="s">
+        <v>140</v>
+      </c>
+      <c r="J39" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="K39">
+        <v>9692</v>
+      </c>
+      <c r="L39">
+        <v>909087</v>
+      </c>
+      <c r="M39" t="s">
+        <v>141</v>
+      </c>
+      <c r="N39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>45456</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" t="s">
+        <v>157</v>
+      </c>
+      <c r="J40" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="K40">
+        <v>345</v>
+      </c>
+      <c r="L40">
+        <v>4191</v>
+      </c>
+      <c r="M40" t="s">
+        <v>178</v>
+      </c>
+      <c r="N40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>-16</v>
+      </c>
+      <c r="E41">
+        <v>230</v>
+      </c>
+      <c r="F41" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" t="s">
+        <v>203</v>
+      </c>
+      <c r="J41" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="K41">
+        <v>803</v>
+      </c>
+      <c r="L41">
+        <v>61151</v>
+      </c>
+      <c r="M41" t="s">
+        <v>204</v>
+      </c>
+      <c r="N41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>-11</v>
+      </c>
+      <c r="E42">
+        <v>503</v>
+      </c>
+      <c r="F42" s="1">
+        <v>42108</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="2">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="K42">
+        <v>20797</v>
+      </c>
+      <c r="L42">
+        <v>1701639</v>
+      </c>
+      <c r="M42" t="s">
+        <v>84</v>
+      </c>
+      <c r="N42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>-17</v>
+      </c>
+      <c r="E43">
+        <v>111</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44862</v>
+      </c>
+      <c r="G43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I43" t="s">
+        <v>187</v>
+      </c>
+      <c r="J43" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="K43">
+        <v>6110</v>
+      </c>
+      <c r="L43">
+        <v>330318</v>
+      </c>
+      <c r="M43" t="s">
+        <v>188</v>
+      </c>
+      <c r="N43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>-5</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1">
+        <v>39365</v>
+      </c>
+      <c r="G44" t="s">
+        <v>700</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44">
+        <v>7656</v>
+      </c>
+      <c r="L44">
+        <v>1116337</v>
+      </c>
+      <c r="M44" t="s">
+        <v>312</v>
+      </c>
+      <c r="N44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>-28</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1">
+        <v>41464</v>
+      </c>
+      <c r="G45" t="s">
+        <v>703</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45">
+        <v>26718</v>
+      </c>
+      <c r="L45">
+        <v>2311554</v>
+      </c>
+      <c r="M45" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>-13</v>
+      </c>
+      <c r="E46">
+        <v>502</v>
+      </c>
+      <c r="F46" s="1">
+        <v>41733</v>
+      </c>
+      <c r="G46" t="s">
+        <v>239</v>
+      </c>
+      <c r="H46" t="s">
+        <v>240</v>
+      </c>
+      <c r="I46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J46" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K46">
+        <v>712</v>
+      </c>
+      <c r="L46">
+        <v>122537</v>
+      </c>
+      <c r="M46" t="s">
+        <v>241</v>
+      </c>
+      <c r="N46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>-13</v>
+      </c>
+      <c r="E47">
+        <v>34</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" t="s">
+        <v>216</v>
+      </c>
+      <c r="I47" t="s">
+        <v>217</v>
+      </c>
+      <c r="J47" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="K47">
+        <v>12598</v>
+      </c>
+      <c r="L47">
+        <v>664641</v>
+      </c>
+      <c r="M47" t="s">
+        <v>218</v>
+      </c>
+      <c r="N47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
+      <c r="F48" s="1">
+        <v>43090</v>
+      </c>
+      <c r="G48" t="s">
+        <v>701</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48">
+        <v>20934</v>
+      </c>
+      <c r="L48">
+        <v>2422565</v>
+      </c>
+      <c r="M48" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>220</v>
+      </c>
+      <c r="F49" s="1">
+        <v>41884</v>
+      </c>
+      <c r="G49" t="s">
+        <v>721</v>
+      </c>
+      <c r="H49" t="s">
+        <v>212</v>
+      </c>
+      <c r="I49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49">
+        <v>3152</v>
+      </c>
+      <c r="L49">
+        <v>148283</v>
+      </c>
+      <c r="M49" t="s">
+        <v>213</v>
+      </c>
+      <c r="N49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>992</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>-37</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>45519</v>
+      </c>
+      <c r="G50" t="s">
+        <v>345</v>
+      </c>
+      <c r="H50" t="s">
+        <v>993</v>
+      </c>
+      <c r="I50" t="s">
+        <v>994</v>
+      </c>
+      <c r="J50" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="K50">
+        <v>3484</v>
+      </c>
+      <c r="M50" t="s">
+        <v>995</v>
+      </c>
+      <c r="N50" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>-41</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>45526</v>
+      </c>
+      <c r="G51" t="s">
+        <v>532</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J51" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K51">
+        <v>3428</v>
+      </c>
+      <c r="M51" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N51" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>589</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52" s="1">
+        <v>45069</v>
+      </c>
+      <c r="G52" t="s">
+        <v>765</v>
+      </c>
+      <c r="H52" t="s">
+        <v>591</v>
+      </c>
+      <c r="I52" t="s">
+        <v>591</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52">
+        <v>964</v>
+      </c>
+      <c r="L52">
+        <v>12922</v>
+      </c>
+      <c r="M52" t="s">
+        <v>592</v>
+      </c>
+      <c r="N52" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>142</v>
+      </c>
+      <c r="F53" s="1">
+        <v>45273</v>
+      </c>
+      <c r="G53" t="s">
+        <v>289</v>
+      </c>
+      <c r="H53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I53" t="s">
+        <v>290</v>
+      </c>
+      <c r="J53" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="K53">
+        <v>3194</v>
+      </c>
+      <c r="L53">
+        <v>149882</v>
+      </c>
+      <c r="M53" t="s">
+        <v>291</v>
+      </c>
+      <c r="N53" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>594</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>222</v>
+      </c>
+      <c r="J54" s="2">
+        <v>499</v>
+      </c>
+      <c r="N54" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>65</v>
+      </c>
+      <c r="F55" s="1">
+        <v>44174</v>
+      </c>
+      <c r="G55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" t="s">
+        <v>73</v>
+      </c>
+      <c r="J55" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K55">
+        <v>7314</v>
+      </c>
+      <c r="L55">
+        <v>676217</v>
+      </c>
+      <c r="M55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>899</v>
+      </c>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>-18</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>45509</v>
+      </c>
+      <c r="G56" t="s">
+        <v>375</v>
+      </c>
+      <c r="H56" t="s">
+        <v>900</v>
+      </c>
+      <c r="I56" t="s">
+        <v>900</v>
+      </c>
+      <c r="J56" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="K56">
+        <v>6664</v>
+      </c>
+      <c r="M56" t="s">
+        <v>901</v>
+      </c>
+      <c r="N56" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>45541</v>
+      </c>
+      <c r="G57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" t="s">
+        <v>674</v>
+      </c>
+      <c r="I57" t="s">
+        <v>198</v>
+      </c>
+      <c r="J57" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N57" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>-18</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>44595</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s">
+        <v>336</v>
+      </c>
+      <c r="I58" t="s">
+        <v>336</v>
+      </c>
+      <c r="J58" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K58">
+        <v>1707</v>
+      </c>
+      <c r="L58">
+        <v>131017</v>
+      </c>
+      <c r="M58" t="s">
+        <v>337</v>
+      </c>
+      <c r="N58" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>344</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>35</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>42527</v>
+      </c>
+      <c r="G59" t="s">
+        <v>345</v>
+      </c>
+      <c r="H59" t="s">
+        <v>346</v>
+      </c>
+      <c r="I59" t="s">
+        <v>347</v>
+      </c>
+      <c r="J59" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="K59">
+        <v>3206</v>
+      </c>
+      <c r="L59">
+        <v>217077</v>
+      </c>
+      <c r="M59" t="s">
+        <v>348</v>
+      </c>
+      <c r="N59" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>-17</v>
+      </c>
+      <c r="E60">
+        <v>17</v>
+      </c>
+      <c r="F60" s="1">
+        <v>45463</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>547</v>
+      </c>
+      <c r="I60" t="s">
+        <v>547</v>
+      </c>
+      <c r="J60" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="K60">
+        <v>2171</v>
+      </c>
+      <c r="L60">
+        <v>78012</v>
+      </c>
+      <c r="N60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>600</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>-24</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1">
+        <v>41570</v>
+      </c>
+      <c r="G61" t="s">
+        <v>706</v>
+      </c>
+      <c r="H61" t="s">
+        <v>602</v>
+      </c>
+      <c r="I61" t="s">
+        <v>602</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61">
+        <v>2276</v>
+      </c>
+      <c r="L61">
+        <v>225617</v>
+      </c>
+      <c r="M61" t="s">
+        <v>603</v>
+      </c>
+      <c r="N61" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>694</v>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>45224</v>
+      </c>
+      <c r="G62" t="s">
+        <v>695</v>
+      </c>
+      <c r="H62" t="s">
+        <v>696</v>
+      </c>
+      <c r="I62" t="s">
+        <v>697</v>
+      </c>
+      <c r="J62" s="2">
+        <v>44.99</v>
+      </c>
+      <c r="K62">
+        <v>1296</v>
+      </c>
+      <c r="L62">
+        <v>53119</v>
+      </c>
+      <c r="M62" t="s">
+        <v>698</v>
+      </c>
+      <c r="N62" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="F63" s="1">
+        <v>44579</v>
+      </c>
+      <c r="G63" t="s">
+        <v>766</v>
+      </c>
+      <c r="H63" t="s">
+        <v>119</v>
+      </c>
+      <c r="I63" t="s">
+        <v>119</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63">
+        <v>1027</v>
+      </c>
+      <c r="L63">
+        <v>76320</v>
+      </c>
+      <c r="M63" t="s">
+        <v>120</v>
+      </c>
+      <c r="N63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>-18</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>42663</v>
+      </c>
+      <c r="G64" t="s">
+        <v>196</v>
+      </c>
+      <c r="H64" t="s">
+        <v>197</v>
+      </c>
+      <c r="I64" t="s">
+        <v>198</v>
+      </c>
+      <c r="J64" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K64">
+        <v>3458</v>
+      </c>
+      <c r="L64">
+        <v>236793</v>
+      </c>
+      <c r="M64" t="s">
+        <v>199</v>
+      </c>
+      <c r="N64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>895</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>-37</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1">
+        <v>43903</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s">
+        <v>896</v>
+      </c>
+      <c r="I65" t="s">
+        <v>198</v>
+      </c>
+      <c r="J65" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K65">
+        <v>2211</v>
+      </c>
+      <c r="L65">
+        <v>106696</v>
+      </c>
+      <c r="M65" t="s">
+        <v>897</v>
+      </c>
+      <c r="N65" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>45546</v>
+      </c>
+      <c r="G66" t="s">
+        <v>123</v>
+      </c>
+      <c r="H66" t="s">
+        <v>264</v>
+      </c>
+      <c r="I66" t="s">
+        <v>264</v>
+      </c>
+      <c r="J66" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="M66" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N66" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>-35</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1">
+        <v>43704</v>
+      </c>
+      <c r="G67" t="s">
+        <v>123</v>
+      </c>
+      <c r="H67" t="s">
+        <v>687</v>
+      </c>
+      <c r="I67" t="s">
+        <v>687</v>
+      </c>
+      <c r="J67" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="K67">
+        <v>15967</v>
+      </c>
+      <c r="L67">
+        <v>177090</v>
+      </c>
+      <c r="M67" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N67" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D68">
+        <v>-59</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>45699</v>
+      </c>
+      <c r="G68" t="s">
+        <v>345</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I68" t="s">
+        <v>198</v>
+      </c>
+      <c r="J68" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="M68" t="s">
+        <v>1162</v>
+      </c>
+      <c r="N68" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>365</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>27</v>
+      </c>
+      <c r="F69" s="1">
+        <v>42314</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" t="s">
+        <v>366</v>
+      </c>
+      <c r="I69" t="s">
+        <v>187</v>
+      </c>
+      <c r="J69" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="K69">
+        <v>2340</v>
+      </c>
+      <c r="L69">
+        <v>131322</v>
+      </c>
+      <c r="M69" t="s">
+        <v>367</v>
+      </c>
+      <c r="N69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>298</v>
+      </c>
+      <c r="B70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>-19</v>
+      </c>
+      <c r="E70">
+        <v>19</v>
+      </c>
+      <c r="F70" s="1">
+        <v>45428</v>
+      </c>
+      <c r="G70" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s">
+        <v>299</v>
+      </c>
+      <c r="I70" t="s">
+        <v>217</v>
+      </c>
+      <c r="J70" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K70">
+        <v>1792</v>
+      </c>
+      <c r="L70">
+        <v>26196</v>
+      </c>
+      <c r="M70" t="s">
+        <v>300</v>
+      </c>
+      <c r="N70" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>-12</v>
+      </c>
+      <c r="E71">
+        <v>9</v>
+      </c>
+      <c r="F71" s="1">
+        <v>45222</v>
+      </c>
+      <c r="G71" t="s">
+        <v>340</v>
+      </c>
+      <c r="H71" t="s">
+        <v>341</v>
+      </c>
+      <c r="I71" t="s">
+        <v>341</v>
+      </c>
+      <c r="J71" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="K71">
+        <v>8694</v>
+      </c>
+      <c r="L71">
+        <v>345763</v>
+      </c>
+      <c r="M71" t="s">
+        <v>342</v>
+      </c>
+      <c r="N71" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>258</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>184</v>
+      </c>
+      <c r="F72" s="1">
+        <v>42879</v>
+      </c>
+      <c r="G72" t="s">
+        <v>259</v>
+      </c>
+      <c r="H72" t="s">
+        <v>260</v>
+      </c>
+      <c r="I72" t="s">
+        <v>260</v>
+      </c>
+      <c r="J72" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="K72">
+        <v>364</v>
+      </c>
+      <c r="L72">
+        <v>56104</v>
+      </c>
+      <c r="M72" t="s">
+        <v>261</v>
+      </c>
+      <c r="N72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>382</v>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>44280</v>
+      </c>
+      <c r="G73" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" t="s">
+        <v>383</v>
+      </c>
+      <c r="I73" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="K73">
+        <v>2359</v>
+      </c>
+      <c r="L73">
+        <v>148861</v>
+      </c>
+      <c r="M73" t="s">
+        <v>384</v>
+      </c>
+      <c r="N73" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>44621</v>
+      </c>
+      <c r="G74" t="s">
+        <v>315</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J74" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="K74">
+        <v>238</v>
+      </c>
+      <c r="L74">
+        <v>4831</v>
+      </c>
+      <c r="N74" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>-34</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1">
+        <v>45552</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s">
+        <v>157</v>
+      </c>
+      <c r="I75" t="s">
+        <v>157</v>
+      </c>
+      <c r="J75" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="M75" t="s">
+        <v>1167</v>
+      </c>
+      <c r="N75" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>-7</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1">
+        <v>45575</v>
+      </c>
+      <c r="G76" t="s">
+        <v>123</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I76" t="s">
+        <v>568</v>
+      </c>
+      <c r="J76" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="M76" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N76" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>531</v>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>45267</v>
+      </c>
+      <c r="G77" t="s">
+        <v>532</v>
+      </c>
+      <c r="H77" t="s">
+        <v>533</v>
+      </c>
+      <c r="I77" t="s">
+        <v>533</v>
+      </c>
+      <c r="J77" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="K77">
+        <v>452</v>
+      </c>
+      <c r="L77">
+        <v>13226</v>
+      </c>
+      <c r="M77" t="s">
+        <v>534</v>
+      </c>
+      <c r="N77" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>45533</v>
+      </c>
+      <c r="G78" t="s">
+        <v>841</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J78" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="K78">
+        <v>441</v>
+      </c>
+      <c r="M78" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N78" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>620</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>43054</v>
+      </c>
+      <c r="G79" t="s">
+        <v>710</v>
+      </c>
+      <c r="H79" t="s">
+        <v>621</v>
+      </c>
+      <c r="I79" t="s">
+        <v>621</v>
+      </c>
+      <c r="J79" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79">
+        <v>1188</v>
+      </c>
+      <c r="L79">
+        <v>142114</v>
+      </c>
+      <c r="M79" t="s">
+        <v>622</v>
+      </c>
+      <c r="N79" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>-12</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1">
+        <v>45284</v>
+      </c>
+      <c r="G80" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s">
+        <v>144</v>
+      </c>
+      <c r="I80" t="s">
+        <v>144</v>
+      </c>
+      <c r="J80" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80">
+        <v>623</v>
+      </c>
+      <c r="L80">
+        <v>5255</v>
+      </c>
+      <c r="M80" t="s">
+        <v>145</v>
+      </c>
+      <c r="N80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>997</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>-23</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1">
+        <v>44784</v>
+      </c>
+      <c r="G81" t="s">
+        <v>998</v>
+      </c>
+      <c r="H81" t="s">
+        <v>999</v>
+      </c>
+      <c r="I81" t="s">
+        <v>317</v>
+      </c>
+      <c r="J81" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="K81">
+        <v>4839</v>
+      </c>
+      <c r="L81">
+        <v>74490</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N81" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B82" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D82" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>45538</v>
+      </c>
+      <c r="G82" t="s">
+        <v>572</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I82" t="s">
+        <v>148</v>
+      </c>
+      <c r="J82" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="M82" t="s">
+        <v>1179</v>
+      </c>
+      <c r="N82" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>44448</v>
+      </c>
+      <c r="G83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" t="s">
+        <v>567</v>
+      </c>
+      <c r="I83" t="s">
+        <v>568</v>
+      </c>
+      <c r="J83" s="2">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="K83">
+        <v>182</v>
+      </c>
+      <c r="L83">
+        <v>24966</v>
+      </c>
+      <c r="M83" t="s">
+        <v>1182</v>
+      </c>
+      <c r="N83" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>630</v>
+      </c>
+      <c r="B84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>-2</v>
+      </c>
+      <c r="E84">
+        <v>7</v>
+      </c>
+      <c r="F84" s="1">
+        <v>40897</v>
+      </c>
+      <c r="G84" t="s">
+        <v>876</v>
+      </c>
+      <c r="H84" t="s">
+        <v>632</v>
+      </c>
+      <c r="I84" t="s">
+        <v>44</v>
+      </c>
+      <c r="J84" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84">
+        <v>588</v>
+      </c>
+      <c r="L84">
+        <v>62590</v>
+      </c>
+      <c r="M84" t="s">
+        <v>633</v>
+      </c>
+      <c r="N84" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>271</v>
+      </c>
+      <c r="B85" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>16</v>
+      </c>
+      <c r="F85" s="1">
+        <v>42402</v>
+      </c>
+      <c r="G85" t="s">
+        <v>164</v>
+      </c>
+      <c r="H85" t="s">
+        <v>165</v>
+      </c>
+      <c r="I85" t="s">
+        <v>165</v>
+      </c>
+      <c r="J85" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K85">
+        <v>1467</v>
+      </c>
+      <c r="L85">
+        <v>129990</v>
+      </c>
+      <c r="M85" t="s">
+        <v>272</v>
+      </c>
+      <c r="N85" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1">
+        <v>44060</v>
+      </c>
+      <c r="G86" t="s">
+        <v>403</v>
+      </c>
+      <c r="H86" t="s">
+        <v>404</v>
+      </c>
+      <c r="I86" t="s">
+        <v>103</v>
+      </c>
+      <c r="J86" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K86">
+        <v>658</v>
+      </c>
+      <c r="L86">
+        <v>58117</v>
+      </c>
+      <c r="M86" t="s">
+        <v>405</v>
+      </c>
+      <c r="N86" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>45376</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J87" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87">
+        <v>1758</v>
+      </c>
+      <c r="L87">
+        <v>14422</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1187</v>
+      </c>
+      <c r="N87" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>-68</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>-59</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>45519</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J89" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="K89">
+        <v>5905</v>
+      </c>
+      <c r="M89" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N89" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>320</v>
+      </c>
+      <c r="B90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>-7</v>
+      </c>
+      <c r="E90">
+        <v>25</v>
+      </c>
+      <c r="F90" s="1">
+        <v>43390</v>
+      </c>
+      <c r="G90" t="s">
+        <v>321</v>
+      </c>
+      <c r="H90" t="s">
+        <v>322</v>
+      </c>
+      <c r="I90" t="s">
+        <v>322</v>
+      </c>
+      <c r="J90" s="2">
+        <v>34.99</v>
+      </c>
+      <c r="K90">
+        <v>1613</v>
+      </c>
+      <c r="L90">
+        <v>163121</v>
+      </c>
+      <c r="M90" t="s">
+        <v>323</v>
+      </c>
+      <c r="N90" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>-18</v>
+      </c>
+      <c r="E91">
+        <v>44</v>
+      </c>
+      <c r="F91" s="1">
+        <v>42426</v>
+      </c>
+      <c r="G91" t="s">
+        <v>129</v>
+      </c>
+      <c r="H91" t="s">
+        <v>130</v>
+      </c>
+      <c r="I91" t="s">
+        <v>130</v>
+      </c>
+      <c r="J91" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="K91">
+        <v>10714</v>
+      </c>
+      <c r="L91">
+        <v>639387</v>
+      </c>
+      <c r="M91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>-26</v>
+      </c>
+      <c r="E92">
+        <v>25</v>
+      </c>
+      <c r="F92" s="1">
+        <v>43985</v>
+      </c>
+      <c r="G92" t="s">
+        <v>81</v>
+      </c>
+      <c r="H92" t="s">
+        <v>268</v>
+      </c>
+      <c r="I92" t="s">
+        <v>103</v>
+      </c>
+      <c r="J92" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="K92">
+        <v>2665</v>
+      </c>
+      <c r="L92">
+        <v>292164</v>
+      </c>
+      <c r="M92" t="s">
+        <v>269</v>
+      </c>
+      <c r="N92" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>45028</v>
+      </c>
+      <c r="G93" t="s">
+        <v>532</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J93" s="2">
+        <v>34.99</v>
+      </c>
+      <c r="K93">
+        <v>413</v>
+      </c>
+      <c r="L93">
+        <v>23267</v>
+      </c>
+      <c r="M93" t="s">
+        <v>1191</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>-13</v>
+      </c>
+      <c r="E94">
+        <v>9</v>
+      </c>
+      <c r="F94" s="1">
+        <v>44092</v>
+      </c>
+      <c r="G94" t="s">
+        <v>294</v>
+      </c>
+      <c r="H94" t="s">
+        <v>295</v>
+      </c>
+      <c r="I94" t="s">
+        <v>295</v>
+      </c>
+      <c r="J94" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="K94">
+        <v>8678</v>
+      </c>
+      <c r="L94">
+        <v>573973</v>
+      </c>
+      <c r="M94" t="s">
+        <v>296</v>
+      </c>
+      <c r="N94" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>45533</v>
+      </c>
+      <c r="G95" t="s">
+        <v>649</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J95" s="2">
+        <v>10.99</v>
+      </c>
+      <c r="K95">
+        <v>38</v>
+      </c>
+      <c r="N95" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B96" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>624</v>
+      </c>
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>949</v>
+      </c>
+      <c r="B98" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>44735</v>
+      </c>
+      <c r="G98" t="s">
+        <v>87</v>
+      </c>
+      <c r="H98" t="s">
+        <v>896</v>
+      </c>
+      <c r="I98" t="s">
+        <v>198</v>
+      </c>
+      <c r="J98" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="K98">
+        <v>471</v>
+      </c>
+      <c r="L98">
+        <v>13547</v>
+      </c>
+      <c r="M98" t="s">
+        <v>950</v>
+      </c>
+      <c r="N98" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B99" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>-24</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>42030</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" t="s">
+        <v>336</v>
+      </c>
+      <c r="I99" t="s">
+        <v>336</v>
+      </c>
+      <c r="J99" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K99">
+        <v>3958</v>
+      </c>
+      <c r="L99">
+        <v>313216</v>
+      </c>
+      <c r="M99" t="s">
+        <v>1198</v>
+      </c>
+      <c r="N99" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B100" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>45538</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I100" t="s">
+        <v>170</v>
+      </c>
+      <c r="J100" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="K100">
+        <v>99</v>
+      </c>
+      <c r="M100" t="s">
+        <v>1203</v>
+      </c>
+      <c r="N100" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B101" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>-59</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1">
+        <v>45265</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J101" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="K101">
+        <v>283</v>
+      </c>
+      <c r="L101">
+        <v>15516</v>
+      </c>
+      <c r="M101" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N101" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46066FE5-CE78-B74D-B1C9-59CCDB493089}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -7453,7 +11768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A4B528-2005-7D49-ACA5-17BB65A55775}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -11222,7 +15537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9468E3C7-ED89-7F49-91F9-C709353B7C6C}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -14946,7 +19261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2439C52B-5341-DF43-8CDD-AB33FEF4C9FE}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -18677,7 +22992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71D7B06-37EF-F943-8D0E-B48A8AB57D51}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -22383,7 +26698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3978525E-3F5E-9048-BC93-38E6C42116E5}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -26179,7 +30494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC291C4-96D0-D14C-9991-8EE742F649AB}">
   <dimension ref="A1:L101"/>
   <sheetViews>
@@ -29966,7 +34281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD458E3F-9E53-804A-9E7D-8111A280BFC8}">
   <dimension ref="A1:L101"/>
   <sheetViews>

--- a/data/total_steam_titles.xlsx
+++ b/data/total_steam_titles.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theal\MakersFund\Roblox_Steam\steam-roblox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67923826-EB7D-41B8-BA3D-F2C488DF093F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C01BF-ADC7-443C-8EDA-B9E79C42758C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-10-28" sheetId="10" r:id="rId1"/>
+    <sheet name="2024-11-04" sheetId="10" r:id="rId1"/>
     <sheet name="2024-09-03" sheetId="9" r:id="rId2"/>
     <sheet name="2024-08-26" sheetId="8" r:id="rId3"/>
     <sheet name="2024-08-19" sheetId="7" r:id="rId4"/>
@@ -4272,7 +4272,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/total_steam_titles.xlsx
+++ b/data/total_steam_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theal\MakersFund\Roblox_Steam\steam-roblox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD5191E-8406-4122-9BAE-5F0494950E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E42564-810C-4D74-8C14-5F4F1755E545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5340" windowWidth="16440" windowHeight="28320" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-11-19" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8583" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8584" uniqueCount="1509">
   <si>
     <t>Game</t>
   </si>
@@ -4589,13 +4589,19 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4642,11 +4648,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4654,25 +4660,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5010,3698 +5017,4304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D052B5D-CB88-4D75-A623-AB8284CB4388}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1219</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
         <v>19</v>
       </c>
-      <c r="D2" s="17">
+      <c r="F2" s="17">
         <v>45589</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="18">
+      <c r="J2" s="18">
         <v>69.989999999999995</v>
       </c>
-      <c r="I2" s="16">
+      <c r="K2" s="16">
         <v>6789</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>1220</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1239</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D3" s="16">
         <v>60</v>
       </c>
-      <c r="C3" s="16">
+      <c r="E3" s="16">
         <v>122</v>
       </c>
-      <c r="D3" s="17">
+      <c r="F3" s="17">
         <v>44861</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>1369</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="18">
+      <c r="J3" s="18">
         <v>99.99</v>
       </c>
-      <c r="I3" s="16">
+      <c r="K3" s="16">
         <v>19647</v>
       </c>
-      <c r="J3" s="16">
+      <c r="L3" s="16">
         <v>354002</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>1240</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1281</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D4" s="16">
         <v>5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="E4" s="16">
         <v>4</v>
       </c>
-      <c r="D4" s="17">
+      <c r="F4" s="17">
         <v>45608</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>1282</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>1282</v>
       </c>
-      <c r="H4" s="18">
+      <c r="J4" s="18">
         <v>49.99</v>
       </c>
-      <c r="I4" s="16">
+      <c r="K4" s="16">
         <v>6536</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>1283</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="N4" s="16" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D5" s="16">
         <v>-2</v>
       </c>
-      <c r="C5" s="16">
+      <c r="E5" s="16">
         <v>143</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
         <v>-1</v>
       </c>
-      <c r="C6" s="16">
+      <c r="E6" s="16">
         <v>641</v>
       </c>
-      <c r="D6" s="17">
+      <c r="F6" s="17">
         <v>41142</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="J6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="16">
+      <c r="K6" s="16">
         <v>54275</v>
       </c>
-      <c r="J6" s="16">
+      <c r="L6" s="16">
         <v>8400516</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="N6" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>1285</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D7" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="16">
+      <c r="E7" s="16">
         <v>3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="F7" s="17">
         <v>45616</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>1286</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>1287</v>
       </c>
-      <c r="H7" s="18">
+      <c r="J7" s="18">
         <v>59.99</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="M7" s="16" t="s">
         <v>1288</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="N7" s="16" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D8" s="16">
         <v>-4</v>
       </c>
-      <c r="C8" s="16">
+      <c r="E8" s="16">
         <v>9</v>
       </c>
-      <c r="D8" s="17">
+      <c r="F8" s="17">
         <v>45566</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="J8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="16">
+      <c r="K8" s="16">
         <v>10165</v>
       </c>
-      <c r="J8" s="16">
+      <c r="L8" s="16">
         <v>50675</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="M8" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="N8" s="16" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D9" s="16">
         <v>10</v>
       </c>
-      <c r="C9" s="16">
+      <c r="E9" s="16">
         <v>608</v>
       </c>
-      <c r="D9" s="17">
+      <c r="F9" s="17">
         <v>41358</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="I9" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="J9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="16">
+      <c r="K9" s="16">
         <v>3819</v>
       </c>
-      <c r="J9" s="16">
+      <c r="L9" s="16">
         <v>598364</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="M9" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="N9" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D10" s="16">
         <v>65</v>
       </c>
-      <c r="C10" s="16">
+      <c r="E10" s="16">
         <v>2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="F10" s="17">
         <v>42527</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H10" s="18">
+      <c r="J10" s="18">
         <v>49.99</v>
       </c>
-      <c r="I10" s="16">
+      <c r="K10" s="16">
         <v>2781</v>
       </c>
-      <c r="J10" s="16">
+      <c r="L10" s="16">
         <v>223153</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>1455</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="16">
+      <c r="E11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="17">
+      <c r="F11" s="17">
         <v>45608</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>1456</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>1457</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>1458</v>
       </c>
-      <c r="H11" s="18">
+      <c r="J11" s="18">
         <v>49.99</v>
       </c>
-      <c r="I11" s="16">
+      <c r="K11" s="16">
         <v>1577</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="M11" s="16" t="s">
         <v>1459</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="N11" s="16" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>1461</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="16">
+      <c r="E12" s="16">
         <v>1</v>
       </c>
-      <c r="D12" s="17">
+      <c r="F12" s="17">
         <v>45610</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>1462</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="I12" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="18">
+      <c r="J12" s="18">
         <v>59.99</v>
       </c>
-      <c r="I12" s="16">
+      <c r="K12" s="16">
         <v>954</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="M12" s="16" t="s">
         <v>1463</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="N12" s="16" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D13" s="16">
         <v>3</v>
       </c>
-      <c r="C13" s="16">
+      <c r="E13" s="16">
         <v>386</v>
       </c>
-      <c r="D13" s="17">
+      <c r="F13" s="17">
         <v>41501</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="H13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="I13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="J13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="16">
+      <c r="K13" s="16">
         <v>9514</v>
       </c>
-      <c r="J13" s="16">
+      <c r="L13" s="16">
         <v>559650</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="M13" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="N13" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>1238</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D14" s="16">
         <v>-8</v>
       </c>
-      <c r="C14" s="16">
+      <c r="E14" s="16">
         <v>211</v>
       </c>
-      <c r="D14" s="17">
+      <c r="F14" s="17">
         <v>44139</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="J14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="16">
+      <c r="K14" s="16">
         <v>11009</v>
       </c>
-      <c r="J14" s="16">
+      <c r="L14" s="16">
         <v>963469</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="M14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="N14" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>1395</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D15" s="16">
         <v>56</v>
       </c>
-      <c r="C15" s="16">
+      <c r="E15" s="16">
         <v>2</v>
       </c>
-      <c r="D15" s="17">
+      <c r="F15" s="17">
         <v>45615</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="H15" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="I15" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="18">
+      <c r="J15" s="18">
         <v>69.989999999999995</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="M15" s="16" t="s">
         <v>1396</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="N15" s="16" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="C16" s="16">
+      <c r="E16" s="16">
         <v>2</v>
       </c>
-      <c r="D16" s="17">
+      <c r="F16" s="17">
         <v>45315</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="I16" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H16" s="18">
+      <c r="J16" s="18">
         <v>29.99</v>
       </c>
-      <c r="I16" s="16">
+      <c r="K16" s="16">
         <v>2288</v>
       </c>
-      <c r="J16" s="16">
+      <c r="L16" s="16">
         <v>52756</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="M16" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="N16" s="16" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>1276</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D17" s="16">
         <v>-9</v>
       </c>
-      <c r="C17" s="16">
+      <c r="E17" s="16">
         <v>9</v>
       </c>
-      <c r="D17" s="17">
+      <c r="F17" s="17">
         <v>45596</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="G17" s="16" t="s">
         <v>1021</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="H17" s="16" t="s">
         <v>1022</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="I17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="18">
+      <c r="J17" s="18">
         <v>59.99</v>
       </c>
-      <c r="I17" s="16">
+      <c r="K17" s="16">
         <v>22652</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="M17" s="16" t="s">
         <v>1277</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="N17" s="16" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>1465</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="16">
+      <c r="E18" s="16">
         <v>1</v>
       </c>
-      <c r="D18" s="17">
+      <c r="F18" s="17">
         <v>42720</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="H18" s="16" t="s">
         <v>1466</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="I18" s="16" t="s">
         <v>1466</v>
       </c>
-      <c r="H18" s="18">
+      <c r="J18" s="18">
         <v>29.99</v>
       </c>
-      <c r="I18" s="16">
+      <c r="K18" s="16">
         <v>1064</v>
       </c>
-      <c r="J18" s="16">
+      <c r="L18" s="16">
         <v>104595</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="M18" s="16" t="s">
         <v>1467</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="N18" s="16" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>1469</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="16">
+      <c r="E19" s="16">
         <v>1</v>
       </c>
-      <c r="D19" s="17">
+      <c r="F19" s="17">
         <v>45610</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="G19" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="H19" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="I19" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H19" s="18">
+      <c r="J19" s="18">
         <v>24.99</v>
       </c>
-      <c r="I19" s="16">
+      <c r="K19" s="16">
         <v>812</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="N19" s="16" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D20" s="16">
         <v>11</v>
       </c>
-      <c r="C20" s="16">
+      <c r="E20" s="16">
         <v>393</v>
       </c>
-      <c r="D20" s="17">
+      <c r="F20" s="17">
         <v>42535</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="G20" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="H20" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="I20" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="18">
+      <c r="J20" s="18">
         <v>19.989999999999998</v>
       </c>
-      <c r="I20" s="16">
+      <c r="K20" s="16">
         <v>4593</v>
       </c>
-      <c r="J20" s="16">
+      <c r="L20" s="16">
         <v>546566</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="M20" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="N20" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>1242</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D21" s="16">
         <v>-1</v>
       </c>
-      <c r="C21" s="16">
+      <c r="E21" s="16">
         <v>45</v>
       </c>
-      <c r="D21" s="17">
+      <c r="F21" s="17">
         <v>45330</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="G21" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="H21" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="I21" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H21" s="18">
+      <c r="J21" s="18">
         <v>39.99</v>
       </c>
-      <c r="I21" s="16">
+      <c r="K21" s="16">
         <v>5058</v>
       </c>
-      <c r="J21" s="16">
+      <c r="L21" s="16">
         <v>673930</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="M21" s="16" t="s">
         <v>1243</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="N21" s="16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D22" s="16">
         <v>-15</v>
       </c>
-      <c r="C22" s="16">
+      <c r="E22" s="16">
         <v>101</v>
       </c>
-      <c r="D22" s="17">
+      <c r="F22" s="17">
         <v>45141</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="H22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="18">
+      <c r="J22" s="18">
         <v>59.99</v>
       </c>
-      <c r="I22" s="16">
+      <c r="K22" s="16">
         <v>7958</v>
       </c>
-      <c r="J22" s="16">
+      <c r="L22" s="16">
         <v>596989</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="M22" s="16" t="s">
         <v>1223</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="N22" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D23" s="16">
         <v>28</v>
       </c>
-      <c r="C23" s="16">
+      <c r="E23" s="16">
         <v>19</v>
       </c>
-      <c r="D23" s="17">
+      <c r="F23" s="17">
         <v>45069</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="G23" s="16" t="s">
         <v>765</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="H23" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="I23" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="J23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="16">
+      <c r="K23" s="16">
         <v>717</v>
       </c>
-      <c r="J23" s="16">
+      <c r="L23" s="16">
         <v>14874</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="M23" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="N23" s="16" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>1294</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D24" s="16">
         <v>-6</v>
       </c>
-      <c r="C24" s="16">
+      <c r="E24" s="16">
         <v>5</v>
       </c>
-      <c r="D24" s="17">
+      <c r="F24" s="17">
         <v>44057</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="G24" s="16" t="s">
         <v>1076</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="H24" s="16" t="s">
         <v>1295</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="I24" s="16" t="s">
         <v>1295</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="J24" s="16" t="s">
         <v>1296</v>
       </c>
-      <c r="I24" s="16">
+      <c r="K24" s="16">
         <v>5348</v>
       </c>
-      <c r="J24" s="16">
+      <c r="L24" s="16">
         <v>156579</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="M24" s="16" t="s">
         <v>1297</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="N24" s="16" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>1233</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D25" s="16">
         <v>57</v>
       </c>
-      <c r="C25" s="16">
+      <c r="E25" s="16">
         <v>22</v>
       </c>
-      <c r="D25" s="17">
+      <c r="F25" s="17">
         <v>45148</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="G25" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="H25" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="I25" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="J25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="16">
+      <c r="K25" s="16">
         <v>6694</v>
       </c>
-      <c r="J25" s="16">
+      <c r="L25" s="16">
         <v>313419</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="M25" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="N25" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>1323</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D26" s="16">
         <v>17</v>
       </c>
-      <c r="C26" s="16">
+      <c r="E26" s="16">
         <v>9</v>
       </c>
-      <c r="D26" s="17">
+      <c r="F26" s="17">
         <v>45561</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="H26" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="I26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="18">
+      <c r="J26" s="18">
         <v>99.99</v>
       </c>
-      <c r="I26" s="16">
+      <c r="K26" s="16">
         <v>6029</v>
       </c>
-      <c r="J26" s="16">
+      <c r="L26" s="16">
         <v>20108</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="M26" s="16" t="s">
         <v>1324</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="N26" s="16" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D27" s="16">
         <v>-4</v>
       </c>
-      <c r="C27" s="16">
+      <c r="E27" s="16">
         <v>491</v>
       </c>
-      <c r="D27" s="17">
+      <c r="F27" s="17">
         <v>43139</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="G27" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="H27" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="I27" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="18">
+      <c r="J27" s="18">
         <v>39.99</v>
       </c>
-      <c r="I27" s="16">
+      <c r="K27" s="16">
         <v>11259</v>
       </c>
-      <c r="J27" s="16">
+      <c r="L27" s="16">
         <v>931302</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="M27" s="16" t="s">
         <v>1237</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="N27" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D28" s="16">
         <v>-1</v>
       </c>
-      <c r="C28" s="16">
+      <c r="E28" s="16">
         <v>54</v>
       </c>
-      <c r="D28" s="17">
+      <c r="F28" s="17">
         <v>43739</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="G28" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="H28" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="I28" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="J28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="16">
+      <c r="K28" s="16">
         <v>2170</v>
       </c>
-      <c r="J28" s="16">
+      <c r="L28" s="16">
         <v>615276</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="M28" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="N28" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>770</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D29" s="16">
         <v>-4</v>
       </c>
-      <c r="C29" s="16">
+      <c r="E29" s="16">
         <v>16</v>
       </c>
-      <c r="D29" s="17">
+      <c r="F29" s="17">
         <v>45544</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="G29" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="H29" s="16" t="s">
         <v>771</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="I29" s="16" t="s">
         <v>772</v>
       </c>
-      <c r="H29" s="18">
+      <c r="J29" s="18">
         <v>59.99</v>
       </c>
-      <c r="I29" s="16">
+      <c r="K29" s="16">
         <v>6591</v>
       </c>
-      <c r="J29" s="16">
+      <c r="L29" s="16">
         <v>86910</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="M29" s="16" t="s">
         <v>773</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="N29" s="16" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D30" s="16">
         <v>20</v>
       </c>
-      <c r="C30" s="16">
+      <c r="E30" s="16">
         <v>416</v>
       </c>
-      <c r="D30" s="17">
+      <c r="F30" s="17">
         <v>41688</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="G30" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="H30" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="I30" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="18">
+      <c r="J30" s="18">
         <v>19.989999999999998</v>
       </c>
-      <c r="I30" s="16">
+      <c r="K30" s="16">
         <v>384</v>
       </c>
-      <c r="J30" s="16">
+      <c r="L30" s="16">
         <v>70974</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="M30" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="N30" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D31" s="16">
         <v>-17</v>
       </c>
-      <c r="C31" s="16">
+      <c r="E31" s="16">
         <v>19</v>
       </c>
-      <c r="D31" s="17">
+      <c r="F31" s="17">
         <v>45482</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="G31" s="16" t="s">
         <v>705</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="H31" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="I31" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="J31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="16">
+      <c r="K31" s="16">
         <v>6720</v>
       </c>
-      <c r="J31" s="16">
+      <c r="L31" s="16">
         <v>103813</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="M31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="N31" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>1471</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="16">
+      <c r="E32" s="16">
         <v>1</v>
       </c>
-      <c r="D32" s="17">
+      <c r="F32" s="17">
         <v>45608</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="G32" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="H32" s="16" t="s">
         <v>1472</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="I32" s="16" t="s">
         <v>962</v>
       </c>
-      <c r="H32" s="18">
+      <c r="J32" s="18">
         <v>19.989999999999998</v>
       </c>
-      <c r="I32" s="16">
+      <c r="K32" s="16">
         <v>976</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="M32" s="16" t="s">
         <v>1473</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="N32" s="16" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>1299</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D33" s="16">
         <v>-7</v>
       </c>
-      <c r="C33" s="16">
+      <c r="E33" s="16">
         <v>5</v>
       </c>
-      <c r="D33" s="17">
+      <c r="F33" s="17">
         <v>45576</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="G33" s="16" t="s">
         <v>1300</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="H33" s="16" t="s">
         <v>1301</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="I33" s="16" t="s">
         <v>1301</v>
       </c>
-      <c r="H33" s="18">
+      <c r="J33" s="18">
         <v>4.99</v>
       </c>
-      <c r="I33" s="16">
+      <c r="K33" s="16">
         <v>18446</v>
       </c>
-      <c r="J33" s="16">
+      <c r="L33" s="16">
         <v>21775</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="M33" s="16" t="s">
         <v>1302</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="N33" s="16" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D34" s="16">
         <v>-23</v>
       </c>
-      <c r="C34" s="16">
+      <c r="E34" s="16">
         <v>2</v>
       </c>
-      <c r="D34" s="17">
+      <c r="F34" s="17">
         <v>43090</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="G34" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="H34" s="16" t="s">
         <v>1247</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="I34" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="J34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="16">
+      <c r="K34" s="16">
         <v>16595</v>
       </c>
-      <c r="J34" s="16">
+      <c r="L34" s="16">
         <v>2461088</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="M34" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="N34" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>1169</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D35" s="16">
         <v>-14</v>
       </c>
-      <c r="C35" s="16">
+      <c r="E35" s="16">
         <v>14</v>
       </c>
-      <c r="D35" s="17">
+      <c r="F35" s="17">
         <v>45575</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="G35" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="H35" s="16" t="s">
         <v>1170</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="I35" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="H35" s="18">
+      <c r="J35" s="18">
         <v>69.989999999999995</v>
       </c>
-      <c r="I35" s="16">
+      <c r="K35" s="16">
         <v>8894</v>
       </c>
-      <c r="J35" s="16">
+      <c r="L35" s="16">
         <v>35758</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="M35" s="16" t="s">
         <v>1262</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="N35" s="16" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="16">
+      <c r="E36" s="16">
         <v>1</v>
       </c>
-      <c r="D36" s="17">
+      <c r="F36" s="17">
         <v>45267</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="G36" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="H36" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="I36" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="H36" s="18">
+      <c r="J36" s="18">
         <v>49.99</v>
       </c>
-      <c r="I36" s="16">
+      <c r="K36" s="16">
         <v>767</v>
       </c>
-      <c r="J36" s="16">
+      <c r="L36" s="16">
         <v>15220</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="M36" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="N36" s="16" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
         <v>150</v>
       </c>
-      <c r="D37" s="17">
+      <c r="F37" s="17">
         <v>44603</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="G37" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="H37" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="I37" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="J37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="16">
+      <c r="K37" s="16">
         <v>360</v>
       </c>
-      <c r="J37" s="16">
+      <c r="L37" s="16">
         <v>200992</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="M37" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="N37" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D38" s="16">
         <v>-5</v>
       </c>
-      <c r="C38" s="16">
+      <c r="E38" s="16">
         <v>7</v>
       </c>
-      <c r="D38" s="17">
+      <c r="F38" s="17">
         <v>44092</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="G38" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="H38" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="I38" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="H38" s="18">
+      <c r="J38" s="18">
         <v>19.989999999999998</v>
       </c>
-      <c r="I38" s="16">
+      <c r="K38" s="16">
         <v>7845</v>
       </c>
-      <c r="J38" s="16">
+      <c r="L38" s="16">
         <v>587358</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="M38" s="16" t="s">
         <v>1263</v>
       </c>
-      <c r="L38" s="16" t="s">
+      <c r="N38" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>1154</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D39" s="16">
         <v>-11</v>
       </c>
-      <c r="C39" s="16">
+      <c r="E39" s="16">
         <v>12</v>
       </c>
-      <c r="D39" s="17">
+      <c r="F39" s="17">
         <v>45593</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="G39" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="H39" s="16" t="s">
         <v>674</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="I39" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H39" s="18">
+      <c r="J39" s="18">
         <v>69.989999999999995</v>
       </c>
-      <c r="I39" s="16">
+      <c r="K39" s="16">
         <v>1882</v>
       </c>
-      <c r="J39" s="16">
+      <c r="L39" s="16">
         <v>7384</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="M39" s="16" t="s">
         <v>1246</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="N39" s="16" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>1306</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D40" s="16">
         <v>-8</v>
       </c>
-      <c r="C40" s="16">
+      <c r="E40" s="16">
         <v>6</v>
       </c>
-      <c r="D40" s="17">
+      <c r="F40" s="17">
         <v>44467</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="G40" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="H40" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="I40" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="H40" s="18">
+      <c r="J40" s="18">
         <v>79.989999999999995</v>
       </c>
-      <c r="I40" s="16">
+      <c r="K40" s="16">
         <v>2071</v>
       </c>
-      <c r="J40" s="16">
+      <c r="L40" s="16">
         <v>243235</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="M40" s="16" t="s">
         <v>1307</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="N40" s="16" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>1290</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D41" s="16">
         <v>-28</v>
       </c>
-      <c r="C41" s="16">
+      <c r="E41" s="16">
         <v>2</v>
       </c>
-      <c r="D41" s="17">
+      <c r="F41" s="17">
         <v>45048</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="G41" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="H41" s="16" t="s">
         <v>1291</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="I41" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H41" s="18">
+      <c r="J41" s="18">
         <v>49.99</v>
       </c>
-      <c r="I41" s="16">
+      <c r="K41" s="16">
         <v>383</v>
       </c>
-      <c r="J41" s="16">
+      <c r="L41" s="16">
         <v>11733</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="M41" s="16" t="s">
         <v>1292</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="N41" s="16" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>1244</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D42" s="16">
         <v>-20</v>
       </c>
-      <c r="C42" s="16">
+      <c r="E42" s="16">
         <v>231</v>
       </c>
-      <c r="D42" s="17">
+      <c r="F42" s="17">
         <v>41884</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="G42" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="H42" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="I42" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="J42" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="16">
+      <c r="K42" s="16">
         <v>2576</v>
       </c>
-      <c r="J42" s="16">
+      <c r="L42" s="16">
         <v>153827</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="M42" s="16" t="s">
         <v>1245</v>
       </c>
-      <c r="L42" s="16" t="s">
+      <c r="N42" s="16" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D43" s="16">
         <v>-5</v>
       </c>
-      <c r="C43" s="16">
+      <c r="E43" s="16">
         <v>20</v>
       </c>
-      <c r="D43" s="17">
+      <c r="F43" s="17">
         <v>41464</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="G43" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="H43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="I43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="J43" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="16">
+      <c r="K43" s="16">
         <v>22901</v>
       </c>
-      <c r="J43" s="16">
+      <c r="L43" s="16">
         <v>2357880</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="M43" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="N43" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D44" s="16">
         <v>2</v>
       </c>
-      <c r="C44" s="16">
+      <c r="E44" s="16">
         <v>514</v>
       </c>
-      <c r="D44" s="17">
+      <c r="F44" s="17">
         <v>42108</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="G44" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="H44" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="I44" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H44" s="18">
+      <c r="J44" s="18">
         <v>39.979999999999997</v>
       </c>
-      <c r="I44" s="16">
+      <c r="K44" s="16">
         <v>14927</v>
       </c>
-      <c r="J44" s="16">
+      <c r="L44" s="16">
         <v>1739571</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="M44" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="N44" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>1241</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D45" s="16">
         <v>2</v>
       </c>
-      <c r="C45" s="16">
+      <c r="E45" s="16">
         <v>513</v>
       </c>
-      <c r="D45" s="17">
+      <c r="F45" s="17">
         <v>41733</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="G45" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="H45" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="I45" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="H45" s="18">
+      <c r="J45" s="18">
         <v>19.989999999999998</v>
       </c>
-      <c r="I45" s="16">
+      <c r="K45" s="16">
         <v>483</v>
       </c>
-      <c r="J45" s="16">
+      <c r="L45" s="16">
         <v>123680</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="M45" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="N45" s="16" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D46" s="16">
         <v>11</v>
       </c>
-      <c r="C46" s="16">
+      <c r="E46" s="16">
         <v>241</v>
       </c>
-      <c r="D46" s="17">
+      <c r="F46" s="17">
         <v>43935</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="G46" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="H46" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="I46" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="H46" s="18">
+      <c r="J46" s="18">
         <v>39.99</v>
       </c>
-      <c r="I46" s="16">
+      <c r="K46" s="16">
         <v>718</v>
       </c>
-      <c r="J46" s="16">
+      <c r="L46" s="16">
         <v>62485</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="M46" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="N46" s="16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D47" s="16">
         <v>48</v>
       </c>
-      <c r="C47" s="16">
+      <c r="E47" s="16">
         <v>7</v>
       </c>
-      <c r="D47" s="17">
+      <c r="F47" s="17">
         <v>42879</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="G47" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="H47" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="I47" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="H47" s="18">
+      <c r="J47" s="18">
         <v>9.99</v>
       </c>
-      <c r="I47" s="16">
+      <c r="K47" s="16">
         <v>337</v>
       </c>
-      <c r="J47" s="16">
+      <c r="L47" s="16">
         <v>56939</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="M47" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="L47" s="16" t="s">
+      <c r="N47" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>1278</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D48" s="16">
         <v>-38</v>
       </c>
-      <c r="C48" s="16">
+      <c r="E48" s="16">
         <v>3</v>
       </c>
-      <c r="D48" s="17">
+      <c r="F48" s="17">
         <v>45602</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="G48" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="H48" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="I48" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="H48" s="18">
+      <c r="J48" s="18">
         <v>49.99</v>
       </c>
-      <c r="I48" s="16">
+      <c r="K48" s="16">
         <v>4221</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="M48" s="16" t="s">
         <v>1279</v>
       </c>
-      <c r="L48" s="16" t="s">
+      <c r="N48" s="16" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>1304</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D49" s="16">
         <v>-20</v>
       </c>
-      <c r="C49" s="16">
+      <c r="E49" s="16">
         <v>5</v>
       </c>
-      <c r="D49" s="17">
+      <c r="F49" s="17">
         <v>45586</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="G49" s="16" t="s">
         <v>1076</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="H49" s="16" t="s">
         <v>1295</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="I49" s="16" t="s">
         <v>1295</v>
       </c>
-      <c r="H49" s="18">
+      <c r="J49" s="18">
         <v>35</v>
       </c>
-      <c r="I49" s="16">
+      <c r="K49" s="16">
         <v>3987</v>
       </c>
-      <c r="L49" s="16" t="s">
+      <c r="N49" s="16" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>1231</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D50" s="16">
         <v>-1</v>
       </c>
-      <c r="C50" s="16">
+      <c r="E50" s="16">
         <v>470</v>
       </c>
-      <c r="D50" s="17">
+      <c r="F50" s="17">
         <v>42339</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="G50" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="H50" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="I50" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H50" s="18">
+      <c r="J50" s="18">
         <v>19.989999999999998</v>
       </c>
-      <c r="I50" s="16">
+      <c r="K50" s="16">
         <v>5302</v>
       </c>
-      <c r="J50" s="16">
+      <c r="L50" s="16">
         <v>1130723</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="M50" s="16" t="s">
         <v>1232</v>
       </c>
-      <c r="L50" s="16" t="s">
+      <c r="N50" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>1319</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D51" s="16">
         <v>-12</v>
       </c>
-      <c r="C51" s="16">
+      <c r="E51" s="16">
         <v>7</v>
       </c>
-      <c r="D51" s="17">
+      <c r="F51" s="17">
         <v>45567</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="G51" s="16" t="s">
         <v>1003</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="H51" s="16" t="s">
         <v>1320</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="I51" s="16" t="s">
         <v>1320</v>
       </c>
-      <c r="H51" s="18">
+      <c r="J51" s="18">
         <v>6.99</v>
       </c>
-      <c r="I51" s="16">
+      <c r="K51" s="16">
         <v>8613</v>
       </c>
-      <c r="J51" s="16">
+      <c r="L51" s="16">
         <v>14256</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="M51" s="16" t="s">
         <v>1321</v>
       </c>
-      <c r="L51" s="16" t="s">
+      <c r="N51" s="16" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D52" s="16">
         <v>6</v>
       </c>
-      <c r="C52" s="16">
+      <c r="E52" s="16">
         <v>51</v>
       </c>
-      <c r="D52" s="17">
+      <c r="F52" s="17">
         <v>44616</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="G52" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="H52" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="I52" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="H52" s="18">
+      <c r="J52" s="18">
         <v>59.99</v>
       </c>
-      <c r="I52" s="16">
+      <c r="K52" s="16">
         <v>5009</v>
       </c>
-      <c r="J52" s="16">
+      <c r="L52" s="16">
         <v>716568</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="M52" s="16" t="s">
         <v>1226</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="N52" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>1475</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D53" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="16">
+      <c r="E53" s="16">
         <v>1</v>
       </c>
-      <c r="D53" s="17">
+      <c r="F53" s="17">
         <v>45609</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="G53" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="H53" s="16" t="s">
         <v>1466</v>
       </c>
-      <c r="H53" s="18">
+      <c r="J53" s="18">
         <v>9.99</v>
       </c>
-      <c r="I53" s="16">
+      <c r="K53" s="16">
         <v>394</v>
       </c>
-      <c r="L53" s="16" t="s">
+      <c r="N53" s="16" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D54" s="16">
         <v>-30</v>
       </c>
-      <c r="C54" s="16">
+      <c r="E54" s="16">
         <v>19</v>
       </c>
-      <c r="D54" s="17">
+      <c r="F54" s="17">
         <v>44579</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="G54" s="16" t="s">
         <v>766</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="H54" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="I54" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="J54" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="16">
+      <c r="K54" s="16">
         <v>889</v>
       </c>
-      <c r="J54" s="16">
+      <c r="L54" s="16">
         <v>78459</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="M54" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="L54" s="16" t="s">
+      <c r="N54" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>1380</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D55" s="16">
         <v>13</v>
       </c>
-      <c r="C55" s="16">
+      <c r="E55" s="16">
         <v>5</v>
       </c>
-      <c r="D55" s="17">
+      <c r="F55" s="17">
         <v>45561</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="G55" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="H55" s="16" t="s">
         <v>1381</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="I55" s="16" t="s">
         <v>1382</v>
       </c>
-      <c r="H55" s="18">
+      <c r="J55" s="18">
         <v>12.99</v>
       </c>
-      <c r="I55" s="16">
+      <c r="K55" s="16">
         <v>6143</v>
       </c>
-      <c r="J55" s="16">
+      <c r="L55" s="16">
         <v>9385</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="M55" s="16" t="s">
         <v>1383</v>
       </c>
-      <c r="L55" s="16" t="s">
+      <c r="N55" s="16" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>927</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D56" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="16">
+      <c r="E56" s="16">
         <v>1</v>
       </c>
-      <c r="D56" s="17">
+      <c r="F56" s="17">
         <v>43913</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="G56" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="H56" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="I56" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="18">
+      <c r="J56" s="18">
         <v>59.99</v>
       </c>
-      <c r="I56" s="16">
+      <c r="K56" s="16">
         <v>645</v>
       </c>
-      <c r="J56" s="16">
+      <c r="L56" s="16">
         <v>80865</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="M56" s="16" t="s">
         <v>1477</v>
       </c>
-      <c r="L56" s="16" t="s">
+      <c r="N56" s="16" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>1334</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D57" s="16">
         <v>-17</v>
       </c>
-      <c r="C57" s="16">
+      <c r="E57" s="16">
         <v>8</v>
       </c>
-      <c r="D57" s="17">
+      <c r="F57" s="17">
         <v>45575</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="G57" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="H57" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="I57" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="H57" s="18">
+      <c r="J57" s="18">
         <v>69.989999999999995</v>
       </c>
-      <c r="I57" s="16">
+      <c r="K57" s="16">
         <v>5196</v>
       </c>
-      <c r="J57" s="16">
+      <c r="L57" s="16">
         <v>10089</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="M57" s="16" t="s">
         <v>1335</v>
       </c>
-      <c r="L57" s="16" t="s">
+      <c r="N57" s="16" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D58" s="16">
         <v>-6</v>
       </c>
-      <c r="C58" s="16">
+      <c r="E58" s="16">
         <v>2</v>
       </c>
-      <c r="D58" s="17">
+      <c r="F58" s="17">
         <v>43320</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="G58" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="H58" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="I58" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H58" s="18">
+      <c r="J58" s="18">
         <v>29.99</v>
       </c>
-      <c r="I58" s="16">
+      <c r="K58" s="16">
         <v>3607</v>
       </c>
-      <c r="J58" s="16">
+      <c r="L58" s="16">
         <v>282629</v>
       </c>
-      <c r="K58" s="16" t="s">
+      <c r="M58" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="L58" s="16" t="s">
+      <c r="N58" s="16" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>1337</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D59" s="16">
         <v>-15</v>
       </c>
-      <c r="C59" s="16">
+      <c r="E59" s="16">
         <v>10</v>
       </c>
-      <c r="D59" s="17">
+      <c r="F59" s="17">
         <v>45550</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="G59" s="16" t="s">
         <v>1338</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="H59" s="16" t="s">
         <v>1339</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="I59" s="16" t="s">
         <v>1339</v>
       </c>
-      <c r="H59" s="18">
+      <c r="J59" s="18">
         <v>12.99</v>
       </c>
-      <c r="I59" s="16">
+      <c r="K59" s="16">
         <v>7249</v>
       </c>
-      <c r="J59" s="16">
+      <c r="L59" s="16">
         <v>22581</v>
       </c>
-      <c r="K59" s="16" t="s">
+      <c r="M59" s="16" t="s">
         <v>1340</v>
       </c>
-      <c r="L59" s="16" t="s">
+      <c r="N59" s="16" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D60" s="16">
         <v>-45</v>
       </c>
-      <c r="C60" s="16">
+      <c r="E60" s="16">
         <v>76</v>
       </c>
-      <c r="D60" s="17">
+      <c r="F60" s="17">
         <v>44174</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="G60" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="H60" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="I60" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H60" s="18">
+      <c r="J60" s="18">
         <v>59.99</v>
       </c>
-      <c r="I60" s="16">
+      <c r="K60" s="16">
         <v>7001</v>
       </c>
-      <c r="J60" s="16">
+      <c r="L60" s="16">
         <v>692894</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="M60" s="16" t="s">
         <v>1249</v>
       </c>
-      <c r="L60" s="16" t="s">
+      <c r="N60" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>1370</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D61" s="16">
         <v>1</v>
       </c>
-      <c r="C61" s="16">
+      <c r="E61" s="16">
         <v>2</v>
       </c>
-      <c r="D61" s="17">
+      <c r="F61" s="17">
         <v>45099</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="G61" s="16" t="s">
         <v>1371</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="H61" s="16" t="s">
         <v>1372</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="I61" s="16" t="s">
         <v>1373</v>
       </c>
-      <c r="H61" s="18">
+      <c r="J61" s="18">
         <v>39.99</v>
       </c>
-      <c r="I61" s="16">
+      <c r="K61" s="16">
         <v>732</v>
       </c>
-      <c r="J61" s="16">
+      <c r="L61" s="16">
         <v>10150</v>
       </c>
-      <c r="K61" s="16" t="s">
+      <c r="M61" s="16" t="s">
         <v>1374</v>
       </c>
-      <c r="L61" s="16" t="s">
+      <c r="N61" s="16" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>1331</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D62" s="16">
         <v>-20</v>
       </c>
-      <c r="C62" s="16">
+      <c r="E62" s="16">
         <v>8</v>
       </c>
-      <c r="D62" s="17">
+      <c r="F62" s="17">
         <v>45715</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="G62" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="H62" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="I62" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H62" s="18">
+      <c r="J62" s="18">
         <v>69.989999999999995</v>
       </c>
-      <c r="K62" s="16" t="s">
+      <c r="M62" s="16" t="s">
         <v>1332</v>
       </c>
-      <c r="L62" s="16" t="s">
+      <c r="N62" s="16" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>936</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D63" s="16">
         <v>-33</v>
       </c>
-      <c r="C63" s="16">
+      <c r="E63" s="16">
         <v>2</v>
       </c>
-      <c r="D63" s="17">
+      <c r="F63" s="17">
         <v>44533</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="G63" s="16" t="s">
         <v>937</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="H63" s="16" t="s">
         <v>938</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="I63" s="16" t="s">
         <v>938</v>
       </c>
-      <c r="H63" s="18">
+      <c r="J63" s="18">
         <v>34.99</v>
       </c>
-      <c r="I63" s="16">
+      <c r="K63" s="16">
         <v>690</v>
       </c>
-      <c r="J63" s="16">
+      <c r="L63" s="16">
         <v>33408</v>
       </c>
-      <c r="K63" s="16" t="s">
+      <c r="M63" s="16" t="s">
         <v>939</v>
       </c>
-      <c r="L63" s="16" t="s">
+      <c r="N63" s="16" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D64" s="16">
+        <v>0</v>
+      </c>
+      <c r="E64" s="16">
         <v>20</v>
       </c>
-      <c r="D64" s="17">
+      <c r="F64" s="17">
         <v>39365</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="G64" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="H64" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="I64" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="J64" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I64" s="16">
+      <c r="K64" s="16">
         <v>5475</v>
       </c>
-      <c r="J64" s="16">
+      <c r="L64" s="16">
         <v>1124516</v>
       </c>
-      <c r="K64" s="16" t="s">
+      <c r="M64" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="L64" s="16" t="s">
+      <c r="N64" s="16" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>1478</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D65" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="16">
+      <c r="E65" s="16">
         <v>1</v>
       </c>
-      <c r="D65" s="17">
+      <c r="F65" s="17">
         <v>43167</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="G65" s="16" t="s">
         <v>1479</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="H65" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="I65" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="H65" s="18">
+      <c r="J65" s="18">
         <v>29.99</v>
       </c>
-      <c r="I65" s="16">
+      <c r="K65" s="16">
         <v>876</v>
       </c>
-      <c r="J65" s="16">
+      <c r="L65" s="16">
         <v>80157</v>
       </c>
-      <c r="K65" s="16" t="s">
+      <c r="M65" s="16" t="s">
         <v>1481</v>
       </c>
-      <c r="L65" s="16" t="s">
+      <c r="N65" s="16" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D66" s="16">
         <v>14</v>
       </c>
-      <c r="C66" s="16">
+      <c r="E66" s="16">
         <v>8</v>
       </c>
-      <c r="D66" s="17">
+      <c r="F66" s="17">
         <v>45267</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="G66" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="H66" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="I66" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="J66" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I66" s="16">
+      <c r="K66" s="16">
         <v>4811</v>
       </c>
-      <c r="J66" s="16">
+      <c r="L66" s="16">
         <v>192983</v>
       </c>
-      <c r="K66" s="16" t="s">
+      <c r="M66" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="L66" s="16" t="s">
+      <c r="N66" s="16" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D67" s="16">
         <v>6</v>
       </c>
-      <c r="C67" s="16">
+      <c r="E67" s="16">
         <v>20</v>
       </c>
-      <c r="D67" s="17">
+      <c r="F67" s="17">
         <v>45473</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="G67" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="H67" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="I67" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="J67" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I67" s="16">
+      <c r="K67" s="16">
         <v>2166</v>
       </c>
-      <c r="J67" s="16">
+      <c r="L67" s="16">
         <v>91277</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="M67" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L67" s="16" t="s">
+      <c r="N67" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D68" s="16">
         <v>32</v>
       </c>
-      <c r="C68" s="16">
+      <c r="E68" s="16">
         <v>2</v>
       </c>
-      <c r="D68" s="17">
+      <c r="F68" s="17">
         <v>42670</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="G68" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="H68" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="I68" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="H68" s="18">
+      <c r="J68" s="18">
         <v>39.99</v>
       </c>
-      <c r="I68" s="16">
+      <c r="K68" s="16">
         <v>1701</v>
       </c>
-      <c r="J68" s="16">
+      <c r="L68" s="16">
         <v>171041</v>
       </c>
-      <c r="K68" s="16" t="s">
+      <c r="M68" s="16" t="s">
         <v>908</v>
       </c>
-      <c r="L68" s="16" t="s">
+      <c r="N68" s="16" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="16">
+      <c r="E69" s="16">
         <v>1</v>
       </c>
-      <c r="D69" s="17">
+      <c r="F69" s="17">
         <v>44831</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="G69" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="H69" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="I69" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H69" s="18">
+      <c r="J69" s="18">
         <v>39.99</v>
       </c>
-      <c r="I69" s="16">
+      <c r="K69" s="16">
         <v>613</v>
       </c>
-      <c r="J69" s="16">
+      <c r="L69" s="16">
         <v>60256</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="M69" s="16" t="s">
         <v>1483</v>
       </c>
-      <c r="L69" s="16" t="s">
+      <c r="N69" s="16" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D70" s="16">
         <v>-10</v>
       </c>
-      <c r="C70" s="16">
+      <c r="E70" s="16">
         <v>2</v>
       </c>
-      <c r="D70" s="17">
+      <c r="F70" s="17">
         <v>45450</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="G70" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="H70" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="I70" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="H70" s="18">
+      <c r="J70" s="18">
         <v>33.32</v>
       </c>
-      <c r="I70" s="16">
+      <c r="K70" s="16">
         <v>1316</v>
       </c>
-      <c r="J70" s="16">
+      <c r="L70" s="16">
         <v>23709</v>
       </c>
-      <c r="K70" s="16" t="s">
+      <c r="M70" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="L70" s="16" t="s">
+      <c r="N70" s="16" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D71" s="16">
         <v>-17</v>
       </c>
-      <c r="C71" s="16">
+      <c r="E71" s="16">
         <v>7</v>
       </c>
-      <c r="D71" s="17">
+      <c r="F71" s="17">
         <v>42499</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="G71" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="H71" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="I71" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H71" s="18">
+      <c r="J71" s="18">
         <v>39.99</v>
       </c>
-      <c r="I71" s="16">
+      <c r="K71" s="16">
         <v>879</v>
       </c>
-      <c r="J71" s="16">
+      <c r="L71" s="16">
         <v>120777</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="M71" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="L71" s="16" t="s">
+      <c r="N71" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D72" s="16">
         <v>4</v>
       </c>
-      <c r="C72" s="16">
+      <c r="E72" s="16">
         <v>5</v>
       </c>
-      <c r="D72" s="17">
+      <c r="F72" s="17">
         <v>43447</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="G72" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="H72" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="I72" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="H72" s="18">
+      <c r="J72" s="18">
         <v>49.99</v>
       </c>
-      <c r="I72" s="16">
+      <c r="K72" s="16">
         <v>3234</v>
       </c>
-      <c r="J72" s="16">
+      <c r="L72" s="16">
         <v>337866</v>
       </c>
-      <c r="K72" s="16" t="s">
+      <c r="M72" s="16" t="s">
         <v>1418</v>
       </c>
-      <c r="L72" s="16" t="s">
+      <c r="N72" s="16" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>1346</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D73" s="16">
         <v>-20</v>
       </c>
-      <c r="C73" s="16">
+      <c r="E73" s="16">
         <v>6</v>
       </c>
-      <c r="D73" s="17">
+      <c r="F73" s="17">
         <v>45594</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="G73" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="H73" s="16" t="s">
         <v>1347</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="I73" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="18">
+      <c r="J73" s="18">
         <v>49.99</v>
       </c>
-      <c r="I73" s="16">
+      <c r="K73" s="16">
         <v>3665</v>
       </c>
-      <c r="K73" s="16" t="s">
+      <c r="M73" s="16" t="s">
         <v>1348</v>
       </c>
-      <c r="L73" s="16" t="s">
+      <c r="N73" s="16" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>1428</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D74" s="16">
         <v>9</v>
       </c>
-      <c r="C74" s="16">
+      <c r="E74" s="16">
         <v>11</v>
       </c>
-      <c r="D74" s="17">
+      <c r="F74" s="17">
         <v>45554</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="G74" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="H74" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="I74" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H74" s="18">
+      <c r="J74" s="18">
         <v>59.99</v>
       </c>
-      <c r="I74" s="16">
+      <c r="K74" s="16">
         <v>1833</v>
       </c>
-      <c r="J74" s="16">
+      <c r="L74" s="16">
         <v>10863</v>
       </c>
-      <c r="K74" s="16" t="s">
+      <c r="M74" s="16" t="s">
         <v>1429</v>
       </c>
-      <c r="L74" s="16" t="s">
+      <c r="N74" s="16" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D75" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="16">
+      <c r="E75" s="16">
         <v>1</v>
       </c>
-      <c r="D75" s="17">
+      <c r="F75" s="17">
         <v>43054</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="G75" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="H75" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="I75" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="J75" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I75" s="16">
+      <c r="K75" s="16">
         <v>775</v>
       </c>
-      <c r="J75" s="16">
+      <c r="L75" s="16">
         <v>143980</v>
       </c>
-      <c r="K75" s="16" t="s">
+      <c r="M75" s="16" t="s">
         <v>1264</v>
       </c>
-      <c r="L75" s="16" t="s">
+      <c r="N75" s="16" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D76" s="16">
         <v>13</v>
       </c>
-      <c r="C76" s="16">
+      <c r="E76" s="16">
         <v>16</v>
       </c>
-      <c r="D76" s="17">
+      <c r="F76" s="17">
         <v>45523</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="G76" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="H76" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="I76" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H76" s="18">
+      <c r="J76" s="18">
         <v>59.99</v>
       </c>
-      <c r="I76" s="16">
+      <c r="K76" s="16">
         <v>24570</v>
       </c>
-      <c r="J76" s="16">
+      <c r="L76" s="16">
         <v>729733</v>
       </c>
-      <c r="K76" s="16" t="s">
+      <c r="M76" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="L76" s="16" t="s">
+      <c r="N76" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D77" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="16">
+      <c r="E77" s="16">
         <v>1</v>
       </c>
-      <c r="D77" s="17">
+      <c r="F77" s="17">
         <v>41529</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="G77" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="H77" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="I77" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="H77" s="18">
+      <c r="J77" s="18">
         <v>29.99</v>
       </c>
-      <c r="I77" s="16">
+      <c r="K77" s="16">
         <v>1251</v>
       </c>
-      <c r="J77" s="16">
+      <c r="L77" s="16">
         <v>207899</v>
       </c>
-      <c r="K77" s="16" t="s">
+      <c r="M77" s="16" t="s">
         <v>1484</v>
       </c>
-      <c r="L77" s="16" t="s">
+      <c r="N77" s="16" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>1485</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D78" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="16">
+      <c r="E78" s="16">
         <v>1</v>
       </c>
-      <c r="D78" s="17">
+      <c r="F78" s="17">
         <v>45610</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="G78" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="H78" s="16" t="s">
         <v>1486</v>
       </c>
-      <c r="H78" s="18">
+      <c r="J78" s="18">
         <v>29.99</v>
       </c>
-      <c r="I78" s="16">
+      <c r="K78" s="16">
         <v>316</v>
       </c>
-      <c r="L78" s="16" t="s">
+      <c r="N78" s="16" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>1488</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D79" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="16">
+      <c r="E79" s="16">
         <v>1</v>
       </c>
-      <c r="D79" s="17">
+      <c r="F79" s="17">
         <v>45609</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="G79" s="16" t="s">
         <v>1489</v>
       </c>
-      <c r="F79" s="16" t="s">
+      <c r="H79" s="16" t="s">
         <v>1490</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="I79" s="16" t="s">
         <v>1491</v>
       </c>
-      <c r="H79" s="18">
+      <c r="J79" s="18">
         <v>9.99</v>
       </c>
-      <c r="I79" s="16">
+      <c r="K79" s="16">
         <v>492</v>
       </c>
-      <c r="K79" s="16" t="s">
+      <c r="M79" s="16" t="s">
         <v>1492</v>
       </c>
-      <c r="L79" s="16" t="s">
+      <c r="N79" s="16" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D80" s="16">
         <v>11</v>
       </c>
-      <c r="C80" s="16">
+      <c r="E80" s="16">
         <v>2</v>
       </c>
-      <c r="D80" s="17">
+      <c r="F80" s="17">
         <v>42426</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="G80" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="H80" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="I80" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H80" s="18">
+      <c r="J80" s="18">
         <v>14.99</v>
       </c>
-      <c r="I80" s="16">
+      <c r="K80" s="16">
         <v>11649</v>
       </c>
-      <c r="J80" s="16">
+      <c r="L80" s="16">
         <v>664230</v>
       </c>
-      <c r="K80" s="16" t="s">
+      <c r="M80" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="L80" s="16" t="s">
+      <c r="N80" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>1234</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D81" s="16">
         <v>13</v>
       </c>
-      <c r="C81" s="16">
+      <c r="E81" s="16">
         <v>15</v>
       </c>
-      <c r="D81" s="17">
+      <c r="F81" s="17">
         <v>45519</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="G81" s="16" t="s">
         <v>1016</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="H81" s="16" t="s">
         <v>1017</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="I81" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H81" s="18">
+      <c r="J81" s="18">
         <v>69.989999999999995</v>
       </c>
-      <c r="I81" s="16">
+      <c r="K81" s="16">
         <v>270</v>
       </c>
-      <c r="J81" s="16">
+      <c r="L81" s="16">
         <v>1500</v>
       </c>
-      <c r="K81" s="16" t="s">
+      <c r="M81" s="16" t="s">
         <v>1235</v>
       </c>
-      <c r="L81" s="16" t="s">
+      <c r="N81" s="16" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>1376</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D82" s="16">
         <v>-10</v>
       </c>
-      <c r="C82" s="16">
+      <c r="E82" s="16">
         <v>8</v>
       </c>
-      <c r="D82" s="17">
+      <c r="F82" s="17">
         <v>45572</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="G82" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="H82" s="16" t="s">
         <v>1377</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="I82" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H82" s="18">
+      <c r="J82" s="18">
         <v>69.989999999999995</v>
       </c>
-      <c r="I82" s="16">
+      <c r="K82" s="16">
         <v>4856</v>
       </c>
-      <c r="J82" s="16">
+      <c r="L82" s="16">
         <v>18420</v>
       </c>
-      <c r="K82" s="16" t="s">
+      <c r="M82" s="16" t="s">
         <v>1378</v>
       </c>
-      <c r="L82" s="16" t="s">
+      <c r="N82" s="16" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D83" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C83" s="16">
+      <c r="E83" s="16">
         <v>1</v>
       </c>
-      <c r="L83" s="16" t="s">
+      <c r="N83" s="16" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>895</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D84" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C84" s="16">
+      <c r="E84" s="16">
         <v>1</v>
       </c>
-      <c r="D84" s="17">
+      <c r="F84" s="17">
         <v>43903</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="G84" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="H84" s="16" t="s">
         <v>896</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="I84" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H84" s="18">
+      <c r="J84" s="18">
         <v>59.99</v>
       </c>
-      <c r="I84" s="16">
+      <c r="K84" s="16">
         <v>864</v>
       </c>
-      <c r="J84" s="16">
+      <c r="L84" s="16">
         <v>109209</v>
       </c>
-      <c r="K84" s="16" t="s">
+      <c r="M84" s="16" t="s">
         <v>897</v>
       </c>
-      <c r="L84" s="16" t="s">
+      <c r="N84" s="16" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>1494</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D85" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C85" s="16">
+      <c r="E85" s="16">
         <v>1</v>
       </c>
-      <c r="D85" s="17">
+      <c r="F85" s="17">
         <v>43256</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="G85" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="H85" s="16" t="s">
         <v>1495</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="I85" s="16" t="s">
         <v>1495</v>
       </c>
-      <c r="H85" s="18">
+      <c r="J85" s="18">
         <v>49.99</v>
       </c>
-      <c r="I85" s="16">
+      <c r="K85" s="16">
         <v>158</v>
       </c>
-      <c r="J85" s="16">
+      <c r="L85" s="16">
         <v>17667</v>
       </c>
-      <c r="K85" s="16" t="s">
+      <c r="M85" s="16" t="s">
         <v>1496</v>
       </c>
-      <c r="L85" s="16" t="s">
+      <c r="N85" s="16" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D86" s="16">
         <v>-7</v>
       </c>
-      <c r="C86" s="16">
+      <c r="E86" s="16">
         <v>10</v>
       </c>
-      <c r="D86" s="17">
+      <c r="F86" s="17">
         <v>45545</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="G86" s="16" t="s">
         <v>1423</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="H86" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="I86" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="H86" s="18">
+      <c r="J86" s="18">
         <v>39.99</v>
       </c>
-      <c r="I86" s="16">
+      <c r="K86" s="16">
         <v>4354</v>
       </c>
-      <c r="J86" s="16">
+      <c r="L86" s="16">
         <v>166963</v>
       </c>
-      <c r="K86" s="16" t="s">
+      <c r="M86" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="L86" s="16" t="s">
+      <c r="N86" s="16" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>1411</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D87" s="16">
         <v>-10</v>
       </c>
-      <c r="C87" s="16">
+      <c r="E87" s="16">
         <v>7</v>
       </c>
-      <c r="D87" s="17">
+      <c r="F87" s="17">
         <v>45566</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="G87" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="H87" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="H87" s="18">
+      <c r="J87" s="18">
         <v>99.99</v>
       </c>
-      <c r="I87" s="16">
+      <c r="K87" s="16">
         <v>46</v>
       </c>
-      <c r="J87" s="16">
+      <c r="L87" s="16">
         <v>178</v>
       </c>
-      <c r="L87" s="16" t="s">
+      <c r="N87" s="16" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>1342</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D88" s="16">
         <v>-33</v>
       </c>
-      <c r="C88" s="16">
+      <c r="E88" s="16">
         <v>4</v>
       </c>
-      <c r="D88" s="17">
+      <c r="F88" s="17">
         <v>45588</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="G88" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="H88" s="16" t="s">
         <v>1343</v>
       </c>
-      <c r="G88" s="16" t="s">
+      <c r="I88" s="16" t="s">
         <v>1343</v>
       </c>
-      <c r="H88" s="18">
+      <c r="J88" s="18">
         <v>29.99</v>
       </c>
-      <c r="I88" s="16">
+      <c r="K88" s="16">
         <v>2576</v>
       </c>
-      <c r="K88" s="16" t="s">
+      <c r="M88" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="L88" s="16" t="s">
+      <c r="N88" s="16" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D89" s="16">
         <v>9</v>
       </c>
-      <c r="C89" s="16">
+      <c r="E89" s="16">
         <v>7</v>
       </c>
-      <c r="D89" s="17">
+      <c r="F89" s="17">
         <v>43804</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="G89" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F89" s="16" t="s">
+      <c r="H89" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="16" t="s">
+      <c r="I89" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H89" s="18">
+      <c r="J89" s="18">
         <v>59.99</v>
       </c>
-      <c r="I89" s="16">
+      <c r="K89" s="16">
         <v>8846</v>
       </c>
-      <c r="J89" s="16">
+      <c r="L89" s="16">
         <v>585963</v>
       </c>
-      <c r="K89" s="16" t="s">
+      <c r="M89" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L89" s="16" t="s">
+      <c r="N89" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>1498</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D90" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="16">
+      <c r="E90" s="16">
         <v>1</v>
       </c>
-      <c r="D90" s="17">
+      <c r="F90" s="17">
         <v>44777</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="G90" s="16" t="s">
         <v>1499</v>
       </c>
-      <c r="F90" s="16" t="s">
+      <c r="H90" s="16" t="s">
         <v>1500</v>
       </c>
-      <c r="G90" s="16" t="s">
+      <c r="I90" s="16" t="s">
         <v>933</v>
       </c>
-      <c r="H90" s="18">
+      <c r="J90" s="18">
         <v>19.989999999999998</v>
       </c>
-      <c r="I90" s="16">
+      <c r="K90" s="16">
         <v>295</v>
       </c>
-      <c r="J90" s="16">
+      <c r="L90" s="16">
         <v>14344</v>
       </c>
-      <c r="K90" s="16" t="s">
+      <c r="M90" s="16" t="s">
         <v>1501</v>
       </c>
-      <c r="L90" s="16" t="s">
+      <c r="N90" s="16" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>694</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D91" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C91" s="16">
+      <c r="E91" s="16">
         <v>1</v>
       </c>
-      <c r="D91" s="17">
+      <c r="F91" s="17">
         <v>45224</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="G91" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="H91" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="G91" s="16" t="s">
+      <c r="I91" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="H91" s="18">
+      <c r="J91" s="18">
         <v>44.99</v>
       </c>
-      <c r="I91" s="16">
+      <c r="K91" s="16">
         <v>1342</v>
       </c>
-      <c r="J91" s="16">
+      <c r="L91" s="16">
         <v>57159</v>
       </c>
-      <c r="K91" s="16" t="s">
+      <c r="M91" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="L91" s="16" t="s">
+      <c r="N91" s="16" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>1229</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D92" s="16">
         <v>-5</v>
       </c>
-      <c r="C92" s="16">
+      <c r="E92" s="16">
         <v>8</v>
       </c>
-      <c r="D92" s="17">
+      <c r="F92" s="17">
         <v>45216</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="G92" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="H92" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="G92" s="16" t="s">
+      <c r="I92" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H92" s="18">
+      <c r="J92" s="18">
         <v>49.99</v>
       </c>
-      <c r="I92" s="16">
+      <c r="K92" s="16">
         <v>1344</v>
       </c>
-      <c r="J92" s="16">
+      <c r="L92" s="16">
         <v>27827</v>
       </c>
-      <c r="K92" s="16" t="s">
+      <c r="M92" s="16" t="s">
         <v>1230</v>
       </c>
-      <c r="L92" s="16" t="s">
+      <c r="N92" s="16" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D93" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C93" s="16">
+      <c r="E93" s="16">
         <v>1</v>
       </c>
-      <c r="D93" s="17">
+      <c r="F93" s="17">
         <v>42767</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="G93" s="16" t="s">
         <v>1503</v>
       </c>
-      <c r="F93" s="16" t="s">
+      <c r="H93" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="G93" s="16" t="s">
+      <c r="I93" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="H93" s="16" t="s">
+      <c r="J93" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I93" s="16">
+      <c r="K93" s="16">
         <v>2137</v>
       </c>
-      <c r="J93" s="16">
+      <c r="L93" s="16">
         <v>228024</v>
       </c>
-      <c r="K93" s="16" t="s">
+      <c r="M93" s="16" t="s">
         <v>661</v>
       </c>
-      <c r="L93" s="16" t="s">
+      <c r="N93" s="16" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D94" s="16">
         <v>-59</v>
       </c>
-      <c r="C94" s="16">
+      <c r="E94" s="16">
         <v>9</v>
       </c>
-      <c r="D94" s="17">
+      <c r="F94" s="17">
         <v>44075</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="G94" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="H94" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="G94" s="16" t="s">
+      <c r="I94" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H94" s="18">
+      <c r="J94" s="18">
         <v>49.99</v>
       </c>
-      <c r="I94" s="16">
+      <c r="K94" s="16">
         <v>879</v>
       </c>
-      <c r="J94" s="16">
+      <c r="L94" s="16">
         <v>74797</v>
       </c>
-      <c r="K94" s="16" t="s">
+      <c r="M94" s="16" t="s">
         <v>1314</v>
       </c>
-      <c r="L94" s="16" t="s">
+      <c r="N94" s="16" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>1144</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D95" s="16">
         <v>6</v>
       </c>
-      <c r="C95" s="16">
+      <c r="E95" s="16">
         <v>14</v>
       </c>
-      <c r="D95" s="17">
+      <c r="F95" s="17">
         <v>45495</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="G95" s="16" t="s">
         <v>1145</v>
       </c>
-      <c r="F95" s="16" t="s">
+      <c r="H95" s="16" t="s">
         <v>1146</v>
       </c>
-      <c r="G95" s="16" t="s">
+      <c r="I95" s="16" t="s">
         <v>1146</v>
       </c>
-      <c r="H95" s="18">
+      <c r="J95" s="18">
         <v>9.99</v>
       </c>
-      <c r="I95" s="16">
+      <c r="K95" s="16">
         <v>1054</v>
       </c>
-      <c r="J95" s="16">
+      <c r="L95" s="16">
         <v>5923</v>
       </c>
-      <c r="K95" s="16" t="s">
+      <c r="M95" s="16" t="s">
         <v>1147</v>
       </c>
-      <c r="L95" s="16" t="s">
+      <c r="N95" s="16" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D96" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C96" s="16">
+      <c r="E96" s="16">
         <v>1</v>
       </c>
-      <c r="D96" s="17">
+      <c r="F96" s="17">
         <v>45273</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="G96" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="H96" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="I96" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="H96" s="18">
+      <c r="J96" s="18">
         <v>49.99</v>
       </c>
-      <c r="I96" s="16">
+      <c r="K96" s="16">
         <v>2424</v>
       </c>
-      <c r="J96" s="16">
+      <c r="L96" s="16">
         <v>155412</v>
       </c>
-      <c r="K96" s="16" t="s">
+      <c r="M96" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="L96" s="16" t="s">
+      <c r="N96" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D97" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C97" s="16">
+      <c r="E97" s="16">
         <v>1</v>
       </c>
-      <c r="D97" s="17">
+      <c r="F97" s="17">
         <v>43390</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="G97" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="F97" s="16" t="s">
+      <c r="H97" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="G97" s="16" t="s">
+      <c r="I97" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="H97" s="18">
+      <c r="J97" s="18">
         <v>34.99</v>
       </c>
-      <c r="I97" s="16">
+      <c r="K97" s="16">
         <v>1377</v>
       </c>
-      <c r="J97" s="16">
+      <c r="L97" s="16">
         <v>166294</v>
       </c>
-      <c r="K97" s="16" t="s">
+      <c r="M97" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="L97" s="16" t="s">
+      <c r="N97" s="16" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>1033</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D98" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C98" s="16">
+      <c r="E98" s="16">
         <v>1</v>
       </c>
-      <c r="D98" s="17">
+      <c r="F98" s="17">
         <v>44573</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="G98" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F98" s="16" t="s">
+      <c r="H98" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="G98" s="16" t="s">
+      <c r="I98" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H98" s="18">
+      <c r="J98" s="18">
         <v>39.99</v>
       </c>
-      <c r="I98" s="16">
+      <c r="K98" s="16">
         <v>896</v>
       </c>
-      <c r="J98" s="16">
+      <c r="L98" s="16">
         <v>66382</v>
       </c>
-      <c r="K98" s="16" t="s">
+      <c r="M98" s="16" t="s">
         <v>1504</v>
       </c>
-      <c r="L98" s="16" t="s">
+      <c r="N98" s="16" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D99" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C99" s="16">
+      <c r="E99" s="16">
         <v>1</v>
       </c>
-      <c r="L99" s="16" t="s">
+      <c r="N99" s="16" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D100" s="16">
         <v>-1</v>
       </c>
-      <c r="C100" s="16">
+      <c r="E100" s="16">
         <v>27</v>
       </c>
-      <c r="D100" s="17">
+      <c r="F100" s="17">
         <v>42402</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="G100" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F100" s="16" t="s">
+      <c r="H100" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G100" s="16" t="s">
+      <c r="I100" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="H100" s="18">
+      <c r="J100" s="18">
         <v>19.989999999999998</v>
       </c>
-      <c r="I100" s="16">
+      <c r="K100" s="16">
         <v>1565</v>
       </c>
-      <c r="J100" s="16">
+      <c r="L100" s="16">
         <v>134013</v>
       </c>
-      <c r="K100" s="16" t="s">
+      <c r="M100" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="L100" s="16" t="s">
+      <c r="N100" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>1505</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D101" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C101" s="16">
+      <c r="E101" s="16">
         <v>1</v>
       </c>
-      <c r="D101" s="17">
+      <c r="F101" s="17">
         <v>43319</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="G101" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="F101" s="16" t="s">
+      <c r="H101" s="16" t="s">
         <v>1506</v>
       </c>
-      <c r="G101" s="16" t="s">
+      <c r="I101" s="16" t="s">
         <v>1028</v>
       </c>
-      <c r="H101" s="18">
+      <c r="J101" s="18">
         <v>24.99</v>
       </c>
-      <c r="I101" s="16">
+      <c r="K101" s="16">
         <v>627</v>
       </c>
-      <c r="J101" s="16">
+      <c r="L101" s="16">
         <v>48299</v>
       </c>
-      <c r="K101" s="16" t="s">
+      <c r="M101" s="16" t="s">
         <v>1507</v>
       </c>
-      <c r="L101" s="16" t="s">
+      <c r="N101" s="16" t="s">
         <v>1508</v>
       </c>
+    </row>
+    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23774,7 +24387,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23831,10 +24444,12 @@
         <v>1219</v>
       </c>
       <c r="B2" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N2,'2024-11-11'!N:N, 0)), "FALSE")</f>
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>1275</v>
+      <c r="C2" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N2,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D2" s="13">
         <v>0</v>
@@ -23872,10 +24487,12 @@
         <v>34</v>
       </c>
       <c r="B3" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N3,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>1275</v>
+      <c r="C3" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N3,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D3" s="13">
         <v>2</v>
@@ -23892,10 +24509,12 @@
         <v>596</v>
       </c>
       <c r="B4" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N4,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>1275</v>
+      <c r="C4" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N4,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D4" s="13">
         <v>0</v>
@@ -23936,10 +24555,12 @@
         <v>30</v>
       </c>
       <c r="B5" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N5,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>1275</v>
+      <c r="C5" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N5,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -23980,10 +24601,12 @@
         <v>1238</v>
       </c>
       <c r="B6" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N6,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>1275</v>
+      <c r="C6" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N6,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D6" s="13">
         <v>78</v>
@@ -24024,10 +24647,12 @@
         <v>53</v>
       </c>
       <c r="B7" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N7,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>1275</v>
+      <c r="C7" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N7,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D7" s="13">
         <v>14</v>
@@ -24068,10 +24693,12 @@
         <v>1276</v>
       </c>
       <c r="B8" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N8,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>1275</v>
+      <c r="C8" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N8,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D8" s="13">
         <v>-5</v>
@@ -24109,10 +24736,12 @@
         <v>1278</v>
       </c>
       <c r="B9" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N9,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>1275</v>
+      <c r="C9" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N9,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D9" s="13">
         <v>26</v>
@@ -24150,10 +24779,12 @@
         <v>12</v>
       </c>
       <c r="B10" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N10,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>1275</v>
+      <c r="C10" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N10,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D10" s="13" t="s">
         <v>117</v>
@@ -24194,10 +24825,12 @@
         <v>1281</v>
       </c>
       <c r="B11" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N11,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>1275</v>
+      <c r="C11" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N11,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D11" s="13">
         <v>36</v>
@@ -24235,10 +24868,12 @@
         <v>47</v>
       </c>
       <c r="B12" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N12,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>1275</v>
+      <c r="C12" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N12,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D12" s="13">
         <v>13</v>
@@ -24279,10 +24914,12 @@
         <v>1285</v>
       </c>
       <c r="B13" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N13,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>1275</v>
+      <c r="C13" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N13,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D13" s="13">
         <v>69</v>
@@ -24317,10 +24954,12 @@
         <v>71</v>
       </c>
       <c r="B14" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>1275</v>
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N14,'2024-11-11'!N:N, 0)), $B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N14,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D14" s="13">
         <v>-3</v>
@@ -24361,10 +25000,12 @@
         <v>94</v>
       </c>
       <c r="B15" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N15,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>1275</v>
+      <c r="C15" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N15,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D15" s="13">
         <v>-5</v>
@@ -24405,10 +25046,12 @@
         <v>133</v>
       </c>
       <c r="B16" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N16,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>1275</v>
+      <c r="C16" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N16,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D16" s="13">
         <v>1</v>
@@ -24449,10 +25092,12 @@
         <v>1290</v>
       </c>
       <c r="B17" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N17,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>1275</v>
+      <c r="C17" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N17,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D17" s="13" t="s">
         <v>117</v>
@@ -24493,10 +25138,12 @@
         <v>1242</v>
       </c>
       <c r="B18" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N18,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>1275</v>
+      <c r="C18" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N18,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D18" s="13">
         <v>-10</v>
@@ -24537,10 +25184,12 @@
         <v>1294</v>
       </c>
       <c r="B19" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N19,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>1275</v>
+      <c r="C19" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N19,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D19" s="13">
         <v>-7</v>
@@ -24581,10 +25230,12 @@
         <v>435</v>
       </c>
       <c r="B20" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N20,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>1275</v>
+      <c r="C20" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N20,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D20" s="13" t="s">
         <v>117</v>
@@ -24625,10 +25276,12 @@
         <v>1169</v>
       </c>
       <c r="B21" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N21,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>1275</v>
+      <c r="C21" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N21,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D21" s="13">
         <v>-8</v>
@@ -24669,10 +25322,12 @@
         <v>116</v>
       </c>
       <c r="B22" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N22,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>1275</v>
+      <c r="C22" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N22,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D22" s="13">
         <v>78</v>
@@ -24713,10 +25368,12 @@
         <v>138</v>
       </c>
       <c r="B23" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N23,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>1275</v>
+      <c r="C23" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N23,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D23" s="13">
         <v>-1</v>
@@ -24757,10 +25414,12 @@
         <v>1244</v>
       </c>
       <c r="B24" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N24,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>1275</v>
+      <c r="C24" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N24,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D24" s="13">
         <v>-10</v>
@@ -24801,10 +25460,12 @@
         <v>770</v>
       </c>
       <c r="B25" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N25,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>1275</v>
+      <c r="C25" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N25,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D25" s="13">
         <v>-5</v>
@@ -24845,10 +25506,12 @@
         <v>1154</v>
       </c>
       <c r="B26" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N26,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>1275</v>
+      <c r="C26" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N26,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D26" s="13">
         <v>-2</v>
@@ -24889,10 +25552,12 @@
         <v>76</v>
       </c>
       <c r="B27" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>1275</v>
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N27,'2024-11-11'!N:N, 0)), $B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N27,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D27" s="13">
         <v>-12</v>
@@ -24933,10 +25598,12 @@
         <v>1299</v>
       </c>
       <c r="B28" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N28,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>1275</v>
+      <c r="C28" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N28,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D28" s="13">
         <v>-2</v>
@@ -24977,10 +25644,12 @@
         <v>147</v>
       </c>
       <c r="B29" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N29,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>1275</v>
+      <c r="C29" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N29,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D29" s="13">
         <v>-10</v>
@@ -25021,10 +25690,12 @@
         <v>1304</v>
       </c>
       <c r="B30" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N30,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>1275</v>
+      <c r="C30" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N30,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D30" s="13">
         <v>-14</v>
@@ -25059,10 +25730,12 @@
         <v>1306</v>
       </c>
       <c r="B31" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N31,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>1275</v>
+      <c r="C31" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N31,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -25103,10 +25776,12 @@
         <v>220</v>
       </c>
       <c r="B32" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N32,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>1275</v>
+      <c r="C32" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N32,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D32" s="13">
         <v>-3</v>
@@ -25147,10 +25822,12 @@
         <v>18</v>
       </c>
       <c r="B33" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N33,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>1275</v>
+      <c r="C33" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N33,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D33" s="13">
         <v>55</v>
@@ -25191,10 +25868,12 @@
         <v>1309</v>
       </c>
       <c r="B34" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N34,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>1275</v>
+      <c r="C34" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N34,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D34" s="13" t="s">
         <v>117</v>
@@ -25235,10 +25914,12 @@
         <v>398</v>
       </c>
       <c r="B35" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N35,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>1275</v>
+      <c r="C35" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N35,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D35" s="13">
         <v>57</v>
@@ -25279,10 +25960,12 @@
         <v>1315</v>
       </c>
       <c r="B36" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N36,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>1275</v>
+      <c r="C36" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N36,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D36" s="13" t="s">
         <v>48</v>
@@ -25320,10 +26003,12 @@
         <v>293</v>
       </c>
       <c r="B37" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N37,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>1275</v>
+      <c r="C37" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N37,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D37" s="13">
         <v>-14</v>
@@ -25364,10 +26049,12 @@
         <v>1319</v>
       </c>
       <c r="B38" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N38,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>1275</v>
+      <c r="C38" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N38,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D38" s="13">
         <v>4</v>
@@ -25408,10 +26095,12 @@
         <v>1323</v>
       </c>
       <c r="B39" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N39,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>1275</v>
+      <c r="C39" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N39,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D39" s="13">
         <v>19</v>
@@ -25452,10 +26141,12 @@
         <v>1325</v>
       </c>
       <c r="B40" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N40,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>1275</v>
+      <c r="C40" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N40,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D40" s="13" t="s">
         <v>48</v>
@@ -25493,10 +26184,12 @@
         <v>936</v>
       </c>
       <c r="B41" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N41,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>1275</v>
+      <c r="C41" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N41,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D41" s="13" t="s">
         <v>117</v>
@@ -25537,10 +26230,12 @@
         <v>1331</v>
       </c>
       <c r="B42" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N42,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>1275</v>
+      <c r="C42" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N42,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D42" s="13">
         <v>-35</v>
@@ -25575,10 +26270,12 @@
         <v>1334</v>
       </c>
       <c r="B43" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N43,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>1275</v>
+      <c r="C43" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N43,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D43" s="13">
         <v>-3</v>
@@ -25619,10 +26316,12 @@
         <v>1231</v>
       </c>
       <c r="B44" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N44,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>1275</v>
+      <c r="C44" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N44,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D44" s="13">
         <v>18</v>
@@ -25663,10 +26362,12 @@
         <v>155</v>
       </c>
       <c r="B45" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N45,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>1275</v>
+      <c r="C45" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N45,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D45" s="13">
         <v>3</v>
@@ -25707,10 +26408,12 @@
         <v>232</v>
       </c>
       <c r="B46" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N46,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>1275</v>
+      <c r="C46" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N46,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D46" s="13">
         <v>-5</v>
@@ -25748,10 +26451,12 @@
         <v>589</v>
       </c>
       <c r="B47" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N47,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>1275</v>
+      <c r="C47" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N47,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D47" s="13">
         <v>29</v>
@@ -25792,10 +26497,12 @@
         <v>1337</v>
       </c>
       <c r="B48" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N48,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>1275</v>
+      <c r="C48" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N48,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D48" s="13">
         <v>-10</v>
@@ -25836,10 +26543,12 @@
         <v>1224</v>
       </c>
       <c r="B49" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N49,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>1275</v>
+      <c r="C49" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N49,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D49" s="13" t="s">
         <v>117</v>
@@ -25880,10 +26589,12 @@
         <v>1241</v>
       </c>
       <c r="B50" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N50,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>1275</v>
+      <c r="C50" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N50,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D50" s="13">
         <v>5</v>
@@ -25924,10 +26635,12 @@
         <v>80</v>
       </c>
       <c r="B51" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N51,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>1275</v>
+      <c r="C51" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N51,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D51" s="13">
         <v>15</v>
@@ -25968,10 +26681,12 @@
         <v>358</v>
       </c>
       <c r="B52" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N52,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>1275</v>
+      <c r="C52" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N52,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D52" s="13">
         <v>-34</v>
@@ -26012,10 +26727,12 @@
         <v>1342</v>
       </c>
       <c r="B53" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N53,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>1275</v>
+      <c r="C53" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N53,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D53" s="13">
         <v>-22</v>
@@ -26053,10 +26770,12 @@
         <v>1346</v>
       </c>
       <c r="B54" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N54,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>1275</v>
+      <c r="C54" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N54,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D54" s="13">
         <v>-45</v>
@@ -26094,10 +26813,12 @@
         <v>379</v>
       </c>
       <c r="B55" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N55,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>1275</v>
+      <c r="C55" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N55,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D55" s="13" t="s">
         <v>117</v>
@@ -26138,10 +26859,12 @@
         <v>201</v>
       </c>
       <c r="B56" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N56,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>1275</v>
+      <c r="C56" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N56,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D56" s="13">
         <v>7</v>
@@ -26182,10 +26905,12 @@
         <v>302</v>
       </c>
       <c r="B57" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N57,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>1275</v>
+      <c r="C57" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N57,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D57" s="13" t="s">
         <v>117</v>
@@ -26226,10 +26951,12 @@
         <v>311</v>
       </c>
       <c r="B58" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N58,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>1275</v>
+      <c r="C58" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N58,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D58" s="13">
         <v>-2</v>
@@ -26270,10 +26997,12 @@
         <v>1350</v>
       </c>
       <c r="B59" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N59,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>1275</v>
+      <c r="C59" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N59,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D59" s="13" t="s">
         <v>117</v>
@@ -26314,10 +27043,12 @@
         <v>390</v>
       </c>
       <c r="B60" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N60,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>1275</v>
+      <c r="C60" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N60,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D60" s="13" t="s">
         <v>117</v>
@@ -26358,10 +27089,12 @@
         <v>1354</v>
       </c>
       <c r="B61" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N61,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>1275</v>
+      <c r="C61" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N61,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D61" s="13" t="s">
         <v>48</v>
@@ -26399,10 +27132,12 @@
         <v>36</v>
       </c>
       <c r="B62" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N62,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>1275</v>
+      <c r="C62" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N62,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D62" s="13">
         <v>5</v>
@@ -26443,10 +27178,12 @@
         <v>1360</v>
       </c>
       <c r="B63" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N63,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>1275</v>
+      <c r="C63" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N63,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D63" s="13" t="s">
         <v>117</v>
@@ -26487,10 +27224,12 @@
         <v>1363</v>
       </c>
       <c r="B64" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N64,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>1275</v>
+      <c r="C64" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N64,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D64" s="13">
         <v>-4</v>
@@ -26531,10 +27270,12 @@
         <v>767</v>
       </c>
       <c r="B65" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N65,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>1275</v>
+      <c r="C65" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N65,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D65" s="13">
         <v>-37</v>
@@ -26575,10 +27316,12 @@
         <v>1367</v>
       </c>
       <c r="B66" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N66,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>1275</v>
+      <c r="C66" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N66,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D66" s="13">
         <v>-1</v>
@@ -26619,10 +27362,12 @@
         <v>1239</v>
       </c>
       <c r="B67" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N67,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>1275</v>
+      <c r="C67" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N67,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D67" s="13">
         <v>-10</v>
@@ -26663,10 +27408,12 @@
         <v>1370</v>
       </c>
       <c r="B68" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N68,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>1275</v>
+      <c r="C68" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N68,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D68" s="13" t="s">
         <v>117</v>
@@ -26707,10 +27454,12 @@
         <v>23</v>
       </c>
       <c r="B69" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N69,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>1275</v>
+      <c r="C69" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N69,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D69" s="13">
         <v>-8</v>
@@ -26751,10 +27500,12 @@
         <v>1376</v>
       </c>
       <c r="B70" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N70,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>1275</v>
+      <c r="C70" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N70,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D70" s="13">
         <v>-24</v>
@@ -26795,10 +27546,12 @@
         <v>1380</v>
       </c>
       <c r="B71" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N71,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>1275</v>
+      <c r="C71" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N71,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D71" s="13">
         <v>6</v>
@@ -26839,10 +27592,12 @@
         <v>1385</v>
       </c>
       <c r="B72" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N72,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>1275</v>
+      <c r="C72" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N72,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D72" s="13" t="s">
         <v>48</v>
@@ -26880,10 +27635,12 @@
         <v>1390</v>
       </c>
       <c r="B73" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N73,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>1275</v>
+      <c r="C73" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N73,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D73" s="13" t="s">
         <v>117</v>
@@ -26924,10 +27681,12 @@
         <v>1395</v>
       </c>
       <c r="B74" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N74,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>1275</v>
+      <c r="C74" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N74,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D74" s="13" t="s">
         <v>117</v>
@@ -26962,10 +27721,12 @@
         <v>1398</v>
       </c>
       <c r="B75" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N75,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>1275</v>
+      <c r="C75" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N75,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D75" s="13" t="s">
         <v>48</v>
@@ -27003,10 +27764,12 @@
         <v>1403</v>
       </c>
       <c r="B76" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N76,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>1275</v>
+      <c r="C76" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N76,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D76" s="13" t="s">
         <v>48</v>
@@ -27044,10 +27807,12 @@
         <v>1233</v>
       </c>
       <c r="B77" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N77,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>1275</v>
+      <c r="C77" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N77,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D77" s="13">
         <v>-5</v>
@@ -27088,10 +27853,12 @@
         <v>605</v>
       </c>
       <c r="B78" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N78,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>1275</v>
+      <c r="C78" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N78,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D78" s="13">
         <v>-10</v>
@@ -27132,10 +27899,12 @@
         <v>1407</v>
       </c>
       <c r="B79" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N79,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>1275</v>
+      <c r="C79" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N79,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D79" s="13" t="s">
         <v>48</v>
@@ -27173,10 +27942,12 @@
         <v>1411</v>
       </c>
       <c r="B80" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N80,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>1275</v>
+      <c r="C80" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N80,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D80" s="13">
         <v>-26</v>
@@ -27211,10 +27982,12 @@
         <v>1413</v>
       </c>
       <c r="B81" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N81,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>1275</v>
+      <c r="C81" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N81,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D81" s="13" t="s">
         <v>48</v>
@@ -27252,10 +28025,12 @@
         <v>540</v>
       </c>
       <c r="B82" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N82,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>1275</v>
+      <c r="C82" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N82,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D82" s="13">
         <v>-43</v>
@@ -27296,10 +28071,12 @@
         <v>1419</v>
       </c>
       <c r="B83" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N83,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>1275</v>
+      <c r="C83" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N83,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D83" s="13" t="s">
         <v>117</v>
@@ -27340,10 +28117,12 @@
         <v>429</v>
       </c>
       <c r="B84" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N84,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>1275</v>
+      <c r="C84" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N84,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D84" s="13">
         <v>3</v>
@@ -27384,10 +28163,12 @@
         <v>1229</v>
       </c>
       <c r="B85" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>1275</v>
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N85,'2024-11-11'!N:N, 0)), $B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C85" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N85,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D85" s="13">
         <v>14</v>
@@ -27428,10 +28209,12 @@
         <v>1424</v>
       </c>
       <c r="B86" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N86,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>1275</v>
+      <c r="C86" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N86,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D86" s="13" t="s">
         <v>117</v>
@@ -27472,10 +28255,12 @@
         <v>258</v>
       </c>
       <c r="B87" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>1275</v>
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N87,'2024-11-11'!N:N, 0)), $B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C87" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N87,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D87" s="13">
         <v>4</v>
@@ -27516,10 +28301,12 @@
         <v>1428</v>
       </c>
       <c r="B88" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N88,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C88" s="13" t="s">
-        <v>1275</v>
+      <c r="C88" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N88,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D88" s="13">
         <v>2</v>
@@ -27560,10 +28347,12 @@
         <v>1431</v>
       </c>
       <c r="B89" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N89,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C89" s="13" t="s">
-        <v>1275</v>
+      <c r="C89" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N89,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D89" s="13">
         <v>-16</v>
@@ -27604,10 +28393,12 @@
         <v>1436</v>
       </c>
       <c r="B90" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N90,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C90" s="13" t="s">
-        <v>1275</v>
+      <c r="C90" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N90,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D90" s="13">
         <v>-38</v>
@@ -27645,10 +28436,12 @@
         <v>1234</v>
       </c>
       <c r="B91" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N91,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C91" s="13" t="s">
-        <v>1275</v>
+      <c r="C91" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N91,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D91" s="13">
         <v>7</v>
@@ -27689,10 +28482,12 @@
         <v>86</v>
       </c>
       <c r="B92" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N92,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>1275</v>
+      <c r="C92" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N92,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D92" s="13">
         <v>9</v>
@@ -27733,10 +28528,12 @@
         <v>344</v>
       </c>
       <c r="B93" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N93,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>1275</v>
+      <c r="C93" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N93,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D93" s="13" t="s">
         <v>117</v>
@@ -27777,10 +28574,12 @@
         <v>1440</v>
       </c>
       <c r="B94" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N94,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>1275</v>
+      <c r="C94" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N94,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D94" s="13">
         <v>-45</v>
@@ -27818,10 +28617,12 @@
         <v>1444</v>
       </c>
       <c r="B95" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N95,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C95" s="13" t="s">
-        <v>1275</v>
+      <c r="C95" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N95,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D95" s="13" t="s">
         <v>117</v>
@@ -27862,10 +28663,12 @@
         <v>128</v>
       </c>
       <c r="B96" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N96,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>1275</v>
+      <c r="C96" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N96,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D96" s="13" t="s">
         <v>117</v>
@@ -27906,10 +28709,12 @@
         <v>1447</v>
       </c>
       <c r="B97" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N97,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>1275</v>
+      <c r="C97" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N97,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D97" s="13" t="s">
         <v>117</v>
@@ -27950,10 +28755,12 @@
         <v>91</v>
       </c>
       <c r="B98" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N98,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>1275</v>
+      <c r="C98" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N98,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D98" s="13">
         <v>-61</v>
@@ -27994,10 +28801,12 @@
         <v>620</v>
       </c>
       <c r="B99" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N99,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>1275</v>
+      <c r="C99" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N99,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D99" s="13">
         <v>-40</v>
@@ -28038,10 +28847,12 @@
         <v>1450</v>
       </c>
       <c r="B100" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N100,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C100" s="13" t="s">
-        <v>1275</v>
+      <c r="C100" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N100,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D100" s="13">
         <v>-70</v>
@@ -28082,10 +28893,12 @@
         <v>1144</v>
       </c>
       <c r="B101" s="13" t="b">
+        <f>IFERROR(INDEX('2024-11-11'!B:B,MATCH(N101,'2024-11-11'!N:N, 0)), $B$2)</f>
         <v>0</v>
       </c>
-      <c r="C101" s="13" t="s">
-        <v>1275</v>
+      <c r="C101" s="13" t="str">
+        <f>IFERROR(INDEX('2024-11-11'!C:C,MATCH(N101,'2024-11-11'!N:N, 0)),"")</f>
+        <v/>
       </c>
       <c r="D101" s="13">
         <v>-7</v>
@@ -28130,8 +28943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EB76F0-BF80-49F1-8D3E-2F4B2C0F0C0B}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/total_steam_titles.xlsx
+++ b/data/total_steam_titles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theal\MakersFund\Roblox_Steam\steam-roblox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D717E189-4812-494F-A188-B4688130285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53085B11-9E0C-46F3-8D89-BB3570075802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{91033176-3A50-8A43-8B19-6289EA40BB69}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9229" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9228" uniqueCount="1576">
   <si>
     <t>Game</t>
   </si>
@@ -4584,9 +4584,6 @@
   </si>
   <si>
     <t>Path of Exile 2</t>
-  </si>
-  <si>
-    <t>Coming soon</t>
   </si>
   <si>
     <t>Action, Adventure, Massively Multiplayer, RPG, Early Access</t>
@@ -5232,13 +5229,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9384011B-6601-4C93-ACF8-BF29BC2BF1FA}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5555,11 +5553,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1">
+        <v>45623</v>
+      </c>
+      <c r="G9" t="s">
         <v>1510</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1511</v>
       </c>
       <c r="H9" t="s">
         <v>602</v>
@@ -5571,10 +5569,10 @@
         <v>29.99</v>
       </c>
       <c r="M9" t="s">
+        <v>1511</v>
+      </c>
+      <c r="N9" t="s">
         <v>1512</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -5740,7 +5738,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -5758,7 +5756,7 @@
         <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="I14" t="s">
         <v>125</v>
@@ -5770,10 +5768,10 @@
         <v>546</v>
       </c>
       <c r="M14" t="s">
+        <v>1515</v>
+      </c>
+      <c r="N14" t="s">
         <v>1516</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -5819,7 +5817,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -5834,13 +5832,13 @@
         <v>45618</v>
       </c>
       <c r="G16" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H16" t="s">
         <v>1519</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>1520</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1521</v>
       </c>
       <c r="J16" s="2">
         <v>9.99</v>
@@ -5849,10 +5847,10 @@
         <v>2314</v>
       </c>
       <c r="M16" t="s">
+        <v>1521</v>
+      </c>
+      <c r="N16" t="s">
         <v>1522</v>
-      </c>
-      <c r="N16" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -6062,7 +6060,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -6077,13 +6075,13 @@
         <v>45616</v>
       </c>
       <c r="G22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H22" t="s">
         <v>1525</v>
       </c>
-      <c r="H22" t="s">
-        <v>1526</v>
-      </c>
       <c r="I22" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
@@ -6092,10 +6090,10 @@
         <v>5507</v>
       </c>
       <c r="M22" t="s">
+        <v>1526</v>
+      </c>
+      <c r="N22" t="s">
         <v>1527</v>
-      </c>
-      <c r="N22" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -6141,7 +6139,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -6156,13 +6154,13 @@
         <v>45617</v>
       </c>
       <c r="G24" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H24" t="s">
         <v>1530</v>
       </c>
-      <c r="H24" t="s">
-        <v>1531</v>
-      </c>
       <c r="I24" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -6171,15 +6169,15 @@
         <v>7283</v>
       </c>
       <c r="M24" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N24" t="s">
         <v>1532</v>
-      </c>
-      <c r="N24" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -6197,10 +6195,10 @@
         <v>861</v>
       </c>
       <c r="H25" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="I25" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="J25" s="2">
         <v>19.989999999999998</v>
@@ -6209,15 +6207,15 @@
         <v>2208</v>
       </c>
       <c r="M25" t="s">
+        <v>1535</v>
+      </c>
+      <c r="N25" t="s">
         <v>1536</v>
       </c>
-      <c r="N25" t="s">
+    </row>
+    <row r="26" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>1537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>1538</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -6357,7 +6355,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -6372,10 +6370,10 @@
         <v>45342</v>
       </c>
       <c r="G30" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H30" t="s">
         <v>1540</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1541</v>
       </c>
       <c r="I30" t="s">
         <v>962</v>
@@ -6390,10 +6388,10 @@
         <v>47732</v>
       </c>
       <c r="M30" t="s">
+        <v>1541</v>
+      </c>
+      <c r="N30" t="s">
         <v>1542</v>
-      </c>
-      <c r="N30" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -7540,7 +7538,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B59" t="b">
         <v>0</v>
@@ -7555,13 +7553,13 @@
         <v>45615</v>
       </c>
       <c r="G59" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H59" t="s">
         <v>1545</v>
       </c>
-      <c r="H59" t="s">
-        <v>1546</v>
-      </c>
       <c r="I59" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="J59" s="2">
         <v>29.99</v>
@@ -7570,10 +7568,10 @@
         <v>1009</v>
       </c>
       <c r="M59" t="s">
+        <v>1546</v>
+      </c>
+      <c r="N59" t="s">
         <v>1547</v>
-      </c>
-      <c r="N59" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -7660,7 +7658,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B62" t="b">
         <v>0</v>
@@ -7678,10 +7676,10 @@
         <v>81</v>
       </c>
       <c r="H62" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="I62" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="J62" s="2">
         <v>39.99</v>
@@ -7693,10 +7691,10 @@
         <v>118588</v>
       </c>
       <c r="M62" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N62" t="s">
         <v>1551</v>
-      </c>
-      <c r="N62" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -7739,7 +7737,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -7754,13 +7752,13 @@
         <v>44832</v>
       </c>
       <c r="G64" t="s">
+        <v>1553</v>
+      </c>
+      <c r="H64" t="s">
         <v>1554</v>
       </c>
-      <c r="H64" t="s">
-        <v>1555</v>
-      </c>
       <c r="I64" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="J64" s="2">
         <v>29.99</v>
@@ -7772,15 +7770,15 @@
         <v>34954</v>
       </c>
       <c r="M64" t="s">
+        <v>1555</v>
+      </c>
+      <c r="N64" t="s">
         <v>1556</v>
-      </c>
-      <c r="N64" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B65" t="b">
         <v>0</v>
@@ -7798,10 +7796,10 @@
         <v>196</v>
       </c>
       <c r="H65" t="s">
+        <v>1558</v>
+      </c>
+      <c r="I65" t="s">
         <v>1559</v>
-      </c>
-      <c r="I65" t="s">
-        <v>1560</v>
       </c>
       <c r="J65" s="2">
         <v>29.99</v>
@@ -7810,15 +7808,15 @@
         <v>291</v>
       </c>
       <c r="M65" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N65" t="s">
         <v>1561</v>
-      </c>
-      <c r="N65" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B66" t="b">
         <v>0</v>
@@ -7851,10 +7849,10 @@
         <v>31907</v>
       </c>
       <c r="M66" t="s">
+        <v>1563</v>
+      </c>
+      <c r="N66" t="s">
         <v>1564</v>
-      </c>
-      <c r="N66" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -8143,7 +8141,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B74" t="b">
         <v>0</v>
@@ -8173,7 +8171,7 @@
         <v>124</v>
       </c>
       <c r="N74" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -8260,7 +8258,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B77" t="b">
         <v>0</v>
@@ -8293,7 +8291,7 @@
         <v>38745</v>
       </c>
       <c r="M77" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="N77" t="s">
         <v>829</v>
@@ -8661,7 +8659,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B87" t="b">
         <v>1</v>
@@ -8694,10 +8692,10 @@
         <v>84011</v>
       </c>
       <c r="M87" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N87" t="s">
         <v>1571</v>
-      </c>
-      <c r="N87" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -8855,7 +8853,7 @@
         <v>2847</v>
       </c>
       <c r="M91" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="N91" t="s">
         <v>653</v>
@@ -8898,7 +8896,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B93" t="b">
         <v>0</v>
@@ -8910,7 +8908,7 @@
         <v>2</v>
       </c>
       <c r="N93" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -8995,7 +8993,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>614</v>
       </c>
@@ -33100,10 +33098,10 @@
     <row r="102" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="20"/>
       <c r="O102" s="21" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="P102" s="21" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
   </sheetData>
